--- a/solve_list/list_name.xlsx
+++ b/solve_list/list_name.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\quaysotrungthuong\solve_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D5AB78-998F-4F01-BC92-47B63F1FABDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6851B33F-08C5-40FE-BF63-567377F07428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{1C648A08-575F-49B4-B556-F4C0E3E20F77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="1836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="1807">
   <si>
     <t>13010084</t>
   </si>
@@ -4235,12 +4235,6 @@
     <t>Phạm Thị Hương</t>
   </si>
   <si>
-    <t>Tạ Nam Huân</t>
-  </si>
-  <si>
-    <t>Lê Văn Viện</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Chí</t>
   </si>
   <si>
@@ -4283,9 +4277,6 @@
     <t>Cao Xuân Hùng</t>
   </si>
   <si>
-    <t>Trần Thị Tịnh</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Thu Hoài</t>
   </si>
   <si>
@@ -4301,15 +4292,6 @@
     <t>Nguyễn Ngọc Quý</t>
   </si>
   <si>
-    <t>Bùi gia Thăng</t>
-  </si>
-  <si>
-    <t>Đặng thị Dần</t>
-  </si>
-  <si>
-    <t>Pham văn Thích</t>
-  </si>
-  <si>
     <t>Nam Hải</t>
   </si>
   <si>
@@ -4355,12 +4337,6 @@
     <t>Thượng Hiền</t>
   </si>
   <si>
-    <t>Hồng thái</t>
-  </si>
-  <si>
-    <t>Lê Lợi</t>
-  </si>
-  <si>
     <t>Bình Minh</t>
   </si>
   <si>
@@ -4394,15 +4370,6 @@
     <t>Bắc Hải</t>
   </si>
   <si>
-    <t xml:space="preserve">Lê lợi </t>
-  </si>
-  <si>
-    <t>Thanh Nê</t>
-  </si>
-  <si>
-    <t>Tiền hải</t>
-  </si>
-  <si>
     <t>Bùi xuân Lượng</t>
   </si>
   <si>
@@ -4517,12 +4484,6 @@
     <t>Nguyễn thị Bình</t>
   </si>
   <si>
-    <t>Trần công Cường</t>
-  </si>
-  <si>
-    <t>Hoàng ngọc Thuần</t>
-  </si>
-  <si>
     <t>Đông La</t>
   </si>
   <si>
@@ -4589,18 +4550,6 @@
     <t xml:space="preserve">Trơ phá </t>
   </si>
   <si>
-    <t>TT Đông Hưng</t>
-  </si>
-  <si>
-    <t>Bùi Văn Quyền</t>
-  </si>
-  <si>
-    <t>Bùi Văn Thiện</t>
-  </si>
-  <si>
-    <t>Thị trấn Đông Hưng</t>
-  </si>
-  <si>
     <t>Lê Sỹ Tô</t>
   </si>
   <si>
@@ -4757,12 +4706,6 @@
     <t>Hoàng Văn Út</t>
   </si>
   <si>
-    <t>Hà Văn Hài</t>
-  </si>
-  <si>
-    <t>Hà Minh Huyền</t>
-  </si>
-  <si>
     <t>Tân Tiến</t>
   </si>
   <si>
@@ -4811,9 +4754,6 @@
     <t>Phạm quang Hoạt</t>
   </si>
   <si>
-    <t>Nguyễn thị Đang</t>
-  </si>
-  <si>
     <t>Phạm đức Mậm</t>
   </si>
   <si>
@@ -4871,9 +4811,6 @@
     <t>Châu Sơn</t>
   </si>
   <si>
-    <t>Lâm thị Quyên (Đoàn hồng Hải)</t>
-  </si>
-  <si>
     <t>Lê văn Bừng</t>
   </si>
   <si>
@@ -4949,12 +4886,6 @@
     <t>Nguyễn đức Dũng</t>
   </si>
   <si>
-    <t>Mai thế Ngoan</t>
-  </si>
-  <si>
-    <t>Mai thanh Toàn</t>
-  </si>
-  <si>
     <t>Quỳnh Nguyên</t>
   </si>
   <si>
@@ -5012,9 +4943,6 @@
     <t>KHÚC VĂN CHUNG</t>
   </si>
   <si>
-    <t>TRẦN THỊ THÚY (MINH)</t>
-  </si>
-  <si>
     <t>VŨ QUANG SÓNG</t>
   </si>
   <si>
@@ -5048,24 +4976,9 @@
     <t>VŨ THỊ NGA</t>
   </si>
   <si>
-    <t>NGUYỄN THỊ LIÊN</t>
-  </si>
-  <si>
-    <t>TRẦN VĂN TRIỆU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGUYỄN THỊ HẢI </t>
-  </si>
-  <si>
     <t>Tân Hòa</t>
   </si>
   <si>
-    <t xml:space="preserve"> Tiến Đức</t>
-  </si>
-  <si>
-    <t>Đồng Tu</t>
-  </si>
-  <si>
     <t>TT Hưng Nhân</t>
   </si>
   <si>
@@ -5078,9 +4991,6 @@
     <t>Cộng Hòa</t>
   </si>
   <si>
-    <t xml:space="preserve"> TT Hưng Nhân</t>
-  </si>
-  <si>
     <t>Tân Lễ</t>
   </si>
   <si>
@@ -5465,12 +5375,6 @@
     <t>Vũ thị Chè</t>
   </si>
   <si>
-    <t>Trần danh Đảm</t>
-  </si>
-  <si>
-    <t>Mai Quý Toản</t>
-  </si>
-  <si>
     <t>Thái Nguyên</t>
   </si>
   <si>
@@ -5535,6 +5439,15 @@
   </si>
   <si>
     <t>Thụy Dân</t>
+  </si>
+  <si>
+    <t>Nguyễn bá Hiếu</t>
+  </si>
+  <si>
+    <t>Dương công Động</t>
+  </si>
+  <si>
+    <t>Quỳnh Trang</t>
   </si>
 </sst>
 </file>
@@ -5545,7 +5458,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5587,19 +5500,26 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5610,6 +5530,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
   </fills>
@@ -5667,7 +5593,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5684,13 +5610,17 @@
     </xf>
     <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -11462,9 +11392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DC98AD-2543-4F33-BF45-E56C3F04D700}">
   <dimension ref="A1:E278"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
@@ -16763,4399 +16691,4097 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676465C5-A7AE-4D87-87F3-631FF5EBE637}">
-  <dimension ref="A1:D292"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB7F8C8-F9AC-4FD5-91AD-964B18AF3F9A}">
+  <dimension ref="A1:D272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="G279" sqref="G279"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="H270" sqref="H270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="21" style="10" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="10"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="str">
+      <c r="A1" t="str">
         <f>TEXT(D1, "00000000")</f>
         <v>00000001</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1384</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>1427</v>
-      </c>
-      <c r="D1" s="10">
+      <c r="C1" s="9" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D1">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="str">
+      <c r="A2" t="str">
         <f t="shared" ref="A2:A65" si="0">TEXT(D2, "00000000")</f>
         <v>00000002</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>1385</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="C2" s="9" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="str">
+      <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>00000003</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>1386</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>1429</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="C3" s="9" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D3">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="str">
+      <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>00000004</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>1387</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>1430</v>
-      </c>
-      <c r="D4" s="10">
+      <c r="C4" s="9" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D4">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="str">
+      <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>00000005</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>1388</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>1431</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="C5" s="9" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D5">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="str">
+      <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>00000006</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>1389</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="C6" s="9" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D6">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="str">
+      <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>00000007</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>1390</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="C7" s="9" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D7">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="str">
+      <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>00000008</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>1391</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>1433</v>
-      </c>
-      <c r="D8" s="10">
+      <c r="C8" s="9" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D8">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="str">
+      <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>00000009</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>1392</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D9" s="10">
+      <c r="C9" s="9" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D9">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="str">
+      <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>00000010</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>1393</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>1435</v>
-      </c>
-      <c r="D10" s="10">
+      <c r="C10" s="9" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D10">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="str">
+      <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>00000011</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>1394</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>1436</v>
-      </c>
-      <c r="D11" s="10">
+      <c r="C11" s="9" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D11">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="str">
+      <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>00000012</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>1395</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>1437</v>
-      </c>
-      <c r="D12" s="10">
+      <c r="C12" s="9" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D12">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="str">
+      <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>00000013</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>1396</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>1438</v>
-      </c>
-      <c r="D13" s="10">
+      <c r="C13" s="9" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D13">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="str">
+      <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>00000014</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>1397</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>1439</v>
-      </c>
-      <c r="D14" s="10">
+      <c r="C14" s="9" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D14">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="str">
+      <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>00000015</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="10" t="s">
         <v>1398</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>1440</v>
-      </c>
-      <c r="D15" s="10">
+      <c r="C15" s="10" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D15">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="str">
+      <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>00000016</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="10" t="s">
         <v>1399</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>1441</v>
-      </c>
-      <c r="D16" s="10">
+      <c r="C16" s="10" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D16">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="str">
+      <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>00000017</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>1400</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>1427</v>
-      </c>
-      <c r="D17" s="10">
+      <c r="C17" s="9" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D17">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="str">
+      <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>00000018</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>1401</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>1441</v>
-      </c>
-      <c r="D18" s="10">
+      <c r="C18" s="9" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D18">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="str">
+      <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>00000019</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>1402</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>1442</v>
-      </c>
-      <c r="D19" s="10">
+      <c r="C19" s="9" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D19">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="str">
+      <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>00000020</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>1403</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>1443</v>
-      </c>
-      <c r="D20" s="10">
+      <c r="C20" s="9" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D20">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="str">
+      <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>00000021</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>1404</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>1438</v>
-      </c>
-      <c r="D21" s="10">
+      <c r="C21" s="9" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D21">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="str">
+      <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>00000022</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="10" t="s">
         <v>1405</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>1431</v>
-      </c>
-      <c r="D22" s="10">
+      <c r="C22" s="10" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D22">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="str">
+      <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>00000023</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="10" t="s">
         <v>1406</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>1444</v>
-      </c>
-      <c r="D23" s="10">
+      <c r="C23" s="10" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D23">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="str">
+      <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>00000024</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="10" t="s">
         <v>1407</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>1427</v>
-      </c>
-      <c r="D24" s="10">
+      <c r="C24" s="10" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D24">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="str">
+      <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>00000025</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>1408</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>1445</v>
-      </c>
-      <c r="D25" s="10">
+      <c r="C25" s="9" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D25">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="str">
+      <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>00000026</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>1409</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D26" s="10">
+      <c r="C26" s="9" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D26">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="str">
+      <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>00000027</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>1410</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>1446</v>
-      </c>
-      <c r="D27" s="10">
+      <c r="C27" s="9" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D27">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="str">
+      <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>00000028</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="10" t="s">
         <v>1411</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>1447</v>
-      </c>
-      <c r="D28" s="10">
+      <c r="C28" s="9" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D28">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="str">
+      <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>00000029</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>1412</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>1448</v>
-      </c>
-      <c r="D29" s="10">
+      <c r="C29" s="9" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D29">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="str">
+      <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>00000030</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="10" t="s">
         <v>1413</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>1439</v>
-      </c>
-      <c r="D30" s="10">
+      <c r="C30" s="9" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D30">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="str">
+      <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>00000031</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="11" t="s">
         <v>1414</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>1439</v>
-      </c>
-      <c r="D31" s="10">
+      <c r="C31" s="9" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D31">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="str">
+      <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>00000032</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="11" t="s">
         <v>1415</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>1449</v>
-      </c>
-      <c r="D32" s="10">
+      <c r="C32" s="9" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D32">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="str">
+      <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>00000033</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>1416</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>1450</v>
-      </c>
-      <c r="D33" s="10">
+      <c r="C33" s="9" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D33">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="str">
+      <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>00000034</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="12" t="s">
         <v>1417</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>1451</v>
-      </c>
-      <c r="D34" s="10">
+      <c r="C34" s="9" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D34">
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="str">
+      <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>00000035</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="12" t="s">
         <v>1418</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>1452</v>
-      </c>
-      <c r="D35" s="10">
+      <c r="C35" s="9" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D35">
         <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="str">
+      <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>00000036</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="12" t="s">
         <v>1419</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>1452</v>
-      </c>
-      <c r="D36" s="10">
+      <c r="C36" s="9" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D36">
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="str">
+      <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>00000037</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="13" t="s">
         <v>1420</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>1452</v>
-      </c>
-      <c r="D37" s="10">
+      <c r="C37" s="9" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D37">
         <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="str">
+      <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>00000038</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>1453</v>
-      </c>
-      <c r="D38" s="10">
+      <c r="B38" s="9" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D38">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="str">
+      <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>00000039</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>1453</v>
-      </c>
-      <c r="D39" s="10">
+      <c r="B39" s="9" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D39">
         <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="str">
+      <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>00000040</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>1454</v>
-      </c>
-      <c r="D40" s="10">
+      <c r="B40" s="9" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D40">
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="str">
+      <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>00000041</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>1457</v>
-      </c>
-      <c r="D41" s="10">
+      <c r="B41" s="9" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D41">
         <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="str">
+      <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>00000042</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>1425</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>1455</v>
-      </c>
-      <c r="D42" s="10">
+      <c r="B42" s="9" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D42">
         <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="str">
+      <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>00000043</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>1456</v>
-      </c>
-      <c r="D43" s="10">
+      <c r="B43" s="9" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D43">
         <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="str">
+      <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>00000044</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>1458</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>1498</v>
-      </c>
-      <c r="D44" s="10">
+      <c r="B44" s="9" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D44">
         <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="str">
+      <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>00000045</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>1459</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>1498</v>
-      </c>
-      <c r="D45" s="10">
+      <c r="B45" s="9" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D45">
         <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="str">
+      <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>00000046</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>1499</v>
-      </c>
-      <c r="D46" s="10">
+      <c r="B46" s="9" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D46">
         <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="str">
+      <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>00000047</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>1461</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>1499</v>
-      </c>
-      <c r="D47" s="10">
+      <c r="B47" s="9" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D47">
         <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="str">
+      <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>00000048</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>1462</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>1499</v>
-      </c>
-      <c r="D48" s="10">
+      <c r="B48" s="9" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D48">
         <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="str">
+      <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>00000049</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>1463</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>1500</v>
-      </c>
-      <c r="D49" s="10">
+      <c r="B49" s="9" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D49">
         <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="str">
+      <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>00000050</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>1464</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>1501</v>
-      </c>
-      <c r="D50" s="10">
+      <c r="B50" s="9" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D50">
         <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="str">
+      <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>00000051</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D51" s="10">
+      <c r="B51" s="9" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D51">
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="str">
+      <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>00000052</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>1503</v>
-      </c>
-      <c r="D52" s="10">
+      <c r="B52" s="10" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D52">
         <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="str">
+      <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>00000053</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>1467</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>1503</v>
-      </c>
-      <c r="D53" s="10">
+      <c r="B53" s="10" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D53">
         <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="str">
+      <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>00000054</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>1468</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>1503</v>
-      </c>
-      <c r="D54" s="10">
+      <c r="B54" s="9" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D54">
         <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="str">
+      <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>00000055</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>1469</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>1504</v>
-      </c>
-      <c r="D55" s="10">
+      <c r="B55" s="9" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D55">
         <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="str">
+      <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>00000056</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>1470</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>1505</v>
-      </c>
-      <c r="D56" s="10">
+      <c r="B56" s="9" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D56">
         <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="str">
+      <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>00000057</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>1471</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>1504</v>
-      </c>
-      <c r="D57" s="10">
+      <c r="B57" s="9" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D57">
         <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="str">
+      <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>00000058</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D58" s="10">
+      <c r="B58" s="9" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D58">
         <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="str">
+      <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>00000059</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D59" s="10">
+      <c r="B59" s="9" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D59">
         <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="str">
+      <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>00000060</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D60" s="10">
+        <v>1469</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D60">
         <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A61" s="4" t="str">
+      <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>00000061</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>1508</v>
-      </c>
-      <c r="D61" s="10">
+      <c r="B61" s="10" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D61">
         <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="str">
+      <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>00000062</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>1509</v>
-      </c>
-      <c r="D62" s="10">
+      <c r="B62" s="10" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D62">
         <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A63" s="4" t="str">
+      <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>00000063</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>1510</v>
-      </c>
-      <c r="D63" s="10">
+      <c r="B63" s="10" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D63">
         <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A64" s="4" t="str">
+      <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>00000064</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>1478</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>1511</v>
-      </c>
-      <c r="D64" s="10">
+      <c r="B64" s="9" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D64">
         <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="str">
+      <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>00000065</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>1479</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>1512</v>
-      </c>
-      <c r="D65" s="10">
+      <c r="B65" s="9" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D65">
         <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A66" s="4" t="str">
+      <c r="A66" t="str">
         <f t="shared" ref="A66:A129" si="1">TEXT(D66, "00000000")</f>
         <v>00000066</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>1513</v>
-      </c>
-      <c r="D66" s="10">
+      <c r="B66" s="9" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D66">
         <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A67" s="4" t="str">
+      <c r="A67" t="str">
         <f t="shared" si="1"/>
         <v>00000067</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>1481</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>1514</v>
-      </c>
-      <c r="D67" s="10">
+      <c r="B67" s="10" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D67">
         <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A68" s="4" t="str">
+      <c r="A68" t="str">
         <f t="shared" si="1"/>
         <v>00000068</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>1482</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D68" s="10">
+      <c r="B68" s="9" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D68">
         <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A69" s="4" t="str">
+      <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>00000069</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>1516</v>
-      </c>
-      <c r="D69" s="10">
+      <c r="B69" s="10" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D69">
         <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A70" s="4" t="str">
+      <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>00000070</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>1516</v>
-      </c>
-      <c r="D70" s="10">
+      <c r="B70" s="11" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D70">
         <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="str">
+      <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>00000071</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>1485</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>1516</v>
-      </c>
-      <c r="D71" s="10">
+      <c r="B71" s="11" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D71">
         <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A72" s="4" t="str">
+      <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>00000072</v>
       </c>
-      <c r="B72" s="8" t="s">
-        <v>1486</v>
+      <c r="B72" s="13" t="s">
+        <v>1481</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>1517</v>
-      </c>
-      <c r="D72" s="10">
+        <v>1485</v>
+      </c>
+      <c r="D72">
         <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A73" s="4" t="str">
+      <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>00000073</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>1487</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D73" s="10">
+      <c r="B73" s="9" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D73">
         <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A74" s="4" t="str">
+      <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>00000074</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>1488</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>1518</v>
-      </c>
-      <c r="D74" s="10">
+      <c r="B74" s="12" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D74">
         <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A75" s="4" t="str">
+      <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>00000075</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>1489</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>1518</v>
-      </c>
-      <c r="D75" s="10">
+      <c r="B75" s="13" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D75">
         <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A76" s="4" t="str">
+      <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>00000076</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>1503</v>
-      </c>
-      <c r="D76" s="10">
+        <v>1507</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D76">
         <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A77" s="4" t="str">
+      <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>00000077</v>
       </c>
       <c r="B77" s="9" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>1491</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>1516</v>
-      </c>
-      <c r="D77" s="10">
+      <c r="D77">
         <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A78" s="4" t="str">
+      <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>00000078</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>1492</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>1498</v>
-      </c>
-      <c r="D78" s="10">
+      <c r="B78" s="9" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D78">
         <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A79" s="4" t="str">
+      <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>00000079</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>1493</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>1519</v>
-      </c>
-      <c r="D79" s="10">
+      <c r="B79" s="9" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D79">
         <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A80" s="4" t="str">
+      <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>00000080</v>
       </c>
-      <c r="B80" s="11" t="s">
-        <v>1494</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>1503</v>
-      </c>
-      <c r="D80" s="10">
+      <c r="B80" s="9" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D80">
         <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A81" s="4" t="str">
+      <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>00000081</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>1495</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>1516</v>
-      </c>
-      <c r="D81" s="10">
+      <c r="B81" s="9" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D81">
         <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A82" s="4" t="str">
+      <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v>00000082</v>
       </c>
-      <c r="B82" s="8" t="s">
-        <v>1496</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>1520</v>
-      </c>
-      <c r="D82" s="10">
+      <c r="B82" s="9" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D82">
         <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A83" s="4" t="str">
+      <c r="A83" t="str">
         <f t="shared" si="1"/>
         <v>00000083</v>
       </c>
-      <c r="B83" s="8" t="s">
-        <v>1497</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>1498</v>
-      </c>
-      <c r="D83" s="10">
+      <c r="B83" s="9" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D83">
         <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A84" s="4" t="str">
+      <c r="A84" t="str">
         <f t="shared" si="1"/>
         <v>00000084</v>
       </c>
-      <c r="B84" s="8" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>1498</v>
-      </c>
-      <c r="D84" s="10">
+      <c r="B84" s="9" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D84">
         <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A85" s="4" t="str">
+      <c r="A85" t="str">
         <f t="shared" si="1"/>
         <v>00000085</v>
       </c>
-      <c r="B85" s="8" t="s">
-        <v>1522</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>1523</v>
-      </c>
-      <c r="D85" s="10">
+      <c r="B85" s="9" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D85">
         <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A86" s="4" t="str">
+      <c r="A86" t="str">
         <f t="shared" si="1"/>
         <v>00000086</v>
       </c>
-      <c r="B86" s="8" t="s">
-        <v>1524</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D86" s="10">
+      <c r="B86" s="9" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D86">
         <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A87" s="4" t="str">
+      <c r="A87" t="str">
         <f t="shared" si="1"/>
         <v>00000087</v>
       </c>
-      <c r="B87" s="8" t="s">
-        <v>1525</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>1504</v>
-      </c>
-      <c r="D87" s="10">
+      <c r="B87" s="9" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D87">
         <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A88" s="4" t="str">
+      <c r="A88" t="str">
         <f t="shared" si="1"/>
         <v>00000088</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>1526</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>1518</v>
-      </c>
-      <c r="D88" s="10">
+      <c r="B88" s="9" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D88">
         <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A89" s="4" t="str">
+      <c r="A89" t="str">
         <f t="shared" si="1"/>
         <v>00000089</v>
       </c>
-      <c r="B89" s="8" t="s">
-        <v>1527</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>1539</v>
-      </c>
-      <c r="D89" s="10">
+      <c r="B89" s="9" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D89">
         <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A90" s="4" t="str">
+      <c r="A90" t="str">
         <f t="shared" si="1"/>
         <v>00000090</v>
       </c>
-      <c r="B90" s="8" t="s">
-        <v>1528</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>1540</v>
-      </c>
-      <c r="D90" s="10">
+      <c r="B90" s="9" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D90">
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A91" s="4" t="str">
+    <row r="91" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A91" t="str">
         <f t="shared" si="1"/>
         <v>00000091</v>
       </c>
-      <c r="B91" s="8" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>1541</v>
-      </c>
-      <c r="D91" s="10">
+      <c r="B91" s="14" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D91">
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A92" s="4" t="str">
+    <row r="92" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A92" t="str">
         <f t="shared" si="1"/>
         <v>00000092</v>
       </c>
-      <c r="B92" s="8" t="s">
-        <v>1530</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>1542</v>
-      </c>
-      <c r="D92" s="10">
+      <c r="B92" s="3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D92">
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A93" s="4" t="str">
+    <row r="93" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A93" t="str">
         <f t="shared" si="1"/>
         <v>00000093</v>
       </c>
-      <c r="B93" s="8" t="s">
-        <v>1531</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>1543</v>
-      </c>
-      <c r="D93" s="10">
+      <c r="B93" s="14" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D93">
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A94" s="4" t="str">
+    <row r="94" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A94" t="str">
         <f t="shared" si="1"/>
         <v>00000094</v>
       </c>
-      <c r="B94" s="8" t="s">
-        <v>1532</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>1544</v>
-      </c>
-      <c r="D94" s="10">
+      <c r="B94" s="3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D94">
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A95" s="4" t="str">
+    <row r="95" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A95" t="str">
         <f t="shared" si="1"/>
         <v>00000095</v>
       </c>
-      <c r="B95" s="8" t="s">
-        <v>1533</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>1545</v>
-      </c>
-      <c r="D95" s="10">
+      <c r="B95" s="14" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D95">
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A96" s="4" t="str">
+    <row r="96" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A96" t="str">
         <f t="shared" si="1"/>
         <v>00000096</v>
       </c>
-      <c r="B96" s="8" t="s">
-        <v>1534</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>1546</v>
-      </c>
-      <c r="D96" s="10">
+      <c r="B96" s="3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D96">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A97" s="4" t="str">
+    <row r="97" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A97" t="str">
         <f t="shared" si="1"/>
         <v>00000097</v>
       </c>
-      <c r="B97" s="8" t="s">
-        <v>1535</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>1547</v>
-      </c>
-      <c r="D97" s="10">
+      <c r="B97" s="14" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D97">
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A98" s="4" t="str">
+    <row r="98" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A98" t="str">
         <f t="shared" si="1"/>
         <v>00000098</v>
       </c>
-      <c r="B98" s="8" t="s">
-        <v>1536</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>1548</v>
-      </c>
-      <c r="D98" s="10">
+      <c r="B98" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D98">
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A99" s="4" t="str">
+    <row r="99" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A99" t="str">
         <f t="shared" si="1"/>
         <v>00000099</v>
       </c>
-      <c r="B99" s="8" t="s">
-        <v>1537</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>1549</v>
-      </c>
-      <c r="D99" s="10">
+      <c r="B99" s="14" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D99">
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A100" s="4" t="str">
+    <row r="100" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A100" t="str">
         <f t="shared" si="1"/>
         <v>00000100</v>
       </c>
-      <c r="B100" s="8" t="s">
-        <v>1538</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>1550</v>
-      </c>
-      <c r="D100" s="10">
+      <c r="B100" s="3" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D100">
         <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="str">
+      <c r="A101" t="str">
         <f t="shared" si="1"/>
         <v>00000101</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>1551</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D101" s="10">
+      <c r="B101" s="14" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D101">
         <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="str">
+      <c r="A102" t="str">
         <f t="shared" si="1"/>
         <v>00000102</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>1552</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>1579</v>
-      </c>
-      <c r="D102" s="10">
+      <c r="B102" s="3" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D102">
         <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="str">
+      <c r="A103" t="str">
         <f t="shared" si="1"/>
         <v>00000103</v>
       </c>
-      <c r="B103" s="4" t="s">
-        <v>1553</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>1580</v>
-      </c>
-      <c r="D103" s="10">
+      <c r="B103" s="14" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D103">
         <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="str">
+      <c r="A104" t="str">
         <f t="shared" si="1"/>
         <v>00000104</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>1554</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>1581</v>
-      </c>
-      <c r="D104" s="10">
+      <c r="B104" s="3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D104">
         <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="str">
+      <c r="A105" t="str">
         <f t="shared" si="1"/>
         <v>00000105</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>1555</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>1582</v>
-      </c>
-      <c r="D105" s="10">
+      <c r="B105" s="14" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D105">
         <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="4" t="str">
+      <c r="A106" t="str">
         <f t="shared" si="1"/>
         <v>00000106</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>1583</v>
-      </c>
-      <c r="D106" s="10">
+      <c r="B106" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D106">
         <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="str">
+      <c r="A107" t="str">
         <f t="shared" si="1"/>
         <v>00000107</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>1584</v>
-      </c>
-      <c r="D107" s="10">
+      <c r="B107" s="14" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D107">
         <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="4" t="str">
+      <c r="A108" t="str">
         <f t="shared" si="1"/>
         <v>00000108</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>1558</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>1581</v>
-      </c>
-      <c r="D108" s="10">
+      <c r="B108" s="3" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D108">
         <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="str">
+      <c r="A109" t="str">
         <f t="shared" si="1"/>
         <v>00000109</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>1559</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>1582</v>
-      </c>
-      <c r="D109" s="10">
+      <c r="B109" s="14" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D109">
         <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="4" t="str">
+      <c r="A110" t="str">
         <f t="shared" si="1"/>
         <v>00000110</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>1560</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>1585</v>
-      </c>
-      <c r="D110" s="10">
+      <c r="B110" s="15" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D110">
         <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="str">
+      <c r="A111" t="str">
         <f t="shared" si="1"/>
         <v>00000111</v>
       </c>
-      <c r="B111" s="4" t="s">
-        <v>1561</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>1586</v>
-      </c>
-      <c r="D111" s="10">
+      <c r="B111" s="16" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D111">
         <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A112" s="4" t="str">
+      <c r="A112" t="str">
         <f t="shared" si="1"/>
         <v>00000112</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>1562</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>1587</v>
-      </c>
-      <c r="D112" s="10">
+      <c r="B112" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D112">
         <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="str">
+      <c r="A113" t="str">
         <f t="shared" si="1"/>
         <v>00000113</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>1563</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>1580</v>
-      </c>
-      <c r="D113" s="10">
+      <c r="B113" s="14" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D113">
         <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="str">
+      <c r="A114" t="str">
         <f t="shared" si="1"/>
         <v>00000114</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>1564</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>1586</v>
-      </c>
-      <c r="D114" s="10">
+      <c r="B114" s="15" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D114">
         <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A115" s="4" t="str">
+      <c r="A115" t="str">
         <f t="shared" si="1"/>
         <v>00000115</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>1565</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>1584</v>
-      </c>
-      <c r="D115" s="10">
+      <c r="B115" s="14" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D115">
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="str">
+    <row r="116" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A116" t="str">
         <f t="shared" si="1"/>
         <v>00000116</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>1566</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D116" s="10">
+      <c r="B116" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D116">
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="4" t="str">
+    <row r="117" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A117" t="str">
         <f t="shared" si="1"/>
         <v>00000117</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>1567</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>1588</v>
-      </c>
-      <c r="D117" s="10">
+      <c r="B117" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D117">
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="4" t="str">
+    <row r="118" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A118" t="str">
         <f t="shared" si="1"/>
         <v>00000118</v>
       </c>
-      <c r="B118" s="4" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>1589</v>
-      </c>
-      <c r="D118" s="10">
+      <c r="B118" s="9" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D118">
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="4" t="str">
+    <row r="119" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A119" t="str">
         <f t="shared" si="1"/>
         <v>00000119</v>
       </c>
-      <c r="B119" s="4" t="s">
-        <v>1569</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>1590</v>
-      </c>
-      <c r="D119" s="10">
+      <c r="B119" s="9" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D119">
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="4" t="str">
+    <row r="120" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A120" t="str">
         <f t="shared" si="1"/>
         <v>00000120</v>
       </c>
-      <c r="B120" s="12" t="s">
-        <v>1570</v>
-      </c>
-      <c r="C120" s="12" t="s">
-        <v>1585</v>
-      </c>
-      <c r="D120" s="10">
+      <c r="B120" s="9" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D120">
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A121" s="4" t="str">
+    <row r="121" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A121" t="str">
         <f t="shared" si="1"/>
         <v>00000121</v>
       </c>
-      <c r="B121" s="12" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>1583</v>
-      </c>
-      <c r="D121" s="10">
+      <c r="B121" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D121">
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A122" s="4" t="str">
+    <row r="122" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A122" t="str">
         <f t="shared" si="1"/>
         <v>00000122</v>
       </c>
-      <c r="B122" s="4" t="s">
-        <v>1572</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>1591</v>
-      </c>
-      <c r="D122" s="10">
+      <c r="B122" s="9" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D122">
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A123" s="4" t="str">
+    <row r="123" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A123" t="str">
         <f t="shared" si="1"/>
         <v>00000123</v>
       </c>
-      <c r="B123" s="4" t="s">
-        <v>1573</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>1592</v>
-      </c>
-      <c r="D123" s="10">
+      <c r="B123" s="9" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D123">
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A124" s="4" t="str">
+    <row r="124" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A124" t="str">
         <f t="shared" si="1"/>
         <v>00000124</v>
       </c>
-      <c r="B124" s="12" t="s">
-        <v>1574</v>
-      </c>
-      <c r="C124" s="12" t="s">
-        <v>1584</v>
-      </c>
-      <c r="D124" s="10">
+      <c r="B124" s="9" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D124">
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="4" t="str">
+    <row r="125" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A125" t="str">
         <f t="shared" si="1"/>
         <v>00000125</v>
       </c>
-      <c r="B125" s="12" t="s">
-        <v>1575</v>
-      </c>
-      <c r="C125" s="12" t="s">
-        <v>1586</v>
-      </c>
-      <c r="D125" s="10">
+      <c r="B125" s="9" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D125">
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="4" t="str">
+    <row r="126" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A126" t="str">
         <f t="shared" si="1"/>
         <v>00000126</v>
       </c>
-      <c r="B126" s="12" t="s">
-        <v>1576</v>
-      </c>
-      <c r="C126" s="12" t="s">
-        <v>1589</v>
-      </c>
-      <c r="D126" s="10">
+      <c r="B126" s="9" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D126">
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="4" t="str">
+    <row r="127" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A127" t="str">
         <f t="shared" si="1"/>
         <v>00000127</v>
       </c>
-      <c r="B127" s="12" t="s">
-        <v>1577</v>
-      </c>
-      <c r="C127" s="12" t="s">
-        <v>1589</v>
-      </c>
-      <c r="D127" s="10">
+      <c r="B127" s="9" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D127">
         <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A128" s="4" t="str">
+      <c r="A128" t="str">
         <f t="shared" si="1"/>
         <v>00000128</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="B128" s="9" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C128" s="9" t="s">
         <v>1593</v>
       </c>
-      <c r="C128" s="8" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D128" s="10">
+      <c r="D128">
         <v>128</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A129" s="4" t="str">
+      <c r="A129" t="str">
         <f t="shared" si="1"/>
         <v>00000129</v>
       </c>
-      <c r="B129" s="8" t="s">
-        <v>1594</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>1609</v>
-      </c>
-      <c r="D129" s="10">
+      <c r="B129" s="9" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D129">
         <v>129</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A130" s="4" t="str">
+      <c r="A130" t="str">
         <f t="shared" ref="A130:A193" si="2">TEXT(D130, "00000000")</f>
         <v>00000130</v>
       </c>
-      <c r="B130" s="8" t="s">
-        <v>1595</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>1610</v>
-      </c>
-      <c r="D130" s="10">
+      <c r="B130" s="9" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D130">
         <v>130</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A131" s="4" t="str">
+      <c r="A131" t="str">
         <f t="shared" si="2"/>
         <v>00000131</v>
       </c>
-      <c r="B131" s="8" t="s">
-        <v>1596</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D131" s="10">
+      <c r="B131" s="9" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D131">
         <v>131</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A132" s="4" t="str">
+      <c r="A132" t="str">
         <f t="shared" si="2"/>
         <v>00000132</v>
       </c>
-      <c r="B132" s="8" t="s">
-        <v>1597</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>1611</v>
-      </c>
-      <c r="D132" s="10">
+      <c r="B132" s="9" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D132">
         <v>132</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A133" s="4" t="str">
+      <c r="A133" t="str">
         <f t="shared" si="2"/>
         <v>00000133</v>
       </c>
-      <c r="B133" s="8" t="s">
-        <v>1598</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>1609</v>
-      </c>
-      <c r="D133" s="10">
+      <c r="B133" s="9" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D133">
         <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A134" s="4" t="str">
+      <c r="A134" t="str">
         <f t="shared" si="2"/>
         <v>00000134</v>
       </c>
-      <c r="B134" s="8" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>1612</v>
-      </c>
-      <c r="D134" s="10">
+      <c r="B134" s="9" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D134">
         <v>134</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A135" s="4" t="str">
+      <c r="A135" t="str">
         <f t="shared" si="2"/>
         <v>00000135</v>
       </c>
-      <c r="B135" s="8" t="s">
-        <v>1600</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>1610</v>
-      </c>
-      <c r="D135" s="10">
+      <c r="B135" s="9" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D135">
         <v>135</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A136" s="4" t="str">
+      <c r="A136" t="str">
         <f t="shared" si="2"/>
         <v>00000136</v>
       </c>
-      <c r="B136" s="8" t="s">
-        <v>1601</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>1610</v>
-      </c>
-      <c r="D136" s="10">
+      <c r="B136" s="9" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D136">
         <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A137" s="4" t="str">
+      <c r="A137" t="str">
         <f t="shared" si="2"/>
         <v>00000137</v>
       </c>
-      <c r="B137" s="8" t="s">
-        <v>1602</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>1609</v>
-      </c>
-      <c r="D137" s="10">
+      <c r="B137" s="9" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D137">
         <v>137</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A138" s="4" t="str">
+      <c r="A138" t="str">
         <f t="shared" si="2"/>
         <v>00000138</v>
       </c>
-      <c r="B138" s="8" t="s">
-        <v>1603</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>1612</v>
-      </c>
-      <c r="D138" s="10">
+      <c r="B138" s="9" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D138">
         <v>138</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A139" s="4" t="str">
+      <c r="A139" t="str">
         <f t="shared" si="2"/>
         <v>00000139</v>
       </c>
-      <c r="B139" s="8" t="s">
-        <v>1604</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>1612</v>
-      </c>
-      <c r="D139" s="10">
+      <c r="B139" s="9" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D139">
         <v>139</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A140" s="4" t="str">
+      <c r="A140" t="str">
         <f t="shared" si="2"/>
         <v>00000140</v>
       </c>
-      <c r="B140" s="8" t="s">
-        <v>1605</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>1611</v>
-      </c>
-      <c r="D140" s="10">
+      <c r="B140" s="9" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D140">
         <v>140</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A141" s="4" t="str">
+      <c r="A141" t="str">
         <f t="shared" si="2"/>
         <v>00000141</v>
       </c>
-      <c r="B141" s="8" t="s">
-        <v>1606</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>1613</v>
-      </c>
-      <c r="D141" s="10">
+      <c r="B141" s="9" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D141">
         <v>141</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A142" s="4" t="str">
+      <c r="A142" t="str">
         <f t="shared" si="2"/>
         <v>00000142</v>
       </c>
-      <c r="B142" s="8" t="s">
-        <v>1607</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>1609</v>
-      </c>
-      <c r="D142" s="10">
+      <c r="B142" s="9" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D142">
         <v>142</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A143" s="4" t="str">
+      <c r="A143" t="str">
         <f t="shared" si="2"/>
         <v>00000143</v>
       </c>
-      <c r="B143" s="13" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>1612</v>
-      </c>
-      <c r="D143" s="10">
+      <c r="B143" s="9" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D143">
         <v>143</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A144" s="4" t="str">
+      <c r="A144" t="str">
         <f t="shared" si="2"/>
         <v>00000144</v>
       </c>
-      <c r="B144" s="8" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>1613</v>
-      </c>
-      <c r="D144" s="10">
+      <c r="B144" s="9" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D144">
         <v>144</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A145" s="4" t="str">
+      <c r="A145" t="str">
         <f t="shared" si="2"/>
         <v>00000145</v>
       </c>
-      <c r="B145" s="8" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>1642</v>
-      </c>
-      <c r="D145" s="10">
+      <c r="B145" s="17" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D145">
         <v>145</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A146" s="4" t="str">
+      <c r="A146" t="str">
         <f t="shared" si="2"/>
         <v>00000146</v>
       </c>
-      <c r="B146" s="8" t="s">
-        <v>1617</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>1643</v>
-      </c>
-      <c r="D146" s="10">
+      <c r="B146" s="10" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D146">
         <v>146</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A147" s="4" t="str">
+      <c r="A147" t="str">
         <f t="shared" si="2"/>
         <v>00000147</v>
       </c>
-      <c r="B147" s="8" t="s">
-        <v>1618</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D147" s="10">
+      <c r="B147" s="9" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D147">
         <v>147</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A148" s="4" t="str">
+      <c r="A148" t="str">
         <f t="shared" si="2"/>
         <v>00000148</v>
       </c>
-      <c r="B148" s="8" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D148" s="10">
+      <c r="B148" s="9" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D148">
         <v>148</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A149" s="4" t="str">
+      <c r="A149" t="str">
         <f t="shared" si="2"/>
         <v>00000149</v>
       </c>
-      <c r="B149" s="8" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>1645</v>
-      </c>
-      <c r="D149" s="10">
+      <c r="B149" s="9" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D149">
         <v>149</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A150" s="4" t="str">
+      <c r="A150" t="str">
         <f t="shared" si="2"/>
         <v>00000150</v>
       </c>
-      <c r="B150" s="8" t="s">
-        <v>1621</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>1646</v>
-      </c>
-      <c r="D150" s="10">
+      <c r="B150" s="9" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D150">
         <v>150</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A151" s="4" t="str">
+      <c r="A151" t="str">
         <f t="shared" si="2"/>
         <v>00000151</v>
       </c>
-      <c r="B151" s="8" t="s">
-        <v>1622</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>1647</v>
-      </c>
-      <c r="D151" s="10">
+      <c r="B151" s="9" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D151">
         <v>151</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A152" s="4" t="str">
+      <c r="A152" t="str">
         <f t="shared" si="2"/>
         <v>00000152</v>
       </c>
-      <c r="B152" s="8" t="s">
-        <v>1623</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>1647</v>
-      </c>
-      <c r="D152" s="10">
+      <c r="B152" s="9" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D152">
         <v>152</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A153" s="4" t="str">
+      <c r="A153" t="str">
         <f t="shared" si="2"/>
         <v>00000153</v>
       </c>
-      <c r="B153" s="8" t="s">
-        <v>1624</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>1648</v>
-      </c>
-      <c r="D153" s="10">
+      <c r="B153" s="9" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D153">
         <v>153</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A154" s="4" t="str">
+      <c r="A154" t="str">
         <f t="shared" si="2"/>
         <v>00000154</v>
       </c>
-      <c r="B154" s="8" t="s">
-        <v>1625</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>1433</v>
-      </c>
-      <c r="D154" s="10">
+      <c r="B154" s="9" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D154">
         <v>154</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A155" s="4" t="str">
+      <c r="A155" t="str">
         <f t="shared" si="2"/>
         <v>00000155</v>
       </c>
-      <c r="B155" s="8" t="s">
-        <v>1626</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>1433</v>
-      </c>
-      <c r="D155" s="10">
+      <c r="B155" s="9" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D155">
         <v>155</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A156" s="4" t="str">
+      <c r="A156" t="str">
         <f t="shared" si="2"/>
         <v>00000156</v>
       </c>
-      <c r="B156" s="8" t="s">
-        <v>1627</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>1649</v>
-      </c>
-      <c r="D156" s="10">
+      <c r="B156" s="12" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D156">
         <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A157" s="4" t="str">
+      <c r="A157" t="str">
         <f t="shared" si="2"/>
         <v>00000157</v>
       </c>
-      <c r="B157" s="8" t="s">
-        <v>1628</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>1650</v>
-      </c>
-      <c r="D157" s="10">
+      <c r="B157" s="13" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D157">
         <v>157</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A158" s="4" t="str">
+      <c r="A158" t="str">
         <f t="shared" si="2"/>
         <v>00000158</v>
       </c>
-      <c r="B158" s="8" t="s">
-        <v>1629</v>
-      </c>
-      <c r="C158" s="8" t="s">
+      <c r="B158" s="13" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C158" s="9" t="s">
         <v>1650</v>
       </c>
-      <c r="D158" s="10">
+      <c r="D158">
         <v>158</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A159" s="4" t="str">
+      <c r="A159" t="str">
         <f t="shared" si="2"/>
         <v>00000159</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>1630</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>1650</v>
-      </c>
-      <c r="D159" s="10">
+        <v>1632</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D159">
         <v>159</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A160" s="4" t="str">
+      <c r="A160" t="str">
         <f t="shared" si="2"/>
         <v>00000160</v>
       </c>
-      <c r="B160" s="8" t="s">
-        <v>1631</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>1651</v>
-      </c>
-      <c r="D160" s="10">
+      <c r="B160" s="13" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D160">
         <v>160</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A161" s="4" t="str">
+      <c r="A161" t="str">
         <f t="shared" si="2"/>
         <v>00000161</v>
       </c>
-      <c r="B161" s="8" t="s">
-        <v>1632</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D161" s="10">
+      <c r="B161" s="13" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D161">
         <v>161</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A162" s="4" t="str">
+      <c r="A162" t="str">
         <f t="shared" si="2"/>
         <v>00000162</v>
       </c>
-      <c r="B162" s="8" t="s">
-        <v>1633</v>
-      </c>
-      <c r="C162" s="8" t="s">
+      <c r="B162" s="13" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C162" s="9" t="s">
         <v>1652</v>
       </c>
-      <c r="D162" s="10">
+      <c r="D162">
         <v>162</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A163" s="4" t="str">
+      <c r="A163" t="str">
         <f t="shared" si="2"/>
         <v>00000163</v>
       </c>
-      <c r="B163" s="8" t="s">
-        <v>1634</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>1648</v>
-      </c>
-      <c r="D163" s="10">
+      <c r="B163" s="13" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D163">
         <v>163</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A164" s="4" t="str">
+      <c r="A164" t="str">
         <f t="shared" si="2"/>
         <v>00000164</v>
       </c>
-      <c r="B164" s="8" t="s">
-        <v>1635</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>1433</v>
-      </c>
-      <c r="D164" s="10">
+      <c r="B164" s="13" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D164">
         <v>164</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A165" s="4" t="str">
+      <c r="A165" t="str">
         <f t="shared" si="2"/>
         <v>00000165</v>
       </c>
-      <c r="B165" s="8" t="s">
-        <v>1636</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>1642</v>
-      </c>
-      <c r="D165" s="10">
+      <c r="B165" s="13" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D165">
         <v>165</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A166" s="4" t="str">
+      <c r="A166" t="str">
         <f t="shared" si="2"/>
         <v>00000166</v>
       </c>
-      <c r="B166" s="8" t="s">
-        <v>1637</v>
-      </c>
-      <c r="C166" s="8" t="s">
-        <v>1433</v>
-      </c>
-      <c r="D166" s="10">
+      <c r="B166" s="13" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D166">
         <v>166</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A167" s="4" t="str">
+      <c r="A167" t="str">
         <f t="shared" si="2"/>
         <v>00000167</v>
       </c>
-      <c r="B167" s="8" t="s">
-        <v>1638</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>1650</v>
-      </c>
-      <c r="D167" s="10">
+      <c r="B167" s="13" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D167">
         <v>167</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A168" s="4" t="str">
+      <c r="A168" t="str">
         <f t="shared" si="2"/>
         <v>00000168</v>
       </c>
-      <c r="B168" s="8" t="s">
-        <v>1639</v>
-      </c>
-      <c r="C168" s="8" t="s">
-        <v>1651</v>
-      </c>
-      <c r="D168" s="10">
+      <c r="B168" s="13" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D168">
         <v>168</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A169" s="4" t="str">
+      <c r="A169" t="str">
         <f t="shared" si="2"/>
         <v>00000169</v>
       </c>
-      <c r="B169" s="14" t="s">
-        <v>1640</v>
-      </c>
-      <c r="C169" s="14" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D169" s="10">
+      <c r="B169" s="13" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D169">
         <v>169</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A170" s="4" t="str">
+      <c r="A170" t="str">
         <f t="shared" si="2"/>
         <v>00000170</v>
       </c>
-      <c r="B170" s="14" t="s">
-        <v>1641</v>
-      </c>
-      <c r="C170" s="14" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D170" s="10">
+      <c r="B170" s="13" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D170">
         <v>170</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A171" s="4" t="str">
+      <c r="A171" t="str">
         <f t="shared" si="2"/>
         <v>00000171</v>
       </c>
-      <c r="B171" s="8" t="s">
-        <v>1653</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>1544</v>
-      </c>
-      <c r="D171" s="10">
+      <c r="B171" s="13" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D171">
         <v>171</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A172" s="4" t="str">
+      <c r="A172" t="str">
         <f t="shared" si="2"/>
         <v>00000172</v>
       </c>
-      <c r="B172" s="8" t="s">
-        <v>1654</v>
-      </c>
-      <c r="C172" s="8" t="s">
-        <v>1679</v>
-      </c>
-      <c r="D172" s="10">
+      <c r="B172" s="13" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D172">
         <v>172</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A173" s="4" t="str">
+      <c r="A173" t="str">
         <f t="shared" si="2"/>
         <v>00000173</v>
       </c>
-      <c r="B173" s="8" t="s">
-        <v>1655</v>
-      </c>
-      <c r="C173" s="8" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D173" s="10">
+      <c r="B173" s="13" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D173">
         <v>173</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A174" s="4" t="str">
+      <c r="A174" t="str">
         <f t="shared" si="2"/>
         <v>00000174</v>
       </c>
-      <c r="B174" s="8" t="s">
-        <v>1656</v>
-      </c>
-      <c r="C174" s="8" t="s">
-        <v>1586</v>
-      </c>
-      <c r="D174" s="10">
+      <c r="B174" s="13" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D174">
         <v>174</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A175" s="4" t="str">
+      <c r="A175" t="str">
         <f t="shared" si="2"/>
         <v>00000175</v>
       </c>
-      <c r="B175" s="8" t="s">
-        <v>1657</v>
-      </c>
-      <c r="C175" s="8" t="s">
-        <v>1544</v>
-      </c>
-      <c r="D175" s="10">
+      <c r="B175" s="18" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C175" s="18" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D175">
         <v>175</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A176" s="4" t="str">
+      <c r="A176" t="str">
         <f t="shared" si="2"/>
         <v>00000176</v>
       </c>
-      <c r="B176" s="8" t="s">
+      <c r="B176" s="13" t="s">
         <v>1658</v>
       </c>
-      <c r="C176" s="8" t="s">
-        <v>1681</v>
-      </c>
-      <c r="D176" s="10">
+      <c r="C176" s="13" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D176">
         <v>176</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A177" s="4" t="str">
+      <c r="A177" t="str">
         <f t="shared" si="2"/>
         <v>00000177</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="B177" s="13" t="s">
         <v>1659</v>
       </c>
-      <c r="C177" s="8" t="s">
-        <v>1512</v>
-      </c>
-      <c r="D177" s="10">
+      <c r="C177" s="13" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D177">
         <v>177</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A178" s="4" t="str">
+      <c r="A178" t="str">
         <f t="shared" si="2"/>
         <v>00000178</v>
       </c>
-      <c r="B178" s="8" t="s">
+      <c r="B178" s="13" t="s">
         <v>1660</v>
       </c>
-      <c r="C178" s="8" t="s">
-        <v>1682</v>
-      </c>
-      <c r="D178" s="10">
+      <c r="C178" s="13" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D178">
         <v>178</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A179" s="4" t="str">
+      <c r="A179" t="str">
         <f t="shared" si="2"/>
         <v>00000179</v>
       </c>
-      <c r="B179" s="8" t="s">
+      <c r="B179" s="13" t="s">
         <v>1661</v>
       </c>
-      <c r="C179" s="8" t="s">
-        <v>1683</v>
-      </c>
-      <c r="D179" s="10">
+      <c r="C179" s="13" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D179">
         <v>179</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A180" s="4" t="str">
+      <c r="A180" t="str">
         <f t="shared" si="2"/>
         <v>00000180</v>
       </c>
-      <c r="B180" s="8" t="s">
+      <c r="B180" s="13" t="s">
         <v>1662</v>
       </c>
-      <c r="C180" s="8" t="s">
-        <v>1681</v>
-      </c>
-      <c r="D180" s="10">
+      <c r="C180" s="13" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D180">
         <v>180</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A181" s="4" t="str">
+      <c r="A181" t="str">
         <f t="shared" si="2"/>
         <v>00000181</v>
       </c>
-      <c r="B181" s="8" t="s">
+      <c r="B181" s="13" t="s">
         <v>1663</v>
       </c>
-      <c r="C181" s="8" t="s">
-        <v>1684</v>
-      </c>
-      <c r="D181" s="10">
+      <c r="C181" s="13" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D181">
         <v>181</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A182" s="4" t="str">
+      <c r="A182" t="str">
         <f t="shared" si="2"/>
         <v>00000182</v>
       </c>
-      <c r="B182" s="8" t="s">
+      <c r="B182" s="13" t="s">
         <v>1664</v>
       </c>
-      <c r="C182" s="8" t="s">
-        <v>1685</v>
-      </c>
-      <c r="D182" s="10">
+      <c r="C182" s="13" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D182">
         <v>182</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A183" s="4" t="str">
+      <c r="A183" t="str">
         <f t="shared" si="2"/>
         <v>00000183</v>
       </c>
-      <c r="B183" s="8" t="s">
+      <c r="B183" s="13" t="s">
         <v>1665</v>
       </c>
-      <c r="C183" s="8" t="s">
-        <v>1676</v>
-      </c>
-      <c r="D183" s="10">
+      <c r="C183" s="13" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D183">
         <v>183</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A184" s="4" t="str">
+      <c r="A184" t="str">
         <f t="shared" si="2"/>
         <v>00000184</v>
       </c>
-      <c r="B184" s="8" t="s">
+      <c r="B184" s="13" t="s">
         <v>1666</v>
       </c>
-      <c r="C184" s="8" t="s">
-        <v>1684</v>
-      </c>
-      <c r="D184" s="10">
+      <c r="C184" s="13" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D184">
         <v>184</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A185" s="4" t="str">
+      <c r="A185" t="str">
         <f t="shared" si="2"/>
         <v>00000185</v>
       </c>
-      <c r="B185" s="8" t="s">
+      <c r="B185" s="13" t="s">
         <v>1667</v>
       </c>
-      <c r="C185" s="8" t="s">
-        <v>1686</v>
-      </c>
-      <c r="D185" s="10">
+      <c r="C185" s="13" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D185">
         <v>185</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A186" s="4" t="str">
+      <c r="A186" t="str">
         <f t="shared" si="2"/>
         <v>00000186</v>
       </c>
-      <c r="B186" s="8" t="s">
+      <c r="B186" s="13" t="s">
         <v>1668</v>
       </c>
-      <c r="C186" s="8" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D186" s="10">
+      <c r="C186" s="13" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D186">
         <v>186</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A187" s="4" t="str">
+      <c r="A187" t="str">
         <f t="shared" si="2"/>
         <v>00000187</v>
       </c>
-      <c r="B187" s="8" t="s">
+      <c r="B187" s="13" t="s">
         <v>1669</v>
       </c>
-      <c r="C187" s="8" t="s">
-        <v>1686</v>
-      </c>
-      <c r="D187" s="10">
+      <c r="C187" s="13" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D187">
         <v>187</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A188" s="4" t="str">
+      <c r="A188" t="str">
         <f t="shared" si="2"/>
         <v>00000188</v>
       </c>
-      <c r="B188" s="8" t="s">
+      <c r="B188" s="13" t="s">
         <v>1670</v>
       </c>
-      <c r="C188" s="8" t="s">
-        <v>1687</v>
-      </c>
-      <c r="D188" s="10">
+      <c r="C188" s="13" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D188">
         <v>188</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A189" s="4" t="str">
+      <c r="A189" t="str">
         <f t="shared" si="2"/>
         <v>00000189</v>
       </c>
-      <c r="B189" s="8" t="s">
+      <c r="B189" s="13" t="s">
         <v>1671</v>
       </c>
-      <c r="C189" s="8" t="s">
-        <v>1681</v>
-      </c>
-      <c r="D189" s="10">
+      <c r="C189" s="13" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D189">
         <v>189</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A190" s="4" t="str">
+      <c r="A190" t="str">
         <f t="shared" si="2"/>
         <v>00000190</v>
       </c>
-      <c r="B190" s="15" t="s">
+      <c r="B190" s="13" t="s">
         <v>1672</v>
       </c>
-      <c r="C190" s="15" t="s">
-        <v>1681</v>
-      </c>
-      <c r="D190" s="10">
+      <c r="C190" s="13" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D190">
         <v>190</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A191" s="4" t="str">
+      <c r="A191" t="str">
         <f t="shared" si="2"/>
         <v>00000191</v>
       </c>
-      <c r="B191" s="8" t="s">
+      <c r="B191" s="13" t="s">
         <v>1673</v>
       </c>
-      <c r="C191" s="8" t="s">
-        <v>1676</v>
-      </c>
-      <c r="D191" s="10">
+      <c r="C191" s="13" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D191">
         <v>191</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A192" s="4" t="str">
+      <c r="A192" t="str">
         <f t="shared" si="2"/>
         <v>00000192</v>
       </c>
-      <c r="B192" s="8" t="s">
+      <c r="B192" s="13" t="s">
         <v>1674</v>
       </c>
-      <c r="C192" s="8" t="s">
-        <v>1677</v>
-      </c>
-      <c r="D192" s="10">
+      <c r="C192" s="13" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D192">
         <v>192</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A193" s="4" t="str">
+      <c r="A193" t="str">
         <f t="shared" si="2"/>
         <v>00000193</v>
       </c>
-      <c r="B193" s="15" t="s">
+      <c r="B193" s="13" t="s">
         <v>1675</v>
       </c>
-      <c r="C193" s="15" t="s">
-        <v>1678</v>
-      </c>
-      <c r="D193" s="10">
+      <c r="C193" s="13" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D193">
         <v>193</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A194" s="4" t="str">
+      <c r="A194" t="str">
         <f t="shared" ref="A194:A257" si="3">TEXT(D194, "00000000")</f>
         <v>00000194</v>
       </c>
-      <c r="B194" s="8" t="s">
-        <v>1688</v>
-      </c>
-      <c r="C194" s="8" t="s">
-        <v>1750</v>
-      </c>
-      <c r="D194" s="10">
+      <c r="B194" s="13" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C194" s="13" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D194">
         <v>194</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A195" s="4" t="str">
+      <c r="A195" t="str">
         <f t="shared" si="3"/>
         <v>00000195</v>
       </c>
-      <c r="B195" s="8" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C195" s="8" t="s">
-        <v>1751</v>
-      </c>
-      <c r="D195" s="10">
+      <c r="B195" s="13" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C195" s="13" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D195">
         <v>195</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A196" s="4" t="str">
+      <c r="A196" t="str">
         <f t="shared" si="3"/>
         <v>00000196</v>
       </c>
-      <c r="B196" s="8" t="s">
-        <v>1690</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>1751</v>
-      </c>
-      <c r="D196" s="10">
+      <c r="B196" s="13" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C196" s="13" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D196">
         <v>196</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A197" s="4" t="str">
+      <c r="A197" t="str">
         <f t="shared" si="3"/>
         <v>00000197</v>
       </c>
-      <c r="B197" s="8" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C197" s="8" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D197" s="10">
+      <c r="B197" s="13" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C197" s="13" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D197">
         <v>197</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A198" s="4" t="str">
+      <c r="A198" t="str">
         <f t="shared" si="3"/>
         <v>00000198</v>
       </c>
-      <c r="B198" s="8" t="s">
-        <v>1692</v>
-      </c>
-      <c r="C198" s="8" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D198" s="10">
+      <c r="B198" s="13" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C198" s="13" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D198">
         <v>198</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A199" s="4" t="str">
+      <c r="A199" t="str">
         <f t="shared" si="3"/>
         <v>00000199</v>
       </c>
-      <c r="B199" s="8" t="s">
-        <v>1693</v>
-      </c>
-      <c r="C199" s="8" t="s">
-        <v>1753</v>
-      </c>
-      <c r="D199" s="10">
+      <c r="B199" s="13" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C199" s="13" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D199">
         <v>199</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A200" s="4" t="str">
+      <c r="A200" t="str">
         <f t="shared" si="3"/>
         <v>00000200</v>
       </c>
-      <c r="B200" s="8" t="s">
-        <v>1694</v>
-      </c>
-      <c r="C200" s="8" t="s">
-        <v>1754</v>
-      </c>
-      <c r="D200" s="10">
+      <c r="B200" s="13" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C200" s="13" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D200">
         <v>200</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A201" s="4" t="str">
+      <c r="A201" t="str">
         <f t="shared" si="3"/>
         <v>00000201</v>
       </c>
-      <c r="B201" s="8" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C201" s="8" t="s">
-        <v>1754</v>
-      </c>
-      <c r="D201" s="10">
+      <c r="B201" s="13" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C201" s="13" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D201">
         <v>201</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A202" s="4" t="str">
+      <c r="A202" t="str">
         <f t="shared" si="3"/>
         <v>00000202</v>
       </c>
-      <c r="B202" s="8" t="s">
-        <v>1696</v>
-      </c>
-      <c r="C202" s="8" t="s">
-        <v>1754</v>
-      </c>
-      <c r="D202" s="10">
+      <c r="B202" s="13" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C202" s="13" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D202">
         <v>202</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A203" s="4" t="str">
+      <c r="A203" t="str">
         <f t="shared" si="3"/>
         <v>00000203</v>
       </c>
-      <c r="B203" s="8" t="s">
-        <v>1697</v>
-      </c>
-      <c r="C203" s="8" t="s">
-        <v>1755</v>
-      </c>
-      <c r="D203" s="10">
+      <c r="B203" s="13" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C203" s="13" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D203">
         <v>203</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A204" s="4" t="str">
+      <c r="A204" t="str">
         <f t="shared" si="3"/>
         <v>00000204</v>
       </c>
-      <c r="B204" s="8" t="s">
-        <v>1698</v>
-      </c>
-      <c r="C204" s="8" t="s">
-        <v>1755</v>
-      </c>
-      <c r="D204" s="10">
+      <c r="B204" s="13" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C204" s="13" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D204">
         <v>204</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A205" s="4" t="str">
+      <c r="A205" t="str">
         <f t="shared" si="3"/>
         <v>00000205</v>
       </c>
-      <c r="B205" s="8" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C205" s="8" t="s">
-        <v>1756</v>
-      </c>
-      <c r="D205" s="10">
+      <c r="B205" s="13" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C205" s="13" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D205">
         <v>205</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A206" s="4" t="str">
+      <c r="A206" t="str">
         <f t="shared" si="3"/>
         <v>00000206</v>
       </c>
-      <c r="B206" s="8" t="s">
-        <v>1700</v>
-      </c>
-      <c r="C206" s="8" t="s">
-        <v>1751</v>
-      </c>
-      <c r="D206" s="10">
+      <c r="B206" s="13" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C206" s="13" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D206">
         <v>206</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A207" s="4" t="str">
+      <c r="A207" t="str">
         <f t="shared" si="3"/>
         <v>00000207</v>
       </c>
-      <c r="B207" s="8" t="s">
-        <v>1701</v>
-      </c>
-      <c r="C207" s="8" t="s">
-        <v>1757</v>
-      </c>
-      <c r="D207" s="10">
+      <c r="B207" s="13" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C207" s="13" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D207">
         <v>207</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A208" s="4" t="str">
+      <c r="A208" t="str">
         <f t="shared" si="3"/>
         <v>00000208</v>
       </c>
-      <c r="B208" s="8" t="s">
-        <v>1702</v>
-      </c>
-      <c r="C208" s="8" t="s">
-        <v>1751</v>
-      </c>
-      <c r="D208" s="10">
+      <c r="B208" s="13" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C208" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D208">
         <v>208</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A209" s="4" t="str">
+      <c r="A209" t="str">
         <f t="shared" si="3"/>
         <v>00000209</v>
       </c>
-      <c r="B209" s="8" t="s">
-        <v>1703</v>
-      </c>
-      <c r="C209" s="8" t="s">
-        <v>1758</v>
-      </c>
-      <c r="D209" s="10">
+      <c r="B209" s="13" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C209" s="13" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D209">
         <v>209</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A210" s="4" t="str">
+      <c r="A210" t="str">
         <f t="shared" si="3"/>
         <v>00000210</v>
       </c>
-      <c r="B210" s="8" t="s">
-        <v>1704</v>
-      </c>
-      <c r="C210" s="8" t="s">
-        <v>1759</v>
-      </c>
-      <c r="D210" s="10">
+      <c r="B210" s="13" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C210" s="13" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D210">
         <v>210</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A211" s="4" t="str">
+      <c r="A211" t="str">
         <f t="shared" si="3"/>
         <v>00000211</v>
       </c>
-      <c r="B211" s="8" t="s">
-        <v>1705</v>
-      </c>
-      <c r="C211" s="8" t="s">
-        <v>1759</v>
-      </c>
-      <c r="D211" s="10">
+      <c r="B211" s="13" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C211" s="13" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D211">
         <v>211</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A212" s="4" t="str">
+      <c r="A212" t="str">
         <f t="shared" si="3"/>
         <v>00000212</v>
       </c>
-      <c r="B212" s="8" t="s">
-        <v>1706</v>
-      </c>
-      <c r="C212" s="8" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D212" s="10">
+      <c r="B212" s="13" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C212" s="13" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D212">
         <v>212</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A213" s="4" t="str">
+      <c r="A213" t="str">
         <f t="shared" si="3"/>
         <v>00000213</v>
       </c>
-      <c r="B213" s="8" t="s">
-        <v>1707</v>
-      </c>
-      <c r="C213" s="8" t="s">
-        <v>1761</v>
-      </c>
-      <c r="D213" s="10">
+      <c r="B213" s="13" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C213" s="13" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D213">
         <v>213</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A214" s="4" t="str">
+      <c r="A214" t="str">
         <f t="shared" si="3"/>
         <v>00000214</v>
       </c>
-      <c r="B214" s="8" t="s">
-        <v>1708</v>
-      </c>
-      <c r="C214" s="8" t="s">
-        <v>1761</v>
-      </c>
-      <c r="D214" s="10">
+      <c r="B214" s="13" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C214" s="13" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D214">
         <v>214</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A215" s="4" t="str">
+      <c r="A215" t="str">
         <f t="shared" si="3"/>
         <v>00000215</v>
       </c>
-      <c r="B215" s="8" t="s">
-        <v>1709</v>
-      </c>
-      <c r="C215" s="8" t="s">
-        <v>1762</v>
-      </c>
-      <c r="D215" s="10">
+      <c r="B215" s="13" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C215" s="13" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D215">
         <v>215</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A216" s="4" t="str">
+      <c r="A216" t="str">
         <f t="shared" si="3"/>
         <v>00000216</v>
       </c>
-      <c r="B216" s="8" t="s">
-        <v>1710</v>
-      </c>
-      <c r="C216" s="8" t="s">
-        <v>1762</v>
-      </c>
-      <c r="D216" s="10">
+      <c r="B216" s="13" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C216" s="13" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D216">
         <v>216</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A217" s="4" t="str">
+      <c r="A217" t="str">
         <f t="shared" si="3"/>
         <v>00000217</v>
       </c>
-      <c r="B217" s="8" t="s">
-        <v>1711</v>
-      </c>
-      <c r="C217" s="8" t="s">
-        <v>1762</v>
-      </c>
-      <c r="D217" s="10">
+      <c r="B217" s="13" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C217" s="13" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D217">
         <v>217</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A218" s="4" t="str">
+      <c r="A218" t="str">
         <f t="shared" si="3"/>
         <v>00000218</v>
       </c>
-      <c r="B218" s="8" t="s">
-        <v>1712</v>
-      </c>
-      <c r="C218" s="8" t="s">
-        <v>1452</v>
-      </c>
-      <c r="D218" s="10">
+      <c r="B218" s="13" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C218" s="13" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D218">
         <v>218</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A219" s="4" t="str">
+      <c r="A219" t="str">
         <f t="shared" si="3"/>
         <v>00000219</v>
       </c>
-      <c r="B219" s="8" t="s">
-        <v>1713</v>
-      </c>
-      <c r="C219" s="8" t="s">
-        <v>1763</v>
-      </c>
-      <c r="D219" s="10">
+      <c r="B219" s="13" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C219" s="13" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D219">
         <v>219</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A220" s="4" t="str">
+      <c r="A220" t="str">
         <f t="shared" si="3"/>
         <v>00000220</v>
       </c>
-      <c r="B220" s="8" t="s">
-        <v>1714</v>
-      </c>
-      <c r="C220" s="8" t="s">
-        <v>1763</v>
-      </c>
-      <c r="D220" s="10">
+      <c r="B220" s="13" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C220" s="13" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D220">
         <v>220</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A221" s="4" t="str">
+      <c r="A221" t="str">
         <f t="shared" si="3"/>
         <v>00000221</v>
       </c>
-      <c r="B221" s="8" t="s">
-        <v>1715</v>
-      </c>
-      <c r="C221" s="8" t="s">
-        <v>1764</v>
-      </c>
-      <c r="D221" s="10">
+      <c r="B221" s="13" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C221" s="13" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D221">
         <v>221</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A222" s="4" t="str">
+      <c r="A222" t="str">
         <f t="shared" si="3"/>
         <v>00000222</v>
       </c>
-      <c r="B222" s="8" t="s">
-        <v>1716</v>
-      </c>
-      <c r="C222" s="8" t="s">
-        <v>1765</v>
-      </c>
-      <c r="D222" s="10">
+      <c r="B222" s="13" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C222" s="13" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D222">
         <v>222</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A223" s="4" t="str">
+      <c r="A223" t="str">
         <f t="shared" si="3"/>
         <v>00000223</v>
       </c>
-      <c r="B223" s="8" t="s">
-        <v>1717</v>
-      </c>
-      <c r="C223" s="8" t="s">
-        <v>1764</v>
-      </c>
-      <c r="D223" s="10">
+      <c r="B223" s="13" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C223" s="13" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D223">
         <v>223</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A224" s="4" t="str">
+      <c r="A224" t="str">
         <f t="shared" si="3"/>
         <v>00000224</v>
       </c>
-      <c r="B224" s="8" t="s">
-        <v>1718</v>
-      </c>
-      <c r="C224" s="8" t="s">
-        <v>1766</v>
-      </c>
-      <c r="D224" s="10">
+      <c r="B224" s="13" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C224" s="13" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D224">
         <v>224</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A225" s="4" t="str">
+      <c r="A225" t="str">
         <f t="shared" si="3"/>
         <v>00000225</v>
       </c>
-      <c r="B225" s="8" t="s">
-        <v>1719</v>
-      </c>
-      <c r="C225" s="8" t="s">
-        <v>1766</v>
-      </c>
-      <c r="D225" s="10">
+      <c r="B225" s="13" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C225" s="13" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D225">
         <v>225</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A226" s="4" t="str">
+      <c r="A226" t="str">
         <f t="shared" si="3"/>
         <v>00000226</v>
       </c>
-      <c r="B226" s="8" t="s">
-        <v>1720</v>
-      </c>
-      <c r="C226" s="8" t="s">
-        <v>1588</v>
-      </c>
-      <c r="D226" s="10">
+      <c r="B226" s="13" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C226" s="13" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D226">
         <v>226</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A227" s="4" t="str">
+      <c r="A227" t="str">
         <f t="shared" si="3"/>
         <v>00000227</v>
       </c>
-      <c r="B227" s="8" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C227" s="8" t="s">
-        <v>1767</v>
-      </c>
-      <c r="D227" s="10">
+      <c r="B227" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C227" s="13" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D227">
         <v>227</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A228" s="4" t="str">
+      <c r="A228" t="str">
         <f t="shared" si="3"/>
         <v>00000228</v>
       </c>
-      <c r="B228" s="8" t="s">
-        <v>1722</v>
-      </c>
-      <c r="C228" s="8" t="s">
-        <v>1767</v>
-      </c>
-      <c r="D228" s="10">
+      <c r="B228" s="13" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C228" s="13" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D228">
         <v>228</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A229" s="4" t="str">
+      <c r="A229" t="str">
         <f t="shared" si="3"/>
         <v>00000229</v>
       </c>
-      <c r="B229" s="8" t="s">
-        <v>1723</v>
-      </c>
-      <c r="C229" s="8" t="s">
-        <v>1768</v>
-      </c>
-      <c r="D229" s="10">
+      <c r="B229" s="13" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C229" s="13" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D229">
         <v>229</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A230" s="4" t="str">
+      <c r="A230" t="str">
         <f t="shared" si="3"/>
         <v>00000230</v>
       </c>
-      <c r="B230" s="8" t="s">
-        <v>1724</v>
-      </c>
-      <c r="C230" s="8" t="s">
-        <v>1446</v>
-      </c>
-      <c r="D230" s="10">
+      <c r="B230" s="13" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C230" s="13" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D230">
         <v>230</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A231" s="4" t="str">
+      <c r="A231" t="str">
         <f t="shared" si="3"/>
         <v>00000231</v>
       </c>
-      <c r="B231" s="8" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C231" s="8" t="s">
-        <v>1769</v>
-      </c>
-      <c r="D231" s="10">
+      <c r="B231" s="13" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C231" s="13" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D231">
         <v>231</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A232" s="4" t="str">
+      <c r="A232" t="str">
         <f t="shared" si="3"/>
         <v>00000232</v>
       </c>
-      <c r="B232" s="8" t="s">
-        <v>1726</v>
-      </c>
-      <c r="C232" s="8" t="s">
-        <v>1761</v>
-      </c>
-      <c r="D232" s="10">
+      <c r="B232" s="13" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C232" s="13" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D232">
         <v>232</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A233" s="4" t="str">
+      <c r="A233" t="str">
         <f t="shared" si="3"/>
         <v>00000233</v>
       </c>
-      <c r="B233" s="8" t="s">
-        <v>1727</v>
-      </c>
-      <c r="C233" s="8" t="s">
-        <v>1676</v>
-      </c>
-      <c r="D233" s="10">
+      <c r="B233" s="13" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C233" s="13" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D233">
         <v>233</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A234" s="4" t="str">
+      <c r="A234" t="str">
         <f t="shared" si="3"/>
         <v>00000234</v>
       </c>
-      <c r="B234" s="8" t="s">
-        <v>1728</v>
-      </c>
-      <c r="C234" s="8" t="s">
-        <v>1676</v>
-      </c>
-      <c r="D234" s="10">
+      <c r="B234" s="13" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C234" s="13" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D234">
         <v>234</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A235" s="4" t="str">
+      <c r="A235" t="str">
         <f t="shared" si="3"/>
         <v>00000235</v>
       </c>
-      <c r="B235" s="8" t="s">
-        <v>1729</v>
-      </c>
-      <c r="C235" s="8" t="s">
-        <v>1759</v>
-      </c>
-      <c r="D235" s="10">
+      <c r="B235" s="13" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C235" s="13" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D235">
         <v>235</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A236" s="4" t="str">
+      <c r="A236" t="str">
         <f t="shared" si="3"/>
         <v>00000236</v>
       </c>
-      <c r="B236" s="8" t="s">
-        <v>1730</v>
-      </c>
-      <c r="C236" s="8" t="s">
-        <v>1770</v>
-      </c>
-      <c r="D236" s="10">
+      <c r="B236" s="19" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C236" s="19" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D236">
         <v>236</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A237" s="4" t="str">
+      <c r="A237" t="str">
         <f t="shared" si="3"/>
         <v>00000237</v>
       </c>
-      <c r="B237" s="8" t="s">
-        <v>1731</v>
-      </c>
-      <c r="C237" s="8" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D237" s="10">
+      <c r="B237" s="19" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C237" s="19" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D237">
         <v>237</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A238" s="4" t="str">
+      <c r="A238" t="str">
         <f t="shared" si="3"/>
         <v>00000238</v>
       </c>
-      <c r="B238" s="8" t="s">
-        <v>1732</v>
-      </c>
-      <c r="C238" s="8" t="s">
-        <v>1676</v>
-      </c>
-      <c r="D238" s="10">
+      <c r="B238" s="19" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C238" s="19" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D238">
         <v>238</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A239" s="4" t="str">
+      <c r="A239" t="str">
         <f t="shared" si="3"/>
         <v>00000239</v>
       </c>
-      <c r="B239" s="8" t="s">
-        <v>1733</v>
-      </c>
-      <c r="C239" s="8" t="s">
-        <v>1772</v>
-      </c>
-      <c r="D239" s="10">
+      <c r="B239" s="9" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D239">
         <v>239</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A240" s="4" t="str">
+      <c r="A240" t="str">
         <f t="shared" si="3"/>
         <v>00000240</v>
       </c>
-      <c r="B240" s="8" t="s">
-        <v>1734</v>
-      </c>
-      <c r="C240" s="8" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D240" s="10">
+      <c r="B240" s="9" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D240">
         <v>240</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A241" s="4" t="str">
+      <c r="A241" t="str">
         <f t="shared" si="3"/>
         <v>00000241</v>
       </c>
-      <c r="B241" s="8" t="s">
-        <v>1735</v>
-      </c>
-      <c r="C241" s="8" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D241" s="10">
+      <c r="B241" s="9" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C241" s="9" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D241">
         <v>241</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A242" s="4" t="str">
+      <c r="A242" t="str">
         <f t="shared" si="3"/>
         <v>00000242</v>
       </c>
-      <c r="B242" s="8" t="s">
-        <v>1736</v>
-      </c>
-      <c r="C242" s="8" t="s">
-        <v>1769</v>
-      </c>
-      <c r="D242" s="10">
+      <c r="B242" s="9" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D242">
         <v>242</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A243" s="4" t="str">
+      <c r="A243" t="str">
         <f t="shared" si="3"/>
         <v>00000243</v>
       </c>
-      <c r="B243" s="8" t="s">
-        <v>1737</v>
-      </c>
-      <c r="C243" s="8" t="s">
-        <v>1773</v>
-      </c>
-      <c r="D243" s="10">
+      <c r="B243" s="9" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C243" s="9" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D243">
         <v>243</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A244" s="4" t="str">
+      <c r="A244" t="str">
         <f t="shared" si="3"/>
         <v>00000244</v>
       </c>
-      <c r="B244" s="8" t="s">
-        <v>1738</v>
-      </c>
-      <c r="C244" s="8" t="s">
-        <v>1774</v>
-      </c>
-      <c r="D244" s="10">
+      <c r="B244" s="9" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C244" s="9" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D244">
         <v>244</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A245" s="4" t="str">
+      <c r="A245" t="str">
         <f t="shared" si="3"/>
         <v>00000245</v>
       </c>
-      <c r="B245" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C245" s="8" t="s">
-        <v>1774</v>
-      </c>
-      <c r="D245" s="10">
+      <c r="B245" s="9" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D245">
         <v>245</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A246" s="4" t="str">
+      <c r="A246" t="str">
         <f t="shared" si="3"/>
         <v>00000246</v>
       </c>
-      <c r="B246" s="8" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C246" s="8" t="s">
-        <v>1775</v>
-      </c>
-      <c r="D246" s="10">
+      <c r="B246" s="9" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C246" s="9" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D246">
         <v>246</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A247" s="4" t="str">
+      <c r="A247" t="str">
         <f t="shared" si="3"/>
         <v>00000247</v>
       </c>
-      <c r="B247" s="8" t="s">
-        <v>1740</v>
-      </c>
-      <c r="C247" s="8" t="s">
-        <v>1776</v>
-      </c>
-      <c r="D247" s="10">
+      <c r="B247" s="9" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D247">
         <v>247</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A248" s="4" t="str">
+      <c r="A248" t="str">
         <f t="shared" si="3"/>
         <v>00000248</v>
       </c>
-      <c r="B248" s="8" t="s">
-        <v>1741</v>
-      </c>
-      <c r="C248" s="8" t="s">
-        <v>1777</v>
-      </c>
-      <c r="D248" s="10">
+      <c r="B248" s="9" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D248">
         <v>248</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A249" s="4" t="str">
+      <c r="A249" t="str">
         <f t="shared" si="3"/>
         <v>00000249</v>
       </c>
-      <c r="B249" s="8" t="s">
-        <v>1742</v>
-      </c>
-      <c r="C249" s="8" t="s">
-        <v>1776</v>
-      </c>
-      <c r="D249" s="10">
+      <c r="B249" s="9" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C249" s="9" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D249">
         <v>249</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A250" s="4" t="str">
+      <c r="A250" t="str">
         <f t="shared" si="3"/>
         <v>00000250</v>
       </c>
-      <c r="B250" s="8" t="s">
-        <v>1743</v>
-      </c>
-      <c r="C250" s="8" t="s">
-        <v>1778</v>
-      </c>
-      <c r="D250" s="10">
+      <c r="B250" s="9" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C250" s="9" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D250">
         <v>250</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A251" s="4" t="str">
+      <c r="A251" t="str">
         <f t="shared" si="3"/>
         <v>00000251</v>
       </c>
-      <c r="B251" s="8" t="s">
-        <v>1744</v>
-      </c>
-      <c r="C251" s="8" t="s">
-        <v>1776</v>
-      </c>
-      <c r="D251" s="10">
+      <c r="B251" s="9" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D251">
         <v>251</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A252" s="4" t="str">
+      <c r="A252" t="str">
         <f t="shared" si="3"/>
         <v>00000252</v>
       </c>
-      <c r="B252" s="8" t="s">
-        <v>1745</v>
-      </c>
-      <c r="C252" s="8" t="s">
-        <v>1768</v>
-      </c>
-      <c r="D252" s="10">
+      <c r="B252" s="9" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D252">
         <v>252</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A253" s="4" t="str">
+      <c r="A253" t="str">
         <f t="shared" si="3"/>
         <v>00000253</v>
       </c>
-      <c r="B253" s="8" t="s">
-        <v>1746</v>
-      </c>
-      <c r="C253" s="8" t="s">
-        <v>1768</v>
-      </c>
-      <c r="D253" s="10">
+      <c r="B253" s="9" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C253" s="9" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D253">
         <v>253</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A254" s="4" t="str">
+      <c r="A254" t="str">
         <f t="shared" si="3"/>
         <v>00000254</v>
       </c>
-      <c r="B254" s="8" t="s">
-        <v>1747</v>
-      </c>
-      <c r="C254" s="8" t="s">
-        <v>1776</v>
-      </c>
-      <c r="D254" s="10">
+      <c r="B254" s="10" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C254" s="10" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D254">
         <v>254</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A255" s="4" t="str">
+      <c r="A255" t="str">
         <f t="shared" si="3"/>
         <v>00000255</v>
       </c>
-      <c r="B255" s="8" t="s">
-        <v>1748</v>
-      </c>
-      <c r="C255" s="8" t="s">
-        <v>1776</v>
-      </c>
-      <c r="D255" s="10">
+      <c r="B255" s="10" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C255" s="10" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D255">
         <v>255</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A256" s="4" t="str">
+      <c r="A256" t="str">
         <f t="shared" si="3"/>
         <v>00000256</v>
       </c>
-      <c r="B256" s="8" t="s">
-        <v>1749</v>
-      </c>
-      <c r="C256" s="8" t="s">
-        <v>1776</v>
-      </c>
-      <c r="D256" s="10">
+      <c r="B256" s="9" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C256" s="9" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D256">
         <v>256</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A257" s="4" t="str">
+      <c r="A257" t="str">
         <f t="shared" si="3"/>
         <v>00000257</v>
       </c>
-      <c r="B257" s="8" t="s">
-        <v>1779</v>
-      </c>
-      <c r="C257" s="8" t="s">
-        <v>1814</v>
-      </c>
-      <c r="D257" s="10">
+      <c r="B257" s="9" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C257" s="9" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D257">
         <v>257</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A258" s="4" t="str">
-        <f t="shared" ref="A258:A292" si="4">TEXT(D258, "00000000")</f>
+      <c r="A258" t="str">
+        <f t="shared" ref="A258:A272" si="4">TEXT(D258, "00000000")</f>
         <v>00000258</v>
       </c>
-      <c r="B258" s="8" t="s">
-        <v>1780</v>
-      </c>
-      <c r="C258" s="8" t="s">
-        <v>1815</v>
-      </c>
-      <c r="D258" s="10">
+      <c r="B258" s="9" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C258" s="9" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D258">
         <v>258</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A259" s="4" t="str">
+      <c r="A259" t="str">
         <f t="shared" si="4"/>
         <v>00000259</v>
       </c>
-      <c r="B259" s="8" t="s">
-        <v>1781</v>
-      </c>
-      <c r="C259" s="8" t="s">
-        <v>1816</v>
-      </c>
-      <c r="D259" s="10">
+      <c r="B259" s="9" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C259" s="9" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D259">
         <v>259</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A260" s="4" t="str">
+      <c r="A260" t="str">
         <f t="shared" si="4"/>
         <v>00000260</v>
       </c>
-      <c r="B260" s="8" t="s">
-        <v>1782</v>
-      </c>
-      <c r="C260" s="8" t="s">
-        <v>1815</v>
-      </c>
-      <c r="D260" s="10">
+      <c r="B260" s="9" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C260" s="9" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D260">
         <v>260</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A261" s="4" t="str">
+      <c r="A261" t="str">
         <f t="shared" si="4"/>
         <v>00000261</v>
       </c>
-      <c r="B261" s="8" t="s">
-        <v>1783</v>
-      </c>
-      <c r="C261" s="8" t="s">
-        <v>1817</v>
-      </c>
-      <c r="D261" s="10">
+      <c r="B261" s="9" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D261">
         <v>261</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A262" s="4" t="str">
+      <c r="A262" t="str">
         <f t="shared" si="4"/>
         <v>00000262</v>
       </c>
-      <c r="B262" s="8" t="s">
-        <v>1784</v>
-      </c>
-      <c r="C262" s="8" t="s">
-        <v>1818</v>
-      </c>
-      <c r="D262" s="10">
+      <c r="B262" s="9" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D262">
         <v>262</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A263" s="4" t="str">
+      <c r="A263" t="str">
         <f t="shared" si="4"/>
         <v>00000263</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>1785</v>
-      </c>
-      <c r="C263" s="8" t="s">
-        <v>1819</v>
-      </c>
-      <c r="D263" s="10">
+        <v>1772</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D263">
         <v>263</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A264" s="4" t="str">
+      <c r="A264" t="str">
         <f t="shared" si="4"/>
         <v>00000264</v>
       </c>
-      <c r="B264" s="8" t="s">
-        <v>1786</v>
-      </c>
-      <c r="C264" s="8" t="s">
-        <v>1819</v>
-      </c>
-      <c r="D264" s="10">
+      <c r="B264" s="10" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C264" s="10" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D264">
         <v>264</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A265" s="4" t="str">
+      <c r="A265" t="str">
         <f t="shared" si="4"/>
         <v>00000265</v>
       </c>
-      <c r="B265" s="8" t="s">
-        <v>1787</v>
-      </c>
-      <c r="C265" s="8" t="s">
-        <v>1820</v>
-      </c>
-      <c r="D265" s="10">
+      <c r="B265" s="10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C265" s="10" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D265">
         <v>265</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A266" s="4" t="str">
+      <c r="A266" t="str">
         <f t="shared" si="4"/>
         <v>00000266</v>
       </c>
-      <c r="B266" s="8" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C266" s="8" t="s">
-        <v>1821</v>
-      </c>
-      <c r="D266" s="10">
+      <c r="B266" s="10" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C266" s="10" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D266">
         <v>266</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A267" s="4" t="str">
+      <c r="A267" t="str">
         <f t="shared" si="4"/>
         <v>00000267</v>
       </c>
-      <c r="B267" s="8" t="s">
-        <v>1789</v>
-      </c>
-      <c r="C267" s="8" t="s">
-        <v>1822</v>
-      </c>
-      <c r="D267" s="10">
+      <c r="B267" s="9" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C267" s="9" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D267">
         <v>267</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A268" s="4" t="str">
+      <c r="A268" t="str">
         <f t="shared" si="4"/>
         <v>00000268</v>
       </c>
-      <c r="B268" s="8" t="s">
-        <v>1790</v>
-      </c>
-      <c r="C268" s="8" t="s">
-        <v>1823</v>
-      </c>
-      <c r="D268" s="10">
+      <c r="B268" s="9" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C268" s="9" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D268">
         <v>268</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A269" s="4" t="str">
+      <c r="A269" t="str">
         <f t="shared" si="4"/>
         <v>00000269</v>
       </c>
-      <c r="B269" s="8" t="s">
-        <v>1791</v>
-      </c>
-      <c r="C269" s="8" t="s">
-        <v>1824</v>
-      </c>
-      <c r="D269" s="10">
+      <c r="B269" s="9" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C269" s="9" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D269">
         <v>269</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A270" s="4" t="str">
+      <c r="A270" t="str">
         <f t="shared" si="4"/>
         <v>00000270</v>
       </c>
-      <c r="B270" s="8" t="s">
-        <v>1792</v>
-      </c>
-      <c r="C270" s="8" t="s">
-        <v>1825</v>
-      </c>
-      <c r="D270" s="10">
+      <c r="B270" s="10" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C270" s="9" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D270">
         <v>270</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A271" s="4" t="str">
+      <c r="A271" t="str">
         <f t="shared" si="4"/>
         <v>00000271</v>
       </c>
-      <c r="B271" s="8" t="s">
-        <v>1793</v>
-      </c>
-      <c r="C271" s="8" t="s">
-        <v>1505</v>
-      </c>
-      <c r="D271" s="10">
+      <c r="B271" s="9" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C271" s="9" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D271">
         <v>271</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A272" s="4" t="str">
+      <c r="A272" t="str">
         <f t="shared" si="4"/>
         <v>00000272</v>
       </c>
-      <c r="B272" s="8" t="s">
-        <v>1794</v>
-      </c>
-      <c r="C272" s="8" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D272" s="10">
+      <c r="B272" s="10" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C272" s="9" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D272">
         <v>272</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A273" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>00000273</v>
-      </c>
-      <c r="B273" s="8" t="s">
-        <v>1795</v>
-      </c>
-      <c r="C273" s="8" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D273" s="10">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A274" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>00000274</v>
-      </c>
-      <c r="B274" s="8" t="s">
-        <v>1796</v>
-      </c>
-      <c r="C274" s="8" t="s">
-        <v>1827</v>
-      </c>
-      <c r="D274" s="10">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A275" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>00000275</v>
-      </c>
-      <c r="B275" s="8" t="s">
-        <v>1797</v>
-      </c>
-      <c r="C275" s="8" t="s">
-        <v>1504</v>
-      </c>
-      <c r="D275" s="10">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A276" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>00000276</v>
-      </c>
-      <c r="B276" s="8" t="s">
-        <v>1798</v>
-      </c>
-      <c r="C276" s="8" t="s">
-        <v>1828</v>
-      </c>
-      <c r="D276" s="10">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A277" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>00000277</v>
-      </c>
-      <c r="B277" s="8" t="s">
-        <v>1468</v>
-      </c>
-      <c r="C277" s="8" t="s">
-        <v>1829</v>
-      </c>
-      <c r="D277" s="10">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A278" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>00000278</v>
-      </c>
-      <c r="B278" s="8" t="s">
-        <v>1799</v>
-      </c>
-      <c r="C278" s="8" t="s">
-        <v>1830</v>
-      </c>
-      <c r="D278" s="10">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A279" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>00000279</v>
-      </c>
-      <c r="B279" s="8" t="s">
-        <v>1800</v>
-      </c>
-      <c r="C279" s="8" t="s">
-        <v>1830</v>
-      </c>
-      <c r="D279" s="10">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A280" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>00000280</v>
-      </c>
-      <c r="B280" s="8" t="s">
-        <v>1801</v>
-      </c>
-      <c r="C280" s="8" t="s">
-        <v>1831</v>
-      </c>
-      <c r="D280" s="10">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A281" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>00000281</v>
-      </c>
-      <c r="B281" s="8" t="s">
-        <v>1802</v>
-      </c>
-      <c r="C281" s="8" t="s">
-        <v>1832</v>
-      </c>
-      <c r="D281" s="10">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A282" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>00000282</v>
-      </c>
-      <c r="B282" s="8" t="s">
-        <v>1803</v>
-      </c>
-      <c r="C282" s="8" t="s">
-        <v>1828</v>
-      </c>
-      <c r="D282" s="10">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A283" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>00000283</v>
-      </c>
-      <c r="B283" s="8" t="s">
-        <v>1804</v>
-      </c>
-      <c r="C283" s="8" t="s">
-        <v>1833</v>
-      </c>
-      <c r="D283" s="10">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A284" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>00000284</v>
-      </c>
-      <c r="B284" s="8" t="s">
-        <v>1805</v>
-      </c>
-      <c r="C284" s="8" t="s">
-        <v>1547</v>
-      </c>
-      <c r="D284" s="10">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A285" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>00000285</v>
-      </c>
-      <c r="B285" s="8" t="s">
-        <v>1806</v>
-      </c>
-      <c r="C285" s="8" t="s">
-        <v>1830</v>
-      </c>
-      <c r="D285" s="10">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A286" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>00000286</v>
-      </c>
-      <c r="B286" s="8" t="s">
-        <v>1807</v>
-      </c>
-      <c r="C286" s="8" t="s">
-        <v>1834</v>
-      </c>
-      <c r="D286" s="10">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A287" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>00000287</v>
-      </c>
-      <c r="B287" s="8" t="s">
-        <v>1808</v>
-      </c>
-      <c r="C287" s="8" t="s">
-        <v>1835</v>
-      </c>
-      <c r="D287" s="10">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A288" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>00000288</v>
-      </c>
-      <c r="B288" s="8" t="s">
-        <v>1809</v>
-      </c>
-      <c r="C288" s="8" t="s">
-        <v>1835</v>
-      </c>
-      <c r="D288" s="10">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A289" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>00000289</v>
-      </c>
-      <c r="B289" s="8" t="s">
-        <v>1810</v>
-      </c>
-      <c r="C289" s="8" t="s">
-        <v>1835</v>
-      </c>
-      <c r="D289" s="10">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A290" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>00000290</v>
-      </c>
-      <c r="B290" s="8" t="s">
-        <v>1811</v>
-      </c>
-      <c r="C290" s="8" t="s">
-        <v>1829</v>
-      </c>
-      <c r="D290" s="10">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A291" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>00000291</v>
-      </c>
-      <c r="B291" s="8" t="s">
-        <v>1812</v>
-      </c>
-      <c r="C291" s="8" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D291" s="10">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A292" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>00000292</v>
-      </c>
-      <c r="B292" s="8" t="s">
-        <v>1813</v>
-      </c>
-      <c r="C292" s="8" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D292" s="10">
-        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/solve_list/list_name.xlsx
+++ b/solve_list/list_name.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\quaysotrungthuong\solve_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F166DD-6971-4CDA-9622-10AE1A06B183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B9B050-D325-4821-98C8-9E262EEA8A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="6528" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{1C648A08-575F-49B4-B556-F4C0E3E20F77}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{1C648A08-575F-49B4-B556-F4C0E3E20F77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3452" uniqueCount="2311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3404" uniqueCount="2318">
   <si>
     <t>13010084</t>
   </si>
@@ -5451,1516 +5451,1537 @@
     <t>Quỳnh Trang</t>
   </si>
   <si>
-    <t>An Thượng</t>
-  </si>
-  <si>
-    <t>Minh Đức</t>
-  </si>
-  <si>
-    <t>Hà Nội</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Doan</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Trường</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Thỏa</t>
-  </si>
-  <si>
-    <t>Đồng Tâm</t>
-  </si>
-  <si>
     <t>Tân Dân</t>
   </si>
   <si>
-    <t>Long Xuyên</t>
-  </si>
-  <si>
-    <t>Hồng Quang</t>
-  </si>
-  <si>
-    <t>Hà Thị Thêu</t>
-  </si>
-  <si>
-    <t>0383760141</t>
-  </si>
-  <si>
-    <t>030159017555</t>
-  </si>
-  <si>
-    <t>Tân Hương</t>
-  </si>
-  <si>
-    <t>Ninh Giang</t>
-  </si>
-  <si>
-    <t>Hải Dương</t>
-  </si>
-  <si>
-    <t>Bùi Thị Doan</t>
-  </si>
-  <si>
-    <t>0705524801</t>
-  </si>
-  <si>
-    <t>030172012110</t>
-  </si>
-  <si>
-    <t>Kiến Quốc</t>
-  </si>
-  <si>
-    <t>0376104128</t>
-  </si>
-  <si>
-    <t>030057013099</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Thỉnh</t>
-  </si>
-  <si>
-    <t>0986324614</t>
-  </si>
-  <si>
-    <t>030165005471</t>
-  </si>
-  <si>
-    <t>Vĩnh Hòa</t>
-  </si>
-  <si>
-    <t>Chu Thị Thúy</t>
-  </si>
-  <si>
-    <t>0345066249</t>
-  </si>
-  <si>
-    <t>030168000901</t>
-  </si>
-  <si>
-    <t>Phan Thị Bé</t>
-  </si>
-  <si>
-    <t>0378506153</t>
-  </si>
-  <si>
-    <t>030157007413</t>
-  </si>
-  <si>
-    <t>Vĩnh hoà</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Mền</t>
-  </si>
-  <si>
-    <t>0367117169</t>
-  </si>
-  <si>
-    <t>030158007884</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Nhận</t>
-  </si>
-  <si>
-    <t>0979258852</t>
-  </si>
-  <si>
-    <t>030064010407</t>
-  </si>
-  <si>
-    <t>Thanh Miện</t>
-  </si>
-  <si>
-    <t>Vũ Thị Bình</t>
-  </si>
-  <si>
-    <t>0328867469</t>
-  </si>
-  <si>
-    <t>030164017668</t>
-  </si>
-  <si>
-    <t>Trần Văn Thế</t>
-  </si>
-  <si>
-    <t>0973026534</t>
-  </si>
-  <si>
-    <t>030073001874</t>
-  </si>
-  <si>
-    <t>Đông Xuyên</t>
-  </si>
-  <si>
-    <t>0348712728</t>
-  </si>
-  <si>
-    <t>030173004825</t>
-  </si>
-  <si>
-    <t>Hà Văn Tám</t>
-  </si>
-  <si>
-    <t>0368719905</t>
-  </si>
-  <si>
-    <t>030060009085</t>
-  </si>
-  <si>
-    <t>Vũ Văn Tú</t>
-  </si>
-  <si>
-    <t>0372800842</t>
-  </si>
-  <si>
-    <t>030071003346</t>
-  </si>
-  <si>
-    <t>Lưu Đức Khái</t>
-  </si>
-  <si>
-    <t>0366766298</t>
-  </si>
-  <si>
-    <t>030059001537</t>
-  </si>
-  <si>
-    <t>Nghĩa An</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Thán</t>
-  </si>
-  <si>
-    <t>0977993257</t>
-  </si>
-  <si>
-    <t>030061012488</t>
-  </si>
-  <si>
-    <t>Nguyễn Xuân Thính</t>
-  </si>
-  <si>
-    <t>0354410024</t>
-  </si>
-  <si>
-    <t>030059007254</t>
-  </si>
-  <si>
-    <t>Nguyễn Thế Vinh</t>
-  </si>
-  <si>
-    <t>0398142068</t>
-  </si>
-  <si>
-    <t>030056000195</t>
-  </si>
-  <si>
-    <t>Vũ Văn Vinh</t>
-  </si>
-  <si>
-    <t>0936694909</t>
-  </si>
-  <si>
-    <t>030066004706</t>
-  </si>
-  <si>
-    <t>Nguyễn Thế Chính</t>
-  </si>
-  <si>
-    <t>0976024939</t>
-  </si>
-  <si>
-    <t>030065015175</t>
-  </si>
-  <si>
-    <t>Nguyễn Tấn Ky</t>
-  </si>
-  <si>
-    <t>0911007388</t>
-  </si>
-  <si>
-    <t>030059010687</t>
-  </si>
-  <si>
-    <t>Ninh Hải</t>
-  </si>
-  <si>
-    <t>Nguyễn Tấn Nhanh</t>
-  </si>
-  <si>
-    <t>0986761208</t>
-  </si>
-  <si>
-    <t>030049006811</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nguyễn Văn Quảng</t>
-  </si>
-  <si>
-    <t>0382698789</t>
-  </si>
-  <si>
-    <t>030077023172</t>
-  </si>
-  <si>
-    <t>Phạm Kha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thanh Miện </t>
-  </si>
-  <si>
-    <t>Phùng Danh Huy</t>
-  </si>
-  <si>
-    <t>0976275629</t>
-  </si>
-  <si>
-    <t>030069006747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phạm Trấn </t>
-  </si>
-  <si>
-    <t>Gia Lộc</t>
-  </si>
-  <si>
-    <t>Bùi Thị Thông</t>
-  </si>
-  <si>
-    <t>0943369989</t>
-  </si>
-  <si>
-    <t>030153003704</t>
-  </si>
-  <si>
-    <t>Vũ Thị Măng</t>
-  </si>
-  <si>
-    <t>0912043146</t>
-  </si>
-  <si>
-    <t>030185014052</t>
-  </si>
-  <si>
-    <t>Trương Thị Thu Chi</t>
-  </si>
-  <si>
-    <t>0972081429</t>
-  </si>
-  <si>
-    <t>094181009797</t>
-  </si>
-  <si>
-    <t>Lê Lợi</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Mây</t>
-  </si>
-  <si>
-    <t>0958142615</t>
-  </si>
-  <si>
-    <t>030166017976</t>
-  </si>
-  <si>
-    <t>Gia Tân</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Ngân</t>
-  </si>
-  <si>
-    <t>0972822594</t>
-  </si>
-  <si>
-    <t>030168000256</t>
-  </si>
-  <si>
-    <t>Gia Xuyên</t>
-  </si>
-  <si>
-    <t>Hồ Thị Lan</t>
-  </si>
-  <si>
-    <t>0932343150</t>
-  </si>
-  <si>
-    <t>030180000905</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Rồng</t>
-  </si>
-  <si>
-    <t>0988236698</t>
-  </si>
-  <si>
-    <t>030058011785</t>
-  </si>
-  <si>
     <t>Toàn Thắng</t>
   </si>
   <si>
-    <t>Nguyễn Kiên Cường</t>
-  </si>
-  <si>
-    <t>0347629586</t>
-  </si>
-  <si>
-    <t>030050004644</t>
-  </si>
-  <si>
-    <t>Gia Khánh</t>
-  </si>
-  <si>
-    <t>Phạm Thị Tý</t>
-  </si>
-  <si>
-    <t>0363406037</t>
-  </si>
-  <si>
-    <t>030166007691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thống Nhất </t>
-  </si>
-  <si>
-    <t>0373173653</t>
-  </si>
-  <si>
-    <t>030165001688</t>
-  </si>
-  <si>
-    <t>Thạch Khôi</t>
-  </si>
-  <si>
-    <t>Phạm Thị Huệ</t>
-  </si>
-  <si>
-    <t>0396053758</t>
-  </si>
-  <si>
-    <t>030172004284</t>
-  </si>
-  <si>
-    <t>Vũ Thị Út</t>
-  </si>
-  <si>
-    <t>0365377176</t>
-  </si>
-  <si>
-    <t>030165010719</t>
-  </si>
-  <si>
-    <t>Yết Kiêu</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Điều</t>
-  </si>
-  <si>
-    <t>0982713641</t>
-  </si>
-  <si>
-    <t>030072016939</t>
-  </si>
-  <si>
-    <t>Phạm Đình Khiển</t>
-  </si>
-  <si>
-    <t>0984043682</t>
-  </si>
-  <si>
-    <t>030073015416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Văn Hiến </t>
-  </si>
-  <si>
-    <t>0365139870</t>
-  </si>
-  <si>
-    <t>030067010674</t>
-  </si>
-  <si>
-    <t>Liên Hồng</t>
-  </si>
-  <si>
-    <t>TP Hải Dương</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Bồng</t>
-  </si>
-  <si>
-    <t>0384754046</t>
-  </si>
-  <si>
-    <t>030060010669</t>
-  </si>
-  <si>
-    <t>Gia Lương</t>
-  </si>
-  <si>
-    <t>Vũ Văn Bộ</t>
-  </si>
-  <si>
-    <t>0358662652</t>
-  </si>
-  <si>
-    <t>030068014917</t>
-  </si>
-  <si>
-    <t>Vũ Văn Tuyền</t>
-  </si>
-  <si>
-    <t>0973455438</t>
-  </si>
-  <si>
-    <t>030098014095</t>
-  </si>
-  <si>
-    <t>Bùi Quý Tái</t>
-  </si>
-  <si>
-    <t>0963047518</t>
-  </si>
-  <si>
-    <t>030064015576</t>
-  </si>
-  <si>
-    <t>Hồng Hưng</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Len</t>
-  </si>
-  <si>
-    <t>0327638198</t>
-  </si>
-  <si>
-    <t>030160003988</t>
-  </si>
-  <si>
-    <t>Đoàn Thượng</t>
-  </si>
-  <si>
-    <t>Lý Thị Thúy</t>
-  </si>
-  <si>
-    <t>0982866199</t>
-  </si>
-  <si>
-    <t>030173009902</t>
-  </si>
-  <si>
-    <t>Hưng Thắng</t>
-  </si>
-  <si>
-    <t>Bình Giang</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Ngân</t>
-  </si>
-  <si>
-    <t>0984305782</t>
-  </si>
-  <si>
-    <t>030079005721</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Ngoãn</t>
-  </si>
-  <si>
-    <t>0966595202</t>
-  </si>
-  <si>
-    <t>030184010821</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Đoàng</t>
-  </si>
-  <si>
-    <t>0376323778</t>
-  </si>
-  <si>
-    <t>030066007988</t>
-  </si>
-  <si>
-    <t>Đỗ Văn Quân</t>
-  </si>
-  <si>
-    <t>0989303475</t>
-  </si>
-  <si>
-    <t>030082005044</t>
-  </si>
-  <si>
-    <t>TT Gia Lộc</t>
-  </si>
-  <si>
-    <t>Nguyễn Đức Học</t>
-  </si>
-  <si>
-    <t>0333189246</t>
-  </si>
-  <si>
-    <t>030059005455</t>
-  </si>
-  <si>
-    <t>Phạm Văn Khánh</t>
-  </si>
-  <si>
-    <t>0988582098</t>
-  </si>
-  <si>
-    <t>030058016188</t>
-  </si>
-  <si>
-    <t>An Phụ</t>
-  </si>
-  <si>
-    <t>Kinh Môn</t>
-  </si>
-  <si>
-    <t>Trần Thị Cửu</t>
-  </si>
-  <si>
-    <t>0373501916</t>
-  </si>
-  <si>
-    <t>030163002096</t>
-  </si>
-  <si>
-    <t>Hiến Thành</t>
-  </si>
-  <si>
-    <t>Mạc Thị Viễn</t>
-  </si>
-  <si>
-    <t>0394524427</t>
-  </si>
-  <si>
-    <t>030174005899</t>
-  </si>
-  <si>
-    <t>Phạm Thị Loan</t>
-  </si>
-  <si>
-    <t>0393131185</t>
-  </si>
-  <si>
-    <t>030166011168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vũ Văn Quyết </t>
-  </si>
-  <si>
-    <t>0364828256</t>
-  </si>
-  <si>
-    <t>030056001581</t>
-  </si>
-  <si>
-    <t>Lê Ninh</t>
-  </si>
-  <si>
-    <t>Trần Thị Hè</t>
-  </si>
-  <si>
-    <t>0387228829</t>
-  </si>
-  <si>
-    <t>030179000987</t>
-  </si>
-  <si>
-    <t>Duy Tân</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Trương Văn Trọng</t>
-  </si>
-  <si>
-    <t>092718179</t>
-  </si>
-  <si>
-    <t>030076012883</t>
-  </si>
-  <si>
-    <t>Phú Thứ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nguyễn Văn Bảy</t>
-  </si>
-  <si>
-    <t>0975183090</t>
-  </si>
-  <si>
-    <t>030065001680</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vũ Văn Cường</t>
-  </si>
-  <si>
-    <t>0978209618</t>
-  </si>
-  <si>
-    <t>030068002741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Thị Anh </t>
-  </si>
-  <si>
-    <t>0989871406</t>
-  </si>
-  <si>
-    <t>030190007345</t>
-  </si>
-  <si>
-    <t>Lạc Long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trần Thị Anh </t>
-  </si>
-  <si>
-    <t>0985285526</t>
-  </si>
-  <si>
-    <t>030177000288</t>
-  </si>
-  <si>
-    <t>Thăng Long</t>
-  </si>
-  <si>
-    <t>Mạc Thị Hoàn</t>
-  </si>
-  <si>
-    <t>0372588308</t>
-  </si>
-  <si>
-    <t>030163012867</t>
-  </si>
-  <si>
-    <t>Trịnh Thị Thoi</t>
-  </si>
-  <si>
-    <t>0336061552</t>
-  </si>
-  <si>
-    <t>030161011353</t>
-  </si>
-  <si>
-    <t>An Sinh</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Chương</t>
-  </si>
-  <si>
-    <t>0366233219</t>
-  </si>
-  <si>
-    <t>030065002970</t>
-  </si>
-  <si>
-    <t>Phạm Thái</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nguyễn Mạnh Hà</t>
-  </si>
-  <si>
-    <t>0372100832</t>
-  </si>
-  <si>
-    <t>030058016385</t>
-  </si>
-  <si>
-    <t>Thất Hùng</t>
-  </si>
-  <si>
-    <t>Phạm Xuân Thành</t>
-  </si>
-  <si>
-    <t>039801298</t>
-  </si>
-  <si>
-    <t>030198008284</t>
-  </si>
-  <si>
-    <t>Bùi Văn Lượng</t>
-  </si>
-  <si>
-    <t>0904957081</t>
-  </si>
-  <si>
-    <t>030078009282</t>
-  </si>
-  <si>
-    <t>Bùi Văn Sửu</t>
-  </si>
-  <si>
-    <t>0363113002</t>
-  </si>
-  <si>
-    <t>030073012700</t>
-  </si>
-  <si>
-    <t>Thượng Quận</t>
-  </si>
-  <si>
-    <t>Nguyễn Đình Thắng</t>
-  </si>
-  <si>
-    <t>0396484904</t>
-  </si>
-  <si>
-    <t>030091000471</t>
-  </si>
-  <si>
-    <t>Dương Đăng Thuần</t>
-  </si>
-  <si>
-    <t>0379282430</t>
-  </si>
-  <si>
-    <t>030064016553</t>
-  </si>
-  <si>
-    <t>Nguyễn Đức Đề</t>
-  </si>
-  <si>
-    <t>0394113458</t>
-  </si>
-  <si>
-    <t>030064006306</t>
-  </si>
-  <si>
-    <t>Vũ Thị Hoa</t>
-  </si>
-  <si>
-    <t>0974860872</t>
-  </si>
-  <si>
-    <t>030186002504</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Khanh</t>
-  </si>
-  <si>
-    <t>0984012427</t>
-  </si>
-  <si>
-    <t>030066000214</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bùi Thị Tuyến</t>
-  </si>
-  <si>
-    <t>0387136245</t>
-  </si>
-  <si>
-    <t>030171002795</t>
-  </si>
-  <si>
-    <t>Hoành Sơn</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Tuyến</t>
-  </si>
-  <si>
-    <t>038711825</t>
-  </si>
-  <si>
-    <t>030080010362</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Phạm Văn Quang </t>
-  </si>
-  <si>
-    <t>0904789466</t>
-  </si>
-  <si>
-    <t>030063002882</t>
-  </si>
-  <si>
-    <t>Minh Hoà</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Thị Nga </t>
-  </si>
-  <si>
-    <t>0395448768</t>
-  </si>
-  <si>
-    <t>030171003921</t>
-  </si>
-  <si>
-    <t>Hiệp Sơn</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Nhạn</t>
-  </si>
-  <si>
-    <t>0869153229</t>
-  </si>
-  <si>
-    <t>030178002164</t>
-  </si>
-  <si>
-    <t>Đinh Thị Nữa</t>
-  </si>
-  <si>
-    <t>0902069598</t>
-  </si>
-  <si>
-    <t>030173004025</t>
-  </si>
-  <si>
-    <t>0327967816</t>
-  </si>
-  <si>
-    <t>030055008169</t>
-  </si>
-  <si>
-    <t>Mạc Văn Thập</t>
-  </si>
-  <si>
-    <t>0904130610</t>
-  </si>
-  <si>
-    <t>030060015588</t>
-  </si>
-  <si>
-    <t>Vũ văn Ban</t>
-  </si>
-  <si>
-    <t>0365308576</t>
-  </si>
-  <si>
-    <t>030065002491</t>
-  </si>
-  <si>
-    <t>Ninh thị Hiệp</t>
-  </si>
-  <si>
-    <t>0963850700</t>
-  </si>
-  <si>
-    <t>030185005491</t>
-  </si>
-  <si>
-    <t>Lê thị Hải</t>
-  </si>
-  <si>
-    <t>030176000335</t>
-  </si>
-  <si>
-    <t>Vũ Đình Hào</t>
-  </si>
-  <si>
-    <t>0978660161</t>
-  </si>
-  <si>
-    <t>030066007390</t>
-  </si>
-  <si>
-    <t>Thanh Xuân</t>
-  </si>
-  <si>
-    <t>Thanh Hà</t>
-  </si>
-  <si>
-    <t>Tăng Bá Thìn</t>
-  </si>
-  <si>
-    <t>0366951565</t>
-  </si>
-  <si>
-    <t>030062005959</t>
-  </si>
-  <si>
-    <t>Thanh Lang</t>
-  </si>
-  <si>
-    <t>Phạm Đức Ngãi</t>
-  </si>
-  <si>
-    <t>0388610379</t>
-  </si>
-  <si>
-    <t>030073005044</t>
-  </si>
-  <si>
-    <t>Phượng Hoàng</t>
-  </si>
-  <si>
-    <t>Nguyễn Hữu Nam</t>
-  </si>
-  <si>
-    <t>0962166440</t>
-  </si>
-  <si>
-    <t>030088006984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Việt Hồng </t>
-  </si>
-  <si>
-    <t>Lê Văn Hùng</t>
-  </si>
-  <si>
-    <t>0904283915</t>
-  </si>
-  <si>
-    <t>030075015607</t>
-  </si>
-  <si>
-    <t>Nam Đồng</t>
-  </si>
-  <si>
-    <t>TPHD</t>
-  </si>
-  <si>
-    <t>Nguyễn Phương Thanh</t>
-  </si>
-  <si>
-    <t>0334622457</t>
-  </si>
-  <si>
-    <t>001300019848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ứng Hòa </t>
-  </si>
-  <si>
-    <t>Quách Đình Tùng</t>
-  </si>
-  <si>
-    <t>0385994921</t>
-  </si>
-  <si>
-    <t>030071014212</t>
-  </si>
-  <si>
-    <t>Thanh Xá</t>
-  </si>
-  <si>
-    <t>Nguyễn Phúc Uýnh</t>
-  </si>
-  <si>
-    <t>0987360752</t>
-  </si>
-  <si>
-    <t>030065008601</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Tuyển</t>
-  </si>
-  <si>
-    <t>0974914898</t>
-  </si>
-  <si>
-    <t>030058002476</t>
-  </si>
-  <si>
-    <t>Lê Văn Hảo</t>
-  </si>
-  <si>
-    <t>0366504480</t>
-  </si>
-  <si>
-    <t>030069014091</t>
-  </si>
-  <si>
-    <t>Tiền Tiến</t>
-  </si>
-  <si>
-    <t>Phạm Thị Mai</t>
-  </si>
-  <si>
-    <t>0383594779</t>
-  </si>
-  <si>
-    <t>030177009623</t>
-  </si>
-  <si>
-    <t>Tân An</t>
-  </si>
-  <si>
-    <t>Lê Thị Bích Hường</t>
-  </si>
-  <si>
-    <t>0988870534</t>
-  </si>
-  <si>
-    <t>030173003788</t>
-  </si>
-  <si>
-    <t>Cẩm Chế</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Văn Thắng </t>
-  </si>
-  <si>
-    <t>0389301533</t>
-  </si>
-  <si>
-    <t>030079002767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thanh Hải </t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Thạnh</t>
-  </si>
-  <si>
-    <t>0368002421</t>
-  </si>
-  <si>
-    <t>030061002768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thanh Bình </t>
-  </si>
-  <si>
-    <t>Cao Thị Loan</t>
-  </si>
-  <si>
-    <t>0392315365</t>
-  </si>
-  <si>
-    <t>030163005002</t>
-  </si>
-  <si>
-    <t>TT Thanh Hà</t>
-  </si>
-  <si>
-    <t>Nguyễn Đức Văn</t>
-  </si>
-  <si>
-    <t>0363284972</t>
-  </si>
-  <si>
-    <t>030065006935</t>
-  </si>
-  <si>
-    <t>Chí Minh</t>
-  </si>
-  <si>
-    <t>Tứ Kỳ</t>
-  </si>
-  <si>
-    <t>Lê Văn Doanh</t>
-  </si>
-  <si>
-    <t>0986476385</t>
-  </si>
-  <si>
-    <t>030066004762</t>
-  </si>
-  <si>
-    <t>Quang Phục</t>
-  </si>
-  <si>
-    <t>0326376890</t>
-  </si>
-  <si>
-    <t>030088003736</t>
-  </si>
-  <si>
-    <t>Chu Thị Ngoan</t>
-  </si>
-  <si>
-    <t>0705516528</t>
-  </si>
-  <si>
-    <t>030166007274</t>
-  </si>
-  <si>
-    <t>Đại Sơn</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Cường</t>
-  </si>
-  <si>
-    <t>030088022051</t>
-  </si>
-  <si>
-    <t>Nguyên Giáp</t>
-  </si>
-  <si>
-    <t>030190001344</t>
-  </si>
-  <si>
-    <t>Nguyễn Khắc Toàn</t>
-  </si>
-  <si>
-    <t>0983718858</t>
-  </si>
-  <si>
-    <t>030058007455</t>
-  </si>
-  <si>
-    <t>Phạm Văn Tường</t>
-  </si>
-  <si>
-    <t>0976528623</t>
-  </si>
-  <si>
-    <t>030062010982</t>
-  </si>
-  <si>
-    <t>Hưng Đạo</t>
-  </si>
-  <si>
-    <t>Phú Thị Thắng</t>
-  </si>
-  <si>
-    <t>0369222958</t>
-  </si>
-  <si>
-    <t>030176005854</t>
-  </si>
-  <si>
-    <t>Phượng Kỳ</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Nhu</t>
-  </si>
-  <si>
-    <t>0385929385</t>
-  </si>
-  <si>
-    <t>030175008937</t>
-  </si>
-  <si>
-    <t>Lê Văn Tiến</t>
-  </si>
-  <si>
-    <t>0976909834</t>
-  </si>
-  <si>
-    <t>030064002143</t>
-  </si>
-  <si>
-    <t>Quang Khải</t>
-  </si>
-  <si>
-    <t>0865572514</t>
-  </si>
-  <si>
-    <t>030166003675</t>
-  </si>
-  <si>
-    <t>Phan Khắc Lạp</t>
-  </si>
-  <si>
-    <t>0366049300</t>
-  </si>
-  <si>
-    <t>030060111441</t>
-  </si>
-  <si>
-    <t>Nguyễn Đức Hế</t>
-  </si>
-  <si>
-    <t>0338438523</t>
-  </si>
-  <si>
-    <t>030076009868</t>
-  </si>
-  <si>
-    <t>Thống Kênh</t>
-  </si>
-  <si>
-    <t>Vũ Thị Huyền</t>
-  </si>
-  <si>
-    <t>0398657540</t>
-  </si>
-  <si>
-    <t>030182000950</t>
-  </si>
-  <si>
-    <t>Đoàn Thị Hằng</t>
-  </si>
-  <si>
-    <t>0977687258</t>
-  </si>
-  <si>
-    <t>030159014314</t>
-  </si>
-  <si>
-    <t>Cộng Lạc</t>
-  </si>
-  <si>
-    <t>Phạm Đăng Phận</t>
-  </si>
-  <si>
-    <t>0976274372</t>
-  </si>
-  <si>
-    <t>030056013385</t>
-  </si>
-  <si>
-    <t>Nguyễn Tiến Kỳ</t>
-  </si>
-  <si>
-    <t>0385277024</t>
-  </si>
-  <si>
-    <t>030072014264</t>
-  </si>
-  <si>
-    <t>Tân Kỳ</t>
-  </si>
-  <si>
-    <t>Đồng Văn Kiên</t>
-  </si>
-  <si>
-    <t>030081006341</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Gấm</t>
-  </si>
-  <si>
-    <t>0966484236</t>
-  </si>
-  <si>
-    <t>030177007200</t>
-  </si>
-  <si>
-    <t>Nguyễn Trọng Hà</t>
-  </si>
-  <si>
-    <t>0388869982</t>
-  </si>
-  <si>
-    <t>030074000381</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Năm</t>
-  </si>
-  <si>
-    <t>0357250676</t>
-  </si>
-  <si>
-    <t>030166013858</t>
-  </si>
-  <si>
-    <t>Quảng Nghiệp</t>
-  </si>
-  <si>
-    <t>Đoàn Thị Thoa</t>
-  </si>
-  <si>
-    <t>0301780014042</t>
-  </si>
-  <si>
-    <t>An Lâm</t>
-  </si>
-  <si>
-    <t>Nam Sách</t>
-  </si>
-  <si>
-    <t>Vũ Thị Xá</t>
-  </si>
-  <si>
-    <t>Hoàng Thị Thu</t>
-  </si>
-  <si>
-    <t>030168002094</t>
-  </si>
-  <si>
-    <t>Phú Thái</t>
-  </si>
-  <si>
-    <t>Lê Thị Thiết</t>
-  </si>
-  <si>
-    <t>030182009011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuấn Việt </t>
-  </si>
-  <si>
-    <t>030182007776</t>
-  </si>
-  <si>
-    <t>Hải Tân</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Hùy</t>
-  </si>
-  <si>
-    <t>Đồng Cẩm</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Dung</t>
-  </si>
-  <si>
-    <t>TP Chí Linh</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Lân</t>
-  </si>
-  <si>
-    <t>030169014956</t>
-  </si>
-  <si>
-    <t>Aí Quốc</t>
-  </si>
-  <si>
-    <t>Hoàng Nguyễn Như</t>
-  </si>
-  <si>
-    <t>.034070001597</t>
-  </si>
-  <si>
-    <t>đồng lạc</t>
-  </si>
-  <si>
-    <t>Chí linh</t>
-  </si>
-  <si>
-    <t>Nguyễn Xuân Thẩm</t>
-  </si>
-  <si>
-    <t>030057001023</t>
-  </si>
-  <si>
-    <t>Đức Chính</t>
-  </si>
-  <si>
-    <t>Cẩm Giàng</t>
-  </si>
-  <si>
-    <t>Vũ Xuân Hòa</t>
-  </si>
-  <si>
-    <t>030081010801</t>
-  </si>
-  <si>
-    <t>Lai Cách</t>
-  </si>
-  <si>
-    <t>030075012411</t>
-  </si>
-  <si>
-    <t>Đinh Văn Lý</t>
-  </si>
-  <si>
-    <t>030071077244</t>
-  </si>
-  <si>
-    <t>Phạm Văn Dũng</t>
-  </si>
-  <si>
-    <t>030081006127</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Bình</t>
-  </si>
-  <si>
-    <t>030079009741</t>
-  </si>
-  <si>
-    <t>030063015886</t>
-  </si>
-  <si>
-    <t>030075004301</t>
-  </si>
-  <si>
-    <t>Mạc Văn Huynh</t>
-  </si>
-  <si>
-    <t>030065015491</t>
-  </si>
-  <si>
-    <t>An Bình</t>
-  </si>
-  <si>
-    <t>Đỗ Đình Nam</t>
-  </si>
-  <si>
-    <t>030064017536</t>
-  </si>
-  <si>
-    <t>Trần Lộc</t>
-  </si>
-  <si>
-    <t>030077007078</t>
-  </si>
-  <si>
-    <t>Thanh Quang</t>
-  </si>
-  <si>
-    <t>Lê Xuân Đản</t>
-  </si>
-  <si>
-    <t>030074007214</t>
-  </si>
-  <si>
-    <t>Hiệp Cát</t>
-  </si>
-  <si>
-    <t>Phạm Văn Lực</t>
-  </si>
-  <si>
-    <t>030076018841</t>
-  </si>
-  <si>
-    <t>Đặng Hồng Thái</t>
-  </si>
-  <si>
-    <t>030061007702</t>
-  </si>
-  <si>
-    <t>Binhg Giang</t>
-  </si>
-  <si>
-    <t>Hoàng Xuân Điều</t>
-  </si>
-  <si>
-    <t>Đỗ Văn Mạnh</t>
-  </si>
-  <si>
-    <t>030079003295</t>
-  </si>
-  <si>
-    <t>Nguyễn Xuân Phụng</t>
-  </si>
-  <si>
     <t>Tân Hưng</t>
   </si>
   <si>
     <t>Nguyễn Văn Thủy</t>
   </si>
   <si>
-    <t>Tam Kỳ</t>
-  </si>
-  <si>
-    <t>Nguyễn Đức Cường</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Thùy</t>
-  </si>
-  <si>
-    <t>Đỗ Văn Tập</t>
-  </si>
-  <si>
-    <t>030064006035</t>
-  </si>
-  <si>
     <t>Tân Việt</t>
   </si>
   <si>
-    <t>Dương Văn Năm</t>
-  </si>
-  <si>
-    <t>030072017649</t>
-  </si>
-  <si>
-    <t>Ngũ Phúc</t>
-  </si>
-  <si>
-    <t>Trần Quang Toàn</t>
-  </si>
-  <si>
-    <t>030203010447</t>
+    <t>Đỗ Văn Hoàn</t>
+  </si>
+  <si>
+    <t>0382282266</t>
+  </si>
+  <si>
+    <t>033061006809</t>
+  </si>
+  <si>
+    <t>Khoái Châu</t>
+  </si>
+  <si>
+    <t>Hưng Yên</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hùng</t>
+  </si>
+  <si>
+    <t>0972979289</t>
+  </si>
+  <si>
+    <t>033074003034</t>
+  </si>
+  <si>
+    <t>Thiết Trụ</t>
+  </si>
+  <si>
+    <t>0906621683</t>
+  </si>
+  <si>
+    <t>040183000414</t>
+  </si>
+  <si>
+    <t>Ông Đình</t>
+  </si>
+  <si>
+    <t>Nguyễn Huy Hoàng</t>
+  </si>
+  <si>
+    <t>033202003201</t>
+  </si>
+  <si>
+    <t>Đông Tảo</t>
+  </si>
+  <si>
+    <t>0384423693</t>
+  </si>
+  <si>
+    <t>033059007679</t>
+  </si>
+  <si>
+    <t>Đức Nhuận</t>
+  </si>
+  <si>
+    <t>Vũ Thị Oánh</t>
+  </si>
+  <si>
+    <t>0984622969</t>
+  </si>
+  <si>
+    <t>033171010903</t>
+  </si>
+  <si>
+    <t>Hàm Tử</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Mạnh</t>
+  </si>
+  <si>
+    <t>033069012205</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Tuấn</t>
+  </si>
+  <si>
+    <t>0979742776</t>
+  </si>
+  <si>
+    <t>033076006160</t>
+  </si>
+  <si>
+    <t>Xuân Đình</t>
+  </si>
+  <si>
+    <t>Phùng Đình Ba</t>
+  </si>
+  <si>
+    <t>0392121749</t>
+  </si>
+  <si>
+    <t>033066001739</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Hoa</t>
+  </si>
+  <si>
+    <t>033163003886</t>
+  </si>
+  <si>
+    <t>Đông Kết</t>
+  </si>
+  <si>
+    <t>Đỗ Đắc Phức</t>
+  </si>
+  <si>
+    <t>0986324697</t>
+  </si>
+  <si>
+    <t>033068002149</t>
+  </si>
+  <si>
+    <t>Dốc Bái</t>
+  </si>
+  <si>
+    <t>Đào Kim Tuấn</t>
+  </si>
+  <si>
+    <t>0326571111</t>
+  </si>
+  <si>
+    <t>033087003573</t>
+  </si>
+  <si>
+    <t>Đại Tập</t>
+  </si>
+  <si>
+    <t>Nguyên Văn Cảo</t>
+  </si>
+  <si>
+    <t>0945267847</t>
+  </si>
+  <si>
+    <t>033070000129</t>
+  </si>
+  <si>
+    <t>Nội Doanh</t>
+  </si>
+  <si>
+    <t>Trần Văn Phố</t>
+  </si>
+  <si>
+    <t>0979632445</t>
+  </si>
+  <si>
+    <t>033064007023</t>
+  </si>
+  <si>
+    <t>Tứ Dân</t>
+  </si>
+  <si>
+    <t>Cao Thị Són</t>
+  </si>
+  <si>
+    <t>0387800835</t>
+  </si>
+  <si>
+    <t>033176013080</t>
+  </si>
+  <si>
+    <t>Chí Tân</t>
+  </si>
+  <si>
+    <t>Đặng Thị Dung</t>
+  </si>
+  <si>
+    <t>0969464526</t>
+  </si>
+  <si>
+    <t>033176003488</t>
+  </si>
+  <si>
+    <t>Dạ Trạch</t>
+  </si>
+  <si>
+    <t>Đỗ Văn Úy</t>
+  </si>
+  <si>
+    <t>0379026799</t>
+  </si>
+  <si>
+    <t>033068005444</t>
+  </si>
+  <si>
+    <t>Việt Hòa</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hồng Diệp</t>
+  </si>
+  <si>
+    <t>0941641998</t>
+  </si>
+  <si>
+    <t>033198001019</t>
+  </si>
+  <si>
+    <t>Liên Khê</t>
+  </si>
+  <si>
+    <t>Ngô Minh Thế</t>
+  </si>
+  <si>
+    <t>033063003478</t>
+  </si>
+  <si>
+    <t>Trịnh Thị Vy</t>
+  </si>
+  <si>
+    <t>0965817172</t>
+  </si>
+  <si>
+    <t>033186007167</t>
+  </si>
+  <si>
+    <t>Bãi Sậy</t>
+  </si>
+  <si>
+    <t>Giang Đức Mạnh</t>
+  </si>
+  <si>
+    <t>0965584960</t>
+  </si>
+  <si>
+    <t>033058009665</t>
+  </si>
+  <si>
+    <t>Đa Hòa</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Huân</t>
+  </si>
+  <si>
+    <t>0382340687</t>
+  </si>
+  <si>
+    <t>033074002733</t>
+  </si>
+  <si>
+    <t>Chợ Lễ</t>
+  </si>
+  <si>
+    <t>Kim Động</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hưng Yên </t>
+  </si>
+  <si>
+    <t>Phan Thị Thúy</t>
+  </si>
+  <si>
+    <t>0919298963</t>
+  </si>
+  <si>
+    <t>033180003933</t>
+  </si>
+  <si>
+    <t>Ngọc Thanh</t>
+  </si>
+  <si>
+    <t>Nguyễn Viết Quang</t>
+  </si>
+  <si>
+    <t>0378261171</t>
+  </si>
+  <si>
+    <t>033055001658</t>
+  </si>
+  <si>
+    <t>Phú Thịnh</t>
+  </si>
+  <si>
+    <t>0987897282</t>
+  </si>
+  <si>
+    <t>033065005295</t>
+  </si>
+  <si>
+    <t>Phan Văn Năm</t>
+  </si>
+  <si>
+    <t>0932651795</t>
+  </si>
+  <si>
+    <t>033066006578</t>
+  </si>
+  <si>
+    <t>Phú Cường</t>
+  </si>
+  <si>
+    <t>TP. Hưng Yên</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Nhàm</t>
+  </si>
+  <si>
+    <t>0382954210</t>
+  </si>
+  <si>
+    <t>033171013867</t>
+  </si>
+  <si>
+    <t>Chính Nghĩa</t>
+  </si>
+  <si>
+    <t>Bùi Văn Duyên</t>
+  </si>
+  <si>
+    <t>0394824622</t>
+  </si>
+  <si>
+    <t>033065005709</t>
+  </si>
+  <si>
+    <t>Đức Hợp</t>
+  </si>
+  <si>
+    <t>Phùng Thị Thu</t>
+  </si>
+  <si>
+    <t>033169006488</t>
+  </si>
+  <si>
+    <t>Lương Bằng</t>
+  </si>
+  <si>
+    <t>Lê Văn Tuấn</t>
+  </si>
+  <si>
+    <t>033078001826</t>
+  </si>
+  <si>
+    <t>Mai Động</t>
+  </si>
+  <si>
+    <t>Vương Văn Quyền</t>
+  </si>
+  <si>
+    <t>0985580096</t>
+  </si>
+  <si>
+    <t>033064003543</t>
+  </si>
+  <si>
+    <t>Hùng Cường</t>
+  </si>
+  <si>
+    <t>Phạm Duy Quang</t>
+  </si>
+  <si>
+    <t>0386000404</t>
+  </si>
+  <si>
+    <t>033065003210</t>
+  </si>
+  <si>
+    <t>Phương Tòng</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Đính</t>
+  </si>
+  <si>
+    <t>0982815214</t>
+  </si>
+  <si>
+    <t>033068000758</t>
+  </si>
+  <si>
+    <t>Tả Hà</t>
+  </si>
+  <si>
+    <t>Vũ Thị Lẫy</t>
+  </si>
+  <si>
+    <t>0382770717</t>
+  </si>
+  <si>
+    <t>033155003226</t>
+  </si>
+  <si>
+    <t>Chợ Ngàng</t>
+  </si>
+  <si>
+    <t>Hoàng Văn Dân</t>
+  </si>
+  <si>
+    <t>0986079868</t>
+  </si>
+  <si>
+    <t>Chợ Ngò</t>
+  </si>
+  <si>
+    <t>Trần Thị Thu Hà</t>
+  </si>
+  <si>
+    <t>0794188889</t>
+  </si>
+  <si>
+    <t>033186009137</t>
+  </si>
+  <si>
+    <t>Tạ Xá</t>
+  </si>
+  <si>
+    <t>0985027878</t>
+  </si>
+  <si>
+    <t>Bùi Thị Nam</t>
+  </si>
+  <si>
+    <t>0358627127</t>
+  </si>
+  <si>
+    <t>033183015961</t>
+  </si>
+  <si>
+    <t>Đào Đức Đông</t>
+  </si>
+  <si>
+    <t>0363542398</t>
+  </si>
+  <si>
+    <t>033063014110</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Thiết</t>
+  </si>
+  <si>
+    <t>0979868407</t>
+  </si>
+  <si>
+    <t>033082004429</t>
+  </si>
+  <si>
+    <t>Trần Văn Đáo</t>
+  </si>
+  <si>
+    <t>0962194167</t>
+  </si>
+  <si>
+    <t>033063002723</t>
+  </si>
+  <si>
+    <t>Lạc Đạo</t>
+  </si>
+  <si>
+    <t>Văn Lâm</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Dinh</t>
+  </si>
+  <si>
+    <t>0985081470</t>
+  </si>
+  <si>
+    <t>033062004444</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Toại</t>
+  </si>
+  <si>
+    <t>03977529698</t>
+  </si>
+  <si>
+    <t>033065005170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chỉ đạo </t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thêm</t>
+  </si>
+  <si>
+    <t>0988683276</t>
+  </si>
+  <si>
+    <t>033188002743</t>
+  </si>
+  <si>
+    <t>Đại Đồng</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hựu</t>
+  </si>
+  <si>
+    <t>0946759156</t>
+  </si>
+  <si>
+    <t>033072006688</t>
+  </si>
+  <si>
+    <t>Lương tài</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Đại</t>
+  </si>
+  <si>
+    <t>0988442499</t>
+  </si>
+  <si>
+    <t>033079005006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minh Hải </t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Thạo</t>
+  </si>
+  <si>
+    <t>033086008875</t>
+  </si>
+  <si>
+    <t>Đào Thị Lịch</t>
+  </si>
+  <si>
+    <t>033175012970</t>
+  </si>
+  <si>
+    <t>0984065502</t>
+  </si>
+  <si>
+    <t>033171006570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lương Tài </t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Chỉ</t>
+  </si>
+  <si>
+    <t>0395635832</t>
+  </si>
+  <si>
+    <t>033073007328</t>
+  </si>
+  <si>
+    <t>Phan Đình Phùng</t>
+  </si>
+  <si>
+    <t>Mỹ hào</t>
+  </si>
+  <si>
+    <t>Vũ Thị Lý</t>
+  </si>
+  <si>
+    <t>0985463402</t>
+  </si>
+  <si>
+    <t>033168004712</t>
+  </si>
+  <si>
+    <t>Cẩm Xá</t>
+  </si>
+  <si>
+    <t>Vũ Thị Hiển</t>
+  </si>
+  <si>
+    <t>0847298948</t>
+  </si>
+  <si>
+    <t>033168006444</t>
+  </si>
+  <si>
+    <t>Dương Quang</t>
+  </si>
+  <si>
+    <t>Vũ Thị Xuyến</t>
+  </si>
+  <si>
+    <t>0989859543</t>
+  </si>
+  <si>
+    <t>033173003781</t>
+  </si>
+  <si>
+    <t>Nhân Hòa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mỹ hào </t>
+  </si>
+  <si>
+    <t>Đặng Ngọc Vượng</t>
+  </si>
+  <si>
+    <t>0976970200</t>
+  </si>
+  <si>
+    <t>033068005599</t>
+  </si>
+  <si>
+    <t>Hưng Long</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Tẹo</t>
+  </si>
+  <si>
+    <t>0398484981</t>
+  </si>
+  <si>
+    <t>033156004960</t>
+  </si>
+  <si>
+    <t>Xuân Dục</t>
+  </si>
+  <si>
+    <t>Phạm Văn Hanh</t>
+  </si>
+  <si>
+    <t>0984972142</t>
+  </si>
+  <si>
+    <t>033065000160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cẩm Xá </t>
+  </si>
+  <si>
+    <t>Phan Thị Liệu</t>
+  </si>
+  <si>
+    <t>0987029608</t>
+  </si>
+  <si>
+    <t>033158003044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngọc Lâm </t>
+  </si>
+  <si>
+    <t>033061006914</t>
+  </si>
+  <si>
+    <t>TT văn Giang</t>
+  </si>
+  <si>
+    <t>Văn Giang</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Huệ</t>
+  </si>
+  <si>
+    <t>033061002010</t>
+  </si>
+  <si>
+    <t>Trần Quốc Việt</t>
+  </si>
+  <si>
+    <t>0915398078</t>
+  </si>
+  <si>
+    <t>033093006838</t>
+  </si>
+  <si>
+    <t>Mễ Sở</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Định</t>
+  </si>
+  <si>
+    <t>0987177530</t>
+  </si>
+  <si>
+    <t>033088016036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cửu Cao </t>
+  </si>
+  <si>
+    <t>0961863666</t>
+  </si>
+  <si>
+    <t>033193000444</t>
+  </si>
+  <si>
+    <t>Cửu Cao</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Chiên</t>
+  </si>
+  <si>
+    <t>03598117148</t>
+  </si>
+  <si>
+    <t>033117003534</t>
+  </si>
+  <si>
+    <t>Xuân Quan</t>
+  </si>
+  <si>
+    <t>Đinh Văn Đang</t>
+  </si>
+  <si>
+    <t>0969598819</t>
+  </si>
+  <si>
+    <t>033091008134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liên Nghĩa </t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Mật</t>
+  </si>
+  <si>
+    <t>0982935190</t>
+  </si>
+  <si>
+    <t>033076002081</t>
+  </si>
+  <si>
+    <t>Long Hưng</t>
+  </si>
+  <si>
+    <t>Lê Văn Hưởng</t>
+  </si>
+  <si>
+    <t>0972689972</t>
+  </si>
+  <si>
+    <t>033072001393</t>
+  </si>
+  <si>
+    <t>Hoàng Đình Đồng</t>
+  </si>
+  <si>
+    <t>0912358758</t>
+  </si>
+  <si>
+    <t>033058002124</t>
+  </si>
+  <si>
+    <t>Nghĩa Trụ</t>
+  </si>
+  <si>
+    <t>Lê Tiến Dũng</t>
+  </si>
+  <si>
+    <t>0382783386</t>
+  </si>
+  <si>
+    <t>033068002883</t>
+  </si>
+  <si>
+    <t>Vĩnh Khúc</t>
+  </si>
+  <si>
+    <t>Vũ Thị Tuyến</t>
+  </si>
+  <si>
+    <t>033171018376</t>
+  </si>
+  <si>
+    <t>Hòa Phong</t>
+  </si>
+  <si>
+    <t>Mỹ Hào</t>
+  </si>
+  <si>
+    <t>0332484568</t>
+  </si>
+  <si>
+    <t>033065006385</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Anh</t>
+  </si>
+  <si>
+    <t>0916080841</t>
+  </si>
+  <si>
+    <t>033070009838</t>
+  </si>
+  <si>
+    <t>Phương Chiểu</t>
+  </si>
+  <si>
+    <t>TP Hưng Yên</t>
+  </si>
+  <si>
+    <t>Cao Thị Huyền</t>
+  </si>
+  <si>
+    <t>0971606583</t>
+  </si>
+  <si>
+    <t>033187000918</t>
+  </si>
+  <si>
+    <t>Hải Triều</t>
+  </si>
+  <si>
+    <t>Tiên Lữ+G9:GG9:K14</t>
+  </si>
+  <si>
+    <t>0989370699</t>
+  </si>
+  <si>
+    <t>033072006668</t>
+  </si>
+  <si>
+    <t>Nhật Tân</t>
+  </si>
+  <si>
+    <t>Tiên Lữ</t>
+  </si>
+  <si>
+    <t>Trần Huy Chuẩn</t>
+  </si>
+  <si>
+    <t>0978398721</t>
+  </si>
+  <si>
+    <t>033085006810</t>
+  </si>
+  <si>
+    <t>Trung Nghĩa</t>
+  </si>
+  <si>
+    <t>Trần Huy Quyết</t>
+  </si>
+  <si>
+    <t>033067002714</t>
+  </si>
+  <si>
+    <t>Vũ Văn Quang</t>
+  </si>
+  <si>
+    <t>0907227556</t>
+  </si>
+  <si>
+    <t>033074003165</t>
+  </si>
+  <si>
+    <t>An Tảo</t>
+  </si>
+  <si>
+    <t>Vũ Văn Nam</t>
+  </si>
+  <si>
+    <t>0942649256</t>
+  </si>
+  <si>
+    <t>033074012145</t>
+  </si>
+  <si>
+    <t>Dị Chế</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Anh</t>
+  </si>
+  <si>
+    <t>0979016892</t>
+  </si>
+  <si>
+    <t>033075000530</t>
+  </si>
+  <si>
+    <t>Đình Cao</t>
+  </si>
+  <si>
+    <t>Phù Cừ</t>
+  </si>
+  <si>
+    <t>Dương Thị Kim Anh</t>
+  </si>
+  <si>
+    <t>0979752245</t>
+  </si>
+  <si>
+    <t>033172009730</t>
+  </si>
+  <si>
+    <t>Bùi Quang Ẩm</t>
+  </si>
+  <si>
+    <t>0379727718</t>
+  </si>
+  <si>
+    <t>033062009084</t>
+  </si>
+  <si>
+    <t>Tống Trân</t>
+  </si>
+  <si>
+    <t>Trần Văn Tiến</t>
+  </si>
+  <si>
+    <t>0975718734</t>
+  </si>
+  <si>
+    <t>033080012960</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Hằng</t>
+  </si>
+  <si>
+    <t>0379421822</t>
+  </si>
+  <si>
+    <t>033179002967</t>
+  </si>
+  <si>
+    <t>Tiên Tiến</t>
+  </si>
+  <si>
+    <t>Phạm Thị Ngà</t>
+  </si>
+  <si>
+    <t>0979149049</t>
+  </si>
+  <si>
+    <t>033174007139</t>
+  </si>
+  <si>
+    <t>Nguyên Hòa</t>
+  </si>
+  <si>
+    <t>Bùi Thị Thảo</t>
+  </si>
+  <si>
+    <t>0382022168</t>
+  </si>
+  <si>
+    <t>033166004009</t>
+  </si>
+  <si>
+    <t>Trần Cao</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Loan</t>
+  </si>
+  <si>
+    <t>0965401636</t>
+  </si>
+  <si>
+    <t>033157001280</t>
+  </si>
+  <si>
+    <t>Vũ Văn Hồng</t>
+  </si>
+  <si>
+    <t>0975495461</t>
+  </si>
+  <si>
+    <t>033065003547</t>
+  </si>
+  <si>
+    <t>Minh Phượng</t>
+  </si>
+  <si>
+    <t>Bùi Thị Sách</t>
+  </si>
+  <si>
+    <t>0979105290</t>
+  </si>
+  <si>
+    <t>033160007930</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Toản</t>
+  </si>
+  <si>
+    <t>0985797407</t>
+  </si>
+  <si>
+    <t>033085006915</t>
+  </si>
+  <si>
+    <t>0986099316</t>
+  </si>
+  <si>
+    <t>033169000254</t>
+  </si>
+  <si>
+    <t>Hồng Nam</t>
+  </si>
+  <si>
+    <t>Phạm Trường Phú</t>
+  </si>
+  <si>
+    <t>0985105998</t>
+  </si>
+  <si>
+    <t>033155003082</t>
+  </si>
+  <si>
+    <t>Bùi Xuân Nhiệm</t>
+  </si>
+  <si>
+    <t>0329359448</t>
+  </si>
+  <si>
+    <t>033078006464</t>
+  </si>
+  <si>
+    <t>Minh Hoàng</t>
+  </si>
+  <si>
+    <t>Bùi Văn Tuyên</t>
+  </si>
+  <si>
+    <t>0988604172</t>
+  </si>
+  <si>
+    <t>033063002373</t>
+  </si>
+  <si>
+    <t>An Viên</t>
+  </si>
+  <si>
+    <t>Trần Đức Túy</t>
+  </si>
+  <si>
+    <t>0359627126</t>
+  </si>
+  <si>
+    <t>033064001758</t>
+  </si>
+  <si>
+    <t>Quảng Châu</t>
+  </si>
+  <si>
+    <t>Trần Thị Hoài</t>
+  </si>
+  <si>
+    <t>0399065545</t>
+  </si>
+  <si>
+    <t>033176006727</t>
+  </si>
+  <si>
+    <t>Phạm Trung Thông</t>
+  </si>
+  <si>
+    <t>0356523941</t>
+  </si>
+  <si>
+    <t>033062011393</t>
+  </si>
+  <si>
+    <t>Thủ Sỹ</t>
+  </si>
+  <si>
+    <t>Đỗ Đinh Khánh</t>
+  </si>
+  <si>
+    <t>0866421418</t>
+  </si>
+  <si>
+    <t>0330083005720</t>
+  </si>
+  <si>
+    <t>Nguyên Đức Thuận</t>
+  </si>
+  <si>
+    <t>0913558862</t>
+  </si>
+  <si>
+    <t>033084002326</t>
+  </si>
+  <si>
+    <t>Vũ Công Chuyên</t>
+  </si>
+  <si>
+    <t>0976457899</t>
+  </si>
+  <si>
+    <t>0330071005882</t>
+  </si>
+  <si>
+    <t>Đỗ Văn Khoản</t>
+  </si>
+  <si>
+    <t>033074007770</t>
+  </si>
+  <si>
+    <t>Bình Kiều</t>
+  </si>
+  <si>
+    <t>Đỗ Hữu Phượng</t>
+  </si>
+  <si>
+    <t>0984458111</t>
+  </si>
+  <si>
+    <t>033067002842</t>
+  </si>
+  <si>
+    <t>Vũ Đức Thinh</t>
+  </si>
+  <si>
+    <t>0395443213</t>
+  </si>
+  <si>
+    <t>033062003957</t>
+  </si>
+  <si>
+    <t>Thuần Hưng</t>
+  </si>
+  <si>
+    <t>Nguyên Văn Trí</t>
+  </si>
+  <si>
+    <t>0826501898</t>
+  </si>
+  <si>
+    <t>033066009118</t>
+  </si>
+  <si>
+    <t>Đại Hưng</t>
+  </si>
+  <si>
+    <t>Vũ Tá Bình</t>
+  </si>
+  <si>
+    <t>0936645066</t>
+  </si>
+  <si>
+    <t>033074003206</t>
+  </si>
+  <si>
+    <t>Phan Vân Chính</t>
+  </si>
+  <si>
+    <t>0373696978</t>
+  </si>
+  <si>
+    <t>033078009861</t>
+  </si>
+  <si>
+    <t>Dân Tiến</t>
+  </si>
+  <si>
+    <t>Nguyễn thị Hương</t>
+  </si>
+  <si>
+    <t>0868767831</t>
+  </si>
+  <si>
+    <t>033178000538</t>
+  </si>
+  <si>
+    <t>xuân trúc</t>
+  </si>
+  <si>
+    <t>Ân Thi</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Trang</t>
+  </si>
+  <si>
+    <t>0987936637</t>
+  </si>
+  <si>
+    <t>033069004194</t>
+  </si>
+  <si>
+    <t>Nguyễn Trãi</t>
+  </si>
+  <si>
+    <t>Đoàn Văn Toán</t>
+  </si>
+  <si>
+    <t>0378262790</t>
+  </si>
+  <si>
+    <t>033072000506</t>
+  </si>
+  <si>
+    <t>Tiền Phong</t>
+  </si>
+  <si>
+    <t>Đặng Văn Tứ</t>
+  </si>
+  <si>
+    <t>0762426724</t>
+  </si>
+  <si>
+    <t>033058001372</t>
+  </si>
+  <si>
+    <t>Quang Vinh</t>
+  </si>
+  <si>
+    <t>Trương Công Sơn</t>
+  </si>
+  <si>
+    <t>0983204498</t>
+  </si>
+  <si>
+    <t>033058002767</t>
+  </si>
+  <si>
+    <t>Đặng Văn Quang</t>
+  </si>
+  <si>
+    <t>0984064637</t>
+  </si>
+  <si>
+    <t>033062008572</t>
+  </si>
+  <si>
+    <t>Bùi Thị Hằng</t>
+  </si>
+  <si>
+    <t>0394324893</t>
+  </si>
+  <si>
+    <t>033183008874</t>
+  </si>
+  <si>
+    <t>Vân Du</t>
+  </si>
+  <si>
+    <t>0363590750</t>
+  </si>
+  <si>
+    <t>033066010881</t>
+  </si>
+  <si>
+    <t>Phạm Thế Ái</t>
+  </si>
+  <si>
+    <t>0987623745</t>
+  </si>
+  <si>
+    <t>033055004028</t>
+  </si>
+  <si>
+    <t>Yên Mỹ</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình Khanh</t>
+  </si>
+  <si>
+    <t>0971228306</t>
+  </si>
+  <si>
+    <t>033069002109</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Quý</t>
+  </si>
+  <si>
+    <t>0385814313</t>
+  </si>
+  <si>
+    <t>033072004376</t>
+  </si>
+  <si>
+    <t>BẮc sơn</t>
+  </si>
+  <si>
+    <t>Đặng Quang Quyên</t>
+  </si>
+  <si>
+    <t>0975489165</t>
+  </si>
+  <si>
+    <t>033068012369</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Duyên</t>
+  </si>
+  <si>
+    <t>0342231614</t>
+  </si>
+  <si>
+    <t>033164000267</t>
+  </si>
+  <si>
+    <t>Thanh Long</t>
+  </si>
+  <si>
+    <t>Trương Thị Bính</t>
+  </si>
+  <si>
+    <t>0347695780</t>
+  </si>
+  <si>
+    <t>033161010593</t>
+  </si>
+  <si>
+    <t>0818860021</t>
+  </si>
+  <si>
+    <t>033170015393</t>
+  </si>
+  <si>
+    <t>Tân việt</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hiến</t>
+  </si>
+  <si>
+    <t>0369789724</t>
+  </si>
+  <si>
+    <t>025167011210</t>
+  </si>
+  <si>
+    <t>Hồ Tùng Mâu</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Lan</t>
+  </si>
+  <si>
+    <t>02213503498</t>
+  </si>
+  <si>
+    <t>033150002934</t>
+  </si>
+  <si>
+    <t>Phan Thị Quý</t>
+  </si>
+  <si>
+    <t>0983670163</t>
+  </si>
+  <si>
+    <t>033163005090</t>
+  </si>
+  <si>
+    <t>Phạm Việt Anh</t>
+  </si>
+  <si>
+    <t>0989963553</t>
+  </si>
+  <si>
+    <t>033088013095</t>
+  </si>
+  <si>
+    <t>Từ Hồ</t>
+  </si>
+  <si>
+    <t>Yên Phú</t>
+  </si>
+  <si>
+    <t>Trần Thị Xuân</t>
+  </si>
+  <si>
+    <t>0349645366</t>
+  </si>
+  <si>
+    <t>033192013834</t>
+  </si>
+  <si>
+    <t>Đào Thị Tỉnh</t>
+  </si>
+  <si>
+    <t>0342566923</t>
+  </si>
+  <si>
+    <t>033183008851</t>
+  </si>
+  <si>
+    <t>Hoàng M</t>
+  </si>
+  <si>
+    <t>Đào Công</t>
+  </si>
+  <si>
+    <t>0366490398</t>
+  </si>
+  <si>
+    <t>033067007569</t>
+  </si>
+  <si>
+    <t>T. Đông</t>
+  </si>
+  <si>
+    <t>Trần Văn Điệp</t>
+  </si>
+  <si>
+    <t>0383804514</t>
+  </si>
+  <si>
+    <t>033060014382</t>
+  </si>
+  <si>
+    <t>N. Hạnh</t>
+  </si>
+  <si>
+    <t>Hoàn Long</t>
+  </si>
+  <si>
+    <t>Hà Văn Thuận</t>
+  </si>
+  <si>
+    <t>0387193967</t>
+  </si>
+  <si>
+    <t>033079013714</t>
+  </si>
+  <si>
+    <t>Đ.Hạnh</t>
+  </si>
+  <si>
+    <t>Ngô Thị Xuê</t>
+  </si>
+  <si>
+    <t>0356053557</t>
+  </si>
+  <si>
+    <t>033164001541</t>
+  </si>
+  <si>
+    <t>T.Đông</t>
+  </si>
+  <si>
+    <t>Lê Thị Lịch</t>
+  </si>
+  <si>
+    <t>0986098437</t>
+  </si>
+  <si>
+    <t>033159001947</t>
+  </si>
+  <si>
+    <t>Từ Tây</t>
+  </si>
+  <si>
+    <t>Lê Y Tiến</t>
+  </si>
+  <si>
+    <t>0935888065</t>
+  </si>
+  <si>
+    <t>011680336689</t>
+  </si>
+  <si>
+    <t>Lê Văn Thuần</t>
+  </si>
+  <si>
+    <t>0398280680</t>
+  </si>
+  <si>
+    <t>033064000709</t>
+  </si>
+  <si>
+    <t>Yên Hòa</t>
+  </si>
+  <si>
+    <t>Trịnh Thị Huyền</t>
+  </si>
+  <si>
+    <t>0375932827</t>
+  </si>
+  <si>
+    <t>033160014932</t>
+  </si>
+  <si>
+    <t>Mễ Hạ</t>
+  </si>
+  <si>
+    <t>Trịnh Thị Sanh</t>
+  </si>
+  <si>
+    <t>0352365498</t>
+  </si>
+  <si>
+    <t>033166000850</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Chiêm</t>
+  </si>
+  <si>
+    <t>0976369729</t>
+  </si>
+  <si>
+    <t>033060002262</t>
+  </si>
+  <si>
+    <t>Hoàng Văn</t>
+  </si>
+  <si>
+    <t>0384489746</t>
+  </si>
+  <si>
+    <t>033168003706</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Ngàn</t>
+  </si>
+  <si>
+    <t>0354137927</t>
+  </si>
+  <si>
+    <t>033169001852</t>
+  </si>
+  <si>
+    <t>Hằng Đắc Thành</t>
+  </si>
+  <si>
+    <t>0987078051</t>
+  </si>
+  <si>
+    <t>033075004573</t>
+  </si>
+  <si>
+    <t>Hoàng Văn Mích</t>
+  </si>
+  <si>
+    <t>0377355475</t>
+  </si>
+  <si>
+    <t>033066007198</t>
+  </si>
+  <si>
+    <t>Bình Phú</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Dinh</t>
+  </si>
+  <si>
+    <t>0366408999</t>
+  </si>
+  <si>
+    <t>033182000335</t>
   </si>
 </sst>
 </file>
@@ -6971,7 +6992,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7034,6 +7055,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -7114,7 +7141,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7146,53 +7173,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -22364,4059 +22377,3770 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC7A3A68-22FC-47F4-98A0-C61BC0CFDEC4}">
-  <dimension ref="A1:H153"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="I145" sqref="I145"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="K138" sqref="K138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="21"/>
-    <col min="2" max="2" width="41.140625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="22"/>
-    <col min="4" max="4" width="27" style="23" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" style="23" customWidth="1"/>
-    <col min="6" max="7" width="15.7109375" style="23"/>
+    <col min="2" max="2" width="23.28515625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="12" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" style="21"/>
     <col min="9" max="16384" width="15.7109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="str">
         <f>TEXT(H1, "00000000")</f>
         <v>00000001</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>1817</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>1818</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>1819</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>1820</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>1821</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>1822</v>
+      <c r="B1" s="22" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H1" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="str">
         <f t="shared" ref="A2:A65" si="0">TEXT(H2, "00000000")</f>
         <v>00000002</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>1823</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>1824</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>1825</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>1821</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>1822</v>
+      <c r="B2" s="22" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>1820</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H2" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000003</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>1827</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>1828</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F3" s="24" t="s">
+      <c r="B3" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>1821</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="D3" s="22" t="s">
         <v>1822</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H3" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000004</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>1829</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>1830</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>1831</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>1832</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>1821</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>1822</v>
+      <c r="B4" s="22" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="22" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>1826</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H4" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000005</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>1833</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>1834</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>1835</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>1832</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>1821</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>1822</v>
+      <c r="B5" s="22" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>1829</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H5" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000006</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>1836</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>1837</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>1838</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>1839</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>1821</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>1822</v>
+      <c r="B6" s="22" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>1832</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>1833</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H6" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000007</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>1840</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>1841</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>1842</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>1813</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>1821</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>1822</v>
+      <c r="B7" s="22" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="22" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>1833</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H7" s="21">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000008</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>1843</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>1844</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>1845</v>
-      </c>
-      <c r="E8" s="24" t="s">
+      <c r="B8" s="22" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>1839</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G8" s="22" t="s">
         <v>1816</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>1846</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>1822</v>
       </c>
       <c r="H8" s="21">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000009</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>1847</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>1848</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>1849</v>
-      </c>
-      <c r="E9" s="24" t="s">
+      <c r="B9" s="22" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>1842</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>1816</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>1846</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>1822</v>
       </c>
       <c r="H9" s="21">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000010</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>1850</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>1851</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>1852</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>1853</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>1821</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>1822</v>
+      <c r="B10" s="22" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="22" t="s">
+        <v>1844</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>1845</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H10" s="21">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000011</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>1810</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>1854</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>1855</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>1853</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>1821</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>1822</v>
+      <c r="B11" s="22" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>1848</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H11" s="21">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000012</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>1856</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>1857</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>1858</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>1832</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>1821</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>1822</v>
+      <c r="B12" s="22" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>1852</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>1853</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H12" s="21">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000013</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>1859</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>1860</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>1861</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>1820</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>1821</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>1822</v>
+      <c r="B13" s="22" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>1856</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>1857</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H13" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000014</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>1862</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>1863</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>1864</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>1865</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>1821</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>1822</v>
+      <c r="B14" s="22" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>1861</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H14" s="21">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000015</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>1866</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>1867</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>1868</v>
-      </c>
-      <c r="E15" s="24" t="s">
+      <c r="B15" s="22" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>1864</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>1865</v>
       </c>
-      <c r="F15" s="24" t="s">
-        <v>1821</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>1822</v>
+      <c r="F15" s="22" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H15" s="21">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000016</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="22" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>1869</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>1870</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>1871</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>1832</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>1821</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>1822</v>
+      <c r="F16" s="22" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H16" s="21">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000017</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="22" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>1872</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="E17" s="22" t="s">
         <v>1873</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>1832</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>1821</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>1822</v>
+      <c r="F17" s="22" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H17" s="21">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000018</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="22" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>1875</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="D18" s="22" t="s">
         <v>1876</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="E18" s="22" t="s">
         <v>1877</v>
       </c>
-      <c r="E18" s="24" t="s">
-        <v>1737</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>1821</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>1822</v>
+      <c r="F18" s="22" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H18" s="21">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000019</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="22" t="s">
         <v>1878</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="22" t="s">
         <v>1879</v>
       </c>
-      <c r="D19" s="26" t="s">
-        <v>1880</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>1737</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>1821</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>1822</v>
+      <c r="E19" s="22" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H19" s="21">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000020</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="22" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>1881</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="D20" s="22" t="s">
         <v>1882</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="E20" s="22" t="s">
         <v>1883</v>
       </c>
-      <c r="E20" s="24" t="s">
-        <v>1884</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>1821</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>1822</v>
+      <c r="F20" s="22" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H20" s="21">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000021</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="22" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>1885</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="D21" s="22" t="s">
         <v>1886</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="E21" s="22" t="s">
         <v>1887</v>
       </c>
-      <c r="E21" s="24" t="s">
-        <v>1884</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>1821</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>1822</v>
+      <c r="F21" s="22" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H21" s="21">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000022</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="22" t="s">
         <v>1888</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="23" t="s">
         <v>1889</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="22" t="s">
         <v>1890</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="22" t="s">
         <v>1891</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="22" t="s">
         <v>1892</v>
       </c>
-      <c r="G22" s="13" t="s">
-        <v>1822</v>
+      <c r="G22" s="22" t="s">
+        <v>1893</v>
       </c>
       <c r="H22" s="21">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000023</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>1893</v>
-      </c>
-      <c r="C23" s="27" t="s">
+      <c r="B23" s="22" t="s">
         <v>1894</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="C23" s="23" t="s">
         <v>1895</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="D23" s="22" t="s">
         <v>1896</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="E23" s="22" t="s">
         <v>1897</v>
       </c>
-      <c r="G23" s="13" t="s">
-        <v>1822</v>
+      <c r="F23" s="22" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H23" s="21">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000024</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="22" t="s">
         <v>1898</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="23" t="s">
         <v>1899</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="22" t="s">
         <v>1900</v>
       </c>
-      <c r="E24" s="13" t="s">
-        <v>1896</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>1897</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>1822</v>
+      <c r="E24" s="22" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H24" s="21">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000025</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>1901</v>
-      </c>
-      <c r="C25" s="27" t="s">
+      <c r="B25" s="22" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>1902</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="22" t="s">
         <v>1903</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>1896</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>1897</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>1822</v>
+      <c r="E25" s="22" t="s">
+        <v>1808</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H25" s="21">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000026</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="22" t="s">
         <v>1904</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="23" t="s">
         <v>1905</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="22" t="s">
         <v>1906</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="22" t="s">
         <v>1907</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>1897</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>1822</v>
+      <c r="F26" s="22" t="s">
+        <v>1908</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H26" s="21">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000027</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>1908</v>
-      </c>
-      <c r="C27" s="27" t="s">
+      <c r="B27" s="22" t="s">
         <v>1909</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="C27" s="23" t="s">
         <v>1910</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="D27" s="22" t="s">
         <v>1911</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>1897</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>1822</v>
+      <c r="E27" s="22" t="s">
+        <v>1912</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H27" s="21">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000028</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>1912</v>
-      </c>
-      <c r="C28" s="27" t="s">
+      <c r="B28" s="22" t="s">
         <v>1913</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="C28" s="23" t="s">
         <v>1914</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="D28" s="22" t="s">
         <v>1915</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>1897</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>1822</v>
+      <c r="E28" s="22" t="s">
+        <v>1916</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H28" s="21">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000029</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>1916</v>
-      </c>
-      <c r="C29" s="27" t="s">
+      <c r="B29" s="22" t="s">
         <v>1917</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="C29" s="23"/>
+      <c r="D29" s="22" t="s">
         <v>1918</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>1911</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>1897</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>1822</v>
+      <c r="E29" s="22" t="s">
+        <v>1919</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H29" s="21">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000030</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>1919</v>
-      </c>
-      <c r="C30" s="27" t="s">
+      <c r="B30" s="22" t="s">
         <v>1920</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="C30" s="23"/>
+      <c r="D30" s="22" t="s">
         <v>1921</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="22" t="s">
         <v>1922</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>1897</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>1822</v>
+      <c r="F30" s="22" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H30" s="21">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000031</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="22" t="s">
         <v>1923</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="23" t="s">
         <v>1924</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="22" t="s">
         <v>1925</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="22" t="s">
         <v>1926</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>1897</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>1822</v>
+      <c r="F31" s="22" t="s">
+        <v>1908</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H31" s="21">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000032</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="22" t="s">
         <v>1927</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="23" t="s">
         <v>1928</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="22" t="s">
         <v>1929</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="22" t="s">
         <v>1930</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>1897</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>1822</v>
+      <c r="F32" s="22" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H32" s="21">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000033</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>598</v>
-      </c>
-      <c r="C33" s="27" t="s">
+      <c r="B33" s="22" t="s">
         <v>1931</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="C33" s="23" t="s">
         <v>1932</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="D33" s="22" t="s">
         <v>1933</v>
       </c>
-      <c r="F33" s="13" t="s">
-        <v>1897</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>1822</v>
+      <c r="E33" s="22" t="s">
+        <v>1934</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H33" s="21">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000034</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>1934</v>
-      </c>
-      <c r="C34" s="27" t="s">
+      <c r="B34" s="22" t="s">
         <v>1935</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="C34" s="23" t="s">
         <v>1936</v>
       </c>
-      <c r="E34" s="13" t="s">
-        <v>1930</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>1897</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>1822</v>
+      <c r="D34" s="22" t="s">
+        <v>1937</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>1938</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H34" s="21">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000035</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>1937</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>1938</v>
-      </c>
-      <c r="D35" s="28" t="s">
+      <c r="B35" s="22" t="s">
         <v>1939</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="C35" s="23" t="s">
         <v>1940</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>1897</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>1822</v>
+      <c r="D35" s="22">
+        <v>3305900759</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>1941</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H35" s="21">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000036</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>1941</v>
-      </c>
-      <c r="C36" s="27" t="s">
+      <c r="B36" s="22" t="s">
         <v>1942</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="C36" s="23" t="s">
         <v>1943</v>
       </c>
-      <c r="E36" s="13" t="s">
-        <v>1940</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>1897</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>1822</v>
+      <c r="D36" s="22" t="s">
+        <v>1944</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>1945</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H36" s="21">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000037</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>1944</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>1945</v>
-      </c>
-      <c r="D37" s="28" t="s">
+      <c r="B37" s="22" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C37" s="23" t="s">
         <v>1946</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>1940</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>1897</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>1822</v>
+      <c r="D37" s="22">
+        <v>33171006916</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H37" s="21">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000038</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="22" t="s">
         <v>1947</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="23" t="s">
         <v>1948</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="22" t="s">
         <v>1949</v>
       </c>
-      <c r="E38" s="13" t="s">
-        <v>1950</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>1951</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>1822</v>
+      <c r="E38" s="22" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>1908</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H38" s="21">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000039</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="22" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D39" s="22" t="s">
         <v>1952</v>
       </c>
-      <c r="C39" s="27" t="s">
-        <v>1953</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>1954</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>1955</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>1897</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>1822</v>
+      <c r="E39" s="22" t="s">
+        <v>1919</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H39" s="21">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000040</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>1956</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>1957</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>1958</v>
-      </c>
-      <c r="E40" s="13" t="s">
+      <c r="B40" s="22" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D40" s="22" t="s">
         <v>1955</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>1897</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>1822</v>
+      <c r="E40" s="22" t="s">
+        <v>1919</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>1816</v>
       </c>
       <c r="H40" s="21">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000041</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="24" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>1958</v>
+      </c>
+      <c r="E41" s="24" t="s">
         <v>1959</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="F41" s="24" t="s">
         <v>1960</v>
       </c>
-      <c r="D41" s="28" t="s">
-        <v>1961</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>1955</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>1897</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>1822</v>
+      <c r="G41" s="24" t="s">
+        <v>1816</v>
       </c>
       <c r="H41" s="21">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000042</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="24" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C42" s="25" t="s">
         <v>1962</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="D42" s="26" t="s">
         <v>1963</v>
       </c>
-      <c r="D42" s="28" t="s">
-        <v>1964</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>1965</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>1897</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>1822</v>
+      <c r="E42" s="24" t="s">
+        <v>1959</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>1960</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>1816</v>
       </c>
       <c r="H42" s="21">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000043</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="24" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D43" s="26" t="s">
         <v>1966</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="E43" s="24" t="s">
         <v>1967</v>
       </c>
-      <c r="D43" s="28" t="s">
-        <v>1968</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>1969</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>1897</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>1822</v>
+      <c r="F43" s="24" t="s">
+        <v>1960</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>1816</v>
       </c>
       <c r="H43" s="21">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000044</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="24" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D44" s="26" t="s">
         <v>1970</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="E44" s="24" t="s">
         <v>1971</v>
       </c>
-      <c r="D44" s="28" t="s">
-        <v>1972</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>1973</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>1974</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>1822</v>
+      <c r="F44" s="24" t="s">
+        <v>1960</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>1816</v>
       </c>
       <c r="H44" s="21">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000045</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="24" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E45" s="24" t="s">
         <v>1975</v>
       </c>
-      <c r="C45" s="27" t="s">
-        <v>1976</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>1977</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>1907</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>1897</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>1822</v>
+      <c r="F45" s="24" t="s">
+        <v>1960</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>1816</v>
       </c>
       <c r="H45" s="21">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000046</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="24" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D46" s="26" t="s">
         <v>1978</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="E46" s="24" t="s">
         <v>1979</v>
       </c>
-      <c r="D46" s="28" t="s">
-        <v>1980</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>1907</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>1897</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>1822</v>
+      <c r="F46" s="24" t="s">
+        <v>1960</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>1816</v>
       </c>
       <c r="H46" s="21">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000047</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="24" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26" t="s">
         <v>1981</v>
       </c>
-      <c r="C47" s="27" t="s">
-        <v>1982</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>1983</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>1930</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>1897</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>1822</v>
+      <c r="E47" s="24" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>1960</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>1816</v>
       </c>
       <c r="H47" s="21">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000048</v>
       </c>
-      <c r="B48" s="13" t="s">
-        <v>1984</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>1985</v>
-      </c>
-      <c r="D48" s="28" t="s">
-        <v>1986</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>1987</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>1897</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>1822</v>
+      <c r="B48" s="24" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C48" s="25"/>
+      <c r="D48" s="26" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>1960</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>1816</v>
       </c>
       <c r="H48" s="21">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000049</v>
       </c>
-      <c r="B49" s="13" t="s">
-        <v>1988</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>1989</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>1990</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>1987</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>1897</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>1822</v>
+      <c r="B49" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>1986</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>1960</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>1816</v>
       </c>
       <c r="H49" s="21">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000050</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="24" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>1990</v>
+      </c>
+      <c r="F50" s="24" t="s">
         <v>1991</v>
       </c>
-      <c r="C50" s="27" t="s">
-        <v>1992</v>
-      </c>
-      <c r="D50" s="29" t="s">
-        <v>1993</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>1994</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>1822</v>
+      <c r="G50" s="24" t="s">
+        <v>1816</v>
       </c>
       <c r="H50" s="21">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000051</v>
       </c>
-      <c r="B51" s="13" t="s">
-        <v>1996</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>1997</v>
-      </c>
-      <c r="D51" s="29" t="s">
-        <v>1998</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>1999</v>
-      </c>
-      <c r="F51" s="13" t="s">
+      <c r="B51" s="24" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>1994</v>
+      </c>
+      <c r="E51" s="24" t="s">
         <v>1995</v>
       </c>
-      <c r="G51" s="13" t="s">
-        <v>1822</v>
+      <c r="F51" s="24" t="s">
+        <v>1991</v>
+      </c>
+      <c r="G51" s="24" t="s">
+        <v>1816</v>
       </c>
       <c r="H51" s="21">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000052</v>
       </c>
-      <c r="B52" s="13" t="s">
-        <v>2000</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>2001</v>
-      </c>
-      <c r="D52" s="29" t="s">
-        <v>2002</v>
-      </c>
-      <c r="E52" s="13" t="s">
+      <c r="B52" s="24" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>1998</v>
+      </c>
+      <c r="E52" s="24" t="s">
         <v>1999</v>
       </c>
-      <c r="F52" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>1822</v>
+      <c r="F52" s="24" t="s">
+        <v>1991</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>1816</v>
       </c>
       <c r="H52" s="21">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000053</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="24" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E53" s="24" t="s">
         <v>2003</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="F53" s="27" t="s">
         <v>2004</v>
       </c>
-      <c r="D53" s="30" t="s">
-        <v>2005</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>1499</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>1822</v>
+      <c r="G53" s="24" t="s">
+        <v>1816</v>
       </c>
       <c r="H53" s="21">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000054</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="24" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C54" s="25" t="s">
         <v>2006</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="D54" s="26" t="s">
         <v>2007</v>
       </c>
-      <c r="D54" s="29" t="s">
+      <c r="E54" s="24" t="s">
         <v>2008</v>
       </c>
-      <c r="E54" s="13" t="s">
-        <v>2009</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>1822</v>
+      <c r="F54" s="24" t="s">
+        <v>1991</v>
+      </c>
+      <c r="G54" s="24" t="s">
+        <v>1816</v>
       </c>
       <c r="H54" s="21">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000055</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="24" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C55" s="25" t="s">
         <v>2010</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="D55" s="26" t="s">
         <v>2011</v>
       </c>
-      <c r="D55" s="29" t="s">
+      <c r="E55" s="24" t="s">
         <v>2012</v>
       </c>
-      <c r="E55" s="13" t="s">
-        <v>2013</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>1822</v>
+      <c r="F55" s="24" t="s">
+        <v>1991</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>1816</v>
       </c>
       <c r="H55" s="21">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000056</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="24" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C56" s="25" t="s">
         <v>2014</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="D56" s="26" t="s">
         <v>2015</v>
       </c>
-      <c r="D56" s="29" t="s">
+      <c r="E56" s="24" t="s">
         <v>2016</v>
       </c>
-      <c r="E56" s="13" t="s">
-        <v>2017</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>1119</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>1822</v>
+      <c r="F56" s="24" t="s">
+        <v>1991</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>1816</v>
       </c>
       <c r="H56" s="21">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000057</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="24" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C57" s="25" t="s">
         <v>2018</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="D57" s="26" t="s">
         <v>2019</v>
       </c>
-      <c r="D57" s="29" t="s">
+      <c r="E57" s="24" t="s">
         <v>2020</v>
       </c>
-      <c r="E57" s="13" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>1822</v>
+      <c r="F57" s="24" t="s">
+        <v>1991</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>1816</v>
       </c>
       <c r="H57" s="21">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000058</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="24" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C58" s="25"/>
+      <c r="D58" s="26" t="s">
         <v>2021</v>
       </c>
-      <c r="C58" s="27" t="s">
+      <c r="E58" s="24" t="s">
         <v>2022</v>
       </c>
-      <c r="D58" s="29" t="s">
+      <c r="F58" s="24" t="s">
         <v>2023</v>
       </c>
-      <c r="E58" s="13" t="s">
-        <v>2009</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>1822</v>
+      <c r="G58" s="24" t="s">
+        <v>1816</v>
       </c>
       <c r="H58" s="21">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000059</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="24" t="s">
         <v>2024</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="25"/>
+      <c r="D59" s="26" t="s">
         <v>2025</v>
       </c>
-      <c r="D59" s="29" t="s">
-        <v>2026</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>2027</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>1822</v>
+      <c r="E59" s="24" t="s">
+        <v>2022</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>2023</v>
+      </c>
+      <c r="G59" s="24" t="s">
+        <v>1816</v>
       </c>
       <c r="H59" s="21">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000060</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="24" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>2027</v>
+      </c>
+      <c r="D60" s="29" t="s">
         <v>2028</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="E60" s="30" t="s">
         <v>2029</v>
       </c>
-      <c r="D60" s="29" t="s">
-        <v>2030</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>2031</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>1822</v>
+      <c r="F60" s="24" t="s">
+        <v>2023</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>1816</v>
       </c>
       <c r="H60" s="21">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000061</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="24" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D61" s="29" t="s">
         <v>2032</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="E61" s="30" t="s">
         <v>2033</v>
       </c>
-      <c r="D61" s="29" t="s">
-        <v>2034</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>1994</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>1822</v>
+      <c r="F61" s="24" t="s">
+        <v>2023</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>1816</v>
       </c>
       <c r="H61" s="21">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000062</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="24" t="s">
+        <v>968</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D62" s="29" t="s">
         <v>2035</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="E62" s="30" t="s">
         <v>2036</v>
       </c>
-      <c r="D62" s="29" t="s">
-        <v>2037</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>2038</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>1822</v>
+      <c r="F62" s="24" t="s">
+        <v>2023</v>
+      </c>
+      <c r="G62" s="24" t="s">
+        <v>1816</v>
       </c>
       <c r="H62" s="21">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000063</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="24" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D63" s="29" t="s">
         <v>2039</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="E63" s="30" t="s">
         <v>2040</v>
       </c>
-      <c r="D63" s="29" t="s">
-        <v>2041</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>2042</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>1822</v>
+      <c r="F63" s="24" t="s">
+        <v>2023</v>
+      </c>
+      <c r="G63" s="24" t="s">
+        <v>1816</v>
       </c>
       <c r="H63" s="21">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000064</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="24" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>2042</v>
+      </c>
+      <c r="D64" s="29" t="s">
         <v>2043</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="E64" s="30" t="s">
         <v>2044</v>
       </c>
-      <c r="D64" s="29" t="s">
-        <v>2045</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>2046</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>1822</v>
+      <c r="F64" s="24" t="s">
+        <v>2023</v>
+      </c>
+      <c r="G64" s="24" t="s">
+        <v>1816</v>
       </c>
       <c r="H64" s="21">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00000065</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="24" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D65" s="29" t="s">
         <v>2047</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="E65" s="30" t="s">
         <v>2048</v>
       </c>
-      <c r="D65" s="29" t="s">
-        <v>2049</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>2009</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>1822</v>
+      <c r="F65" s="24" t="s">
+        <v>2023</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>1816</v>
       </c>
       <c r="H65" s="21">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="21" t="str">
         <f t="shared" ref="A66:A129" si="1">TEXT(H66, "00000000")</f>
         <v>00000066</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="24" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C66" s="28" t="s">
         <v>2050</v>
       </c>
-      <c r="C66" s="27" t="s">
+      <c r="D66" s="29" t="s">
         <v>2051</v>
       </c>
-      <c r="D66" s="29" t="s">
-        <v>2052</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>1814</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>1822</v>
+      <c r="E66" s="30" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>2023</v>
+      </c>
+      <c r="G66" s="24" t="s">
+        <v>1816</v>
       </c>
       <c r="H66" s="21">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000067</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="24" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C67" s="31" t="s">
         <v>2053</v>
       </c>
-      <c r="C67" s="27" t="s">
+      <c r="D67" s="32" t="s">
         <v>2054</v>
       </c>
-      <c r="D67" s="29" t="s">
+      <c r="E67" s="9" t="s">
         <v>2055</v>
       </c>
-      <c r="E67" s="13" t="s">
-        <v>2056</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>1822</v>
+      <c r="F67" s="24" t="s">
+        <v>2023</v>
+      </c>
+      <c r="G67" s="24" t="s">
+        <v>1816</v>
       </c>
       <c r="H67" s="21">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000068</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="24" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C68" s="31" t="s">
         <v>2057</v>
       </c>
-      <c r="C68" s="27" t="s">
+      <c r="D68" s="32" t="s">
         <v>2058</v>
       </c>
-      <c r="D68" s="29" t="s">
+      <c r="E68" s="9" t="s">
         <v>2059</v>
       </c>
-      <c r="E68" s="13" t="s">
-        <v>1994</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>1822</v>
+      <c r="F68" s="24" t="s">
+        <v>2023</v>
+      </c>
+      <c r="G68" s="24" t="s">
+        <v>1816</v>
       </c>
       <c r="H68" s="21">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000069</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="24" t="s">
         <v>2060</v>
       </c>
-      <c r="C69" s="27" t="s">
+      <c r="C69" s="31"/>
+      <c r="D69" s="32" t="s">
         <v>2061</v>
       </c>
-      <c r="D69" s="29" t="s">
+      <c r="E69" s="9" t="s">
         <v>2062</v>
       </c>
-      <c r="E69" s="13" t="s">
-        <v>1994</v>
-      </c>
-      <c r="F69" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>1822</v>
+      <c r="F69" s="9" t="s">
+        <v>2063</v>
+      </c>
+      <c r="G69" s="24" t="s">
+        <v>1816</v>
       </c>
       <c r="H69" s="21">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000070</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="24" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D70" s="32" t="s">
+        <v>2065</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>2062</v>
+      </c>
+      <c r="F70" s="9" t="s">
         <v>2063</v>
       </c>
-      <c r="C70" s="27" t="s">
-        <v>2064</v>
-      </c>
-      <c r="D70" s="29" t="s">
-        <v>2065</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>1994</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>1822</v>
+      <c r="G70" s="24" t="s">
+        <v>1816</v>
       </c>
       <c r="H70" s="21">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000071</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="9" t="s">
         <v>2066</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="33" t="s">
         <v>2067</v>
       </c>
-      <c r="D71" s="29" t="s">
+      <c r="D71" s="33" t="s">
         <v>2068</v>
       </c>
-      <c r="E71" s="13" t="s">
-        <v>2013</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>1822</v>
+      <c r="E71" s="9" t="s">
+        <v>2069</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>1816</v>
       </c>
       <c r="H71" s="21">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000072</v>
       </c>
-      <c r="B72" s="13" t="s">
-        <v>2069</v>
-      </c>
-      <c r="C72" s="27" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D72" s="29" t="s">
+      <c r="B72" s="9" t="s">
         <v>2071</v>
       </c>
-      <c r="E72" s="13" t="s">
-        <v>2056</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="G72" s="13" t="s">
-        <v>1822</v>
+      <c r="C72" s="33" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D72" s="33" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>2075</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>1816</v>
       </c>
       <c r="H72" s="21">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000073</v>
       </c>
-      <c r="B73" s="13" t="s">
-        <v>2072</v>
-      </c>
-      <c r="C73" s="27" t="s">
-        <v>2073</v>
-      </c>
-      <c r="D73" s="29" t="s">
-        <v>2074</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>2075</v>
-      </c>
-      <c r="F73" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>1822</v>
+      <c r="B73" s="9" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C73" s="33" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D73" s="33" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>2078</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>2079</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>1816</v>
       </c>
       <c r="H73" s="21">
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000074</v>
       </c>
-      <c r="B74" s="13" t="s">
-        <v>2076</v>
-      </c>
-      <c r="C74" s="27" t="s">
-        <v>2077</v>
-      </c>
-      <c r="D74" s="29" t="s">
-        <v>2078</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>2056</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>1822</v>
+      <c r="B74" s="9" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C74" s="33" t="s">
+        <v>2081</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>2082</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>2083</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>1816</v>
       </c>
       <c r="H74" s="21">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000075</v>
       </c>
-      <c r="B75" s="13" t="s">
-        <v>2079</v>
-      </c>
-      <c r="C75" s="27" t="s">
-        <v>2080</v>
-      </c>
-      <c r="D75" s="29" t="s">
-        <v>2081</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>2082</v>
-      </c>
-      <c r="F75" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="G75" s="13" t="s">
-        <v>1822</v>
+      <c r="B75" s="9" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33" t="s">
+        <v>2085</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>2083</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>1816</v>
       </c>
       <c r="H75" s="21">
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000076</v>
       </c>
-      <c r="B76" s="13" t="s">
-        <v>2083</v>
-      </c>
-      <c r="C76" s="27" t="s">
-        <v>2084</v>
-      </c>
-      <c r="D76" s="29" t="s">
-        <v>2085</v>
-      </c>
-      <c r="E76" s="13" t="s">
+      <c r="B76" s="9" t="s">
         <v>2086</v>
       </c>
-      <c r="F76" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="G76" s="13" t="s">
-        <v>1822</v>
+      <c r="C76" s="33" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D76" s="33" t="s">
+        <v>2088</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>2089</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>1816</v>
       </c>
       <c r="H76" s="21">
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000077</v>
       </c>
-      <c r="B77" s="13" t="s">
-        <v>2087</v>
-      </c>
-      <c r="C77" s="27" t="s">
-        <v>2088</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>2089</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>2031</v>
-      </c>
-      <c r="F77" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>1822</v>
+      <c r="B77" s="9" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C77" s="33" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D77" s="33" t="s">
+        <v>2092</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>2079</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>1816</v>
       </c>
       <c r="H77" s="21">
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000078</v>
       </c>
-      <c r="B78" s="13" t="s">
-        <v>2090</v>
-      </c>
-      <c r="C78" s="27" t="s">
-        <v>2091</v>
-      </c>
-      <c r="D78" s="29" t="s">
-        <v>2092</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>1999</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>1822</v>
+      <c r="B78" s="9" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C78" s="33" t="s">
+        <v>2095</v>
+      </c>
+      <c r="D78" s="33" t="s">
+        <v>2096</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>2097</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>2098</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>1816</v>
       </c>
       <c r="H78" s="21">
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000079</v>
       </c>
-      <c r="B79" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" s="27" t="s">
-        <v>2093</v>
-      </c>
-      <c r="D79" s="29" t="s">
-        <v>2094</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>2009</v>
-      </c>
-      <c r="F79" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="G79" s="13" t="s">
-        <v>1822</v>
+      <c r="B79" s="9" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C79" s="33" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D79" s="33" t="s">
+        <v>2101</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>2083</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>1816</v>
       </c>
       <c r="H79" s="21">
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000080</v>
       </c>
-      <c r="B80" s="13" t="s">
-        <v>2095</v>
-      </c>
-      <c r="C80" s="27" t="s">
-        <v>2096</v>
-      </c>
-      <c r="D80" s="29" t="s">
-        <v>2097</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>1999</v>
-      </c>
-      <c r="F80" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="G80" s="13" t="s">
-        <v>1822</v>
+      <c r="B80" s="9" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C80" s="33" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D80" s="33" t="s">
+        <v>2104</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>2105</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>2098</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>1816</v>
       </c>
       <c r="H80" s="21">
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000081</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="9" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C81" s="33" t="s">
+        <v>2107</v>
+      </c>
+      <c r="D81" s="33" t="s">
+        <v>2108</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F81" s="9" t="s">
         <v>2098</v>
       </c>
-      <c r="C81" s="27" t="s">
-        <v>2099</v>
-      </c>
-      <c r="D81" s="29" t="s">
-        <v>2100</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>2009</v>
-      </c>
-      <c r="F81" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="G81" s="13" t="s">
-        <v>1822</v>
+      <c r="G81" s="9" t="s">
+        <v>1816</v>
       </c>
       <c r="H81" s="21">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000082</v>
       </c>
-      <c r="B82" s="13" t="s">
-        <v>2101</v>
-      </c>
-      <c r="C82" s="27" t="s">
-        <v>2102</v>
-      </c>
-      <c r="D82" s="29" t="s">
-        <v>2103</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>2009</v>
-      </c>
-      <c r="F82" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>1822</v>
+      <c r="B82" s="9" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C82" s="33" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D82" s="33" t="s">
+        <v>2111</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>2112</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>2098</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>1816</v>
       </c>
       <c r="H82" s="21">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000083</v>
       </c>
-      <c r="B83" s="13" t="s">
-        <v>2104</v>
-      </c>
-      <c r="C83" s="27"/>
-      <c r="D83" s="29" t="s">
-        <v>2105</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F83" s="13" t="s">
-        <v>1995</v>
-      </c>
-      <c r="G83" s="13" t="s">
-        <v>1822</v>
+      <c r="B83" s="9" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C83" s="33" t="s">
+        <v>2114</v>
+      </c>
+      <c r="D83" s="33" t="s">
+        <v>2115</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>2116</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>2098</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>1816</v>
       </c>
       <c r="H83" s="21">
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000084</v>
       </c>
-      <c r="B84" s="13" t="s">
-        <v>2106</v>
-      </c>
-      <c r="C84" s="27" t="s">
-        <v>2107</v>
-      </c>
-      <c r="D84" s="28" t="s">
-        <v>2108</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>2109</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>2110</v>
-      </c>
-      <c r="G84" s="13" t="s">
-        <v>1822</v>
+      <c r="B84" s="9" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C84" s="33" t="s">
+        <v>2118</v>
+      </c>
+      <c r="D84" s="33" t="s">
+        <v>2119</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>2120</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>2098</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>1816</v>
       </c>
       <c r="H84" s="21">
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000085</v>
       </c>
-      <c r="B85" s="13" t="s">
-        <v>2111</v>
-      </c>
-      <c r="C85" s="27" t="s">
-        <v>2112</v>
-      </c>
-      <c r="D85" s="28" t="s">
-        <v>2113</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>2114</v>
-      </c>
-      <c r="F85" s="13" t="s">
-        <v>2110</v>
-      </c>
-      <c r="G85" s="13" t="s">
-        <v>1822</v>
+      <c r="B85" s="9" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C85" s="33" t="s">
+        <v>2122</v>
+      </c>
+      <c r="D85" s="33" t="s">
+        <v>2123</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>2078</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>2079</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>1816</v>
       </c>
       <c r="H85" s="21">
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000086</v>
       </c>
-      <c r="B86" s="13" t="s">
-        <v>2115</v>
-      </c>
-      <c r="C86" s="27" t="s">
-        <v>2116</v>
-      </c>
-      <c r="D86" s="28" t="s">
-        <v>2117</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>2118</v>
-      </c>
-      <c r="F86" s="13" t="s">
-        <v>2110</v>
-      </c>
-      <c r="G86" s="13" t="s">
-        <v>1822</v>
+      <c r="B86" s="9" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C86" s="33" t="s">
+        <v>2125</v>
+      </c>
+      <c r="D86" s="33" t="s">
+        <v>2126</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>2127</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>2079</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>1816</v>
       </c>
       <c r="H86" s="21">
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000087</v>
       </c>
-      <c r="B87" s="13" t="s">
-        <v>2119</v>
-      </c>
-      <c r="C87" s="27" t="s">
-        <v>2120</v>
-      </c>
-      <c r="D87" s="28" t="s">
-        <v>2121</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>2122</v>
-      </c>
-      <c r="F87" s="13" t="s">
-        <v>2110</v>
-      </c>
-      <c r="G87" s="13" t="s">
-        <v>1822</v>
+      <c r="B87" s="9" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C87" s="33" t="s">
+        <v>2129</v>
+      </c>
+      <c r="D87" s="33" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>1816</v>
       </c>
       <c r="H87" s="21">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000088</v>
       </c>
-      <c r="B88" s="13" t="s">
-        <v>2123</v>
-      </c>
-      <c r="C88" s="27" t="s">
-        <v>2124</v>
-      </c>
-      <c r="D88" s="28" t="s">
-        <v>2125</v>
-      </c>
-      <c r="E88" s="13" t="s">
-        <v>2126</v>
-      </c>
-      <c r="F88" s="13" t="s">
-        <v>2127</v>
-      </c>
-      <c r="G88" s="13" t="s">
-        <v>1822</v>
+      <c r="B88" s="9" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C88" s="33" t="s">
+        <v>2132</v>
+      </c>
+      <c r="D88" s="33" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>1816</v>
       </c>
       <c r="H88" s="21">
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000089</v>
       </c>
-      <c r="B89" s="13" t="s">
-        <v>2128</v>
-      </c>
-      <c r="C89" s="27" t="s">
-        <v>2129</v>
-      </c>
-      <c r="D89" s="28" t="s">
-        <v>2130</v>
-      </c>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13" t="s">
-        <v>2131</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>1809</v>
+      <c r="B89" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C89" s="33" t="s">
+        <v>2134</v>
+      </c>
+      <c r="D89" s="33" t="s">
+        <v>2135</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>2136</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>1816</v>
       </c>
       <c r="H89" s="21">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000090</v>
       </c>
-      <c r="B90" s="13" t="s">
-        <v>2132</v>
-      </c>
-      <c r="C90" s="27" t="s">
-        <v>2133</v>
-      </c>
-      <c r="D90" s="28" t="s">
-        <v>2134</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>2135</v>
-      </c>
-      <c r="F90" s="13" t="s">
-        <v>2110</v>
-      </c>
-      <c r="G90" s="13" t="s">
-        <v>1822</v>
+      <c r="B90" s="9" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C90" s="33" t="s">
+        <v>2138</v>
+      </c>
+      <c r="D90" s="33" t="s">
+        <v>2139</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>1816</v>
       </c>
       <c r="H90" s="21">
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000091</v>
       </c>
-      <c r="B91" s="13" t="s">
-        <v>2136</v>
-      </c>
-      <c r="C91" s="27" t="s">
-        <v>2137</v>
-      </c>
-      <c r="D91" s="28" t="s">
-        <v>2138</v>
-      </c>
-      <c r="E91" s="13" t="s">
-        <v>2114</v>
-      </c>
-      <c r="F91" s="13" t="s">
-        <v>2110</v>
-      </c>
-      <c r="G91" s="13" t="s">
-        <v>1822</v>
+      <c r="B91" s="9" t="s">
+        <v>2140</v>
+      </c>
+      <c r="C91" s="33" t="s">
+        <v>2141</v>
+      </c>
+      <c r="D91" s="33" t="s">
+        <v>2142</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>2143</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>2098</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>1816</v>
       </c>
       <c r="H91" s="21">
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000092</v>
       </c>
-      <c r="B92" s="13" t="s">
-        <v>2139</v>
-      </c>
-      <c r="C92" s="27" t="s">
-        <v>2140</v>
-      </c>
-      <c r="D92" s="28" t="s">
-        <v>2141</v>
-      </c>
-      <c r="E92" s="13" t="s">
-        <v>2135</v>
-      </c>
-      <c r="F92" s="13" t="s">
-        <v>2110</v>
-      </c>
-      <c r="G92" s="13" t="s">
-        <v>1822</v>
+      <c r="B92" s="9" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C92" s="33" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D92" s="33" t="s">
+        <v>2146</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>2147</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>2079</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>1816</v>
       </c>
       <c r="H92" s="21">
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000093</v>
       </c>
-      <c r="B93" s="13" t="s">
-        <v>2142</v>
-      </c>
-      <c r="C93" s="27" t="s">
-        <v>2143</v>
-      </c>
-      <c r="D93" s="28" t="s">
-        <v>2144</v>
-      </c>
-      <c r="E93" s="13" t="s">
-        <v>2145</v>
-      </c>
-      <c r="F93" s="13" t="s">
-        <v>2127</v>
-      </c>
-      <c r="G93" s="13" t="s">
-        <v>1822</v>
+      <c r="B93" s="9" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C93" s="33" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D93" s="33" t="s">
+        <v>2150</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>2151</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>1816</v>
       </c>
       <c r="H93" s="21">
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000094</v>
       </c>
-      <c r="B94" s="13" t="s">
-        <v>2146</v>
-      </c>
-      <c r="C94" s="27" t="s">
-        <v>2147</v>
-      </c>
-      <c r="D94" s="28" t="s">
-        <v>2148</v>
-      </c>
-      <c r="E94" s="13" t="s">
-        <v>2149</v>
-      </c>
-      <c r="F94" s="13" t="s">
-        <v>2110</v>
-      </c>
-      <c r="G94" s="13" t="s">
-        <v>1822</v>
+      <c r="B94" s="9" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C94" s="33" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D94" s="33" t="s">
+        <v>2154</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>2151</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>1816</v>
       </c>
       <c r="H94" s="21">
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000095</v>
       </c>
-      <c r="B95" s="13" t="s">
-        <v>2150</v>
-      </c>
-      <c r="C95" s="27" t="s">
-        <v>2151</v>
-      </c>
-      <c r="D95" s="28" t="s">
-        <v>2152</v>
-      </c>
-      <c r="E95" s="13" t="s">
-        <v>2153</v>
-      </c>
-      <c r="F95" s="13" t="s">
-        <v>2110</v>
-      </c>
-      <c r="G95" s="13" t="s">
-        <v>1822</v>
+      <c r="B95" s="9" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C95" s="33" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D95" s="33" t="s">
+        <v>2157</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>2158</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>2079</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>1816</v>
       </c>
       <c r="H95" s="21">
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000096</v>
       </c>
-      <c r="B96" s="13" t="s">
-        <v>2154</v>
-      </c>
-      <c r="C96" s="27" t="s">
-        <v>2155</v>
-      </c>
-      <c r="D96" s="28" t="s">
-        <v>2156</v>
-      </c>
-      <c r="E96" s="13" t="s">
-        <v>2157</v>
-      </c>
-      <c r="F96" s="13" t="s">
-        <v>2110</v>
-      </c>
-      <c r="G96" s="13" t="s">
-        <v>1822</v>
+      <c r="B96" s="12" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C96" s="34" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D96" s="34" t="s">
+        <v>2161</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>1861</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>1816</v>
       </c>
       <c r="H96" s="21">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000097</v>
       </c>
-      <c r="B97" s="13" t="s">
-        <v>2158</v>
-      </c>
-      <c r="C97" s="27" t="s">
-        <v>2159</v>
-      </c>
-      <c r="D97" s="28" t="s">
-        <v>2160</v>
-      </c>
-      <c r="E97" s="13" t="s">
-        <v>2161</v>
-      </c>
-      <c r="F97" s="13" t="s">
-        <v>2110</v>
-      </c>
-      <c r="G97" s="13" t="s">
-        <v>1822</v>
+      <c r="B97" s="12" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C97" s="34" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D97" s="34" t="s">
+        <v>2164</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>1845</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>1816</v>
       </c>
       <c r="H97" s="21">
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000098</v>
       </c>
-      <c r="B98" s="13" t="s">
-        <v>2162</v>
-      </c>
-      <c r="C98" s="27" t="s">
-        <v>2163</v>
-      </c>
-      <c r="D98" s="28" t="s">
-        <v>2164</v>
-      </c>
-      <c r="E98" s="31" t="s">
+      <c r="B98" s="12" t="s">
         <v>2165</v>
       </c>
-      <c r="F98" s="32" t="s">
-        <v>2110</v>
-      </c>
-      <c r="G98" s="13" t="s">
-        <v>1822</v>
+      <c r="C98" s="34" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D98" s="34" t="s">
+        <v>2167</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>1816</v>
       </c>
       <c r="H98" s="21">
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000099</v>
       </c>
-      <c r="B99" s="33" t="s">
-        <v>2166</v>
-      </c>
-      <c r="C99" s="34" t="s">
-        <v>2167</v>
-      </c>
-      <c r="D99" s="35" t="s">
+      <c r="B99" s="12" t="s">
         <v>2168</v>
       </c>
-      <c r="E99" s="35" t="s">
+      <c r="D99" s="34" t="s">
         <v>2169</v>
       </c>
-      <c r="F99" s="35" t="s">
+      <c r="E99" s="12" t="s">
         <v>2170</v>
       </c>
-      <c r="G99" s="35" t="s">
-        <v>1822</v>
+      <c r="F99" s="12" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>1816</v>
       </c>
       <c r="H99" s="21">
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000100</v>
       </c>
-      <c r="B100" s="33" t="s">
+      <c r="B100" s="12" t="s">
         <v>2171</v>
       </c>
       <c r="C100" s="34" t="s">
         <v>2172</v>
       </c>
-      <c r="D100" s="35" t="s">
+      <c r="D100" s="34" t="s">
         <v>2173</v>
       </c>
-      <c r="E100" s="35" t="s">
-        <v>2174</v>
-      </c>
-      <c r="F100" s="35" t="s">
+      <c r="E100" s="12" t="s">
         <v>2170</v>
       </c>
-      <c r="G100" s="35" t="s">
-        <v>1822</v>
+      <c r="F100" s="12" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>1816</v>
       </c>
       <c r="H100" s="21">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000101</v>
       </c>
-      <c r="B101" s="33" t="s">
-        <v>1811</v>
+      <c r="B101" s="12" t="s">
+        <v>2174</v>
       </c>
       <c r="C101" s="34" t="s">
         <v>2175</v>
       </c>
-      <c r="D101" s="35" t="s">
+      <c r="D101" s="34" t="s">
         <v>2176</v>
       </c>
-      <c r="E101" s="35" t="s">
-        <v>2174</v>
-      </c>
-      <c r="F101" s="35" t="s">
-        <v>2170</v>
-      </c>
-      <c r="G101" s="35" t="s">
-        <v>1822</v>
+      <c r="E101" s="12" t="s">
+        <v>2177</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>1816</v>
       </c>
       <c r="H101" s="21">
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000102</v>
       </c>
-      <c r="B102" s="33" t="s">
-        <v>2177</v>
+      <c r="B102" s="12" t="s">
+        <v>2178</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>2178</v>
-      </c>
-      <c r="D102" s="35" t="s">
         <v>2179</v>
       </c>
-      <c r="E102" s="35" t="s">
+      <c r="D102" s="34" t="s">
         <v>2180</v>
       </c>
-      <c r="F102" s="35" t="s">
-        <v>2170</v>
-      </c>
-      <c r="G102" s="35" t="s">
-        <v>1822</v>
+      <c r="E102" s="12" t="s">
+        <v>2181</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G102" s="12" t="s">
+        <v>1816</v>
       </c>
       <c r="H102" s="21">
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000103</v>
       </c>
-      <c r="B103" s="33" t="s">
-        <v>2181</v>
-      </c>
-      <c r="C103" s="34"/>
-      <c r="D103" s="35" t="s">
+      <c r="B103" s="12" t="s">
         <v>2182</v>
       </c>
-      <c r="E103" s="35" t="s">
+      <c r="C103" s="34" t="s">
         <v>2183</v>
       </c>
-      <c r="F103" s="35" t="s">
-        <v>2170</v>
-      </c>
-      <c r="G103" s="35" t="s">
-        <v>1822</v>
+      <c r="D103" s="34" t="s">
+        <v>2184</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G103" s="12" t="s">
+        <v>1816</v>
       </c>
       <c r="H103" s="21">
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000104</v>
       </c>
-      <c r="B104" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="C104" s="34"/>
-      <c r="D104" s="35" t="s">
-        <v>2184</v>
-      </c>
-      <c r="E104" s="35" t="s">
-        <v>2183</v>
-      </c>
-      <c r="F104" s="35" t="s">
-        <v>2170</v>
-      </c>
-      <c r="G104" s="35" t="s">
-        <v>1822</v>
+      <c r="B104" s="12" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C104" s="34" t="s">
+        <v>2186</v>
+      </c>
+      <c r="D104" s="34" t="s">
+        <v>2187</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>2188</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G104" s="12" t="s">
+        <v>1816</v>
       </c>
       <c r="H104" s="21">
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000105</v>
       </c>
-      <c r="B105" s="33" t="s">
-        <v>2185</v>
+      <c r="B105" s="12" t="s">
+        <v>2189</v>
       </c>
       <c r="C105" s="34" t="s">
-        <v>2186</v>
-      </c>
-      <c r="D105" s="35" t="s">
-        <v>2187</v>
-      </c>
-      <c r="E105" s="35" t="s">
-        <v>2169</v>
-      </c>
-      <c r="F105" s="35" t="s">
-        <v>2170</v>
-      </c>
-      <c r="G105" s="35" t="s">
-        <v>1822</v>
+        <v>2190</v>
+      </c>
+      <c r="D105" s="34" t="s">
+        <v>2191</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>2192</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>2193</v>
+      </c>
+      <c r="G105" s="12" t="s">
+        <v>1816</v>
       </c>
       <c r="H105" s="21">
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000106</v>
       </c>
-      <c r="B106" s="33" t="s">
-        <v>2188</v>
+      <c r="B106" s="12" t="s">
+        <v>2194</v>
       </c>
       <c r="C106" s="34" t="s">
-        <v>2189</v>
-      </c>
-      <c r="D106" s="35" t="s">
-        <v>2190</v>
-      </c>
-      <c r="E106" s="35" t="s">
-        <v>2191</v>
-      </c>
-      <c r="F106" s="35" t="s">
-        <v>2170</v>
-      </c>
-      <c r="G106" s="35" t="s">
-        <v>1822</v>
+        <v>2195</v>
+      </c>
+      <c r="D106" s="34" t="s">
+        <v>2196</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>2197</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>2193</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>1816</v>
       </c>
       <c r="H106" s="21">
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000107</v>
       </c>
-      <c r="B107" s="33" t="s">
-        <v>2192</v>
+      <c r="B107" s="12" t="s">
+        <v>2198</v>
       </c>
       <c r="C107" s="34" t="s">
+        <v>2199</v>
+      </c>
+      <c r="D107" s="34" t="s">
+        <v>2200</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>2201</v>
+      </c>
+      <c r="F107" s="12" t="s">
         <v>2193</v>
       </c>
-      <c r="D107" s="35" t="s">
-        <v>2194</v>
-      </c>
-      <c r="E107" s="35" t="s">
-        <v>2195</v>
-      </c>
-      <c r="F107" s="35" t="s">
-        <v>2170</v>
-      </c>
-      <c r="G107" s="35" t="s">
-        <v>1822</v>
+      <c r="G107" s="12" t="s">
+        <v>1816</v>
       </c>
       <c r="H107" s="21">
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000108</v>
       </c>
-      <c r="B108" s="33" t="s">
-        <v>2196</v>
+      <c r="B108" s="12" t="s">
+        <v>2202</v>
       </c>
       <c r="C108" s="34" t="s">
-        <v>2197</v>
-      </c>
-      <c r="D108" s="35" t="s">
-        <v>2198</v>
-      </c>
-      <c r="E108" s="35" t="s">
-        <v>2169</v>
-      </c>
-      <c r="F108" s="35" t="s">
-        <v>2170</v>
-      </c>
-      <c r="G108" s="35" t="s">
-        <v>1822</v>
+        <v>2203</v>
+      </c>
+      <c r="D108" s="34" t="s">
+        <v>2204</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>2205</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>2193</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>1816</v>
       </c>
       <c r="H108" s="21">
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000109</v>
       </c>
-      <c r="B109" s="33" t="s">
-        <v>2199</v>
+      <c r="B109" s="12" t="s">
+        <v>2206</v>
       </c>
       <c r="C109" s="34" t="s">
-        <v>2200</v>
-      </c>
-      <c r="D109" s="35" t="s">
-        <v>2201</v>
-      </c>
-      <c r="E109" s="35" t="s">
-        <v>2202</v>
-      </c>
-      <c r="F109" s="35" t="s">
-        <v>2170</v>
-      </c>
-      <c r="G109" s="35" t="s">
-        <v>1822</v>
+        <v>2207</v>
+      </c>
+      <c r="D109" s="34" t="s">
+        <v>2208</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>2205</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>2193</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>1816</v>
       </c>
       <c r="H109" s="21">
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000110</v>
       </c>
-      <c r="B110" s="33" t="s">
-        <v>1384</v>
+      <c r="B110" s="12" t="s">
+        <v>2209</v>
       </c>
       <c r="C110" s="34" t="s">
-        <v>2203</v>
-      </c>
-      <c r="D110" s="35" t="s">
-        <v>2204</v>
-      </c>
-      <c r="E110" s="35" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F110" s="35" t="s">
-        <v>2170</v>
-      </c>
-      <c r="G110" s="35" t="s">
-        <v>1822</v>
+        <v>2210</v>
+      </c>
+      <c r="D110" s="34" t="s">
+        <v>2211</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>2205</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>2193</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>1816</v>
       </c>
       <c r="H110" s="21">
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000111</v>
       </c>
-      <c r="B111" s="33" t="s">
-        <v>2205</v>
+      <c r="B111" s="12" t="s">
+        <v>2212</v>
       </c>
       <c r="C111" s="34" t="s">
-        <v>2206</v>
-      </c>
-      <c r="D111" s="35" t="s">
-        <v>2207</v>
-      </c>
-      <c r="E111" s="35" t="s">
-        <v>1933</v>
-      </c>
-      <c r="F111" s="35" t="s">
-        <v>2170</v>
-      </c>
-      <c r="G111" s="35" t="s">
-        <v>1822</v>
+        <v>2213</v>
+      </c>
+      <c r="D111" s="34" t="s">
+        <v>2214</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>2215</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>2193</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>1816</v>
       </c>
       <c r="H111" s="21">
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000112</v>
       </c>
-      <c r="B112" s="33" t="s">
-        <v>2208</v>
+      <c r="B112" s="12" t="s">
+        <v>1068</v>
       </c>
       <c r="C112" s="34" t="s">
-        <v>2209</v>
-      </c>
-      <c r="D112" s="35" t="s">
-        <v>2210</v>
-      </c>
-      <c r="E112" s="35" t="s">
-        <v>2211</v>
-      </c>
-      <c r="F112" s="35" t="s">
-        <v>2170</v>
-      </c>
-      <c r="G112" s="35" t="s">
-        <v>1822</v>
+        <v>2216</v>
+      </c>
+      <c r="D112" s="34" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>2205</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>2193</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>1816</v>
       </c>
       <c r="H112" s="21">
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000113</v>
       </c>
-      <c r="B113" s="33" t="s">
-        <v>2212</v>
+      <c r="B113" s="12" t="s">
+        <v>2218</v>
       </c>
       <c r="C113" s="34" t="s">
-        <v>2213</v>
-      </c>
-      <c r="D113" s="35" t="s">
-        <v>2214</v>
-      </c>
-      <c r="E113" s="35" t="s">
-        <v>2183</v>
-      </c>
-      <c r="F113" s="35" t="s">
-        <v>2170</v>
-      </c>
-      <c r="G113" s="35" t="s">
-        <v>1822</v>
+        <v>2219</v>
+      </c>
+      <c r="D113" s="34" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>2221</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>1816</v>
       </c>
       <c r="H113" s="21">
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000114</v>
       </c>
-      <c r="B114" s="33" t="s">
-        <v>2215</v>
+      <c r="B114" s="12" t="s">
+        <v>2222</v>
       </c>
       <c r="C114" s="34" t="s">
-        <v>2216</v>
-      </c>
-      <c r="D114" s="35" t="s">
-        <v>2217</v>
-      </c>
-      <c r="E114" s="35" t="s">
-        <v>2218</v>
-      </c>
-      <c r="F114" s="35" t="s">
-        <v>2170</v>
-      </c>
-      <c r="G114" s="35" t="s">
-        <v>1822</v>
+        <v>2223</v>
+      </c>
+      <c r="D114" s="34" t="s">
+        <v>2224</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>2221</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>2221</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>1816</v>
       </c>
       <c r="H114" s="21">
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000115</v>
       </c>
-      <c r="B115" s="33" t="s">
-        <v>2219</v>
+      <c r="B115" s="12" t="s">
+        <v>2225</v>
       </c>
       <c r="C115" s="34" t="s">
-        <v>2220</v>
-      </c>
-      <c r="D115" s="35" t="s">
-        <v>2221</v>
-      </c>
-      <c r="E115" s="35" t="s">
-        <v>2195</v>
-      </c>
-      <c r="F115" s="35" t="s">
-        <v>2170</v>
-      </c>
-      <c r="G115" s="35" t="s">
-        <v>1822</v>
+        <v>2226</v>
+      </c>
+      <c r="D115" s="34" t="s">
+        <v>2227</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>2228</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>2193</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>1816</v>
       </c>
       <c r="H115" s="21">
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000116</v>
       </c>
-      <c r="B116" s="33" t="s">
-        <v>2222</v>
+      <c r="B116" s="12" t="s">
+        <v>2229</v>
       </c>
       <c r="C116" s="34" t="s">
-        <v>2223</v>
-      </c>
-      <c r="D116" s="35" t="s">
-        <v>2224</v>
-      </c>
-      <c r="E116" s="35" t="s">
-        <v>2225</v>
-      </c>
-      <c r="F116" s="35" t="s">
-        <v>2170</v>
-      </c>
-      <c r="G116" s="35" t="s">
-        <v>1822</v>
+        <v>2230</v>
+      </c>
+      <c r="D116" s="34" t="s">
+        <v>2231</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>2228</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>2193</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>1816</v>
       </c>
       <c r="H116" s="21">
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000117</v>
       </c>
-      <c r="B117" s="33" t="s">
-        <v>2226</v>
-      </c>
-      <c r="C117" s="34"/>
-      <c r="D117" s="35" t="s">
-        <v>2227</v>
-      </c>
-      <c r="E117" s="35" t="s">
-        <v>2218</v>
-      </c>
-      <c r="F117" s="35" t="s">
-        <v>2170</v>
-      </c>
-      <c r="G117" s="35" t="s">
-        <v>1822</v>
+      <c r="B117" s="12" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C117" s="34" t="s">
+        <v>2233</v>
+      </c>
+      <c r="D117" s="34" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>2221</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>1816</v>
       </c>
       <c r="H117" s="21">
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000118</v>
       </c>
-      <c r="B118" s="33" t="s">
-        <v>2228</v>
+      <c r="B118" s="12" t="s">
+        <v>2236</v>
       </c>
       <c r="C118" s="34" t="s">
-        <v>2229</v>
-      </c>
-      <c r="D118" s="35" t="s">
-        <v>2230</v>
-      </c>
-      <c r="E118" s="35" t="s">
-        <v>2218</v>
-      </c>
-      <c r="F118" s="35" t="s">
-        <v>2170</v>
-      </c>
-      <c r="G118" s="35" t="s">
-        <v>1822</v>
+        <v>2237</v>
+      </c>
+      <c r="D118" s="34" t="s">
+        <v>2238</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>2221</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>1816</v>
       </c>
       <c r="H118" s="21">
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000119</v>
       </c>
-      <c r="B119" s="33" t="s">
-        <v>2231</v>
+      <c r="B119" s="12" t="s">
+        <v>1015</v>
       </c>
       <c r="C119" s="34" t="s">
-        <v>2232</v>
-      </c>
-      <c r="D119" s="35" t="s">
-        <v>2233</v>
-      </c>
-      <c r="E119" s="35" t="s">
-        <v>1808</v>
-      </c>
-      <c r="F119" s="35" t="s">
-        <v>2170</v>
-      </c>
-      <c r="G119" s="35" t="s">
-        <v>1822</v>
+        <v>2239</v>
+      </c>
+      <c r="D119" s="34" t="s">
+        <v>2240</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>2241</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>2221</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>1816</v>
       </c>
       <c r="H119" s="21">
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000120</v>
       </c>
-      <c r="B120" s="33" t="s">
-        <v>2234</v>
+      <c r="B120" s="12" t="s">
+        <v>2242</v>
       </c>
       <c r="C120" s="34" t="s">
-        <v>2235</v>
-      </c>
-      <c r="D120" s="35" t="s">
-        <v>2236</v>
-      </c>
-      <c r="E120" s="35" t="s">
-        <v>2237</v>
-      </c>
-      <c r="F120" s="35" t="s">
-        <v>2170</v>
-      </c>
-      <c r="G120" s="35" t="s">
-        <v>1822</v>
+        <v>2243</v>
+      </c>
+      <c r="D120" s="34" t="s">
+        <v>2244</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>2193</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>1816</v>
       </c>
       <c r="H120" s="21">
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000121</v>
       </c>
-      <c r="B121" s="13" t="s">
-        <v>2238</v>
-      </c>
-      <c r="C121" s="36"/>
-      <c r="D121" s="28" t="s">
-        <v>2239</v>
-      </c>
-      <c r="E121" s="13" t="s">
-        <v>2240</v>
-      </c>
-      <c r="F121" s="13" t="s">
-        <v>2241</v>
-      </c>
-      <c r="G121" s="13" t="s">
-        <v>1822</v>
+      <c r="B121" s="12" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C121" s="34" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D121" s="34" t="s">
+        <v>2248</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>2193</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>1816</v>
       </c>
       <c r="H121" s="21">
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000122</v>
       </c>
-      <c r="B122" s="13" t="s">
-        <v>2242</v>
-      </c>
-      <c r="C122" s="36"/>
-      <c r="D122" s="37"/>
-      <c r="E122" s="13" t="s">
-        <v>1724</v>
-      </c>
-      <c r="F122" s="13" t="s">
-        <v>2241</v>
-      </c>
-      <c r="G122" s="13" t="s">
-        <v>1822</v>
+      <c r="B122" s="12" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C122" s="34" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D122" s="34" t="s">
+        <v>2251</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>2221</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>1816</v>
       </c>
       <c r="H122" s="21">
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000123</v>
       </c>
-      <c r="B123" s="13" t="s">
-        <v>2243</v>
-      </c>
-      <c r="C123" s="36"/>
-      <c r="D123" s="28" t="s">
-        <v>2244</v>
-      </c>
-      <c r="E123" s="13" t="s">
-        <v>2245</v>
-      </c>
-      <c r="F123" s="13" t="s">
-        <v>1119</v>
-      </c>
-      <c r="G123" s="13" t="s">
-        <v>1822</v>
+      <c r="B123" s="9" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C123" s="31" t="s">
+        <v>2253</v>
+      </c>
+      <c r="D123" s="31" t="s">
+        <v>2254</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>2255</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>2256</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>2221</v>
       </c>
       <c r="H123" s="21">
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000124</v>
       </c>
-      <c r="B124" s="13" t="s">
-        <v>2246</v>
-      </c>
-      <c r="C124" s="36"/>
-      <c r="D124" s="28" t="s">
-        <v>2247</v>
-      </c>
-      <c r="E124" s="13" t="s">
-        <v>2248</v>
-      </c>
-      <c r="F124" s="13" t="s">
-        <v>1119</v>
-      </c>
-      <c r="G124" s="13" t="s">
-        <v>1822</v>
+      <c r="B124" s="9" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C124" s="31" t="s">
+        <v>2258</v>
+      </c>
+      <c r="D124" s="31" t="s">
+        <v>2259</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>2255</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>2256</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>2221</v>
       </c>
       <c r="H124" s="21">
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000125</v>
       </c>
-      <c r="B125" s="13" t="s">
-        <v>1812</v>
-      </c>
-      <c r="C125" s="36"/>
-      <c r="D125" s="28" t="s">
-        <v>2249</v>
-      </c>
-      <c r="E125" s="13" t="s">
-        <v>2250</v>
-      </c>
-      <c r="F125" s="13" t="s">
-        <v>1951</v>
-      </c>
-      <c r="G125" s="13" t="s">
-        <v>1822</v>
+      <c r="B125" s="9" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C125" s="31" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D125" s="31" t="s">
+        <v>2262</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>2256</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>2221</v>
       </c>
       <c r="H125" s="21">
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000126</v>
       </c>
-      <c r="B126" s="13" t="s">
-        <v>2251</v>
-      </c>
-      <c r="C126" s="36"/>
-      <c r="D126" s="28"/>
-      <c r="E126" s="13" t="s">
-        <v>2252</v>
-      </c>
-      <c r="F126" s="13" t="s">
-        <v>1119</v>
-      </c>
-      <c r="G126" s="13" t="s">
-        <v>1822</v>
+      <c r="B126" s="9" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C126" s="34" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D126" s="31" t="s">
+        <v>2266</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>2267</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>2256</v>
+      </c>
+      <c r="G126" s="9" t="s">
+        <v>2221</v>
       </c>
       <c r="H126" s="21">
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000127</v>
       </c>
-      <c r="B127" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="C127" s="36"/>
-      <c r="D127" s="28"/>
-      <c r="E127" s="13" t="s">
-        <v>2252</v>
-      </c>
-      <c r="F127" s="13" t="s">
-        <v>1119</v>
-      </c>
-      <c r="G127" s="13" t="s">
-        <v>1822</v>
+      <c r="B127" s="9" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C127" s="31" t="s">
+        <v>2269</v>
+      </c>
+      <c r="D127" s="31" t="s">
+        <v>2270</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>2271</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>2272</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>2221</v>
       </c>
       <c r="H127" s="21">
         <v>127</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000128</v>
       </c>
-      <c r="B128" s="13" t="s">
-        <v>2253</v>
-      </c>
-      <c r="C128" s="36"/>
-      <c r="D128" s="37"/>
-      <c r="E128" s="13" t="s">
-        <v>2254</v>
-      </c>
-      <c r="F128" s="13" t="s">
-        <v>2254</v>
-      </c>
-      <c r="G128" s="13" t="s">
-        <v>1822</v>
+      <c r="B128" s="9" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C128" s="31" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D128" s="31" t="s">
+        <v>2275</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>2276</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>2272</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>2221</v>
       </c>
       <c r="H128" s="21">
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="21" t="str">
         <f t="shared" si="1"/>
         <v>00000129</v>
       </c>
-      <c r="B129" s="13" t="s">
-        <v>2255</v>
-      </c>
-      <c r="C129" s="36"/>
-      <c r="D129" s="28" t="s">
-        <v>2256</v>
-      </c>
-      <c r="E129" s="13" t="s">
-        <v>2257</v>
-      </c>
-      <c r="F129" s="13" t="s">
-        <v>1951</v>
-      </c>
-      <c r="G129" s="13" t="s">
-        <v>1822</v>
+      <c r="B129" s="9" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C129" s="31" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D129" s="31" t="s">
+        <v>2279</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>2280</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>2272</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>2221</v>
       </c>
       <c r="H129" s="21">
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="21" t="str">
-        <f t="shared" ref="A130:A153" si="2">TEXT(H130, "00000000")</f>
+        <f t="shared" ref="A130:A140" si="2">TEXT(H130, "00000000")</f>
         <v>00000130</v>
       </c>
-      <c r="B130" s="13" t="s">
-        <v>2258</v>
-      </c>
-      <c r="C130" s="36"/>
-      <c r="D130" s="37" t="s">
-        <v>2259</v>
-      </c>
-      <c r="E130" s="13" t="s">
-        <v>2260</v>
-      </c>
-      <c r="F130" s="13" t="s">
-        <v>2261</v>
-      </c>
-      <c r="G130" s="13" t="s">
-        <v>1822</v>
+      <c r="B130" s="9" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C130" s="31" t="s">
+        <v>2282</v>
+      </c>
+      <c r="D130" s="31" t="s">
+        <v>2283</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>2284</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>2256</v>
+      </c>
+      <c r="G130" s="9" t="s">
+        <v>2221</v>
       </c>
       <c r="H130" s="21">
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="21" t="str">
         <f t="shared" si="2"/>
         <v>00000131</v>
       </c>
-      <c r="B131" s="13" t="s">
-        <v>2262</v>
-      </c>
-      <c r="C131" s="36"/>
-      <c r="D131" s="28" t="s">
-        <v>2263</v>
-      </c>
-      <c r="E131" s="13" t="s">
-        <v>2264</v>
-      </c>
-      <c r="F131" s="13" t="s">
-        <v>2265</v>
-      </c>
-      <c r="G131" s="13" t="s">
-        <v>1822</v>
+      <c r="B131" s="9" t="s">
+        <v>2285</v>
+      </c>
+      <c r="C131" s="31" t="s">
+        <v>2286</v>
+      </c>
+      <c r="D131" s="31" t="s">
+        <v>2287</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>2284</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>2256</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>2221</v>
       </c>
       <c r="H131" s="21">
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="21" t="str">
         <f t="shared" si="2"/>
         <v>00000132</v>
       </c>
-      <c r="B132" s="13" t="s">
-        <v>2266</v>
-      </c>
-      <c r="C132" s="36"/>
-      <c r="D132" s="28" t="s">
-        <v>2267</v>
-      </c>
-      <c r="E132" s="13" t="s">
-        <v>2268</v>
-      </c>
-      <c r="F132" s="13" t="s">
-        <v>2265</v>
-      </c>
-      <c r="G132" s="13" t="s">
-        <v>1822</v>
+      <c r="B132" s="9" t="s">
+        <v>2288</v>
+      </c>
+      <c r="C132" s="31" t="s">
+        <v>2289</v>
+      </c>
+      <c r="D132" s="31" t="s">
+        <v>2290</v>
+      </c>
+      <c r="E132" s="35" t="s">
+        <v>2291</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>2256</v>
+      </c>
+      <c r="G132" s="9" t="s">
+        <v>2221</v>
       </c>
       <c r="H132" s="21">
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="21" t="str">
         <f t="shared" si="2"/>
         <v>00000133</v>
       </c>
-      <c r="B133" s="13" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C133" s="36"/>
-      <c r="D133" s="28" t="s">
-        <v>2269</v>
-      </c>
-      <c r="E133" s="13" t="s">
-        <v>2268</v>
-      </c>
-      <c r="F133" s="13" t="s">
-        <v>2265</v>
-      </c>
-      <c r="G133" s="13" t="s">
-        <v>1822</v>
+      <c r="B133" s="9" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C133" s="31" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D133" s="31" t="s">
+        <v>2294</v>
+      </c>
+      <c r="E133" s="35" t="s">
+        <v>2295</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>2256</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>2221</v>
       </c>
       <c r="H133" s="21">
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="21" t="str">
         <f t="shared" si="2"/>
         <v>00000134</v>
       </c>
-      <c r="B134" s="13" t="s">
-        <v>2270</v>
-      </c>
-      <c r="C134" s="36"/>
-      <c r="D134" s="28" t="s">
-        <v>2271</v>
-      </c>
-      <c r="E134" s="13" t="s">
-        <v>1559</v>
-      </c>
-      <c r="F134" s="13" t="s">
-        <v>1897</v>
-      </c>
-      <c r="G134" s="13" t="s">
-        <v>1822</v>
+      <c r="B134" s="9" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C134" s="31" t="s">
+        <v>2297</v>
+      </c>
+      <c r="D134" s="31" t="s">
+        <v>2298</v>
+      </c>
+      <c r="E134" s="35" t="s">
+        <v>2295</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>2256</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>2221</v>
       </c>
       <c r="H134" s="21">
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="21" t="str">
         <f t="shared" si="2"/>
         <v>00000135</v>
       </c>
-      <c r="B135" s="13" t="s">
-        <v>2272</v>
-      </c>
-      <c r="C135" s="36"/>
-      <c r="D135" s="28" t="s">
-        <v>2273</v>
-      </c>
-      <c r="E135" s="13" t="s">
-        <v>2127</v>
-      </c>
-      <c r="F135" s="13" t="s">
-        <v>2127</v>
-      </c>
-      <c r="G135" s="13" t="s">
-        <v>1822</v>
+      <c r="B135" s="9" t="s">
+        <v>2299</v>
+      </c>
+      <c r="C135" s="31" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D135" s="31" t="s">
+        <v>2301</v>
+      </c>
+      <c r="E135" s="35" t="s">
+        <v>2295</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>2256</v>
+      </c>
+      <c r="G135" s="9" t="s">
+        <v>2221</v>
       </c>
       <c r="H135" s="21">
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="21" t="str">
         <f t="shared" si="2"/>
         <v>00000136</v>
       </c>
-      <c r="B136" s="13" t="s">
-        <v>2274</v>
-      </c>
-      <c r="C136" s="36"/>
-      <c r="D136" s="28" t="s">
-        <v>2275</v>
-      </c>
-      <c r="E136" s="13" t="s">
-        <v>2245</v>
-      </c>
-      <c r="F136" s="13" t="s">
-        <v>1119</v>
-      </c>
-      <c r="G136" s="13" t="s">
-        <v>1822</v>
+      <c r="B136" s="9" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C136" s="31" t="s">
+        <v>2303</v>
+      </c>
+      <c r="D136" s="31" t="s">
+        <v>2304</v>
+      </c>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9" t="s">
+        <v>2256</v>
+      </c>
+      <c r="G136" s="9" t="s">
+        <v>2221</v>
       </c>
       <c r="H136" s="21">
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="21" t="str">
         <f t="shared" si="2"/>
         <v>00000137</v>
       </c>
-      <c r="B137" s="13" t="s">
-        <v>2069</v>
-      </c>
-      <c r="C137" s="36"/>
-      <c r="D137" s="28" t="s">
-        <v>2276</v>
-      </c>
-      <c r="E137" s="13" t="s">
-        <v>2245</v>
-      </c>
-      <c r="F137" s="13" t="s">
-        <v>1119</v>
-      </c>
-      <c r="G137" s="13" t="s">
-        <v>1822</v>
+      <c r="B137" s="9" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C137" s="31" t="s">
+        <v>2306</v>
+      </c>
+      <c r="D137" s="31" t="s">
+        <v>2307</v>
+      </c>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9" t="s">
+        <v>2256</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>2221</v>
       </c>
       <c r="H137" s="21">
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="21" t="str">
         <f t="shared" si="2"/>
         <v>00000138</v>
       </c>
-      <c r="B138" s="13" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C138" s="36"/>
-      <c r="D138" s="28" t="s">
-        <v>2277</v>
-      </c>
-      <c r="E138" s="13" t="s">
-        <v>2248</v>
-      </c>
-      <c r="F138" s="13" t="s">
-        <v>1119</v>
-      </c>
-      <c r="G138" s="13" t="s">
-        <v>1822</v>
+      <c r="B138" s="9" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C138" s="31" t="s">
+        <v>2309</v>
+      </c>
+      <c r="D138" s="31" t="s">
+        <v>2310</v>
+      </c>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9" t="s">
+        <v>2256</v>
+      </c>
+      <c r="G138" s="9" t="s">
+        <v>2221</v>
       </c>
       <c r="H138" s="21">
         <v>138</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="21" t="str">
         <f t="shared" si="2"/>
         <v>00000139</v>
       </c>
-      <c r="B139" s="13" t="s">
-        <v>2278</v>
-      </c>
-      <c r="C139" s="36"/>
-      <c r="D139" s="28" t="s">
-        <v>2279</v>
-      </c>
-      <c r="E139" s="13" t="s">
-        <v>2280</v>
-      </c>
-      <c r="F139" s="13" t="s">
-        <v>2241</v>
-      </c>
-      <c r="G139" s="13" t="s">
-        <v>1822</v>
+      <c r="B139" s="9" t="s">
+        <v>2311</v>
+      </c>
+      <c r="C139" s="31" t="s">
+        <v>2312</v>
+      </c>
+      <c r="D139" s="31" t="s">
+        <v>2313</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>2314</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>2256</v>
+      </c>
+      <c r="G139" s="9" t="s">
+        <v>2221</v>
       </c>
       <c r="H139" s="21">
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="21" t="str">
         <f t="shared" si="2"/>
         <v>00000140</v>
       </c>
-      <c r="B140" s="13" t="s">
-        <v>2281</v>
-      </c>
-      <c r="C140" s="36"/>
-      <c r="D140" s="28" t="s">
-        <v>2282</v>
-      </c>
-      <c r="E140" s="13"/>
-      <c r="F140" s="13" t="s">
-        <v>2241</v>
-      </c>
-      <c r="G140" s="13" t="s">
-        <v>1822</v>
+      <c r="B140" s="9" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C140" s="31" t="s">
+        <v>2316</v>
+      </c>
+      <c r="D140" s="31" t="s">
+        <v>2317</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>2314</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>2256</v>
+      </c>
+      <c r="G140" s="9" t="s">
+        <v>2221</v>
       </c>
       <c r="H140" s="21">
         <v>140</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A141" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>00000141</v>
-      </c>
-      <c r="B141" s="13" t="s">
-        <v>2283</v>
-      </c>
-      <c r="C141" s="36"/>
-      <c r="D141" s="28" t="s">
-        <v>2284</v>
-      </c>
-      <c r="E141" s="13" t="s">
-        <v>2285</v>
-      </c>
-      <c r="F141" s="13" t="s">
-        <v>2241</v>
-      </c>
-      <c r="G141" s="13" t="s">
-        <v>1822</v>
-      </c>
-      <c r="H141" s="21">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A142" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>00000142</v>
-      </c>
-      <c r="B142" s="13" t="s">
-        <v>2286</v>
-      </c>
-      <c r="C142" s="36"/>
-      <c r="D142" s="28" t="s">
-        <v>2287</v>
-      </c>
-      <c r="E142" s="13" t="s">
-        <v>2288</v>
-      </c>
-      <c r="F142" s="13" t="s">
-        <v>2241</v>
-      </c>
-      <c r="G142" s="13" t="s">
-        <v>1822</v>
-      </c>
-      <c r="H142" s="21">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A143" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>00000143</v>
-      </c>
-      <c r="B143" s="13" t="s">
-        <v>2289</v>
-      </c>
-      <c r="C143" s="36"/>
-      <c r="D143" s="28" t="s">
-        <v>2290</v>
-      </c>
-      <c r="E143" s="13" t="s">
-        <v>2285</v>
-      </c>
-      <c r="F143" s="13" t="s">
-        <v>2241</v>
-      </c>
-      <c r="G143" s="13" t="s">
-        <v>1822</v>
-      </c>
-      <c r="H143" s="21">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A144" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>00000144</v>
-      </c>
-      <c r="B144" s="13" t="s">
-        <v>2291</v>
-      </c>
-      <c r="C144" s="36"/>
-      <c r="D144" s="28" t="s">
-        <v>2292</v>
-      </c>
-      <c r="E144" s="13" t="s">
-        <v>1974</v>
-      </c>
-      <c r="F144" s="13" t="s">
-        <v>2293</v>
-      </c>
-      <c r="G144" s="13" t="s">
-        <v>1822</v>
-      </c>
-      <c r="H144" s="21">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A145" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>00000145</v>
-      </c>
-      <c r="B145" s="13" t="s">
-        <v>2294</v>
-      </c>
-      <c r="C145" s="36"/>
-      <c r="D145" s="28"/>
-      <c r="E145" s="13" t="s">
-        <v>2240</v>
-      </c>
-      <c r="F145" s="13" t="s">
-        <v>2241</v>
-      </c>
-      <c r="G145" s="13" t="s">
-        <v>1822</v>
-      </c>
-      <c r="H145" s="21">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A146" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>00000146</v>
-      </c>
-      <c r="B146" s="13" t="s">
-        <v>2295</v>
-      </c>
-      <c r="C146" s="36"/>
-      <c r="D146" s="28" t="s">
-        <v>2296</v>
-      </c>
-      <c r="E146" s="13" t="s">
-        <v>2250</v>
-      </c>
-      <c r="F146" s="13" t="s">
-        <v>1951</v>
-      </c>
-      <c r="G146" s="13" t="s">
-        <v>1822</v>
-      </c>
-      <c r="H146" s="21">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A147" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>00000147</v>
-      </c>
-      <c r="B147" s="13" t="s">
-        <v>2297</v>
-      </c>
-      <c r="C147" s="36"/>
-      <c r="D147" s="28"/>
-      <c r="E147" s="13" t="s">
-        <v>2298</v>
-      </c>
-      <c r="F147" s="13" t="s">
-        <v>1951</v>
-      </c>
-      <c r="G147" s="13" t="s">
-        <v>1822</v>
-      </c>
-      <c r="H147" s="21">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A148" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>00000148</v>
-      </c>
-      <c r="B148" s="13" t="s">
-        <v>2299</v>
-      </c>
-      <c r="C148" s="36"/>
-      <c r="D148" s="28"/>
-      <c r="E148" s="13" t="s">
-        <v>2300</v>
-      </c>
-      <c r="F148" s="13" t="s">
-        <v>1119</v>
-      </c>
-      <c r="G148" s="13" t="s">
-        <v>1822</v>
-      </c>
-      <c r="H148" s="21">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A149" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>00000149</v>
-      </c>
-      <c r="B149" s="13" t="s">
-        <v>2301</v>
-      </c>
-      <c r="C149" s="36"/>
-      <c r="D149" s="37"/>
-      <c r="E149" s="13" t="s">
-        <v>1653</v>
-      </c>
-      <c r="F149" s="13" t="s">
-        <v>2241</v>
-      </c>
-      <c r="G149" s="13" t="s">
-        <v>1822</v>
-      </c>
-      <c r="H149" s="21">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A150" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>00000150</v>
-      </c>
-      <c r="B150" s="13" t="s">
-        <v>2302</v>
-      </c>
-      <c r="C150" s="36"/>
-      <c r="D150" s="37">
-        <v>30060004346</v>
-      </c>
-      <c r="E150" s="13" t="s">
-        <v>2285</v>
-      </c>
-      <c r="F150" s="13" t="s">
-        <v>2241</v>
-      </c>
-      <c r="G150" s="13" t="s">
-        <v>1822</v>
-      </c>
-      <c r="H150" s="21">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A151" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>00000151</v>
-      </c>
-      <c r="B151" s="13" t="s">
-        <v>2303</v>
-      </c>
-      <c r="C151" s="36"/>
-      <c r="D151" s="28" t="s">
-        <v>2304</v>
-      </c>
-      <c r="E151" s="13" t="s">
-        <v>2305</v>
-      </c>
-      <c r="F151" s="13" t="s">
-        <v>2293</v>
-      </c>
-      <c r="G151" s="13" t="s">
-        <v>1822</v>
-      </c>
-      <c r="H151" s="21">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A152" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>00000152</v>
-      </c>
-      <c r="B152" s="13" t="s">
-        <v>2306</v>
-      </c>
-      <c r="C152" s="36"/>
-      <c r="D152" s="28" t="s">
-        <v>2307</v>
-      </c>
-      <c r="E152" s="13" t="s">
-        <v>2308</v>
-      </c>
-      <c r="F152" s="13" t="s">
-        <v>1119</v>
-      </c>
-      <c r="G152" s="13" t="s">
-        <v>1822</v>
-      </c>
-      <c r="H152" s="21">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A153" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>00000153</v>
-      </c>
-      <c r="B153" s="13" t="s">
-        <v>2309</v>
-      </c>
-      <c r="C153" s="36"/>
-      <c r="D153" s="28" t="s">
-        <v>2310</v>
-      </c>
-      <c r="E153" s="13" t="s">
-        <v>1807</v>
-      </c>
-      <c r="F153" s="13" t="s">
-        <v>1951</v>
-      </c>
-      <c r="G153" s="13" t="s">
-        <v>1822</v>
-      </c>
-      <c r="H153" s="21">
-        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/solve_list/list_name.xlsx
+++ b/solve_list/list_name.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\quaysotrungthuong\solve_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B9B050-D325-4821-98C8-9E262EEA8A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B1EEDB-B1F4-48C4-A8AC-F73E59E7698A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{1C648A08-575F-49B4-B556-F4C0E3E20F77}"/>
+    <workbookView xWindow="-23148" yWindow="6528" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{1C648A08-575F-49B4-B556-F4C0E3E20F77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3404" uniqueCount="2318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3755" uniqueCount="2540">
   <si>
     <t>13010084</t>
   </si>
@@ -6982,6 +6982,672 @@
   </si>
   <si>
     <t>033182000335</t>
+  </si>
+  <si>
+    <t>Đỗ thị Chiêm</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Tình</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Bang</t>
+  </si>
+  <si>
+    <t>Lại Thị Huyền</t>
+  </si>
+  <si>
+    <t>Trần Văn Luật</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thương</t>
+  </si>
+  <si>
+    <t>Đào Văn Sáng</t>
+  </si>
+  <si>
+    <t>Doãn Thị Tươi</t>
+  </si>
+  <si>
+    <t>Lê Văn Dũng</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Phú</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Hải</t>
+  </si>
+  <si>
+    <t>Trần Phương Hùng</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Xuân</t>
+  </si>
+  <si>
+    <t>Chu Thị Tảo</t>
+  </si>
+  <si>
+    <t>Đỗ Quốc Hùng</t>
+  </si>
+  <si>
+    <t>Vũ Xuân Thao</t>
+  </si>
+  <si>
+    <t>Phạm Văn Thục</t>
+  </si>
+  <si>
+    <t>Đào Đức Hưng</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân Biên</t>
+  </si>
+  <si>
+    <t>Tạ Quang Vượng</t>
+  </si>
+  <si>
+    <t>Tạ Thị Tân</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Trìu</t>
+  </si>
+  <si>
+    <t>Kiêu Thị Huế</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Phong</t>
+  </si>
+  <si>
+    <t>Bùi Đại Giang</t>
+  </si>
+  <si>
+    <t>Vũ Thanh Hải</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Khánh</t>
+  </si>
+  <si>
+    <t>Nguyễn Viết Tuyên</t>
+  </si>
+  <si>
+    <t>Trần Xuân Cung</t>
+  </si>
+  <si>
+    <t>Trần Doãn Tuyên</t>
+  </si>
+  <si>
+    <t>Bùi Văn Chuân</t>
+  </si>
+  <si>
+    <t>Cao Văn Lục</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Thược</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Chiến</t>
+  </si>
+  <si>
+    <t>Bùi Thị Bình</t>
+  </si>
+  <si>
+    <t>0987696238</t>
+  </si>
+  <si>
+    <t>0334171580</t>
+  </si>
+  <si>
+    <t>0983791896</t>
+  </si>
+  <si>
+    <t>0918366596</t>
+  </si>
+  <si>
+    <t>0985367765</t>
+  </si>
+  <si>
+    <t>0836781990</t>
+  </si>
+  <si>
+    <t>0913358784</t>
+  </si>
+  <si>
+    <t>0818139339</t>
+  </si>
+  <si>
+    <t>0947847227</t>
+  </si>
+  <si>
+    <t>0911046132</t>
+  </si>
+  <si>
+    <t>0973246108</t>
+  </si>
+  <si>
+    <t>0915890777</t>
+  </si>
+  <si>
+    <t>0855109183</t>
+  </si>
+  <si>
+    <t>0906143278</t>
+  </si>
+  <si>
+    <t>0982884327</t>
+  </si>
+  <si>
+    <t>0904990122</t>
+  </si>
+  <si>
+    <t>0973308851</t>
+  </si>
+  <si>
+    <t>0328096713</t>
+  </si>
+  <si>
+    <t>0384642416</t>
+  </si>
+  <si>
+    <t>0912223958</t>
+  </si>
+  <si>
+    <t>0358838939</t>
+  </si>
+  <si>
+    <t>0328407358</t>
+  </si>
+  <si>
+    <t>0376217215</t>
+  </si>
+  <si>
+    <t>0387519251</t>
+  </si>
+  <si>
+    <t>0973478787</t>
+  </si>
+  <si>
+    <t>0852298868</t>
+  </si>
+  <si>
+    <t>0387537910</t>
+  </si>
+  <si>
+    <t>0961536563</t>
+  </si>
+  <si>
+    <t>0989634071</t>
+  </si>
+  <si>
+    <t>0912055972</t>
+  </si>
+  <si>
+    <t>0365343043</t>
+  </si>
+  <si>
+    <t>0976170962</t>
+  </si>
+  <si>
+    <t>0379032969</t>
+  </si>
+  <si>
+    <t>0974016913</t>
+  </si>
+  <si>
+    <t>0794001236</t>
+  </si>
+  <si>
+    <t>035165001773</t>
+  </si>
+  <si>
+    <t>Đại Cương</t>
+  </si>
+  <si>
+    <t>Kim Bảng</t>
+  </si>
+  <si>
+    <t>Hà Nam</t>
+  </si>
+  <si>
+    <t>035063003326</t>
+  </si>
+  <si>
+    <t>Thi Sơn</t>
+  </si>
+  <si>
+    <t>035055000652</t>
+  </si>
+  <si>
+    <t>Lê hồng phong</t>
+  </si>
+  <si>
+    <t>Phủ Lý</t>
+  </si>
+  <si>
+    <t>035185001576</t>
+  </si>
+  <si>
+    <t>Phù Vân</t>
+  </si>
+  <si>
+    <t>035071010624</t>
+  </si>
+  <si>
+    <t>Tượng Lĩnh</t>
+  </si>
+  <si>
+    <t>035190007933</t>
+  </si>
+  <si>
+    <t>035074003135</t>
+  </si>
+  <si>
+    <t>Lương Khánh</t>
+  </si>
+  <si>
+    <t>035168008981</t>
+  </si>
+  <si>
+    <t>Trịnh Xá</t>
+  </si>
+  <si>
+    <t>035069010820</t>
+  </si>
+  <si>
+    <t>Liêm Tiết</t>
+  </si>
+  <si>
+    <t>036068019849</t>
+  </si>
+  <si>
+    <t>Thanh Châu</t>
+  </si>
+  <si>
+    <t>035066000720</t>
+  </si>
+  <si>
+    <t>Tràng An</t>
+  </si>
+  <si>
+    <t>Bình Lục</t>
+  </si>
+  <si>
+    <t>035070009585</t>
+  </si>
+  <si>
+    <t>Tiến Thắng</t>
+  </si>
+  <si>
+    <t>Lý Nhân</t>
+  </si>
+  <si>
+    <t>035168002048</t>
+  </si>
+  <si>
+    <t>Liên Sơn</t>
+  </si>
+  <si>
+    <t>035173012005</t>
+  </si>
+  <si>
+    <t>Vân Xá</t>
+  </si>
+  <si>
+    <t>035069007007</t>
+  </si>
+  <si>
+    <t>Thanh Liêm</t>
+  </si>
+  <si>
+    <t>035062009311</t>
+  </si>
+  <si>
+    <t>Liêm Cần</t>
+  </si>
+  <si>
+    <t>035069008411</t>
+  </si>
+  <si>
+    <t>Thanh Hương</t>
+  </si>
+  <si>
+    <t>035081013253</t>
+  </si>
+  <si>
+    <t>035069000894</t>
+  </si>
+  <si>
+    <t>Thanh hà</t>
+  </si>
+  <si>
+    <t>035058000431</t>
+  </si>
+  <si>
+    <t>Lê Hồ</t>
+  </si>
+  <si>
+    <t>035157006493</t>
+  </si>
+  <si>
+    <t>035158005749</t>
+  </si>
+  <si>
+    <t>035177006866</t>
+  </si>
+  <si>
+    <t>035182003419</t>
+  </si>
+  <si>
+    <t>Khả Phong</t>
+  </si>
+  <si>
+    <t>035087011923</t>
+  </si>
+  <si>
+    <t>035086004416</t>
+  </si>
+  <si>
+    <t>Nhân Khang</t>
+  </si>
+  <si>
+    <t>035057005508</t>
+  </si>
+  <si>
+    <t>035086009995</t>
+  </si>
+  <si>
+    <t>Hưng công</t>
+  </si>
+  <si>
+    <t>035054002418</t>
+  </si>
+  <si>
+    <t>Nguyên lý</t>
+  </si>
+  <si>
+    <t>035072002921</t>
+  </si>
+  <si>
+    <t>Chân Lý</t>
+  </si>
+  <si>
+    <t>035063001151</t>
+  </si>
+  <si>
+    <t>Công lý</t>
+  </si>
+  <si>
+    <t>035058007827</t>
+  </si>
+  <si>
+    <t>Nhân Nghĩa</t>
+  </si>
+  <si>
+    <t>035047004731</t>
+  </si>
+  <si>
+    <t>Kim Bình</t>
+  </si>
+  <si>
+    <t>035088004763</t>
+  </si>
+  <si>
+    <t>Yên Nam</t>
+  </si>
+  <si>
+    <t>Duy Tiên</t>
+  </si>
+  <si>
+    <t>035159001951</t>
+  </si>
+  <si>
+    <t>Phủ lý</t>
+  </si>
+  <si>
+    <t>0363210245</t>
+  </si>
+  <si>
+    <t>0948732495</t>
+  </si>
+  <si>
+    <t>0358251666</t>
+  </si>
+  <si>
+    <t>0974547678</t>
+  </si>
+  <si>
+    <t>0868625843</t>
+  </si>
+  <si>
+    <t>0350681834</t>
+  </si>
+  <si>
+    <t>0916493548</t>
+  </si>
+  <si>
+    <t>0976174739</t>
+  </si>
+  <si>
+    <t>096174739</t>
+  </si>
+  <si>
+    <t>0365342285</t>
+  </si>
+  <si>
+    <t>0978563679</t>
+  </si>
+  <si>
+    <t>0989079278</t>
+  </si>
+  <si>
+    <t>0965389607</t>
+  </si>
+  <si>
+    <t>0336681393</t>
+  </si>
+  <si>
+    <t>0374959092</t>
+  </si>
+  <si>
+    <t>0985889264</t>
+  </si>
+  <si>
+    <t>0946933109</t>
+  </si>
+  <si>
+    <t>0386503451</t>
+  </si>
+  <si>
+    <t>0971664780</t>
+  </si>
+  <si>
+    <t>0858083482</t>
+  </si>
+  <si>
+    <t>0395767635</t>
+  </si>
+  <si>
+    <t>0983664928</t>
+  </si>
+  <si>
+    <t>0916798953</t>
+  </si>
+  <si>
+    <t>035173009533</t>
+  </si>
+  <si>
+    <t>Tiêu động</t>
+  </si>
+  <si>
+    <t>035151007798</t>
+  </si>
+  <si>
+    <t>Ngọc Lũ</t>
+  </si>
+  <si>
+    <t>035064001615</t>
+  </si>
+  <si>
+    <t>Bồ Đề</t>
+  </si>
+  <si>
+    <t>035067000183</t>
+  </si>
+  <si>
+    <t>An Nội</t>
+  </si>
+  <si>
+    <t>035187004495</t>
+  </si>
+  <si>
+    <t>An Lão</t>
+  </si>
+  <si>
+    <t>035172009780</t>
+  </si>
+  <si>
+    <t>Chợ Đầm</t>
+  </si>
+  <si>
+    <t>035181007890</t>
+  </si>
+  <si>
+    <t>Trung Lương</t>
+  </si>
+  <si>
+    <t>35161006812</t>
+  </si>
+  <si>
+    <t>Bình Thành</t>
+  </si>
+  <si>
+    <t>La Sơn</t>
+  </si>
+  <si>
+    <t>An Mỹ</t>
+  </si>
+  <si>
+    <t>Cao Cái</t>
+  </si>
+  <si>
+    <t>035163010704</t>
+  </si>
+  <si>
+    <t>035165001908</t>
+  </si>
+  <si>
+    <t>Đồng du</t>
+  </si>
+  <si>
+    <t>035165039453</t>
+  </si>
+  <si>
+    <t>035155001958</t>
+  </si>
+  <si>
+    <t>035069005170</t>
+  </si>
+  <si>
+    <t>035081011980</t>
+  </si>
+  <si>
+    <t>Tràng an</t>
+  </si>
+  <si>
+    <t>035172011821</t>
+  </si>
+  <si>
+    <t>035173009873</t>
+  </si>
+  <si>
+    <t>Văn Ấp</t>
+  </si>
+  <si>
+    <t>035062004254</t>
+  </si>
+  <si>
+    <t>Tiêu Động</t>
+  </si>
+  <si>
+    <t>036179007218</t>
+  </si>
+  <si>
+    <t>035075007782</t>
+  </si>
+  <si>
+    <t>Bình Nghĩa</t>
+  </si>
+  <si>
+    <t>035173001801</t>
+  </si>
+  <si>
+    <t>Tp phủ lý</t>
+  </si>
+  <si>
+    <t>035065000360</t>
+  </si>
+  <si>
+    <t>Ngô Thế Tuấn</t>
+  </si>
+  <si>
+    <t>Phạm Thị Bé</t>
+  </si>
+  <si>
+    <t>Nguyễn Lập Xô</t>
+  </si>
+  <si>
+    <t>Trần Văn Hà</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Điệp</t>
+  </si>
+  <si>
+    <t>Dặng Văn Thanh</t>
+  </si>
+  <si>
+    <t>Đoàn Thị Hoa</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thoa</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Hựu</t>
+  </si>
+  <si>
+    <t>Nguyễn Bá Đạt</t>
+  </si>
+  <si>
+    <t>Hoàng Văn Bằng</t>
+  </si>
+  <si>
+    <t>Đặng Thị Nga</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Lý</t>
+  </si>
+  <si>
+    <t>Trần Đình Hạnh</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Cường</t>
+  </si>
+  <si>
+    <t>Quyền Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Trần Thị Kết</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Ngà</t>
+  </si>
+  <si>
+    <t>Trần Phương Dung</t>
+  </si>
+  <si>
+    <t>Trần Quốc Đoàn</t>
+  </si>
+  <si>
+    <t>Lê Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Bào</t>
   </si>
 </sst>
 </file>
@@ -7085,7 +7751,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -7134,6 +7800,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -7141,7 +7818,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7206,6 +7883,21 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -22377,10 +23069,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC7A3A68-22FC-47F4-98A0-C61BC0CFDEC4}">
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="K138" sqref="K138"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="K192" sqref="K192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -25854,7 +26546,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="21" t="str">
-        <f t="shared" ref="A130:A140" si="2">TEXT(H130, "00000000")</f>
+        <f t="shared" ref="A130:B145" si="2">TEXT(H130, "00000000")</f>
         <v>00000130</v>
       </c>
       <c r="B130" s="9" t="s">
@@ -26143,6 +26835,1599 @@
         <v>140</v>
       </c>
     </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>00000141</v>
+      </c>
+      <c r="B141" s="36" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C141" s="37" t="s">
+        <v>2353</v>
+      </c>
+      <c r="D141" s="38" t="s">
+        <v>2388</v>
+      </c>
+      <c r="E141" s="36" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F141" s="36" t="s">
+        <v>2390</v>
+      </c>
+      <c r="G141" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H141" s="21">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>00000142</v>
+      </c>
+      <c r="B142" s="36" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C142" s="37" t="s">
+        <v>2354</v>
+      </c>
+      <c r="D142" s="38" t="s">
+        <v>2392</v>
+      </c>
+      <c r="E142" s="36" t="s">
+        <v>2393</v>
+      </c>
+      <c r="F142" s="36" t="s">
+        <v>2390</v>
+      </c>
+      <c r="G142" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H142" s="21">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>00000143</v>
+      </c>
+      <c r="B143" s="36" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C143" s="37" t="s">
+        <v>2355</v>
+      </c>
+      <c r="D143" s="38" t="s">
+        <v>2394</v>
+      </c>
+      <c r="E143" s="36" t="s">
+        <v>2395</v>
+      </c>
+      <c r="F143" s="36" t="s">
+        <v>2396</v>
+      </c>
+      <c r="G143" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H143" s="21">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>00000144</v>
+      </c>
+      <c r="B144" s="36" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C144" s="37" t="s">
+        <v>2356</v>
+      </c>
+      <c r="D144" s="38" t="s">
+        <v>2397</v>
+      </c>
+      <c r="E144" s="36" t="s">
+        <v>2398</v>
+      </c>
+      <c r="F144" s="36" t="s">
+        <v>2396</v>
+      </c>
+      <c r="G144" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H144" s="21">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>00000145</v>
+      </c>
+      <c r="B145" s="36" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C145" s="37" t="s">
+        <v>2357</v>
+      </c>
+      <c r="D145" s="38" t="s">
+        <v>2399</v>
+      </c>
+      <c r="E145" s="36" t="s">
+        <v>2400</v>
+      </c>
+      <c r="F145" s="36" t="s">
+        <v>2390</v>
+      </c>
+      <c r="G145" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H145" s="21">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="21" t="str">
+        <f t="shared" ref="A146:A199" si="3">TEXT(H146, "00000000")</f>
+        <v>00000146</v>
+      </c>
+      <c r="B146" s="36" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C146" s="37" t="s">
+        <v>2358</v>
+      </c>
+      <c r="D146" s="38" t="s">
+        <v>2401</v>
+      </c>
+      <c r="E146" s="36" t="s">
+        <v>2398</v>
+      </c>
+      <c r="F146" s="36" t="s">
+        <v>2396</v>
+      </c>
+      <c r="G146" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H146" s="21">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000147</v>
+      </c>
+      <c r="B147" s="36" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C147" s="37" t="s">
+        <v>2359</v>
+      </c>
+      <c r="D147" s="37" t="s">
+        <v>2402</v>
+      </c>
+      <c r="E147" s="36" t="s">
+        <v>2403</v>
+      </c>
+      <c r="F147" s="36" t="s">
+        <v>2396</v>
+      </c>
+      <c r="G147" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H147" s="21">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000148</v>
+      </c>
+      <c r="B148" s="36" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C148" s="37" t="s">
+        <v>2360</v>
+      </c>
+      <c r="D148" s="37" t="s">
+        <v>2404</v>
+      </c>
+      <c r="E148" s="36" t="s">
+        <v>2405</v>
+      </c>
+      <c r="F148" s="36" t="s">
+        <v>2396</v>
+      </c>
+      <c r="G148" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H148" s="21">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000149</v>
+      </c>
+      <c r="B149" s="36" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C149" s="37" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D149" s="37" t="s">
+        <v>2406</v>
+      </c>
+      <c r="E149" s="36" t="s">
+        <v>2407</v>
+      </c>
+      <c r="F149" s="36" t="s">
+        <v>2396</v>
+      </c>
+      <c r="G149" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H149" s="21">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000150</v>
+      </c>
+      <c r="B150" s="36" t="s">
+        <v>2327</v>
+      </c>
+      <c r="C150" s="37" t="s">
+        <v>2362</v>
+      </c>
+      <c r="D150" s="37" t="s">
+        <v>2408</v>
+      </c>
+      <c r="E150" s="36" t="s">
+        <v>2409</v>
+      </c>
+      <c r="F150" s="36" t="s">
+        <v>2396</v>
+      </c>
+      <c r="G150" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H150" s="21">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000151</v>
+      </c>
+      <c r="B151" s="36" t="s">
+        <v>2328</v>
+      </c>
+      <c r="C151" s="37" t="s">
+        <v>2363</v>
+      </c>
+      <c r="D151" s="37" t="s">
+        <v>2410</v>
+      </c>
+      <c r="E151" s="36" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F151" s="36" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G151" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H151" s="21">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000152</v>
+      </c>
+      <c r="B152" s="36" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C152" s="37" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D152" s="37" t="s">
+        <v>2413</v>
+      </c>
+      <c r="E152" s="36" t="s">
+        <v>2414</v>
+      </c>
+      <c r="F152" s="36" t="s">
+        <v>2415</v>
+      </c>
+      <c r="G152" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H152" s="21">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000153</v>
+      </c>
+      <c r="B153" s="36" t="s">
+        <v>2330</v>
+      </c>
+      <c r="C153" s="37" t="s">
+        <v>2365</v>
+      </c>
+      <c r="D153" s="37" t="s">
+        <v>2416</v>
+      </c>
+      <c r="E153" s="36" t="s">
+        <v>2417</v>
+      </c>
+      <c r="F153" s="36" t="s">
+        <v>2390</v>
+      </c>
+      <c r="G153" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H153" s="21">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000154</v>
+      </c>
+      <c r="B154" s="36" t="s">
+        <v>2331</v>
+      </c>
+      <c r="C154" s="37" t="s">
+        <v>2366</v>
+      </c>
+      <c r="D154" s="37" t="s">
+        <v>2418</v>
+      </c>
+      <c r="E154" s="36" t="s">
+        <v>2419</v>
+      </c>
+      <c r="F154" s="36" t="s">
+        <v>2390</v>
+      </c>
+      <c r="G154" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H154" s="21">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000155</v>
+      </c>
+      <c r="B155" s="36" t="s">
+        <v>2332</v>
+      </c>
+      <c r="C155" s="37" t="s">
+        <v>2367</v>
+      </c>
+      <c r="D155" s="37" t="s">
+        <v>2420</v>
+      </c>
+      <c r="E155" s="36" t="s">
+        <v>2417</v>
+      </c>
+      <c r="F155" s="36" t="s">
+        <v>2421</v>
+      </c>
+      <c r="G155" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H155" s="21">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000156</v>
+      </c>
+      <c r="B156" s="36" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C156" s="37" t="s">
+        <v>2368</v>
+      </c>
+      <c r="D156" s="37" t="s">
+        <v>2422</v>
+      </c>
+      <c r="E156" s="36" t="s">
+        <v>2423</v>
+      </c>
+      <c r="F156" s="36" t="s">
+        <v>2421</v>
+      </c>
+      <c r="G156" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H156" s="21">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000157</v>
+      </c>
+      <c r="B157" s="36" t="s">
+        <v>2334</v>
+      </c>
+      <c r="C157" s="37" t="s">
+        <v>2369</v>
+      </c>
+      <c r="D157" s="37" t="s">
+        <v>2424</v>
+      </c>
+      <c r="E157" s="36" t="s">
+        <v>2425</v>
+      </c>
+      <c r="F157" s="36" t="s">
+        <v>2421</v>
+      </c>
+      <c r="G157" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H157" s="21">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000158</v>
+      </c>
+      <c r="B158" s="36" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C158" s="37" t="s">
+        <v>2370</v>
+      </c>
+      <c r="D158" s="37" t="s">
+        <v>2426</v>
+      </c>
+      <c r="E158" s="36" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F158" s="36" t="s">
+        <v>2421</v>
+      </c>
+      <c r="G158" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H158" s="21">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000159</v>
+      </c>
+      <c r="B159" s="36" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C159" s="37" t="s">
+        <v>2371</v>
+      </c>
+      <c r="D159" s="37" t="s">
+        <v>2427</v>
+      </c>
+      <c r="E159" s="36" t="s">
+        <v>2428</v>
+      </c>
+      <c r="F159" s="36" t="s">
+        <v>2421</v>
+      </c>
+      <c r="G159" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H159" s="21">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000160</v>
+      </c>
+      <c r="B160" s="36" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C160" s="37" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D160" s="37" t="s">
+        <v>2429</v>
+      </c>
+      <c r="E160" s="36" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F160" s="36" t="s">
+        <v>2390</v>
+      </c>
+      <c r="G160" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H160" s="21">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000161</v>
+      </c>
+      <c r="B161" s="36" t="s">
+        <v>2338</v>
+      </c>
+      <c r="C161" s="37" t="s">
+        <v>2373</v>
+      </c>
+      <c r="D161" s="37" t="s">
+        <v>2431</v>
+      </c>
+      <c r="E161" s="36" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F161" s="36" t="s">
+        <v>2390</v>
+      </c>
+      <c r="G161" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H161" s="21">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000162</v>
+      </c>
+      <c r="B162" s="36" t="s">
+        <v>2339</v>
+      </c>
+      <c r="C162" s="37" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D162" s="37" t="s">
+        <v>2432</v>
+      </c>
+      <c r="E162" s="36" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F162" s="36" t="s">
+        <v>2390</v>
+      </c>
+      <c r="G162" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H162" s="21">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000163</v>
+      </c>
+      <c r="B163" s="36" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C163" s="37" t="s">
+        <v>2375</v>
+      </c>
+      <c r="D163" s="37" t="s">
+        <v>2433</v>
+      </c>
+      <c r="E163" s="36" t="s">
+        <v>2400</v>
+      </c>
+      <c r="F163" s="36" t="s">
+        <v>2390</v>
+      </c>
+      <c r="G163" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H163" s="21">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000164</v>
+      </c>
+      <c r="B164" s="36" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C164" s="37" t="s">
+        <v>2376</v>
+      </c>
+      <c r="D164" s="37" t="s">
+        <v>2434</v>
+      </c>
+      <c r="E164" s="36" t="s">
+        <v>2435</v>
+      </c>
+      <c r="F164" s="36" t="s">
+        <v>2390</v>
+      </c>
+      <c r="G164" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H164" s="21">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000165</v>
+      </c>
+      <c r="B165" s="36" t="s">
+        <v>2342</v>
+      </c>
+      <c r="C165" s="37" t="s">
+        <v>2377</v>
+      </c>
+      <c r="D165" s="37" t="s">
+        <v>2436</v>
+      </c>
+      <c r="E165" s="36" t="s">
+        <v>2435</v>
+      </c>
+      <c r="F165" s="36" t="s">
+        <v>2390</v>
+      </c>
+      <c r="G165" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H165" s="21">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000166</v>
+      </c>
+      <c r="B166" s="36" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C166" s="37" t="s">
+        <v>2378</v>
+      </c>
+      <c r="D166" s="37" t="s">
+        <v>2437</v>
+      </c>
+      <c r="E166" s="36" t="s">
+        <v>2438</v>
+      </c>
+      <c r="F166" s="36" t="s">
+        <v>2415</v>
+      </c>
+      <c r="G166" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H166" s="21">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000167</v>
+      </c>
+      <c r="B167" s="36" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C167" s="37" t="s">
+        <v>2379</v>
+      </c>
+      <c r="D167" s="37" t="s">
+        <v>2439</v>
+      </c>
+      <c r="E167" s="36" t="s">
+        <v>2438</v>
+      </c>
+      <c r="F167" s="36" t="s">
+        <v>2415</v>
+      </c>
+      <c r="G167" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H167" s="21">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000168</v>
+      </c>
+      <c r="B168" s="36" t="s">
+        <v>2345</v>
+      </c>
+      <c r="C168" s="37" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D168" s="37" t="s">
+        <v>2440</v>
+      </c>
+      <c r="E168" s="36" t="s">
+        <v>2441</v>
+      </c>
+      <c r="F168" s="36" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G168" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H168" s="21">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000169</v>
+      </c>
+      <c r="B169" s="36" t="s">
+        <v>2346</v>
+      </c>
+      <c r="C169" s="37" t="s">
+        <v>2381</v>
+      </c>
+      <c r="D169" s="37" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E169" s="36" t="s">
+        <v>2443</v>
+      </c>
+      <c r="F169" s="36" t="s">
+        <v>2415</v>
+      </c>
+      <c r="G169" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H169" s="21">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000170</v>
+      </c>
+      <c r="B170" s="36" t="s">
+        <v>2347</v>
+      </c>
+      <c r="C170" s="37" t="s">
+        <v>2382</v>
+      </c>
+      <c r="D170" s="37" t="s">
+        <v>2444</v>
+      </c>
+      <c r="E170" s="36" t="s">
+        <v>2445</v>
+      </c>
+      <c r="F170" s="36" t="s">
+        <v>2415</v>
+      </c>
+      <c r="G170" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H170" s="21">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000171</v>
+      </c>
+      <c r="B171" s="36" t="s">
+        <v>2348</v>
+      </c>
+      <c r="C171" s="37" t="s">
+        <v>2383</v>
+      </c>
+      <c r="D171" s="37" t="s">
+        <v>2446</v>
+      </c>
+      <c r="E171" s="36" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F171" s="36" t="s">
+        <v>2415</v>
+      </c>
+      <c r="G171" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H171" s="21">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000172</v>
+      </c>
+      <c r="B172" s="36" t="s">
+        <v>2349</v>
+      </c>
+      <c r="C172" s="37" t="s">
+        <v>2384</v>
+      </c>
+      <c r="D172" s="37" t="s">
+        <v>2448</v>
+      </c>
+      <c r="E172" s="36" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F172" s="36" t="s">
+        <v>2415</v>
+      </c>
+      <c r="G172" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H172" s="21">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000173</v>
+      </c>
+      <c r="B173" s="36" t="s">
+        <v>2350</v>
+      </c>
+      <c r="C173" s="37" t="s">
+        <v>2385</v>
+      </c>
+      <c r="D173" s="37" t="s">
+        <v>2450</v>
+      </c>
+      <c r="E173" s="36" t="s">
+        <v>2451</v>
+      </c>
+      <c r="F173" s="36" t="s">
+        <v>2396</v>
+      </c>
+      <c r="G173" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H173" s="21">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000174</v>
+      </c>
+      <c r="B174" s="36" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C174" s="37" t="s">
+        <v>2386</v>
+      </c>
+      <c r="D174" s="37" t="s">
+        <v>2452</v>
+      </c>
+      <c r="E174" s="36" t="s">
+        <v>2453</v>
+      </c>
+      <c r="F174" s="36" t="s">
+        <v>2454</v>
+      </c>
+      <c r="G174" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H174" s="21">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000175</v>
+      </c>
+      <c r="B175" s="36" t="s">
+        <v>2352</v>
+      </c>
+      <c r="C175" s="37" t="s">
+        <v>2387</v>
+      </c>
+      <c r="D175" s="37" t="s">
+        <v>2455</v>
+      </c>
+      <c r="E175" s="36" t="s">
+        <v>2451</v>
+      </c>
+      <c r="F175" s="36" t="s">
+        <v>2456</v>
+      </c>
+      <c r="G175" s="36" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H175" s="21">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000176</v>
+      </c>
+      <c r="B176" s="40" t="s">
+        <v>2518</v>
+      </c>
+      <c r="C176" s="39" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D176" s="39" t="s">
+        <v>2480</v>
+      </c>
+      <c r="E176" s="40" t="s">
+        <v>2481</v>
+      </c>
+      <c r="F176" s="40" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G176" s="40" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H176" s="21">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000177</v>
+      </c>
+      <c r="B177" s="40" t="s">
+        <v>2519</v>
+      </c>
+      <c r="C177" s="39" t="s">
+        <v>2458</v>
+      </c>
+      <c r="D177" s="39" t="s">
+        <v>2482</v>
+      </c>
+      <c r="E177" s="40" t="s">
+        <v>2483</v>
+      </c>
+      <c r="F177" s="40" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G177" s="40" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H177" s="21">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000178</v>
+      </c>
+      <c r="B178" s="40" t="s">
+        <v>2520</v>
+      </c>
+      <c r="C178" s="39" t="s">
+        <v>2459</v>
+      </c>
+      <c r="D178" s="39" t="s">
+        <v>2484</v>
+      </c>
+      <c r="E178" s="40" t="s">
+        <v>2485</v>
+      </c>
+      <c r="F178" s="40" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G178" s="40" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H178" s="21">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000179</v>
+      </c>
+      <c r="B179" s="40" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C179" s="39" t="s">
+        <v>2460</v>
+      </c>
+      <c r="D179" s="39" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E179" s="40" t="s">
+        <v>2487</v>
+      </c>
+      <c r="F179" s="40" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G179" s="40" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H179" s="21">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000180</v>
+      </c>
+      <c r="B180" s="40" t="s">
+        <v>2522</v>
+      </c>
+      <c r="C180" s="39" t="s">
+        <v>2461</v>
+      </c>
+      <c r="D180" s="39" t="s">
+        <v>2488</v>
+      </c>
+      <c r="E180" s="40" t="s">
+        <v>2489</v>
+      </c>
+      <c r="F180" s="40" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G180" s="40" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H180" s="21">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000181</v>
+      </c>
+      <c r="B181" s="40" t="s">
+        <v>2523</v>
+      </c>
+      <c r="C181" s="39" t="s">
+        <v>2462</v>
+      </c>
+      <c r="D181" s="39" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E181" s="40" t="s">
+        <v>2491</v>
+      </c>
+      <c r="F181" s="40" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G181" s="40" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H181" s="21">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000182</v>
+      </c>
+      <c r="B182" s="40" t="s">
+        <v>2524</v>
+      </c>
+      <c r="C182" s="39" t="s">
+        <v>2463</v>
+      </c>
+      <c r="D182" s="39" t="s">
+        <v>2492</v>
+      </c>
+      <c r="E182" s="40" t="s">
+        <v>2493</v>
+      </c>
+      <c r="F182" s="40" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G182" s="40" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H182" s="21">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000183</v>
+      </c>
+      <c r="B183" s="40" t="s">
+        <v>2525</v>
+      </c>
+      <c r="C183" s="39" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D183" s="39" t="s">
+        <v>2494</v>
+      </c>
+      <c r="E183" s="40" t="s">
+        <v>2495</v>
+      </c>
+      <c r="F183" s="40" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G183" s="40" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H183" s="21">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000184</v>
+      </c>
+      <c r="B184" s="40" t="s">
+        <v>2526</v>
+      </c>
+      <c r="C184" s="39" t="s">
+        <v>2465</v>
+      </c>
+      <c r="D184" s="39">
+        <v>35072009756</v>
+      </c>
+      <c r="E184" s="40" t="s">
+        <v>2496</v>
+      </c>
+      <c r="F184" s="40" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G184" s="40" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H184" s="21">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000185</v>
+      </c>
+      <c r="B185" s="40" t="s">
+        <v>2527</v>
+      </c>
+      <c r="C185" s="39" t="s">
+        <v>2466</v>
+      </c>
+      <c r="D185" s="39">
+        <v>35058005363</v>
+      </c>
+      <c r="E185" s="40" t="s">
+        <v>2497</v>
+      </c>
+      <c r="F185" s="40" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G185" s="40" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H185" s="21">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000186</v>
+      </c>
+      <c r="B186" s="40" t="s">
+        <v>2528</v>
+      </c>
+      <c r="C186" s="39" t="s">
+        <v>2467</v>
+      </c>
+      <c r="D186" s="39">
+        <v>35055002565</v>
+      </c>
+      <c r="E186" s="40" t="s">
+        <v>2498</v>
+      </c>
+      <c r="F186" s="40" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G186" s="40" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H186" s="21">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000187</v>
+      </c>
+      <c r="B187" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="C187" s="39" t="s">
+        <v>2468</v>
+      </c>
+      <c r="D187" s="39" t="s">
+        <v>2499</v>
+      </c>
+      <c r="E187" s="40" t="s">
+        <v>2493</v>
+      </c>
+      <c r="F187" s="40" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G187" s="40" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H187" s="21">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000188</v>
+      </c>
+      <c r="B188" s="40" t="s">
+        <v>2529</v>
+      </c>
+      <c r="C188" s="39" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D188" s="39" t="s">
+        <v>2500</v>
+      </c>
+      <c r="E188" s="40" t="s">
+        <v>2501</v>
+      </c>
+      <c r="F188" s="40" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G188" s="40" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H188" s="21">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000189</v>
+      </c>
+      <c r="B189" s="40" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C189" s="39" t="s">
+        <v>2470</v>
+      </c>
+      <c r="D189" s="39" t="s">
+        <v>2502</v>
+      </c>
+      <c r="E189" s="40" t="s">
+        <v>2481</v>
+      </c>
+      <c r="F189" s="40" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G189" s="40" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H189" s="21">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000190</v>
+      </c>
+      <c r="B190" s="40" t="s">
+        <v>422</v>
+      </c>
+      <c r="C190" s="39" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D190" s="39" t="s">
+        <v>2503</v>
+      </c>
+      <c r="E190" s="40" t="s">
+        <v>2483</v>
+      </c>
+      <c r="F190" s="40" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G190" s="40" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H190" s="21">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000191</v>
+      </c>
+      <c r="B191" s="40" t="s">
+        <v>2531</v>
+      </c>
+      <c r="C191" s="39" t="s">
+        <v>2472</v>
+      </c>
+      <c r="D191" s="39" t="s">
+        <v>2504</v>
+      </c>
+      <c r="E191" s="40" t="s">
+        <v>2405</v>
+      </c>
+      <c r="F191" s="40" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G191" s="40" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H191" s="21">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000192</v>
+      </c>
+      <c r="B192" s="40" t="s">
+        <v>2532</v>
+      </c>
+      <c r="C192" s="39" t="s">
+        <v>2473</v>
+      </c>
+      <c r="D192" s="39" t="s">
+        <v>2505</v>
+      </c>
+      <c r="E192" s="40" t="s">
+        <v>2506</v>
+      </c>
+      <c r="F192" s="40" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G192" s="40" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H192" s="21">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000193</v>
+      </c>
+      <c r="B193" s="40" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C193" s="39" t="s">
+        <v>2474</v>
+      </c>
+      <c r="D193" s="39" t="s">
+        <v>2507</v>
+      </c>
+      <c r="E193" s="40" t="s">
+        <v>2495</v>
+      </c>
+      <c r="F193" s="40" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G193" s="40" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H193" s="21">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000194</v>
+      </c>
+      <c r="B194" s="40" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C194" s="39" t="s">
+        <v>2475</v>
+      </c>
+      <c r="D194" s="39" t="s">
+        <v>2508</v>
+      </c>
+      <c r="E194" s="40" t="s">
+        <v>2509</v>
+      </c>
+      <c r="F194" s="40" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G194" s="40" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H194" s="21">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000195</v>
+      </c>
+      <c r="B195" s="40" t="s">
+        <v>2535</v>
+      </c>
+      <c r="C195" s="39" t="s">
+        <v>2476</v>
+      </c>
+      <c r="D195" s="39" t="s">
+        <v>2510</v>
+      </c>
+      <c r="E195" s="40" t="s">
+        <v>2511</v>
+      </c>
+      <c r="F195" s="40" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G195" s="40" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H195" s="21">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000196</v>
+      </c>
+      <c r="B196" s="40" t="s">
+        <v>2536</v>
+      </c>
+      <c r="C196" s="39" t="s">
+        <v>2477</v>
+      </c>
+      <c r="D196" s="39" t="s">
+        <v>2512</v>
+      </c>
+      <c r="E196" s="40" t="s">
+        <v>2493</v>
+      </c>
+      <c r="F196" s="40" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G196" s="40" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H196" s="21">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000197</v>
+      </c>
+      <c r="B197" s="40" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C197" s="39" t="s">
+        <v>2478</v>
+      </c>
+      <c r="D197" s="39" t="s">
+        <v>2513</v>
+      </c>
+      <c r="E197" s="40" t="s">
+        <v>2514</v>
+      </c>
+      <c r="F197" s="40" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G197" s="40" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H197" s="21">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000198</v>
+      </c>
+      <c r="B198" s="40" t="s">
+        <v>2538</v>
+      </c>
+      <c r="C198" s="39" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D198" s="39" t="s">
+        <v>2515</v>
+      </c>
+      <c r="E198" s="40" t="s">
+        <v>2516</v>
+      </c>
+      <c r="F198" s="40" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G198" s="40" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H198" s="21">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>00000199</v>
+      </c>
+      <c r="B199" s="40" t="s">
+        <v>2539</v>
+      </c>
+      <c r="C199" s="39" t="s">
+        <v>2474</v>
+      </c>
+      <c r="D199" s="39" t="s">
+        <v>2517</v>
+      </c>
+      <c r="E199" s="40" t="s">
+        <v>2412</v>
+      </c>
+      <c r="F199" s="40" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G199" s="40" t="s">
+        <v>2391</v>
+      </c>
+      <c r="H199" s="21">
+        <v>199</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/solve_list/list_name.xlsx
+++ b/solve_list/list_name.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\quaysotrungthuong\solve_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4D20FB-FF86-4560-8ED2-7A5636F17C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6904A71D-485F-4EC3-BFBD-404878299D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{1C648A08-575F-49B4-B556-F4C0E3E20F77}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="1276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="1152">
   <si>
     <t>Nguyễn Văn Ngọc</t>
   </si>
@@ -2793,336 +2793,219 @@
     <t>Triệu Việt Cường</t>
   </si>
   <si>
-    <t>0378447929</t>
-  </si>
-  <si>
     <t xml:space="preserve">Co Chai, Xã Hát Lót, Mai Sơn, Sơn La </t>
   </si>
   <si>
     <t>Bùi Đình Đông (Nhung)</t>
   </si>
   <si>
-    <t>0946937389</t>
-  </si>
-  <si>
     <t>TT. Hát Lót, Mai Sơn, Sơn La</t>
   </si>
   <si>
     <t>Vũ Đình Hậu (Duyên)</t>
   </si>
   <si>
-    <t>0976431982</t>
-  </si>
-  <si>
     <t xml:space="preserve">TK8, Xã Nà Bó, Mai Sơn, Sơn La </t>
   </si>
   <si>
     <t>Nguyễn Thị Quyên (Tứ)</t>
   </si>
   <si>
-    <t>0355152112</t>
-  </si>
-  <si>
     <t>TK39, Xã Cò Nòi, Mai Sơn, Sơn La</t>
   </si>
   <si>
     <t>Phạm Thị Thanh (Hùng)</t>
   </si>
   <si>
-    <t>0976459447</t>
-  </si>
-  <si>
     <t>Nguyễn Thế Trận (Hòa)</t>
   </si>
   <si>
-    <t>0972550966</t>
-  </si>
-  <si>
     <t>Bản Xuân Quế, Xã Cò Nòi, Mai Sơn, Sơn La</t>
   </si>
   <si>
     <t xml:space="preserve">Lò Ngọc Văn </t>
   </si>
   <si>
-    <t>0976206844</t>
-  </si>
-  <si>
     <t>Bản Mu Kít , Xã Cò Nòi, Mai Sơn, Sơn la</t>
   </si>
   <si>
     <t>Nguyễn Thị Vân (Phương)</t>
   </si>
   <si>
-    <t>0977456295</t>
-  </si>
-  <si>
     <t>TK Thống Nhất, Xã  Cò Nòi, Mai Sơn, Sơn La</t>
   </si>
   <si>
     <t>Trâbf Thị Dung (ĐL Vương Đức)</t>
   </si>
   <si>
-    <t>0982309629</t>
-  </si>
-  <si>
     <t>Lò Thị Nga (ĐL Cường Nga)</t>
   </si>
   <si>
-    <t>0862965986</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Bản Búc, Xã Chiềng Sung, Mai Sơn, Sơn La</t>
   </si>
   <si>
     <t>Quàng Thị Hôm ( ĐL Phái Hôm)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0343625375</t>
-  </si>
-  <si>
     <t>Bản Chạm Cẳng, Xã Chiềng Sung, Huyện Mai Sơn, Sơn La</t>
   </si>
   <si>
     <t xml:space="preserve">Đặng Hồng Quân </t>
   </si>
   <si>
-    <t xml:space="preserve">0973952645 </t>
-  </si>
-  <si>
     <t>Bản Tân Lập, Chiềng Sung, Mai Sơn, Sơn La</t>
   </si>
   <si>
     <t>Đặng Văn Long ( ĐL Quân Như)</t>
   </si>
   <si>
-    <t>0978891521</t>
-  </si>
-  <si>
     <t>Bản Nong Bình, Xã Chiềng Sung, Mai Sơn, Sơn La</t>
   </si>
   <si>
     <t>Hoàng Văn Hạnh ( Cty chiềng Sung )</t>
   </si>
   <si>
-    <t>0988669178</t>
-  </si>
-  <si>
     <t>Dương Chí Ninh ( Cty chiềng Sung )</t>
   </si>
   <si>
     <t>Nguyễn Thị Dung  (Cường)</t>
   </si>
   <si>
-    <t>0397449002</t>
-  </si>
-  <si>
     <t>Bản Sái Trong, xã Quài Cang, huyện Tuần Giáo, Điện Biên</t>
   </si>
   <si>
     <t>Lê Thi Duyên (Hảo)</t>
   </si>
   <si>
-    <t>0978764268</t>
-  </si>
-  <si>
     <t>Bản Minh Thắng, Xã Quài Nưa, Huyện Tuần Giáo, tỉnh Điện Biên</t>
   </si>
   <si>
     <t>Phạm Thị Ninh (Quang)</t>
   </si>
   <si>
-    <t>0385126519</t>
-  </si>
-  <si>
     <t>Bản Rạng Đông, Xã Rạng Đông, Tuần Giáo, Điện Biên</t>
   </si>
   <si>
     <t>Tòng Văn Hoàng  (Bun Hoàng)</t>
   </si>
   <si>
-    <t>0382889858</t>
-  </si>
-  <si>
     <t>Bản Quỳnh Pầu, Xã Mường Bằng, Huyện Mai Sơn, Sơn La</t>
   </si>
   <si>
     <t>Đào Văn Khánh</t>
   </si>
   <si>
-    <t>097 6806343</t>
-  </si>
-  <si>
     <t>Bản Mai Tiên, Xã Mường Bon, Mai Sơn, Sơn La</t>
   </si>
   <si>
     <t>Nguyễn Thị Chung</t>
   </si>
   <si>
-    <t>0915060242</t>
-  </si>
-  <si>
     <t>Bản Tiến Xa, Xã Mường Bon, Huyện Mai Sơn, Sơn La</t>
   </si>
   <si>
     <t>Nguyễn Thị Huyên (ĐL Thái Huyên )</t>
   </si>
   <si>
-    <t>0963282109</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Hương  (Muôn)</t>
   </si>
   <si>
-    <t>0339926578</t>
-  </si>
-  <si>
     <t>TK2, TT.Ít Ong, Mường La, Sơn La</t>
   </si>
   <si>
     <t>Lò Thị Liên  (Khiên )</t>
   </si>
   <si>
-    <t>0984257383</t>
-  </si>
-  <si>
     <t>Bản Ten, TT. Ít Ong, Mường La, Sơn La</t>
   </si>
   <si>
     <t xml:space="preserve">Lò Văn Nhờ </t>
   </si>
   <si>
-    <t>0967 143 783</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bản Pặt, Xã Mường Chùm, Huyện Mường La, tỉnh Sơn La </t>
   </si>
   <si>
     <t>Đặng Quang Vinh</t>
   </si>
   <si>
-    <t>0977511039</t>
-  </si>
-  <si>
     <t>Bản Mường Kham, Xã Mường Chùm, Mường La, Sơn La</t>
   </si>
   <si>
     <t>Lèo văn Đạt</t>
   </si>
   <si>
-    <t>0399350635</t>
-  </si>
-  <si>
     <t>Bản Chiềng Đen, Xã Chiềng Chăn, Mai Sơn,Sơn la</t>
   </si>
   <si>
     <t>Phạm Huy Phường (Lý)</t>
   </si>
   <si>
-    <t>0368829597</t>
-  </si>
-  <si>
     <t>Tiểu khu 8, Xã Nà Bó, Huyện Mai Sơn, Sơn La</t>
   </si>
   <si>
     <t>Nguyễn Thị Tâm (Dũng)</t>
   </si>
   <si>
-    <t>0947630389</t>
-  </si>
-  <si>
     <t>Ngô Thị Xuyến (Hải)</t>
   </si>
   <si>
-    <t>0968531970</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vương Đình Cường </t>
   </si>
   <si>
-    <t>0762212730</t>
-  </si>
-  <si>
     <t>TK Tiền Phong 1, Xã Hát Lót, Mai Sơn, Sơn La</t>
   </si>
   <si>
     <t>Hoàng Văn Khạy</t>
   </si>
   <si>
-    <t>0344107877</t>
-  </si>
-  <si>
     <t>Bản Củ , Xã Chiềng Ban, Mai Sơn, Sơn La</t>
   </si>
   <si>
     <t>Cầm Thị Oanh (Hưởng)</t>
   </si>
   <si>
-    <t>0824069590</t>
-  </si>
-  <si>
     <t>Bản Nà Cà , Xã Mường Chanh, Mai Sơn, Sơn La</t>
   </si>
   <si>
     <t>Hoàng Thị Thiết (ĐL Nguyên Hồng )</t>
   </si>
   <si>
-    <t>0838 890 892</t>
-  </si>
-  <si>
     <t>Hà Thị Hòa (ĐL Thành Oanh)</t>
   </si>
   <si>
     <t>Nguyễn Thị Quyên  (Trung)</t>
   </si>
   <si>
-    <t>0333007199</t>
-  </si>
-  <si>
     <t>TK10, Xã Hát Lót , Mai Sơn, Sơn La</t>
   </si>
   <si>
     <t xml:space="preserve">Vì Thị Son </t>
   </si>
   <si>
-    <t>0367388948</t>
-  </si>
-  <si>
     <t>Bản Sài Lương, Xã Chiềng Chăn, Mai Sơn, Sơn La</t>
   </si>
   <si>
     <t>Ngô Thị Thanh (Thuân)</t>
   </si>
   <si>
-    <t>0975453938</t>
-  </si>
-  <si>
     <t>Thôn HVT, Xã Chiềng Mung, Mai Sơn, Sơn La</t>
   </si>
   <si>
     <t>Cầm Văn Thía</t>
   </si>
   <si>
-    <t>0738157314</t>
-  </si>
-  <si>
     <t>Bản Nọng Chạm, Xã Mường Chanh, Mai Sơn</t>
   </si>
   <si>
     <t>Nguyễn Văn Toản (Oanh)</t>
   </si>
   <si>
-    <t>0834234486</t>
-  </si>
-  <si>
     <t>Bản Thạy Lốm 6/1, Xã Chiềng Ban, Huyện Mai Sơn, Sơn La</t>
   </si>
   <si>
     <t xml:space="preserve">Nguyễn Bá Tuấn </t>
   </si>
   <si>
-    <t>0978736697</t>
-  </si>
-  <si>
     <t>Bản Nà Cang, Xã Hát Lót, Huyện Mai Sơn, Tỉnh Sơn La</t>
   </si>
   <si>
@@ -3135,318 +3018,210 @@
     <t>Phạm Thị Dung (Tuấn)</t>
   </si>
   <si>
-    <t>0986931057</t>
-  </si>
-  <si>
     <t>Tân Lập, Xã Chiềng Khương, Sông Mã, Sơn La</t>
   </si>
   <si>
     <t>Trần Thị Nhuận</t>
   </si>
   <si>
-    <t>0833734584</t>
-  </si>
-  <si>
     <t>Bản Quảng Tiến, Xã Chiềng Sơ, Sông Mã, Sơn La</t>
   </si>
   <si>
     <t>Lò Thùy Dung (Huỳnh)</t>
   </si>
   <si>
-    <t>0964403668</t>
-  </si>
-  <si>
     <t>Bản Ỏ, Xã Mường Sai, Sông Mã, Sơn La</t>
   </si>
   <si>
     <t>Nguyễn Quang Huy (Phương)</t>
   </si>
   <si>
-    <t>0968003011</t>
-  </si>
-  <si>
     <t>Mường Tở, Xã Mường Hung, Sông Mã, Sơn La</t>
   </si>
   <si>
     <t>Cà Văn Lon ( ĐL Tòng Mai)</t>
   </si>
   <si>
-    <t>0916227375</t>
-  </si>
-  <si>
     <t>Bản Chiềng Xôm,Xã Chiềng Cang Sông Mã</t>
   </si>
   <si>
     <t>Chu Văn Tâm ( ĐL Tâm Phượng)</t>
   </si>
   <si>
-    <t>0985905447</t>
-  </si>
-  <si>
     <t>Bản Nà Ớt, Xã Nà Ớt, Mai Sơn, Sơn La</t>
   </si>
   <si>
     <t xml:space="preserve">Lò Văn Thật </t>
   </si>
   <si>
-    <t>0968879463</t>
-  </si>
-  <si>
     <t>Bản Mường Nưa, Xã Mường Lầm, Sông Mã, Sơn La</t>
   </si>
   <si>
     <t>Nguyễn Thị Tuyến (Chiến)</t>
   </si>
   <si>
-    <t>0961192388</t>
-  </si>
-  <si>
     <t>Bản Pàn, Xã Nậm Ty, Sông Mã, Sơn La</t>
   </si>
   <si>
     <t>Doãn Đình Chiến</t>
   </si>
   <si>
-    <t>0389848302</t>
-  </si>
-  <si>
     <t>Bản Nam Tiến, Xã Ninh Thuận, Thuận Châu, Sơn La</t>
   </si>
   <si>
     <t>Cà Thị Bua</t>
   </si>
   <si>
-    <t>0974935190</t>
-  </si>
-  <si>
     <t>Bản Bỉa, Xã Phỏng Lăng,Thuận Châu, Sơn La</t>
   </si>
   <si>
     <t xml:space="preserve">Lường Văn Lánh </t>
   </si>
   <si>
-    <t>0378873433</t>
-  </si>
-  <si>
     <t>Bản Mớ, Xã Co Mạ, Thuận Châu, Sơn la</t>
   </si>
   <si>
     <t>Phạm Đức Thắng</t>
   </si>
   <si>
-    <t>0949859559</t>
-  </si>
-  <si>
     <t>Bản Tạng Phát, Xã Chiềng Pha, Thuận Châu, Sơn La</t>
   </si>
   <si>
     <t>Lường Duy Nhân (Thu)</t>
   </si>
   <si>
-    <t>0985107540</t>
-  </si>
-  <si>
     <t>Ngã 3 Bản Pán, Xã Chiềng Ly, Thuận Châu, Sơn La</t>
   </si>
   <si>
     <t xml:space="preserve">Lèo Thị Kim Hoan </t>
   </si>
   <si>
-    <t>0376380568</t>
-  </si>
-  <si>
     <t>Bản Ái, Xã Chiềng Xôm, Thành Phố Sơn La, Tỉnh Sơn La</t>
   </si>
   <si>
     <t>Nguyễn Hồng Thái  ( VT Thành Phố)</t>
   </si>
   <si>
-    <t>0903485769</t>
-  </si>
-  <si>
     <t>Số Nhà 02, Bản Kham, Xã Hua La, Thành Phố Sơn La, Tỉnh Sơn La</t>
   </si>
   <si>
     <t>Phạm Thị Chương</t>
   </si>
   <si>
-    <t>0912544239</t>
-  </si>
-  <si>
     <t>Tk 19, TT.Hát Lót, Huyện Mai Sơn, Sơn La</t>
   </si>
   <si>
     <t>Nguyễn Thị Thanh (Viết)</t>
   </si>
   <si>
-    <t>0977 129 836</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Tuyết (Cương)</t>
   </si>
   <si>
-    <t>0382427971</t>
-  </si>
-  <si>
     <t>Bản Phiêng Nụ, Xã Phiêng Cằm, Huyện Mai Sơn, tỉnh Sơn La</t>
   </si>
   <si>
     <t>Nguyễn Văn Thôn</t>
   </si>
   <si>
-    <t>0962 288 575</t>
-  </si>
-  <si>
     <t>Bản Long Phú, Xã Chiềng Hắc, Huyện Mộc Châu, Sơn La</t>
   </si>
   <si>
     <t>Nguyễn Thị Hiên(Vương)</t>
   </si>
   <si>
-    <t>0869 152 066</t>
-  </si>
-  <si>
     <t>Bản Ta Niết, Chiềng Hắc, Mộc Châu, Sơn La</t>
   </si>
   <si>
     <t>Văn Đình Tuyến</t>
   </si>
   <si>
-    <t>0384 572 423</t>
-  </si>
-  <si>
     <t>Vì Thị Quyên( Hảo)</t>
   </si>
   <si>
-    <t>0372 519 476</t>
-  </si>
-  <si>
     <t>Bản Hin Phá, Xã Chiềng Hắc, Mộc Châu, Sơn La</t>
   </si>
   <si>
     <t>Đặng Thị Thủy (Trang)</t>
   </si>
   <si>
-    <t>0976 955 959</t>
-  </si>
-  <si>
     <t>Bản Tây Hưng, Xã Chiềng Hắc, Mộc Châu</t>
   </si>
   <si>
     <t>Nguyễn Thị Đức (Thường)</t>
   </si>
   <si>
-    <t>0948 398 838</t>
-  </si>
-  <si>
     <t>TK14, TTNT Mộc Châu, Mộc Châu</t>
   </si>
   <si>
     <t>Trần Thị Thúy(Tiến)</t>
   </si>
   <si>
-    <t>0976 110 858</t>
-  </si>
-  <si>
     <t>Tiểu khu 10. Thị Trấn Mộc Châu, Mộc Châu, Sơn La</t>
   </si>
   <si>
     <t>Nguyễn Thị Thuyết (Hùng)</t>
   </si>
   <si>
-    <t>0915 869 170</t>
-  </si>
-  <si>
     <t>TK70, TT.Nông Trường, Mộc Châu</t>
   </si>
   <si>
     <t xml:space="preserve"> Đoàn Quang Điệp 19/5</t>
   </si>
   <si>
-    <t>0969 190 599</t>
-  </si>
-  <si>
     <t>TK 66 TTNT Mộc Châu, Mộc Châu</t>
   </si>
   <si>
     <t>Lại Thanh Bình(Hùng)</t>
   </si>
   <si>
-    <t>0373 833 108</t>
-  </si>
-  <si>
     <t>Tiểu khu 26/7 Thị trấn NT, huyện Mộc Châu, Sơn La</t>
   </si>
   <si>
     <t>Nguyễn Thị Tươi (Tạ)</t>
   </si>
   <si>
-    <t>0915 829 665</t>
-  </si>
-  <si>
     <t>Bản Liên Hưng, Xã Tô Múa, Huyện Vân Hồ, Sơn La</t>
   </si>
   <si>
     <t>Nguyễn Thị Quyến(Quý)</t>
   </si>
   <si>
-    <t>0943 644 086</t>
-  </si>
-  <si>
     <t>Tiểu khu Trung Tâm,Xã Tô Múa,Huyện Vân Hồ, Mộc Châu, Sơn La</t>
   </si>
   <si>
     <t xml:space="preserve"> Trương Văn Đông (Hiền)</t>
   </si>
   <si>
-    <t>0942 859 900</t>
-  </si>
-  <si>
     <t>Tiểu khu Trung Tâm,Xã Tô Múa, Mộc Châu</t>
   </si>
   <si>
     <t>Bùi Văn Hưng</t>
   </si>
   <si>
-    <t>0964 214 888</t>
-  </si>
-  <si>
     <t>TK Thảo Nguyên, TTNT Mộc Châu</t>
   </si>
   <si>
     <t>Hương Vương</t>
   </si>
   <si>
-    <t>0358 550 856</t>
-  </si>
-  <si>
     <t>TK 64 Mộc Châu</t>
   </si>
   <si>
     <t>Vũ Anh Đào</t>
   </si>
   <si>
-    <t>0966 058 989</t>
-  </si>
-  <si>
     <t>TK 13 TT Mộc Châu, Mộc Châu</t>
   </si>
   <si>
     <t>Hoàng Thị Mai (Lang)</t>
   </si>
   <si>
-    <t>0868469699</t>
-  </si>
-  <si>
     <t>TK cờ đỏ, TTNT Mộc Châu</t>
   </si>
   <si>
     <t>Nguyễn Văn Đốc(Duyên)</t>
   </si>
   <si>
-    <t>0985 525 127</t>
-  </si>
-  <si>
     <t>TK PaKhen, TT Nông Trường, Mộc Châu</t>
   </si>
   <si>
@@ -3459,306 +3234,198 @@
     <t>Tạ Hoàng Hòa(Loan)</t>
   </si>
   <si>
-    <t>0968 198 303</t>
-  </si>
-  <si>
     <t>Bản Dọi, Xã Tân Lập, Huyện Mộc Châu, Sơn La</t>
   </si>
   <si>
     <t>Bùi Công Tuấn( Thảo) - HTX rau hoa quả và DV NN Mộc Châu</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0977 579 588</t>
-  </si>
-  <si>
     <t>TK9, Xã Tân Lập, Huyện Mộc Châu, Sơn La</t>
   </si>
   <si>
     <t xml:space="preserve"> Đinh Tiến Hùng(Hà)</t>
   </si>
   <si>
-    <t>0985 811 275</t>
-  </si>
-  <si>
     <t>Bản Nà Bó 2, Mường Sang. Mộc Châu, Sơn La</t>
   </si>
   <si>
     <t>Vì Thị Khánh Trinh</t>
   </si>
   <si>
-    <t>0979 841 297</t>
-  </si>
-  <si>
     <t>TK19-5, Chiềng Sơn, Mộc Châu, Sơn La</t>
   </si>
   <si>
     <t xml:space="preserve"> Đỗ Trung Kiên( Trang)</t>
   </si>
   <si>
-    <t>0967 045 266</t>
-  </si>
-  <si>
     <t>Số nhà 19, Tiểu khu 3, Xã Chiềng Sơn, Mộc Châu, Sơn La</t>
   </si>
   <si>
     <t xml:space="preserve">ĐL Vân Xiền </t>
   </si>
   <si>
-    <t xml:space="preserve">0397 962 153 </t>
-  </si>
-  <si>
     <t>Xã Chiềng Sơn, Mộc Châu, Sơn La</t>
   </si>
   <si>
     <t>Thu Hương</t>
   </si>
   <si>
-    <t xml:space="preserve">0982 984 965 </t>
-  </si>
-  <si>
     <t xml:space="preserve">ĐL Sim Học </t>
   </si>
   <si>
-    <t>0329 513 456</t>
-  </si>
-  <si>
     <t>Khoa Thị Hà</t>
   </si>
   <si>
-    <t>0973 232 741</t>
-  </si>
-  <si>
     <t>Bản Sậy, Mường Sang, Mộc Châu</t>
   </si>
   <si>
     <t>Nguyễn Thị Thủy(Tuấn)</t>
   </si>
   <si>
-    <t>0916 115 399</t>
-  </si>
-  <si>
     <t>Bản Tự Nhiên, Xã Đông Sang, Mộc Châu</t>
   </si>
   <si>
     <t xml:space="preserve"> Đỗ Thị Thu Hà(Thanh Tuấn)</t>
   </si>
   <si>
-    <t>0968 966 577</t>
-  </si>
-  <si>
     <t>Bản Tự Nhiên, Xã Đông Sang, Mộc Châu, Sơn La</t>
   </si>
   <si>
     <t>Nguyễn Thị Nhàn(Khánh)</t>
   </si>
   <si>
-    <t>0988 773 300</t>
-  </si>
-  <si>
     <t>TK34, Xã Đông Sang, Mộc Châu</t>
   </si>
   <si>
     <t>Lò Văn Văn(Thành Văn)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0344 218 866</t>
-  </si>
-  <si>
     <t>Số nhà 56, TK34, Xã Đông Sang, huyện Mộc Châu, Sơn La</t>
   </si>
   <si>
     <t>Nguyễn Trung Hải(Hạnh)</t>
   </si>
   <si>
-    <t>0916 917 098</t>
-  </si>
-  <si>
     <t>Bản Áng, Xã Đông Sang, Mộc Châu, Sơn La</t>
   </si>
   <si>
     <t>Đỗ Văn Hùng(Nhàn)</t>
   </si>
   <si>
-    <t>0962 942 886</t>
-  </si>
-  <si>
     <t>Bản Bó Nhàng 1, Xã Vân Hồ , Huyện Vân Hồ, Tỉnh Sơn La</t>
   </si>
   <si>
     <t>Đinh Văn Dung( Kim Ngân)</t>
   </si>
   <si>
-    <t>0357 611 399</t>
-  </si>
-  <si>
     <t>Nguyễn Nguyễn Linh(Kim Ngân)</t>
   </si>
   <si>
-    <t>0385 777 595</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Hà(Tiến)</t>
   </si>
   <si>
-    <t>0914 890 747</t>
-  </si>
-  <si>
     <t>Bản Hang Trùng 1, Xã Vân Hồ, Huyện Vân Hồ, Sơn La</t>
   </si>
   <si>
-    <t>0385 220 993</t>
-  </si>
-  <si>
     <t>Vân Hồ, Mộc Châu, Sơn La</t>
   </si>
   <si>
     <t>Hà Văn Huy</t>
   </si>
   <si>
-    <t>0945 009 441</t>
-  </si>
-  <si>
     <t>Bản Chiềng Đi, Xã Vân Hồ, Huyện Vân Hồ, Sơn La</t>
   </si>
   <si>
     <t>Nguyễn Đăng Hợp</t>
   </si>
   <si>
-    <t>0394 177 965</t>
-  </si>
-  <si>
     <t>Bản Chiềng Đi I, Xã Vân Hồ, Huyện Vân Hồ, Sơn La</t>
   </si>
   <si>
     <t xml:space="preserve"> Đặng Thị Tú</t>
   </si>
   <si>
-    <t>0979 166 234</t>
-  </si>
-  <si>
     <t>Bản Lóng Luông, Xã Lóng Luông, Huyện Vân Hồ, Sơn La</t>
   </si>
   <si>
     <t>Nguyễn Thị Hảo(Tám)</t>
   </si>
   <si>
-    <t xml:space="preserve">0394 569 293 </t>
-  </si>
-  <si>
     <t>Bảng Páng, Xã Chiềng Khoa, Huyện Vân Hồ, Mộc Châu</t>
   </si>
   <si>
     <t>Nguyễn Huy Quý(Huyền)</t>
   </si>
   <si>
-    <t>0378 744 745</t>
-  </si>
-  <si>
     <t>Bản Co Chàm, Lóng Luông, Vân Hồ, Sơn La</t>
   </si>
   <si>
     <t>Nguyễn Văn Chiến</t>
   </si>
   <si>
-    <t>0349 685 222</t>
-  </si>
-  <si>
     <t>Chiềng Sàng, Huyện Yên Châu, Sơn La</t>
   </si>
   <si>
     <t>Trần Đình Thế</t>
   </si>
   <si>
-    <t>0975 998 800</t>
-  </si>
-  <si>
     <t>Bản Thồng Phiêng, Xã Chiềng Pằn, Yên Châu, Sơn La</t>
   </si>
   <si>
     <t>Vũ Thị Nhung (Lãng)</t>
   </si>
   <si>
-    <t>0986 765 255</t>
-  </si>
-  <si>
     <t>Tiểu khu 1,Thị Trấn Yên Châu, Yên Châu, Sơn La</t>
   </si>
   <si>
     <t>Lê Văn Thành (Tân)</t>
   </si>
   <si>
-    <t>0976 528 393</t>
-  </si>
-  <si>
     <t>Bản Sai, Xã Sặp Vạt, Yên Châu</t>
   </si>
   <si>
     <t>Nguyễn Hữu Cường (Thơ)</t>
   </si>
   <si>
-    <t>0393487829</t>
-  </si>
-  <si>
     <t>Xóm Đoàn Kết, Xã Chiềng Hặc, Yên Châu, Sơn La</t>
   </si>
   <si>
     <t>Trần Văn Sơn (Hương)</t>
   </si>
   <si>
-    <t>0349 145 775/ 0397 586 326</t>
-  </si>
-  <si>
     <t>Chiềng Hưng, Xã Yên Sơn, Yên Châu</t>
   </si>
   <si>
     <t>Tràn Thị Lành(Kha)</t>
   </si>
   <si>
-    <t>0966 162 988/ 0868 470 559</t>
-  </si>
-  <si>
     <t>Bản Kim Sơn 1, Yên Sơn, Yên Châu, Sơn La</t>
   </si>
   <si>
     <t>Nguyễn Văn Mạnh (Lương)</t>
   </si>
   <si>
-    <t>0989 018 556</t>
-  </si>
-  <si>
     <t>Xã Chiềng On, Yên Châu</t>
   </si>
   <si>
     <t>Bùi Thị Thuần (Nghiệp)</t>
   </si>
   <si>
-    <t>0358 310 929</t>
-  </si>
-  <si>
     <t>Bản Nà Đít, Xã Chiềng On, Yên Châu</t>
   </si>
   <si>
     <t>Phạm Hữu Kiên (ĐL Can Thanh)</t>
   </si>
   <si>
-    <t>0979 266 999</t>
-  </si>
-  <si>
     <t>Vũ Bá Trường(N. T.Giang)</t>
   </si>
   <si>
-    <t>0857 513 847</t>
-  </si>
-  <si>
     <t>Thôn Thanh Yên 1 , Xã Phiêng Khoài, Huyện Yên Châu, Sơn La</t>
   </si>
   <si>
     <t>Lê Thị Mơ</t>
   </si>
   <si>
-    <t>0961 320 666</t>
-  </si>
-  <si>
     <t>Thanh Yên1, Xã Phiêng Khoài, Yên Châu</t>
   </si>
   <si>
@@ -3768,24 +3435,15 @@
     <t>Nguyễn Thị Hằng(Quảng)</t>
   </si>
   <si>
-    <t>0962 599 589</t>
-  </si>
-  <si>
     <t>Kim Chung 1, Phiêng Khoài, Yên Châu, Sơn La</t>
   </si>
   <si>
     <t>Đỗ Thị Phái (Đạt)</t>
   </si>
   <si>
-    <t>0394 152 125</t>
-  </si>
-  <si>
     <t>Vũ Văn Duy (Trang)</t>
   </si>
   <si>
-    <t>0985271955</t>
-  </si>
-  <si>
     <t>Bản Hang Mon, Xã Phiêng Khoài, Yên Châu</t>
   </si>
   <si>
@@ -3798,24 +3456,15 @@
     <t>Nguyễn Thị Thái (Dân)</t>
   </si>
   <si>
-    <t>0335 823 500</t>
-  </si>
-  <si>
     <t>Xã Lóng Phiêng, Yên Châu</t>
   </si>
   <si>
     <t>Đặng Ngọc Thỏa (Khuyên)</t>
   </si>
   <si>
-    <t xml:space="preserve">0985 69 1152 </t>
-  </si>
-  <si>
     <t>Đỗ Xuân Thuận(Tươi)</t>
   </si>
   <si>
-    <t xml:space="preserve">0978 673 778 </t>
-  </si>
-  <si>
     <t>Bản Yên Thi, Lóng Phiêng , Yên Châu, Sơn La</t>
   </si>
   <si>
@@ -3825,15 +3474,9 @@
     <t>Phạm Quang Bình(Thắm)</t>
   </si>
   <si>
-    <t>0349 048 443</t>
-  </si>
-  <si>
     <t>Hà Đức Thương ( Sướng)</t>
   </si>
   <si>
-    <t>0979 567 399</t>
-  </si>
-  <si>
     <t>Yên Thi,Xã Lóng Phiêng, Yên Châu</t>
   </si>
   <si>
@@ -3841,23 +3484,6 @@
   </si>
   <si>
     <t>Bản Pa Kha 1, Xã Chiềng Tương, Huyện Yên Châu, Tỉnh Sơn La</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-0965 851 975/ 033 5917 534
-</t>
-  </si>
-  <si>
-    <t>0946 211 177 / 0343 507 414</t>
-  </si>
-  <si>
-    <t>0943 336 788 / 0946 228 139</t>
-  </si>
-  <si>
-    <t>0968 939 814 / 0868261803</t>
-  </si>
-  <si>
-    <t>0399 785 366 / 0368015847</t>
   </si>
 </sst>
 </file>
@@ -3866,7 +3492,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -4140,14 +3766,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4228,7 +3848,7 @@
     <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4311,6 +3931,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -15601,7 +15227,7 @@
   <dimension ref="A1:E127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -15622,11 +15248,9 @@
       <c r="B1" s="24" t="s">
         <v>920</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="26" t="s">
         <v>921</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>922</v>
       </c>
       <c r="E1" s="19">
         <v>1</v>
@@ -15638,13 +15262,11 @@
         <v>00000002</v>
       </c>
       <c r="B2" s="24" t="s">
+        <v>922</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26" t="s">
         <v>923</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>924</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>925</v>
       </c>
       <c r="E2" s="19">
         <v>2</v>
@@ -15656,13 +15278,11 @@
         <v>00000003</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>926</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>927</v>
-      </c>
+        <v>924</v>
+      </c>
+      <c r="C3" s="25"/>
       <c r="D3" s="27" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="E3" s="19">
         <v>3</v>
@@ -15674,13 +15294,11 @@
         <v>00000004</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>929</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>930</v>
-      </c>
+        <v>926</v>
+      </c>
+      <c r="C4" s="29"/>
       <c r="D4" s="27" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="E4" s="19">
         <v>4</v>
@@ -15692,13 +15310,11 @@
         <v>00000005</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>932</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>933</v>
-      </c>
+        <v>928</v>
+      </c>
+      <c r="C5" s="29"/>
       <c r="D5" s="27" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="E5" s="19">
         <v>5</v>
@@ -15710,13 +15326,11 @@
         <v>00000006</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>934</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>935</v>
-      </c>
+        <v>929</v>
+      </c>
+      <c r="C6" s="29"/>
       <c r="D6" s="30" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="E6" s="19">
         <v>6</v>
@@ -15728,13 +15342,11 @@
         <v>00000007</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>937</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>938</v>
-      </c>
+        <v>931</v>
+      </c>
+      <c r="C7" s="29"/>
       <c r="D7" s="27" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="E7" s="19">
         <v>7</v>
@@ -15746,13 +15358,11 @@
         <v>00000008</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>940</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>941</v>
-      </c>
+        <v>933</v>
+      </c>
+      <c r="C8" s="29"/>
       <c r="D8" s="27" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="E8" s="19">
         <v>8</v>
@@ -15764,13 +15374,11 @@
         <v>00000009</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>943</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>944</v>
-      </c>
+        <v>935</v>
+      </c>
+      <c r="C9" s="29"/>
       <c r="D9" s="27" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="E9" s="19">
         <v>9</v>
@@ -15782,13 +15390,11 @@
         <v>00000010</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>945</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>946</v>
-      </c>
+        <v>936</v>
+      </c>
+      <c r="C10" s="29"/>
       <c r="D10" s="27" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="E10" s="19">
         <v>10</v>
@@ -15800,13 +15406,11 @@
         <v>00000011</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>948</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>949</v>
-      </c>
+        <v>938</v>
+      </c>
+      <c r="C11" s="32"/>
       <c r="D11" s="33" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
       <c r="E11" s="19">
         <v>11</v>
@@ -15818,13 +15422,11 @@
         <v>00000012</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>951</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>952</v>
-      </c>
+        <v>940</v>
+      </c>
+      <c r="C12" s="29"/>
       <c r="D12" s="27" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="E12" s="19">
         <v>12</v>
@@ -15836,13 +15438,11 @@
         <v>00000013</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>954</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>955</v>
-      </c>
+        <v>942</v>
+      </c>
+      <c r="C13" s="29"/>
       <c r="D13" s="27" t="s">
-        <v>956</v>
+        <v>943</v>
       </c>
       <c r="E13" s="19">
         <v>13</v>
@@ -15854,13 +15454,11 @@
         <v>00000014</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>957</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>958</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>953</v>
+        <v>944</v>
+      </c>
+      <c r="C14" s="103"/>
+      <c r="D14" s="35" t="s">
+        <v>941</v>
       </c>
       <c r="E14" s="19">
         <v>14</v>
@@ -15872,11 +15470,11 @@
         <v>00000015</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>959</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="36" t="s">
-        <v>953</v>
+        <v>945</v>
+      </c>
+      <c r="C15" s="104"/>
+      <c r="D15" s="35" t="s">
+        <v>941</v>
       </c>
       <c r="E15" s="19">
         <v>15</v>
@@ -15888,13 +15486,11 @@
         <v>00000016</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>960</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>961</v>
-      </c>
+        <v>946</v>
+      </c>
+      <c r="C16" s="25"/>
       <c r="D16" s="26" t="s">
-        <v>962</v>
+        <v>947</v>
       </c>
       <c r="E16" s="19">
         <v>16</v>
@@ -15906,13 +15502,11 @@
         <v>00000017</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>963</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>964</v>
-      </c>
+        <v>948</v>
+      </c>
+      <c r="C17" s="25"/>
       <c r="D17" s="24" t="s">
-        <v>965</v>
+        <v>949</v>
       </c>
       <c r="E17" s="19">
         <v>17</v>
@@ -15923,14 +15517,12 @@
         <f t="shared" si="0"/>
         <v>00000018</v>
       </c>
-      <c r="B18" s="38" t="s">
-        <v>966</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>967</v>
-      </c>
+      <c r="B18" s="36" t="s">
+        <v>950</v>
+      </c>
+      <c r="C18" s="25"/>
       <c r="D18" s="26" t="s">
-        <v>968</v>
+        <v>951</v>
       </c>
       <c r="E18" s="19">
         <v>18</v>
@@ -15942,13 +15534,11 @@
         <v>00000019</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>969</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>970</v>
-      </c>
+        <v>952</v>
+      </c>
+      <c r="C19" s="29"/>
       <c r="D19" s="29" t="s">
-        <v>971</v>
+        <v>953</v>
       </c>
       <c r="E19" s="19">
         <v>19</v>
@@ -15960,13 +15550,11 @@
         <v>00000020</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>972</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>973</v>
-      </c>
+        <v>954</v>
+      </c>
+      <c r="C20" s="29"/>
       <c r="D20" s="30" t="s">
-        <v>974</v>
+        <v>955</v>
       </c>
       <c r="E20" s="19">
         <v>20</v>
@@ -15978,13 +15566,11 @@
         <v>00000021</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>975</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>976</v>
-      </c>
+        <v>956</v>
+      </c>
+      <c r="C21" s="29"/>
       <c r="D21" s="30" t="s">
-        <v>977</v>
+        <v>957</v>
       </c>
       <c r="E21" s="19">
         <v>21</v>
@@ -15996,13 +15582,11 @@
         <v>00000022</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>978</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>979</v>
-      </c>
+        <v>958</v>
+      </c>
+      <c r="C22" s="29"/>
       <c r="D22" s="30" t="s">
-        <v>977</v>
+        <v>957</v>
       </c>
       <c r="E22" s="19">
         <v>22</v>
@@ -16014,13 +15598,11 @@
         <v>00000023</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>980</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>981</v>
-      </c>
+        <v>959</v>
+      </c>
+      <c r="C23" s="37"/>
       <c r="D23" s="27" t="s">
-        <v>982</v>
+        <v>960</v>
       </c>
       <c r="E23" s="19">
         <v>23</v>
@@ -16032,13 +15614,11 @@
         <v>00000024</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>983</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>984</v>
-      </c>
+        <v>961</v>
+      </c>
+      <c r="C24" s="37"/>
       <c r="D24" s="27" t="s">
-        <v>985</v>
+        <v>962</v>
       </c>
       <c r="E24" s="19">
         <v>24</v>
@@ -16050,13 +15630,11 @@
         <v>00000025</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>986</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>987</v>
-      </c>
+        <v>963</v>
+      </c>
+      <c r="C25" s="25"/>
       <c r="D25" s="27" t="s">
-        <v>988</v>
+        <v>964</v>
       </c>
       <c r="E25" s="19">
         <v>25</v>
@@ -16068,13 +15646,11 @@
         <v>00000026</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>989</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>990</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>991</v>
+        <v>965</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="D26" s="35" t="s">
+        <v>966</v>
       </c>
       <c r="E26" s="19">
         <v>26</v>
@@ -16086,13 +15662,11 @@
         <v>00000027</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>992</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>993</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>994</v>
+        <v>967</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="39" t="s">
+        <v>968</v>
       </c>
       <c r="E27" s="19">
         <v>27</v>
@@ -16104,13 +15678,11 @@
         <v>00000028</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>995</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>996</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>997</v>
+        <v>969</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="40" t="s">
+        <v>970</v>
       </c>
       <c r="E28" s="19">
         <v>28</v>
@@ -16122,13 +15694,11 @@
         <v>00000029</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>998</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>999</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>997</v>
+        <v>971</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="40" t="s">
+        <v>970</v>
       </c>
       <c r="E29" s="19">
         <v>29</v>
@@ -16140,13 +15710,11 @@
         <v>00000030</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>997</v>
+        <v>972</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="40" t="s">
+        <v>970</v>
       </c>
       <c r="E30" s="19">
         <v>30</v>
@@ -16158,13 +15726,11 @@
         <v>00000031</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D31" s="41" t="s">
-        <v>1004</v>
+        <v>973</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="39" t="s">
+        <v>974</v>
       </c>
       <c r="E31" s="19">
         <v>31</v>
@@ -16176,13 +15742,11 @@
         <v>00000032</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>1007</v>
+        <v>975</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="39" t="s">
+        <v>976</v>
       </c>
       <c r="E32" s="19">
         <v>32</v>
@@ -16193,14 +15757,12 @@
         <f t="shared" si="0"/>
         <v>00000033</v>
       </c>
-      <c r="B33" s="43" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>1010</v>
+      <c r="B33" s="41" t="s">
+        <v>977</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="39" t="s">
+        <v>978</v>
       </c>
       <c r="E33" s="19">
         <v>33</v>
@@ -16211,12 +15773,10 @@
         <f t="shared" si="0"/>
         <v>00000034</v>
       </c>
-      <c r="B34" s="44" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>1012</v>
-      </c>
+      <c r="B34" s="42" t="s">
+        <v>979</v>
+      </c>
+      <c r="C34" s="6"/>
       <c r="D34" s="28"/>
       <c r="E34" s="19">
         <v>34</v>
@@ -16227,8 +15787,8 @@
         <f t="shared" si="0"/>
         <v>00000035</v>
       </c>
-      <c r="B35" s="44" t="s">
-        <v>1013</v>
+      <c r="B35" s="42" t="s">
+        <v>980</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="28"/>
@@ -16242,13 +15802,11 @@
         <v>00000036</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>1015</v>
-      </c>
+        <v>981</v>
+      </c>
+      <c r="C36" s="29"/>
       <c r="D36" s="27" t="s">
-        <v>1016</v>
+        <v>982</v>
       </c>
       <c r="E36" s="19">
         <v>36</v>
@@ -16260,13 +15818,11 @@
         <v>00000037</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>1018</v>
-      </c>
+        <v>983</v>
+      </c>
+      <c r="C37" s="29"/>
       <c r="D37" s="27" t="s">
-        <v>1019</v>
+        <v>984</v>
       </c>
       <c r="E37" s="19">
         <v>37</v>
@@ -16278,13 +15834,11 @@
         <v>00000038</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>1021</v>
-      </c>
+        <v>985</v>
+      </c>
+      <c r="C38" s="29"/>
       <c r="D38" s="26" t="s">
-        <v>1022</v>
+        <v>986</v>
       </c>
       <c r="E38" s="19">
         <v>38</v>
@@ -16295,14 +15849,12 @@
         <f t="shared" si="0"/>
         <v>00000039</v>
       </c>
-      <c r="B39" s="45" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D39" s="41" t="s">
-        <v>1025</v>
+      <c r="B39" s="43" t="s">
+        <v>987</v>
+      </c>
+      <c r="C39" s="25"/>
+      <c r="D39" s="39" t="s">
+        <v>988</v>
       </c>
       <c r="E39" s="19">
         <v>39</v>
@@ -16314,13 +15866,11 @@
         <v>00000040</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>1027</v>
-      </c>
+        <v>989</v>
+      </c>
+      <c r="C40" s="29"/>
       <c r="D40" s="29" t="s">
-        <v>1028</v>
+        <v>990</v>
       </c>
       <c r="E40" s="19">
         <v>40</v>
@@ -16331,14 +15881,12 @@
         <f t="shared" si="0"/>
         <v>00000041</v>
       </c>
-      <c r="B41" s="43" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D41" s="46" t="s">
-        <v>1031</v>
+      <c r="B41" s="41" t="s">
+        <v>991</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="44" t="s">
+        <v>992</v>
       </c>
       <c r="E41" s="19">
         <v>41</v>
@@ -16349,12 +15897,12 @@
         <f t="shared" si="0"/>
         <v>00000042</v>
       </c>
-      <c r="B42" s="47" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C42" s="48"/>
+      <c r="B42" s="45" t="s">
+        <v>993</v>
+      </c>
+      <c r="C42" s="46"/>
       <c r="D42" s="28" t="s">
-        <v>1033</v>
+        <v>994</v>
       </c>
       <c r="E42" s="19">
         <v>42</v>
@@ -16366,13 +15914,11 @@
         <v>00000043</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C43" s="49" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D43" s="50" t="s">
-        <v>1036</v>
+        <v>995</v>
+      </c>
+      <c r="C43" s="47"/>
+      <c r="D43" s="48" t="s">
+        <v>996</v>
       </c>
       <c r="E43" s="19">
         <v>43</v>
@@ -16383,14 +15929,12 @@
         <f t="shared" si="0"/>
         <v>00000044</v>
       </c>
-      <c r="B44" s="51" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C44" s="52" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D44" s="53" t="s">
-        <v>1039</v>
+      <c r="B44" s="49" t="s">
+        <v>997</v>
+      </c>
+      <c r="C44" s="50"/>
+      <c r="D44" s="51" t="s">
+        <v>998</v>
       </c>
       <c r="E44" s="19">
         <v>44</v>
@@ -16402,13 +15946,11 @@
         <v>00000045</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C45" s="52" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D45" s="50" t="s">
-        <v>1042</v>
+        <v>999</v>
+      </c>
+      <c r="C45" s="50"/>
+      <c r="D45" s="48" t="s">
+        <v>1000</v>
       </c>
       <c r="E45" s="19">
         <v>45</v>
@@ -16420,13 +15962,11 @@
         <v>00000046</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C46" s="52" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D46" s="50" t="s">
-        <v>1045</v>
+        <v>1001</v>
+      </c>
+      <c r="C46" s="50"/>
+      <c r="D46" s="48" t="s">
+        <v>1002</v>
       </c>
       <c r="E46" s="19">
         <v>46</v>
@@ -16437,14 +15977,12 @@
         <f t="shared" si="0"/>
         <v>00000047</v>
       </c>
-      <c r="B47" s="54" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>1047</v>
-      </c>
+      <c r="B47" s="52" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C47" s="25"/>
       <c r="D47" s="26" t="s">
-        <v>1048</v>
+        <v>1004</v>
       </c>
       <c r="E47" s="19">
         <v>47</v>
@@ -16456,13 +15994,11 @@
         <v>00000048</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C48" s="52" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D48" s="50" t="s">
-        <v>1051</v>
+        <v>1005</v>
+      </c>
+      <c r="C48" s="50"/>
+      <c r="D48" s="48" t="s">
+        <v>1006</v>
       </c>
       <c r="E48" s="19">
         <v>48</v>
@@ -16473,14 +16009,12 @@
         <f t="shared" si="0"/>
         <v>00000049</v>
       </c>
-      <c r="B49" s="51" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D49" s="53" t="s">
-        <v>1054</v>
+      <c r="B49" s="49" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C49" s="25"/>
+      <c r="D49" s="51" t="s">
+        <v>1008</v>
       </c>
       <c r="E49" s="19">
         <v>49</v>
@@ -16491,14 +16025,12 @@
         <f t="shared" si="0"/>
         <v>00000050</v>
       </c>
-      <c r="B50" s="55" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>1056</v>
-      </c>
+      <c r="B50" s="53" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C50" s="25"/>
       <c r="D50" s="26" t="s">
-        <v>1057</v>
+        <v>1010</v>
       </c>
       <c r="E50" s="19">
         <v>50</v>
@@ -16509,14 +16041,12 @@
         <f t="shared" si="0"/>
         <v>00000051</v>
       </c>
-      <c r="B51" s="56" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C51" s="56" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D51" s="41" t="s">
-        <v>1060</v>
+      <c r="B51" s="54" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C51" s="54"/>
+      <c r="D51" s="39" t="s">
+        <v>1012</v>
       </c>
       <c r="E51" s="19">
         <v>51</v>
@@ -16528,13 +16058,11 @@
         <v>00000052</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D52" s="41" t="s">
-        <v>1063</v>
+        <v>1013</v>
+      </c>
+      <c r="C52" s="25"/>
+      <c r="D52" s="39" t="s">
+        <v>1014</v>
       </c>
       <c r="E52" s="19">
         <v>52</v>
@@ -16546,13 +16074,11 @@
         <v>00000053</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D53" s="41" t="s">
-        <v>1066</v>
+        <v>1015</v>
+      </c>
+      <c r="C53" s="25"/>
+      <c r="D53" s="39" t="s">
+        <v>1016</v>
       </c>
       <c r="E53" s="19">
         <v>53</v>
@@ -16564,13 +16090,11 @@
         <v>00000054</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D54" s="41" t="s">
-        <v>1069</v>
+        <v>1017</v>
+      </c>
+      <c r="C54" s="25"/>
+      <c r="D54" s="39" t="s">
+        <v>1018</v>
       </c>
       <c r="E54" s="19">
         <v>54</v>
@@ -16582,13 +16106,11 @@
         <v>00000055</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C55" s="57" t="s">
-        <v>1071</v>
-      </c>
+        <v>1019</v>
+      </c>
+      <c r="C55" s="55"/>
       <c r="D55" s="27" t="s">
-        <v>1072</v>
+        <v>1020</v>
       </c>
       <c r="E55" s="19">
         <v>55</v>
@@ -16600,13 +16122,11 @@
         <v>00000056</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C56" s="59" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D56" s="42" t="s">
-        <v>1075</v>
+        <v>1021</v>
+      </c>
+      <c r="C56" s="57"/>
+      <c r="D56" s="40" t="s">
+        <v>1022</v>
       </c>
       <c r="E56" s="19">
         <v>56</v>
@@ -16618,13 +16138,11 @@
         <v>00000057</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C57" s="60" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D57" s="61" t="s">
-        <v>1078</v>
+        <v>1023</v>
+      </c>
+      <c r="C57" s="58"/>
+      <c r="D57" s="59" t="s">
+        <v>1024</v>
       </c>
       <c r="E57" s="19">
         <v>57</v>
@@ -16636,13 +16154,11 @@
         <v>00000058</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C58" s="62" t="s">
-        <v>1080</v>
-      </c>
+        <v>1025</v>
+      </c>
+      <c r="C58" s="60"/>
       <c r="D58" s="26" t="s">
-        <v>1081</v>
+        <v>1026</v>
       </c>
       <c r="E58" s="19">
         <v>58</v>
@@ -16654,13 +16170,11 @@
         <v>00000059</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C59" s="62" t="s">
-        <v>1083</v>
-      </c>
+        <v>1027</v>
+      </c>
+      <c r="C59" s="60"/>
       <c r="D59" s="26" t="s">
-        <v>1081</v>
+        <v>1026</v>
       </c>
       <c r="E59" s="19">
         <v>59</v>
@@ -16671,14 +16185,12 @@
         <f t="shared" si="0"/>
         <v>00000060</v>
       </c>
-      <c r="B60" s="55" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C60" s="63" t="s">
-        <v>1085</v>
-      </c>
+      <c r="B60" s="53" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C60" s="61"/>
       <c r="D60" s="26" t="s">
-        <v>1086</v>
+        <v>1029</v>
       </c>
       <c r="E60" s="19">
         <v>60</v>
@@ -16689,14 +16201,12 @@
         <f t="shared" ref="A61:A115" si="1">TEXT(E61, "00000000")</f>
         <v>00000061</v>
       </c>
-      <c r="B61" s="64" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C61" s="65" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D61" s="66" t="s">
-        <v>1089</v>
+      <c r="B61" s="62" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C61" s="63"/>
+      <c r="D61" s="64" t="s">
+        <v>1031</v>
       </c>
       <c r="E61" s="19">
         <v>61</v>
@@ -16707,14 +16217,12 @@
         <f t="shared" si="1"/>
         <v>00000062</v>
       </c>
-      <c r="B62" s="67" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C62" s="65" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D62" s="68" t="s">
-        <v>1092</v>
+      <c r="B62" s="65" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C62" s="63"/>
+      <c r="D62" s="66" t="s">
+        <v>1033</v>
       </c>
       <c r="E62" s="19">
         <v>62</v>
@@ -16725,14 +16233,12 @@
         <f t="shared" si="1"/>
         <v>00000063</v>
       </c>
-      <c r="B63" s="67" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C63" s="65" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D63" s="68" t="s">
-        <v>1092</v>
+      <c r="B63" s="65" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C63" s="63"/>
+      <c r="D63" s="66" t="s">
+        <v>1033</v>
       </c>
       <c r="E63" s="19">
         <v>63</v>
@@ -16743,14 +16249,12 @@
         <f t="shared" si="1"/>
         <v>00000064</v>
       </c>
-      <c r="B64" s="69" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C64" s="70" t="s">
-        <v>1096</v>
-      </c>
+      <c r="B64" s="67" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C64" s="68"/>
       <c r="D64" s="8" t="s">
-        <v>1097</v>
+        <v>1036</v>
       </c>
       <c r="E64" s="19">
         <v>64</v>
@@ -16761,14 +16265,12 @@
         <f t="shared" si="1"/>
         <v>00000065</v>
       </c>
-      <c r="B65" s="67" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C65" s="71" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D65" s="68" t="s">
-        <v>1100</v>
+      <c r="B65" s="65" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C65" s="69"/>
+      <c r="D65" s="66" t="s">
+        <v>1038</v>
       </c>
       <c r="E65" s="19">
         <v>65</v>
@@ -16779,14 +16281,12 @@
         <f t="shared" si="1"/>
         <v>00000066</v>
       </c>
-      <c r="B66" s="67" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C66" s="65" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D66" s="72" t="s">
-        <v>1103</v>
+      <c r="B66" s="65" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C66" s="63"/>
+      <c r="D66" s="70" t="s">
+        <v>1040</v>
       </c>
       <c r="E66" s="19">
         <v>66</v>
@@ -16797,14 +16297,12 @@
         <f t="shared" si="1"/>
         <v>00000067</v>
       </c>
-      <c r="B67" s="67" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C67" s="73" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D67" s="66" t="s">
-        <v>1106</v>
+      <c r="B67" s="65" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C67" s="71"/>
+      <c r="D67" s="64" t="s">
+        <v>1042</v>
       </c>
       <c r="E67" s="19">
         <v>67</v>
@@ -16815,14 +16313,12 @@
         <f t="shared" si="1"/>
         <v>00000068</v>
       </c>
-      <c r="B68" s="67" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C68" s="65" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D68" s="68" t="s">
-        <v>1109</v>
+      <c r="B68" s="65" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C68" s="63"/>
+      <c r="D68" s="66" t="s">
+        <v>1044</v>
       </c>
       <c r="E68" s="19">
         <v>68</v>
@@ -16833,14 +16329,12 @@
         <f t="shared" si="1"/>
         <v>00000069</v>
       </c>
-      <c r="B69" s="67" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C69" s="65" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D69" s="68" t="s">
-        <v>1112</v>
+      <c r="B69" s="65" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C69" s="63"/>
+      <c r="D69" s="66" t="s">
+        <v>1046</v>
       </c>
       <c r="E69" s="19">
         <v>69</v>
@@ -16851,14 +16345,12 @@
         <f t="shared" si="1"/>
         <v>00000070</v>
       </c>
-      <c r="B70" s="67" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C70" s="73" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D70" s="66" t="s">
-        <v>1115</v>
+      <c r="B70" s="65" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C70" s="71"/>
+      <c r="D70" s="64" t="s">
+        <v>1048</v>
       </c>
       <c r="E70" s="19">
         <v>70</v>
@@ -16869,14 +16361,12 @@
         <f t="shared" si="1"/>
         <v>00000071</v>
       </c>
-      <c r="B71" s="64" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C71" s="74" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D71" s="72" t="s">
-        <v>1118</v>
+      <c r="B71" s="62" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C71" s="72"/>
+      <c r="D71" s="70" t="s">
+        <v>1050</v>
       </c>
       <c r="E71" s="19">
         <v>71</v>
@@ -16887,14 +16377,12 @@
         <f t="shared" si="1"/>
         <v>00000072</v>
       </c>
-      <c r="B72" s="64" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C72" s="74" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D72" s="72" t="s">
-        <v>1121</v>
+      <c r="B72" s="62" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C72" s="72"/>
+      <c r="D72" s="70" t="s">
+        <v>1052</v>
       </c>
       <c r="E72" s="19">
         <v>72</v>
@@ -16905,14 +16393,12 @@
         <f t="shared" si="1"/>
         <v>00000073</v>
       </c>
-      <c r="B73" s="67" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C73" s="71" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D73" s="72" t="s">
-        <v>1124</v>
+      <c r="B73" s="65" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C73" s="69"/>
+      <c r="D73" s="70" t="s">
+        <v>1054</v>
       </c>
       <c r="E73" s="19">
         <v>73</v>
@@ -16923,14 +16409,12 @@
         <f t="shared" si="1"/>
         <v>00000074</v>
       </c>
-      <c r="B74" s="67" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C74" s="71" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D74" s="72" t="s">
-        <v>1127</v>
+      <c r="B74" s="65" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C74" s="69"/>
+      <c r="D74" s="70" t="s">
+        <v>1056</v>
       </c>
       <c r="E74" s="19">
         <v>74</v>
@@ -16941,14 +16425,12 @@
         <f t="shared" si="1"/>
         <v>00000075</v>
       </c>
-      <c r="B75" s="67" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C75" s="71" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D75" s="72" t="s">
-        <v>1130</v>
+      <c r="B75" s="65" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C75" s="69"/>
+      <c r="D75" s="70" t="s">
+        <v>1058</v>
       </c>
       <c r="E75" s="19">
         <v>75</v>
@@ -16959,14 +16441,12 @@
         <f t="shared" si="1"/>
         <v>00000076</v>
       </c>
-      <c r="B76" s="67" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C76" s="71" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D76" s="68" t="s">
-        <v>1133</v>
+      <c r="B76" s="65" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C76" s="69"/>
+      <c r="D76" s="66" t="s">
+        <v>1060</v>
       </c>
       <c r="E76" s="19">
         <v>76</v>
@@ -16977,14 +16457,12 @@
         <f t="shared" si="1"/>
         <v>00000077</v>
       </c>
-      <c r="B77" s="67" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C77" s="75" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D77" s="72" t="s">
-        <v>1136</v>
+      <c r="B77" s="65" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C77" s="73"/>
+      <c r="D77" s="70" t="s">
+        <v>1062</v>
       </c>
       <c r="E77" s="19">
         <v>77</v>
@@ -16995,14 +16473,12 @@
         <f t="shared" si="1"/>
         <v>00000078</v>
       </c>
-      <c r="B78" s="67" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C78" s="65" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D78" s="68" t="s">
-        <v>1139</v>
+      <c r="B78" s="65" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C78" s="63"/>
+      <c r="D78" s="66" t="s">
+        <v>1064</v>
       </c>
       <c r="E78" s="19">
         <v>78</v>
@@ -17013,14 +16489,12 @@
         <f t="shared" si="1"/>
         <v>00000079</v>
       </c>
-      <c r="B79" s="67" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C79" s="65" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D79" s="68" t="s">
-        <v>1141</v>
+      <c r="B79" s="65" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C79" s="63"/>
+      <c r="D79" s="66" t="s">
+        <v>1066</v>
       </c>
       <c r="E79" s="19">
         <v>79</v>
@@ -17031,14 +16505,12 @@
         <f t="shared" si="1"/>
         <v>00000080</v>
       </c>
-      <c r="B80" s="67" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C80" s="65" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D80" s="68" t="s">
-        <v>1144</v>
+      <c r="B80" s="65" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C80" s="63"/>
+      <c r="D80" s="66" t="s">
+        <v>1068</v>
       </c>
       <c r="E80" s="19">
         <v>80</v>
@@ -17049,14 +16521,12 @@
         <f t="shared" si="1"/>
         <v>00000081</v>
       </c>
-      <c r="B81" s="67" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C81" s="65" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D81" s="68" t="s">
-        <v>1147</v>
+      <c r="B81" s="65" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C81" s="63"/>
+      <c r="D81" s="66" t="s">
+        <v>1070</v>
       </c>
       <c r="E81" s="19">
         <v>81</v>
@@ -17067,14 +16537,12 @@
         <f t="shared" si="1"/>
         <v>00000082</v>
       </c>
-      <c r="B82" s="67" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C82" s="65" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D82" s="68" t="s">
-        <v>1150</v>
+      <c r="B82" s="65" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C82" s="63"/>
+      <c r="D82" s="66" t="s">
+        <v>1072</v>
       </c>
       <c r="E82" s="19">
         <v>82</v>
@@ -17085,14 +16553,12 @@
         <f t="shared" si="1"/>
         <v>00000083</v>
       </c>
-      <c r="B83" s="67" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C83" s="65" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D83" s="68" t="s">
-        <v>1153</v>
+      <c r="B83" s="65" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C83" s="63"/>
+      <c r="D83" s="66" t="s">
+        <v>1074</v>
       </c>
       <c r="E83" s="19">
         <v>83</v>
@@ -17103,14 +16569,12 @@
         <f t="shared" si="1"/>
         <v>00000084</v>
       </c>
-      <c r="B84" s="67" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C84" s="65" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D84" s="68" t="s">
-        <v>1156</v>
+      <c r="B84" s="65" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C84" s="63"/>
+      <c r="D84" s="66" t="s">
+        <v>1076</v>
       </c>
       <c r="E84" s="19">
         <v>84</v>
@@ -17121,14 +16585,12 @@
         <f t="shared" si="1"/>
         <v>00000085</v>
       </c>
-      <c r="B85" s="67" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C85" s="65" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D85" s="68" t="s">
-        <v>1159</v>
+      <c r="B85" s="65" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C85" s="63"/>
+      <c r="D85" s="66" t="s">
+        <v>1078</v>
       </c>
       <c r="E85" s="19">
         <v>85</v>
@@ -17139,14 +16601,12 @@
         <f t="shared" si="1"/>
         <v>00000086</v>
       </c>
-      <c r="B86" s="67" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C86" s="65" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D86" s="68" t="s">
-        <v>1159</v>
+      <c r="B86" s="65" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C86" s="63"/>
+      <c r="D86" s="66" t="s">
+        <v>1078</v>
       </c>
       <c r="E86" s="19">
         <v>86</v>
@@ -17157,14 +16617,12 @@
         <f t="shared" si="1"/>
         <v>00000087</v>
       </c>
-      <c r="B87" s="67" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C87" s="65" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D87" s="68" t="s">
-        <v>1159</v>
+      <c r="B87" s="65" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C87" s="63"/>
+      <c r="D87" s="66" t="s">
+        <v>1078</v>
       </c>
       <c r="E87" s="19">
         <v>87</v>
@@ -17175,14 +16633,12 @@
         <f t="shared" si="1"/>
         <v>00000088</v>
       </c>
-      <c r="B88" s="67" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C88" s="65" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D88" s="67" t="s">
-        <v>1166</v>
+      <c r="B88" s="65" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C88" s="63"/>
+      <c r="D88" s="65" t="s">
+        <v>1082</v>
       </c>
       <c r="E88" s="19">
         <v>88</v>
@@ -17193,14 +16649,12 @@
         <f t="shared" si="1"/>
         <v>00000089</v>
       </c>
-      <c r="B89" s="67" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C89" s="65" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D89" s="68" t="s">
-        <v>1169</v>
+      <c r="B89" s="65" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C89" s="63"/>
+      <c r="D89" s="66" t="s">
+        <v>1084</v>
       </c>
       <c r="E89" s="19">
         <v>89</v>
@@ -17211,14 +16665,12 @@
         <f t="shared" si="1"/>
         <v>00000090</v>
       </c>
-      <c r="B90" s="67" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C90" s="76" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D90" s="68" t="s">
-        <v>1172</v>
+      <c r="B90" s="65" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C90" s="74"/>
+      <c r="D90" s="66" t="s">
+        <v>1086</v>
       </c>
       <c r="E90" s="19">
         <v>90</v>
@@ -17229,14 +16681,12 @@
         <f t="shared" si="1"/>
         <v>00000091</v>
       </c>
-      <c r="B91" s="67" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C91" s="65" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D91" s="68" t="s">
-        <v>1175</v>
+      <c r="B91" s="65" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C91" s="63"/>
+      <c r="D91" s="66" t="s">
+        <v>1088</v>
       </c>
       <c r="E91" s="19">
         <v>91</v>
@@ -17247,14 +16697,12 @@
         <f t="shared" si="1"/>
         <v>00000092</v>
       </c>
-      <c r="B92" s="67" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C92" s="65" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D92" s="68" t="s">
-        <v>1178</v>
+      <c r="B92" s="65" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C92" s="63"/>
+      <c r="D92" s="66" t="s">
+        <v>1090</v>
       </c>
       <c r="E92" s="19">
         <v>92</v>
@@ -17265,14 +16713,12 @@
         <f t="shared" si="1"/>
         <v>00000093</v>
       </c>
-      <c r="B93" s="67" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C93" s="65" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D93" s="66" t="s">
-        <v>1181</v>
+      <c r="B93" s="65" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C93" s="63"/>
+      <c r="D93" s="64" t="s">
+        <v>1092</v>
       </c>
       <c r="E93" s="19">
         <v>93</v>
@@ -17283,14 +16729,12 @@
         <f t="shared" si="1"/>
         <v>00000094</v>
       </c>
-      <c r="B94" s="67" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C94" s="71" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D94" s="68" t="s">
-        <v>1184</v>
+      <c r="B94" s="65" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C94" s="69"/>
+      <c r="D94" s="66" t="s">
+        <v>1094</v>
       </c>
       <c r="E94" s="19">
         <v>94</v>
@@ -17301,14 +16745,12 @@
         <f t="shared" si="1"/>
         <v>00000095</v>
       </c>
-      <c r="B95" s="67" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C95" s="65" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D95" s="66" t="s">
-        <v>1184</v>
+      <c r="B95" s="65" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C95" s="63"/>
+      <c r="D95" s="64" t="s">
+        <v>1094</v>
       </c>
       <c r="E95" s="19">
         <v>95</v>
@@ -17319,14 +16761,12 @@
         <f t="shared" si="1"/>
         <v>00000096</v>
       </c>
-      <c r="B96" s="67" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C96" s="65" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D96" s="66" t="s">
-        <v>1184</v>
+      <c r="B96" s="65" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C96" s="63"/>
+      <c r="D96" s="64" t="s">
+        <v>1094</v>
       </c>
       <c r="E96" s="19">
         <v>96</v>
@@ -17337,14 +16777,12 @@
         <f t="shared" si="1"/>
         <v>00000097</v>
       </c>
-      <c r="B97" s="67" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C97" s="65" t="s">
-        <v>1190</v>
-      </c>
-      <c r="D97" s="66" t="s">
-        <v>1191</v>
+      <c r="B97" s="65" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C97" s="63"/>
+      <c r="D97" s="64" t="s">
+        <v>1098</v>
       </c>
       <c r="E97" s="19">
         <v>97</v>
@@ -17355,14 +16793,12 @@
         <f t="shared" si="1"/>
         <v>00000098</v>
       </c>
-      <c r="B98" s="67" t="s">
+      <c r="B98" s="65" t="s">
         <v>919</v>
       </c>
-      <c r="C98" s="65" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D98" s="66" t="s">
-        <v>1193</v>
+      <c r="C98" s="63"/>
+      <c r="D98" s="64" t="s">
+        <v>1099</v>
       </c>
       <c r="E98" s="19">
         <v>98</v>
@@ -17373,14 +16809,12 @@
         <f t="shared" si="1"/>
         <v>00000099</v>
       </c>
-      <c r="B99" s="77" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C99" s="78" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D99" s="79" t="s">
-        <v>1196</v>
+      <c r="B99" s="75" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C99" s="76"/>
+      <c r="D99" s="77" t="s">
+        <v>1101</v>
       </c>
       <c r="E99" s="19">
         <v>99</v>
@@ -17391,14 +16825,12 @@
         <f t="shared" si="1"/>
         <v>00000100</v>
       </c>
-      <c r="B100" s="77" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C100" s="78" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D100" s="79" t="s">
-        <v>1199</v>
+      <c r="B100" s="75" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C100" s="76"/>
+      <c r="D100" s="77" t="s">
+        <v>1103</v>
       </c>
       <c r="E100" s="19">
         <v>100</v>
@@ -17409,14 +16841,12 @@
         <f t="shared" si="1"/>
         <v>00000101</v>
       </c>
-      <c r="B101" s="67" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C101" s="65" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D101" s="66" t="s">
-        <v>1202</v>
+      <c r="B101" s="65" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C101" s="63"/>
+      <c r="D101" s="64" t="s">
+        <v>1105</v>
       </c>
       <c r="E101" s="19">
         <v>101</v>
@@ -17427,14 +16857,12 @@
         <f t="shared" si="1"/>
         <v>00000102</v>
       </c>
-      <c r="B102" s="67" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C102" s="78" t="s">
-        <v>1204</v>
-      </c>
-      <c r="D102" s="79" t="s">
-        <v>1205</v>
+      <c r="B102" s="65" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C102" s="76"/>
+      <c r="D102" s="77" t="s">
+        <v>1107</v>
       </c>
       <c r="E102" s="19">
         <v>102</v>
@@ -17445,14 +16873,12 @@
         <f t="shared" si="1"/>
         <v>00000103</v>
       </c>
-      <c r="B103" s="67" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C103" s="65" t="s">
-        <v>1207</v>
-      </c>
-      <c r="D103" s="79" t="s">
-        <v>1208</v>
+      <c r="B103" s="65" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C103" s="63"/>
+      <c r="D103" s="77" t="s">
+        <v>1109</v>
       </c>
       <c r="E103" s="19">
         <v>103</v>
@@ -17463,14 +16889,12 @@
         <f t="shared" si="1"/>
         <v>00000104</v>
       </c>
-      <c r="B104" s="80" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C104" s="81" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D104" s="80" t="s">
-        <v>1211</v>
+      <c r="B104" s="78" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C104" s="79"/>
+      <c r="D104" s="78" t="s">
+        <v>1111</v>
       </c>
       <c r="E104" s="19">
         <v>104</v>
@@ -17481,14 +16905,12 @@
         <f t="shared" si="1"/>
         <v>00000105</v>
       </c>
-      <c r="B105" s="66" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C105" s="54" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D105" s="82" t="s">
-        <v>1214</v>
+      <c r="B105" s="64" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C105" s="52"/>
+      <c r="D105" s="80" t="s">
+        <v>1113</v>
       </c>
       <c r="E105" s="19">
         <v>105</v>
@@ -17499,14 +16921,12 @@
         <f t="shared" si="1"/>
         <v>00000106</v>
       </c>
-      <c r="B106" s="83" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C106" s="84" t="s">
-        <v>1216</v>
-      </c>
-      <c r="D106" s="82" t="s">
-        <v>1217</v>
+      <c r="B106" s="81" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C106" s="82"/>
+      <c r="D106" s="80" t="s">
+        <v>1115</v>
       </c>
       <c r="E106" s="19">
         <v>106</v>
@@ -17517,14 +16937,12 @@
         <f t="shared" si="1"/>
         <v>00000107</v>
       </c>
-      <c r="B107" s="83" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C107" s="84" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D107" s="82" t="s">
-        <v>1220</v>
+      <c r="B107" s="81" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C107" s="82"/>
+      <c r="D107" s="80" t="s">
+        <v>1117</v>
       </c>
       <c r="E107" s="19">
         <v>107</v>
@@ -17535,14 +16953,12 @@
         <f t="shared" si="1"/>
         <v>00000108</v>
       </c>
-      <c r="B108" s="83" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C108" s="84" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D108" s="82" t="s">
-        <v>1223</v>
+      <c r="B108" s="81" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C108" s="82"/>
+      <c r="D108" s="80" t="s">
+        <v>1119</v>
       </c>
       <c r="E108" s="19">
         <v>108</v>
@@ -17553,14 +16969,12 @@
         <f t="shared" si="1"/>
         <v>00000109</v>
       </c>
-      <c r="B109" s="85" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C109" s="86" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D109" s="87" t="s">
-        <v>1226</v>
+      <c r="B109" s="83" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C109" s="84"/>
+      <c r="D109" s="85" t="s">
+        <v>1121</v>
       </c>
       <c r="E109" s="19">
         <v>109</v>
@@ -17571,14 +16985,12 @@
         <f t="shared" si="1"/>
         <v>00000110</v>
       </c>
-      <c r="B110" s="88" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C110" s="54" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D110" s="89" t="s">
-        <v>1229</v>
+      <c r="B110" s="86" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C110" s="52"/>
+      <c r="D110" s="87" t="s">
+        <v>1123</v>
       </c>
       <c r="E110" s="19">
         <v>110</v>
@@ -17589,14 +17001,12 @@
         <f t="shared" si="1"/>
         <v>00000111</v>
       </c>
-      <c r="B111" s="88" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C111" s="90" t="s">
-        <v>1231</v>
-      </c>
-      <c r="D111" s="91" t="s">
-        <v>1232</v>
+      <c r="B111" s="86" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C111" s="88"/>
+      <c r="D111" s="89" t="s">
+        <v>1125</v>
       </c>
       <c r="E111" s="19">
         <v>111</v>
@@ -17607,14 +17017,12 @@
         <f t="shared" si="1"/>
         <v>00000112</v>
       </c>
-      <c r="B112" s="88" t="s">
-        <v>1233</v>
-      </c>
-      <c r="C112" s="92" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D112" s="91" t="s">
-        <v>1235</v>
+      <c r="B112" s="86" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C112" s="90"/>
+      <c r="D112" s="89" t="s">
+        <v>1127</v>
       </c>
       <c r="E112" s="19">
         <v>112</v>
@@ -17625,14 +17033,12 @@
         <f t="shared" si="1"/>
         <v>00000113</v>
       </c>
-      <c r="B113" s="88" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C113" s="90" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D113" s="91" t="s">
-        <v>1232</v>
+      <c r="B113" s="86" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C113" s="88"/>
+      <c r="D113" s="89" t="s">
+        <v>1125</v>
       </c>
       <c r="E113" s="19">
         <v>113</v>
@@ -17643,14 +17049,12 @@
         <f t="shared" si="1"/>
         <v>00000114</v>
       </c>
-      <c r="B114" s="83" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C114" s="93" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D114" s="94" t="s">
-        <v>1240</v>
+      <c r="B114" s="81" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C114" s="91"/>
+      <c r="D114" s="92" t="s">
+        <v>1130</v>
       </c>
       <c r="E114" s="19">
         <v>114</v>
@@ -17661,14 +17065,12 @@
         <f t="shared" si="1"/>
         <v>00000115</v>
       </c>
-      <c r="B115" s="85" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C115" s="86" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D115" s="87" t="s">
-        <v>1243</v>
+      <c r="B115" s="83" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C115" s="84"/>
+      <c r="D115" s="85" t="s">
+        <v>1132</v>
       </c>
       <c r="E115" s="19">
         <v>115</v>
@@ -17679,14 +17081,12 @@
         <f t="shared" ref="A116:A127" si="2">TEXT(E116, "00000000")</f>
         <v>00000116</v>
       </c>
-      <c r="B116" s="95" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C116" s="104" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D116" s="87" t="s">
-        <v>1243</v>
+      <c r="B116" s="93" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C116" s="102"/>
+      <c r="D116" s="85" t="s">
+        <v>1132</v>
       </c>
       <c r="E116" s="19">
         <v>116</v>
@@ -17697,14 +17097,12 @@
         <f t="shared" si="2"/>
         <v>00000117</v>
       </c>
-      <c r="B117" s="85" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C117" s="96" t="s">
-        <v>1246</v>
-      </c>
-      <c r="D117" s="97" t="s">
-        <v>1247</v>
+      <c r="B117" s="83" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C117" s="94"/>
+      <c r="D117" s="95" t="s">
+        <v>1135</v>
       </c>
       <c r="E117" s="19">
         <v>117</v>
@@ -17715,14 +17113,12 @@
         <f t="shared" si="2"/>
         <v>00000118</v>
       </c>
-      <c r="B118" s="83" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C118" s="93" t="s">
-        <v>1249</v>
-      </c>
-      <c r="D118" s="98" t="s">
-        <v>1247</v>
+      <c r="B118" s="81" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C118" s="91"/>
+      <c r="D118" s="96" t="s">
+        <v>1135</v>
       </c>
       <c r="E118" s="19">
         <v>118</v>
@@ -17733,14 +17129,12 @@
         <f t="shared" si="2"/>
         <v>00000119</v>
       </c>
-      <c r="B119" s="85" t="s">
-        <v>1250</v>
-      </c>
-      <c r="C119" s="86" t="s">
-        <v>1251</v>
-      </c>
-      <c r="D119" s="98" t="s">
-        <v>1252</v>
+      <c r="B119" s="83" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C119" s="84"/>
+      <c r="D119" s="96" t="s">
+        <v>1138</v>
       </c>
       <c r="E119" s="19">
         <v>119</v>
@@ -17751,14 +17145,12 @@
         <f t="shared" si="2"/>
         <v>00000120</v>
       </c>
-      <c r="B120" s="95" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C120" s="99" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D120" s="87" t="s">
-        <v>1254</v>
+      <c r="B120" s="93" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C120" s="97"/>
+      <c r="D120" s="85" t="s">
+        <v>1140</v>
       </c>
       <c r="E120" s="19">
         <v>120</v>
@@ -17769,14 +17161,12 @@
         <f t="shared" si="2"/>
         <v>00000121</v>
       </c>
-      <c r="B121" s="85" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C121" s="86" t="s">
-        <v>1256</v>
-      </c>
-      <c r="D121" s="87" t="s">
-        <v>1257</v>
+      <c r="B121" s="83" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C121" s="84"/>
+      <c r="D121" s="85" t="s">
+        <v>1142</v>
       </c>
       <c r="E121" s="19">
         <v>121</v>
@@ -17787,14 +17177,12 @@
         <f t="shared" si="2"/>
         <v>00000122</v>
       </c>
-      <c r="B122" s="85" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C122" s="100" t="s">
-        <v>1259</v>
-      </c>
-      <c r="D122" s="87" t="s">
-        <v>1243</v>
+      <c r="B122" s="83" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C122" s="98"/>
+      <c r="D122" s="85" t="s">
+        <v>1132</v>
       </c>
       <c r="E122" s="19">
         <v>122</v>
@@ -17805,14 +17193,12 @@
         <f t="shared" si="2"/>
         <v>00000123</v>
       </c>
-      <c r="B123" s="83" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C123" s="58" t="s">
-        <v>1261</v>
-      </c>
+      <c r="B123" s="81" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C123" s="56"/>
       <c r="D123" s="34" t="s">
-        <v>1262</v>
+        <v>1145</v>
       </c>
       <c r="E123" s="19">
         <v>123</v>
@@ -17823,14 +17209,12 @@
         <f t="shared" si="2"/>
         <v>00000124</v>
       </c>
-      <c r="B124" s="83" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C124" s="101" t="s">
-        <v>1274</v>
-      </c>
+      <c r="B124" s="81" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C124" s="99"/>
       <c r="D124" s="34" t="s">
-        <v>1262</v>
+        <v>1145</v>
       </c>
       <c r="E124" s="19">
         <v>124</v>
@@ -17841,14 +17225,12 @@
         <f t="shared" si="2"/>
         <v>00000125</v>
       </c>
-      <c r="B125" s="83" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C125" s="58" t="s">
-        <v>1265</v>
-      </c>
+      <c r="B125" s="81" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C125" s="56"/>
       <c r="D125" s="8" t="s">
-        <v>1262</v>
+        <v>1145</v>
       </c>
       <c r="E125" s="19">
         <v>125</v>
@@ -17859,14 +17241,12 @@
         <f t="shared" si="2"/>
         <v>00000126</v>
       </c>
-      <c r="B126" s="85" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C126" s="96" t="s">
-        <v>1267</v>
-      </c>
-      <c r="D126" s="87" t="s">
-        <v>1268</v>
+      <c r="B126" s="83" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C126" s="94"/>
+      <c r="D126" s="85" t="s">
+        <v>1149</v>
       </c>
       <c r="E126" s="19">
         <v>126</v>
@@ -17877,14 +17257,12 @@
         <f t="shared" si="2"/>
         <v>00000127</v>
       </c>
-      <c r="B127" s="85" t="s">
-        <v>1269</v>
-      </c>
-      <c r="C127" s="102" t="s">
-        <v>1273</v>
-      </c>
-      <c r="D127" s="103" t="s">
-        <v>1270</v>
+      <c r="B127" s="83" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C127" s="100"/>
+      <c r="D127" s="101" t="s">
+        <v>1151</v>
       </c>
       <c r="E127" s="19">
         <v>127</v>

--- a/solve_list/list_name.xlsx
+++ b/solve_list/list_name.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\quaysotrungthuong\solve_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6904A71D-485F-4EC3-BFBD-404878299D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA762FF1-0DD9-48CC-AD3C-B30B738FFD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{1C648A08-575F-49B4-B556-F4C0E3E20F77}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="1152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="1151">
   <si>
     <t>Nguyễn Văn Ngọc</t>
   </si>
@@ -2787,714 +2787,707 @@
     <t>Đồng Hỷ , Thái Nguyên</t>
   </si>
   <si>
-    <t>Tạ Thị Huyền</t>
-  </si>
-  <si>
-    <t>Triệu Việt Cường</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Co Chai, Xã Hát Lót, Mai Sơn, Sơn La </t>
-  </si>
-  <si>
-    <t>Bùi Đình Đông (Nhung)</t>
-  </si>
-  <si>
-    <t>TT. Hát Lót, Mai Sơn, Sơn La</t>
-  </si>
-  <si>
-    <t>Vũ Đình Hậu (Duyên)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TK8, Xã Nà Bó, Mai Sơn, Sơn La </t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Quyên (Tứ)</t>
-  </si>
-  <si>
-    <t>TK39, Xã Cò Nòi, Mai Sơn, Sơn La</t>
-  </si>
-  <si>
-    <t>Phạm Thị Thanh (Hùng)</t>
-  </si>
-  <si>
-    <t>Nguyễn Thế Trận (Hòa)</t>
-  </si>
-  <si>
-    <t>Bản Xuân Quế, Xã Cò Nòi, Mai Sơn, Sơn La</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lò Ngọc Văn </t>
-  </si>
-  <si>
-    <t>Bản Mu Kít , Xã Cò Nòi, Mai Sơn, Sơn la</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Vân (Phương)</t>
-  </si>
-  <si>
-    <t>TK Thống Nhất, Xã  Cò Nòi, Mai Sơn, Sơn La</t>
-  </si>
-  <si>
-    <t>Trâbf Thị Dung (ĐL Vương Đức)</t>
-  </si>
-  <si>
-    <t>Lò Thị Nga (ĐL Cường Nga)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bản Búc, Xã Chiềng Sung, Mai Sơn, Sơn La</t>
-  </si>
-  <si>
-    <t>Quàng Thị Hôm ( ĐL Phái Hôm)</t>
-  </si>
-  <si>
-    <t>Bản Chạm Cẳng, Xã Chiềng Sung, Huyện Mai Sơn, Sơn La</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đặng Hồng Quân </t>
-  </si>
-  <si>
-    <t>Bản Tân Lập, Chiềng Sung, Mai Sơn, Sơn La</t>
-  </si>
-  <si>
-    <t>Đặng Văn Long ( ĐL Quân Như)</t>
-  </si>
-  <si>
-    <t>Bản Nong Bình, Xã Chiềng Sung, Mai Sơn, Sơn La</t>
-  </si>
-  <si>
-    <t>Hoàng Văn Hạnh ( Cty chiềng Sung )</t>
-  </si>
-  <si>
-    <t>Dương Chí Ninh ( Cty chiềng Sung )</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Dung  (Cường)</t>
-  </si>
-  <si>
-    <t>Bản Sái Trong, xã Quài Cang, huyện Tuần Giáo, Điện Biên</t>
-  </si>
-  <si>
-    <t>Lê Thi Duyên (Hảo)</t>
-  </si>
-  <si>
-    <t>Bản Minh Thắng, Xã Quài Nưa, Huyện Tuần Giáo, tỉnh Điện Biên</t>
-  </si>
-  <si>
-    <t>Phạm Thị Ninh (Quang)</t>
-  </si>
-  <si>
-    <t>Bản Rạng Đông, Xã Rạng Đông, Tuần Giáo, Điện Biên</t>
-  </si>
-  <si>
-    <t>Tòng Văn Hoàng  (Bun Hoàng)</t>
-  </si>
-  <si>
-    <t>Bản Quỳnh Pầu, Xã Mường Bằng, Huyện Mai Sơn, Sơn La</t>
-  </si>
-  <si>
-    <t>Đào Văn Khánh</t>
-  </si>
-  <si>
-    <t>Bản Mai Tiên, Xã Mường Bon, Mai Sơn, Sơn La</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Chung</t>
-  </si>
-  <si>
-    <t>Bản Tiến Xa, Xã Mường Bon, Huyện Mai Sơn, Sơn La</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Huyên (ĐL Thái Huyên )</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Hương  (Muôn)</t>
-  </si>
-  <si>
-    <t>TK2, TT.Ít Ong, Mường La, Sơn La</t>
-  </si>
-  <si>
-    <t>Lò Thị Liên  (Khiên )</t>
-  </si>
-  <si>
-    <t>Bản Ten, TT. Ít Ong, Mường La, Sơn La</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lò Văn Nhờ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bản Pặt, Xã Mường Chùm, Huyện Mường La, tỉnh Sơn La </t>
-  </si>
-  <si>
-    <t>Đặng Quang Vinh</t>
-  </si>
-  <si>
-    <t>Bản Mường Kham, Xã Mường Chùm, Mường La, Sơn La</t>
-  </si>
-  <si>
-    <t>Lèo văn Đạt</t>
-  </si>
-  <si>
-    <t>Bản Chiềng Đen, Xã Chiềng Chăn, Mai Sơn,Sơn la</t>
-  </si>
-  <si>
-    <t>Phạm Huy Phường (Lý)</t>
-  </si>
-  <si>
-    <t>Tiểu khu 8, Xã Nà Bó, Huyện Mai Sơn, Sơn La</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Tâm (Dũng)</t>
-  </si>
-  <si>
-    <t>Ngô Thị Xuyến (Hải)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vương Đình Cường </t>
-  </si>
-  <si>
-    <t>TK Tiền Phong 1, Xã Hát Lót, Mai Sơn, Sơn La</t>
-  </si>
-  <si>
-    <t>Hoàng Văn Khạy</t>
-  </si>
-  <si>
-    <t>Bản Củ , Xã Chiềng Ban, Mai Sơn, Sơn La</t>
-  </si>
-  <si>
-    <t>Cầm Thị Oanh (Hưởng)</t>
-  </si>
-  <si>
-    <t>Bản Nà Cà , Xã Mường Chanh, Mai Sơn, Sơn La</t>
-  </si>
-  <si>
-    <t>Hoàng Thị Thiết (ĐL Nguyên Hồng )</t>
-  </si>
-  <si>
-    <t>Hà Thị Hòa (ĐL Thành Oanh)</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Quyên  (Trung)</t>
-  </si>
-  <si>
-    <t>TK10, Xã Hát Lót , Mai Sơn, Sơn La</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vì Thị Son </t>
-  </si>
-  <si>
-    <t>Bản Sài Lương, Xã Chiềng Chăn, Mai Sơn, Sơn La</t>
-  </si>
-  <si>
-    <t>Ngô Thị Thanh (Thuân)</t>
-  </si>
-  <si>
-    <t>Thôn HVT, Xã Chiềng Mung, Mai Sơn, Sơn La</t>
-  </si>
-  <si>
-    <t>Cầm Văn Thía</t>
-  </si>
-  <si>
-    <t>Bản Nọng Chạm, Xã Mường Chanh, Mai Sơn</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Toản (Oanh)</t>
-  </si>
-  <si>
-    <t>Bản Thạy Lốm 6/1, Xã Chiềng Ban, Huyện Mai Sơn, Sơn La</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Bá Tuấn </t>
-  </si>
-  <si>
-    <t>Bản Nà Cang, Xã Hát Lót, Huyện Mai Sơn, Tỉnh Sơn La</t>
-  </si>
-  <si>
-    <t>Nguyễn Xuân Ninh</t>
-  </si>
-  <si>
-    <t>Bản Ban, Xã Sốp Cộp, Huyện Sốp Cộp, Sơn La</t>
-  </si>
-  <si>
-    <t>Phạm Thị Dung (Tuấn)</t>
-  </si>
-  <si>
-    <t>Tân Lập, Xã Chiềng Khương, Sông Mã, Sơn La</t>
-  </si>
-  <si>
-    <t>Trần Thị Nhuận</t>
-  </si>
-  <si>
-    <t>Bản Quảng Tiến, Xã Chiềng Sơ, Sông Mã, Sơn La</t>
-  </si>
-  <si>
-    <t>Lò Thùy Dung (Huỳnh)</t>
-  </si>
-  <si>
-    <t>Bản Ỏ, Xã Mường Sai, Sông Mã, Sơn La</t>
-  </si>
-  <si>
-    <t>Nguyễn Quang Huy (Phương)</t>
-  </si>
-  <si>
-    <t>Mường Tở, Xã Mường Hung, Sông Mã, Sơn La</t>
-  </si>
-  <si>
-    <t>Cà Văn Lon ( ĐL Tòng Mai)</t>
-  </si>
-  <si>
-    <t>Bản Chiềng Xôm,Xã Chiềng Cang Sông Mã</t>
-  </si>
-  <si>
-    <t>Chu Văn Tâm ( ĐL Tâm Phượng)</t>
-  </si>
-  <si>
-    <t>Bản Nà Ớt, Xã Nà Ớt, Mai Sơn, Sơn La</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lò Văn Thật </t>
-  </si>
-  <si>
-    <t>Bản Mường Nưa, Xã Mường Lầm, Sông Mã, Sơn La</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Tuyến (Chiến)</t>
-  </si>
-  <si>
-    <t>Bản Pàn, Xã Nậm Ty, Sông Mã, Sơn La</t>
-  </si>
-  <si>
-    <t>Doãn Đình Chiến</t>
-  </si>
-  <si>
-    <t>Bản Nam Tiến, Xã Ninh Thuận, Thuận Châu, Sơn La</t>
-  </si>
-  <si>
-    <t>Cà Thị Bua</t>
-  </si>
-  <si>
-    <t>Bản Bỉa, Xã Phỏng Lăng,Thuận Châu, Sơn La</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lường Văn Lánh </t>
-  </si>
-  <si>
-    <t>Bản Mớ, Xã Co Mạ, Thuận Châu, Sơn la</t>
-  </si>
-  <si>
-    <t>Phạm Đức Thắng</t>
-  </si>
-  <si>
-    <t>Bản Tạng Phát, Xã Chiềng Pha, Thuận Châu, Sơn La</t>
-  </si>
-  <si>
-    <t>Lường Duy Nhân (Thu)</t>
-  </si>
-  <si>
-    <t>Ngã 3 Bản Pán, Xã Chiềng Ly, Thuận Châu, Sơn La</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lèo Thị Kim Hoan </t>
-  </si>
-  <si>
-    <t>Bản Ái, Xã Chiềng Xôm, Thành Phố Sơn La, Tỉnh Sơn La</t>
-  </si>
-  <si>
-    <t>Nguyễn Hồng Thái  ( VT Thành Phố)</t>
-  </si>
-  <si>
-    <t>Số Nhà 02, Bản Kham, Xã Hua La, Thành Phố Sơn La, Tỉnh Sơn La</t>
-  </si>
-  <si>
-    <t>Phạm Thị Chương</t>
-  </si>
-  <si>
-    <t>Tk 19, TT.Hát Lót, Huyện Mai Sơn, Sơn La</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Thanh (Viết)</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Tuyết (Cương)</t>
-  </si>
-  <si>
-    <t>Bản Phiêng Nụ, Xã Phiêng Cằm, Huyện Mai Sơn, tỉnh Sơn La</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Thôn</t>
-  </si>
-  <si>
-    <t>Bản Long Phú, Xã Chiềng Hắc, Huyện Mộc Châu, Sơn La</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Hiên(Vương)</t>
-  </si>
-  <si>
-    <t>Bản Ta Niết, Chiềng Hắc, Mộc Châu, Sơn La</t>
-  </si>
-  <si>
-    <t>Văn Đình Tuyến</t>
-  </si>
-  <si>
-    <t>Vì Thị Quyên( Hảo)</t>
-  </si>
-  <si>
-    <t>Bản Hin Phá, Xã Chiềng Hắc, Mộc Châu, Sơn La</t>
-  </si>
-  <si>
-    <t>Đặng Thị Thủy (Trang)</t>
-  </si>
-  <si>
-    <t>Bản Tây Hưng, Xã Chiềng Hắc, Mộc Châu</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Đức (Thường)</t>
-  </si>
-  <si>
-    <t>TK14, TTNT Mộc Châu, Mộc Châu</t>
-  </si>
-  <si>
-    <t>Trần Thị Thúy(Tiến)</t>
-  </si>
-  <si>
-    <t>Tiểu khu 10. Thị Trấn Mộc Châu, Mộc Châu, Sơn La</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Thuyết (Hùng)</t>
-  </si>
-  <si>
-    <t>TK70, TT.Nông Trường, Mộc Châu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Đoàn Quang Điệp 19/5</t>
-  </si>
-  <si>
-    <t>TK 66 TTNT Mộc Châu, Mộc Châu</t>
-  </si>
-  <si>
-    <t>Lại Thanh Bình(Hùng)</t>
-  </si>
-  <si>
-    <t>Tiểu khu 26/7 Thị trấn NT, huyện Mộc Châu, Sơn La</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Tươi (Tạ)</t>
-  </si>
-  <si>
-    <t>Bản Liên Hưng, Xã Tô Múa, Huyện Vân Hồ, Sơn La</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Quyến(Quý)</t>
-  </si>
-  <si>
-    <t>Tiểu khu Trung Tâm,Xã Tô Múa,Huyện Vân Hồ, Mộc Châu, Sơn La</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Trương Văn Đông (Hiền)</t>
-  </si>
-  <si>
-    <t>Tiểu khu Trung Tâm,Xã Tô Múa, Mộc Châu</t>
-  </si>
-  <si>
-    <t>Bùi Văn Hưng</t>
-  </si>
-  <si>
-    <t>TK Thảo Nguyên, TTNT Mộc Châu</t>
-  </si>
-  <si>
-    <t>Hương Vương</t>
-  </si>
-  <si>
-    <t>TK 64 Mộc Châu</t>
-  </si>
-  <si>
-    <t>Vũ Anh Đào</t>
-  </si>
-  <si>
-    <t>TK 13 TT Mộc Châu, Mộc Châu</t>
-  </si>
-  <si>
-    <t>Hoàng Thị Mai (Lang)</t>
-  </si>
-  <si>
-    <t>TK cờ đỏ, TTNT Mộc Châu</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Đốc(Duyên)</t>
-  </si>
-  <si>
-    <t>TK PaKhen, TT Nông Trường, Mộc Châu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đỗ Đình Tĩnh (Ngọc) </t>
-  </si>
-  <si>
-    <t>TK12, Xã Tân Lập, Mộc Châu</t>
-  </si>
-  <si>
-    <t>Tạ Hoàng Hòa(Loan)</t>
-  </si>
-  <si>
-    <t>Bản Dọi, Xã Tân Lập, Huyện Mộc Châu, Sơn La</t>
-  </si>
-  <si>
-    <t>Bùi Công Tuấn( Thảo) - HTX rau hoa quả và DV NN Mộc Châu</t>
-  </si>
-  <si>
-    <t>TK9, Xã Tân Lập, Huyện Mộc Châu, Sơn La</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Đinh Tiến Hùng(Hà)</t>
-  </si>
-  <si>
-    <t>Bản Nà Bó 2, Mường Sang. Mộc Châu, Sơn La</t>
-  </si>
-  <si>
-    <t>Vì Thị Khánh Trinh</t>
-  </si>
-  <si>
-    <t>TK19-5, Chiềng Sơn, Mộc Châu, Sơn La</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Đỗ Trung Kiên( Trang)</t>
-  </si>
-  <si>
-    <t>Số nhà 19, Tiểu khu 3, Xã Chiềng Sơn, Mộc Châu, Sơn La</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ĐL Vân Xiền </t>
-  </si>
-  <si>
-    <t>Xã Chiềng Sơn, Mộc Châu, Sơn La</t>
-  </si>
-  <si>
-    <t>Thu Hương</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ĐL Sim Học </t>
-  </si>
-  <si>
-    <t>Khoa Thị Hà</t>
-  </si>
-  <si>
-    <t>Bản Sậy, Mường Sang, Mộc Châu</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Thủy(Tuấn)</t>
-  </si>
-  <si>
-    <t>Bản Tự Nhiên, Xã Đông Sang, Mộc Châu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Đỗ Thị Thu Hà(Thanh Tuấn)</t>
-  </si>
-  <si>
-    <t>Bản Tự Nhiên, Xã Đông Sang, Mộc Châu, Sơn La</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Nhàn(Khánh)</t>
-  </si>
-  <si>
-    <t>TK34, Xã Đông Sang, Mộc Châu</t>
-  </si>
-  <si>
-    <t>Lò Văn Văn(Thành Văn)</t>
-  </si>
-  <si>
-    <t>Số nhà 56, TK34, Xã Đông Sang, huyện Mộc Châu, Sơn La</t>
-  </si>
-  <si>
-    <t>Nguyễn Trung Hải(Hạnh)</t>
-  </si>
-  <si>
-    <t>Bản Áng, Xã Đông Sang, Mộc Châu, Sơn La</t>
-  </si>
-  <si>
-    <t>Đỗ Văn Hùng(Nhàn)</t>
-  </si>
-  <si>
-    <t>Bản Bó Nhàng 1, Xã Vân Hồ , Huyện Vân Hồ, Tỉnh Sơn La</t>
-  </si>
-  <si>
-    <t>Đinh Văn Dung( Kim Ngân)</t>
-  </si>
-  <si>
-    <t>Nguyễn Nguyễn Linh(Kim Ngân)</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Hà(Tiến)</t>
-  </si>
-  <si>
-    <t>Bản Hang Trùng 1, Xã Vân Hồ, Huyện Vân Hồ, Sơn La</t>
-  </si>
-  <si>
-    <t>Vân Hồ, Mộc Châu, Sơn La</t>
-  </si>
-  <si>
-    <t>Hà Văn Huy</t>
-  </si>
-  <si>
-    <t>Bản Chiềng Đi, Xã Vân Hồ, Huyện Vân Hồ, Sơn La</t>
-  </si>
-  <si>
-    <t>Nguyễn Đăng Hợp</t>
-  </si>
-  <si>
-    <t>Bản Chiềng Đi I, Xã Vân Hồ, Huyện Vân Hồ, Sơn La</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Đặng Thị Tú</t>
-  </si>
-  <si>
-    <t>Bản Lóng Luông, Xã Lóng Luông, Huyện Vân Hồ, Sơn La</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Hảo(Tám)</t>
-  </si>
-  <si>
-    <t>Bảng Páng, Xã Chiềng Khoa, Huyện Vân Hồ, Mộc Châu</t>
-  </si>
-  <si>
-    <t>Nguyễn Huy Quý(Huyền)</t>
-  </si>
-  <si>
-    <t>Bản Co Chàm, Lóng Luông, Vân Hồ, Sơn La</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Chiến</t>
-  </si>
-  <si>
-    <t>Chiềng Sàng, Huyện Yên Châu, Sơn La</t>
-  </si>
-  <si>
-    <t>Trần Đình Thế</t>
-  </si>
-  <si>
-    <t>Bản Thồng Phiêng, Xã Chiềng Pằn, Yên Châu, Sơn La</t>
-  </si>
-  <si>
-    <t>Vũ Thị Nhung (Lãng)</t>
-  </si>
-  <si>
-    <t>Tiểu khu 1,Thị Trấn Yên Châu, Yên Châu, Sơn La</t>
-  </si>
-  <si>
-    <t>Lê Văn Thành (Tân)</t>
-  </si>
-  <si>
-    <t>Bản Sai, Xã Sặp Vạt, Yên Châu</t>
-  </si>
-  <si>
-    <t>Nguyễn Hữu Cường (Thơ)</t>
-  </si>
-  <si>
-    <t>Xóm Đoàn Kết, Xã Chiềng Hặc, Yên Châu, Sơn La</t>
-  </si>
-  <si>
-    <t>Trần Văn Sơn (Hương)</t>
-  </si>
-  <si>
-    <t>Chiềng Hưng, Xã Yên Sơn, Yên Châu</t>
-  </si>
-  <si>
-    <t>Tràn Thị Lành(Kha)</t>
-  </si>
-  <si>
-    <t>Bản Kim Sơn 1, Yên Sơn, Yên Châu, Sơn La</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Mạnh (Lương)</t>
-  </si>
-  <si>
-    <t>Xã Chiềng On, Yên Châu</t>
-  </si>
-  <si>
-    <t>Bùi Thị Thuần (Nghiệp)</t>
-  </si>
-  <si>
-    <t>Bản Nà Đít, Xã Chiềng On, Yên Châu</t>
-  </si>
-  <si>
-    <t>Phạm Hữu Kiên (ĐL Can Thanh)</t>
-  </si>
-  <si>
-    <t>Vũ Bá Trường(N. T.Giang)</t>
-  </si>
-  <si>
-    <t>Thôn Thanh Yên 1 , Xã Phiêng Khoài, Huyện Yên Châu, Sơn La</t>
-  </si>
-  <si>
-    <t>Lê Thị Mơ</t>
-  </si>
-  <si>
-    <t>Thanh Yên1, Xã Phiêng Khoài, Yên Châu</t>
-  </si>
-  <si>
-    <t>Nguyễn Đình Phong - Yên</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Hằng(Quảng)</t>
-  </si>
-  <si>
-    <t>Kim Chung 1, Phiêng Khoài, Yên Châu, Sơn La</t>
-  </si>
-  <si>
-    <t>Đỗ Thị Phái (Đạt)</t>
-  </si>
-  <si>
-    <t>Vũ Văn Duy (Trang)</t>
-  </si>
-  <si>
-    <t>Bản Hang Mon, Xã Phiêng Khoài, Yên Châu</t>
-  </si>
-  <si>
-    <t>Nguyễn Quang Tạo (Gắng)</t>
-  </si>
-  <si>
-    <t>Bản Mỏ Than, Xã Lóng Phiêng, Yên Châu</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Thái (Dân)</t>
-  </si>
-  <si>
-    <t>Xã Lóng Phiêng, Yên Châu</t>
-  </si>
-  <si>
-    <t>Đặng Ngọc Thỏa (Khuyên)</t>
-  </si>
-  <si>
-    <t>Đỗ Xuân Thuận(Tươi)</t>
-  </si>
-  <si>
-    <t>Bản Yên Thi, Lóng Phiêng , Yên Châu, Sơn La</t>
-  </si>
-  <si>
-    <t>Phạm Văn Tĩnh(Nam)</t>
-  </si>
-  <si>
-    <t>Phạm Quang Bình(Thắm)</t>
-  </si>
-  <si>
-    <t>Hà Đức Thương ( Sướng)</t>
-  </si>
-  <si>
-    <t>Yên Thi,Xã Lóng Phiêng, Yên Châu</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Thủy(Bằng)</t>
-  </si>
-  <si>
-    <t>Bản Pa Kha 1, Xã Chiềng Tương, Huyện Yên Châu, Tỉnh Sơn La</t>
+    <t>Phong Hài</t>
+  </si>
+  <si>
+    <t>An Hòa, Chiêm Hóa</t>
+  </si>
+  <si>
+    <t>Hữu Lý</t>
+  </si>
+  <si>
+    <t>An Khang, TP.Tuyên Quang</t>
+  </si>
+  <si>
+    <t>Quỳnh Khánh</t>
+  </si>
+  <si>
+    <t>An Tường, TP Tuyên Quang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Dũng </t>
+  </si>
+  <si>
+    <t>Bạch Xa, Hàm Yên</t>
+  </si>
+  <si>
+    <t>A Sự</t>
+  </si>
+  <si>
+    <t>Bằng Cốc, Hàm Yên</t>
+  </si>
+  <si>
+    <t>Thăng Dân</t>
+  </si>
+  <si>
+    <t>Bình An, Chiêm Hóa</t>
+  </si>
+  <si>
+    <t>Chị Hồng</t>
+  </si>
+  <si>
+    <t>Bợ, Hàm Yên</t>
+  </si>
+  <si>
+    <t>Hiền Hồi</t>
+  </si>
+  <si>
+    <t>Thái Miên</t>
+  </si>
+  <si>
+    <t>Lộc Thập</t>
+  </si>
+  <si>
+    <t>Cấp Tiến, Sơn Dương</t>
+  </si>
+  <si>
+    <t>Mai Huyên</t>
+  </si>
+  <si>
+    <t>Trường Tình</t>
+  </si>
+  <si>
+    <t>Chị Oanh</t>
+  </si>
+  <si>
+    <t>Cầu Bì, Sơn Dương</t>
+  </si>
+  <si>
+    <t>Khánh Tường</t>
+  </si>
+  <si>
+    <t>Chiêm Hóa</t>
+  </si>
+  <si>
+    <t>Phương Huệ</t>
+  </si>
+  <si>
+    <t>Tạo Nga</t>
+  </si>
+  <si>
+    <t>Chiêm Hóa, Tuyên Quang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Hội </t>
+  </si>
+  <si>
+    <t>Chiêu Yên, Yên Sơn</t>
+  </si>
+  <si>
+    <t>Ông Nghị</t>
+  </si>
+  <si>
+    <t>Hải Thu</t>
+  </si>
+  <si>
+    <t>Chợ Bợ, Hàm Yên</t>
+  </si>
+  <si>
+    <t>Chương Anh</t>
+  </si>
+  <si>
+    <t>Chợ Xoan, Sơn Dương</t>
+  </si>
+  <si>
+    <t>Thảo Úy</t>
+  </si>
+  <si>
+    <t>Đạo Viện, Yên Sơn</t>
+  </si>
+  <si>
+    <t>Chú Bắc</t>
+  </si>
+  <si>
+    <t>Đội Cấn, Yên Sơn</t>
+  </si>
+  <si>
+    <t>Chú Duẩn</t>
+  </si>
+  <si>
+    <t>Được Hạnh</t>
+  </si>
+  <si>
+    <t>Chị Khương</t>
+  </si>
+  <si>
+    <t>Đồng Bàng, Hàm Yên</t>
+  </si>
+  <si>
+    <t>Anh thượng</t>
+  </si>
+  <si>
+    <t>Đồng Mộc, Sơn Dương</t>
+  </si>
+  <si>
+    <t>Đông Quyền</t>
+  </si>
+  <si>
+    <t>Hòa Phú, Chiêm Hóa</t>
+  </si>
+  <si>
+    <t>Cô Mơ</t>
+  </si>
+  <si>
+    <t>Hoàng Khai, Yên Sơn</t>
+  </si>
+  <si>
+    <t>Hùng Sao</t>
+  </si>
+  <si>
+    <t>Hanh Vân</t>
+  </si>
+  <si>
+    <t>Hồng Đức, Hàm Yên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giáp Đồng </t>
+  </si>
+  <si>
+    <t>Hùng Lợi, Sơn Dương</t>
+  </si>
+  <si>
+    <t>Sách Ước</t>
+  </si>
+  <si>
+    <t>Cường Hạnh</t>
+  </si>
+  <si>
+    <t>Hùng Mỹ, Chiêm Hóa</t>
+  </si>
+  <si>
+    <t>Chung Nhàn</t>
+  </si>
+  <si>
+    <t>Chất Ngân</t>
+  </si>
+  <si>
+    <t>Kiến Thiết, Yên Sơn</t>
+  </si>
+  <si>
+    <t>Chú Thái</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chung Hạnh </t>
+  </si>
+  <si>
+    <t>Thư Thảo</t>
+  </si>
+  <si>
+    <t>Cảnh Huyến</t>
+  </si>
+  <si>
+    <t>Kim Bình, Chiêm Hóa</t>
+  </si>
+  <si>
+    <t>Sen Lương</t>
+  </si>
+  <si>
+    <t>Kim Phú, Yên Sơn</t>
+  </si>
+  <si>
+    <t>Thục Thái</t>
+  </si>
+  <si>
+    <t>Kim Quan, Yên Sơn</t>
+  </si>
+  <si>
+    <t>Dũng Phương</t>
+  </si>
+  <si>
+    <t>Km 11, Yên Sơn</t>
+  </si>
+  <si>
+    <t>Cô Minh</t>
+  </si>
+  <si>
+    <t>Km 15</t>
+  </si>
+  <si>
+    <t>Dương Thơm</t>
+  </si>
+  <si>
+    <t>Km 16, Yên Sơn</t>
+  </si>
+  <si>
+    <t>Tuấn Thủy</t>
+  </si>
+  <si>
+    <t>km 18, Yên Sơn</t>
+  </si>
+  <si>
+    <t>Chị Luyến</t>
+  </si>
+  <si>
+    <t>Km 21, Hàm Yên</t>
+  </si>
+  <si>
+    <t>Đạt Huế</t>
+  </si>
+  <si>
+    <t>Cô Huệ</t>
+  </si>
+  <si>
+    <t>Km 23, Hàm Yên</t>
+  </si>
+  <si>
+    <t>Cô Long Thơ</t>
+  </si>
+  <si>
+    <t>Dũng Hợp</t>
+  </si>
+  <si>
+    <t>Km 27, Hàm Yên</t>
+  </si>
+  <si>
+    <t>Minh Đức</t>
+  </si>
+  <si>
+    <t>Cường Thủy</t>
+  </si>
+  <si>
+    <t>Km 31, Hàm Yên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long Thuần </t>
+  </si>
+  <si>
+    <t>Tú Liễu</t>
+  </si>
+  <si>
+    <t>Km 32, Hàm Yên</t>
+  </si>
+  <si>
+    <t>Chị Độ</t>
+  </si>
+  <si>
+    <t>Km 35, Hàm Yên</t>
+  </si>
+  <si>
+    <t>A Thú</t>
+  </si>
+  <si>
+    <t>Km 39, Hàm Yên</t>
+  </si>
+  <si>
+    <t>Thảo Hoàng</t>
+  </si>
+  <si>
+    <t>Km 40, Hàm Yên</t>
+  </si>
+  <si>
+    <t>Thiện Trang</t>
+  </si>
+  <si>
+    <t>Dương Luyến</t>
+  </si>
+  <si>
+    <t>Km 41, Hàm Yên</t>
+  </si>
+  <si>
+    <t>Yên Năm</t>
+  </si>
+  <si>
+    <t>Km 47, Hàm Yên</t>
+  </si>
+  <si>
+    <t>Trường Anh</t>
+  </si>
+  <si>
+    <t>Km 5, Yên Sơn</t>
+  </si>
+  <si>
+    <t>Phương Nga</t>
+  </si>
+  <si>
+    <t>Km 54, Hàm Yên</t>
+  </si>
+  <si>
+    <t>Thủy Trinh</t>
+  </si>
+  <si>
+    <t>Huệ Anh</t>
+  </si>
+  <si>
+    <t>Km 58, Hàm Yên</t>
+  </si>
+  <si>
+    <t>Hoài Dũng</t>
+  </si>
+  <si>
+    <t>Km 6, Yên Sơn</t>
+  </si>
+  <si>
+    <t>Sơn Vân</t>
+  </si>
+  <si>
+    <t>Km 64, Hàm Yên</t>
+  </si>
+  <si>
+    <t>Túy Nữ</t>
+  </si>
+  <si>
+    <t>Km 65, Hàm Yên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lợi </t>
+  </si>
+  <si>
+    <t>km11, Yên Sơn, Tuyên Quang</t>
+  </si>
+  <si>
+    <t>Toản Linh</t>
+  </si>
+  <si>
+    <t>Là Quan, Hàm Yên</t>
+  </si>
+  <si>
+    <t>Hưng Toàn</t>
+  </si>
+  <si>
+    <t>Lực Hành, Yên Sơn</t>
+  </si>
+  <si>
+    <t>Lan Lệ</t>
+  </si>
+  <si>
+    <t>Minh Dân, Hàm Yên</t>
+  </si>
+  <si>
+    <t>Bà Tre</t>
+  </si>
+  <si>
+    <t>Minh Hương, Hàm Yên</t>
+  </si>
+  <si>
+    <t>Tâm Thu</t>
+  </si>
+  <si>
+    <t>Minh Khương, Hàm Yên</t>
+  </si>
+  <si>
+    <t>Tưởng Linh</t>
+  </si>
+  <si>
+    <t>Chị Mười</t>
+  </si>
+  <si>
+    <t>Minh Lợi, Sơn Dương</t>
+  </si>
+  <si>
+    <t>HTX Minh Quang</t>
+  </si>
+  <si>
+    <t>Minh Quang, Chiêm Hóa</t>
+  </si>
+  <si>
+    <t>Hùng Huệ</t>
+  </si>
+  <si>
+    <t>Mỏ Miều, Hàm Yên</t>
+  </si>
+  <si>
+    <t>Long Huệ</t>
+  </si>
+  <si>
+    <t>Mường, Phù Lưu, Hàm Yên</t>
+  </si>
+  <si>
+    <t>Bà Loan</t>
+  </si>
+  <si>
+    <t>Mỹ Bằng, Yên Sơn</t>
+  </si>
+  <si>
+    <t>Cường Tình</t>
+  </si>
+  <si>
+    <t>Hương Đức</t>
+  </si>
+  <si>
+    <t>Bà Điến</t>
+  </si>
+  <si>
+    <t>Mỹ Lâm, Yên Sơn</t>
+  </si>
+  <si>
+    <t>Toản Hương</t>
+  </si>
+  <si>
+    <t>Ngọc Bội, Chiêm Hóa</t>
+  </si>
+  <si>
+    <t>Mai Oanh</t>
+  </si>
+  <si>
+    <t>Nhân Mục, Hàm Yên</t>
+  </si>
+  <si>
+    <t>Thắng Sáng</t>
+  </si>
+  <si>
+    <t>Nhữ Hán, Yên Sơn</t>
+  </si>
+  <si>
+    <t>Trọng</t>
+  </si>
+  <si>
+    <t>Nguyên Oanh</t>
+  </si>
+  <si>
+    <t>Phú Bình, Chiêm Hóa</t>
+  </si>
+  <si>
+    <t>Anh Hòa</t>
+  </si>
+  <si>
+    <t>Phù Lưu, Hàm Yên</t>
+  </si>
+  <si>
+    <t>Mùi Diện</t>
+  </si>
+  <si>
+    <t>Tuấn Hòa</t>
+  </si>
+  <si>
+    <t>Thành Chi</t>
+  </si>
+  <si>
+    <t>Thọ Huyền</t>
+  </si>
+  <si>
+    <t>Bích Hải</t>
+  </si>
+  <si>
+    <t>Phúc Ninh, Yên Sơn</t>
+  </si>
+  <si>
+    <t>Cty Ba Thần</t>
+  </si>
+  <si>
+    <t>Hào Thu</t>
+  </si>
+  <si>
+    <t>Hậu Hằng</t>
+  </si>
+  <si>
+    <t>Nga Thành</t>
+  </si>
+  <si>
+    <t>Thắng Tâm</t>
+  </si>
+  <si>
+    <t>Đạo Thoa</t>
+  </si>
+  <si>
+    <t>Phúc Sơn, Chiêm Hóa</t>
+  </si>
+  <si>
+    <t>Chị Tâm</t>
+  </si>
+  <si>
+    <t>Tân Long, Yên Sơn</t>
+  </si>
+  <si>
+    <t>Chú Thắng</t>
+  </si>
+  <si>
+    <t>Thêm</t>
+  </si>
+  <si>
+    <t>Điệp Chuyền</t>
+  </si>
+  <si>
+    <t>Tân Mỹ, Chiêm Hóa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chị Xuyến </t>
+  </si>
+  <si>
+    <t>Tân Tiến, Yên Sơn</t>
+  </si>
+  <si>
+    <t>Đông Binh</t>
+  </si>
+  <si>
+    <t>Tân Thành, Hàm Yên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ông Long </t>
+  </si>
+  <si>
+    <t>Ông Sồi</t>
+  </si>
+  <si>
+    <t>Quang Kỷ</t>
+  </si>
+  <si>
+    <t>Tuyên Miền</t>
+  </si>
+  <si>
+    <t>Chung Vy</t>
+  </si>
+  <si>
+    <t>Tân Trào, Sơn Dương</t>
+  </si>
+  <si>
+    <t>Chị Hương</t>
+  </si>
+  <si>
+    <t>Tiền Phong, Mỹ Bằng, Yên Sơn</t>
+  </si>
+  <si>
+    <t>Chị Thu</t>
+  </si>
+  <si>
+    <t>TT Sơn Dương, Sơn Dương</t>
+  </si>
+  <si>
+    <t>Tuấn Thu</t>
+  </si>
+  <si>
+    <t>Hồng Đức</t>
+  </si>
+  <si>
+    <t>TT Tân Yên, Hàm Yên</t>
+  </si>
+  <si>
+    <t>Cô Thủy</t>
+  </si>
+  <si>
+    <t>Thái Bình, Yên Sơn</t>
+  </si>
+  <si>
+    <t>Dương Diễm</t>
+  </si>
+  <si>
+    <t>Thái Hòa, Hàm Yên</t>
+  </si>
+  <si>
+    <t>Bà Phong</t>
+  </si>
+  <si>
+    <t>Thành Long, Hàm Yên</t>
+  </si>
+  <si>
+    <t>Chú Vân</t>
+  </si>
+  <si>
+    <t>Chị Huệ</t>
+  </si>
+  <si>
+    <t>Thụt, Hàm Yên</t>
+  </si>
+  <si>
+    <t>Chị Sinh</t>
+  </si>
+  <si>
+    <t>Chị Hiền</t>
+  </si>
+  <si>
+    <t>Thượng Ấm, Sơn Dương</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chị Mến </t>
+  </si>
+  <si>
+    <t>Trung Hà, Chiêm Hóa</t>
+  </si>
+  <si>
+    <t>A Khởi</t>
+  </si>
+  <si>
+    <t>Trung Trực, Yên Sơn</t>
+  </si>
+  <si>
+    <t>Cô Hoàng Độ</t>
+  </si>
+  <si>
+    <t>Tưởng Hà</t>
+  </si>
+  <si>
+    <t>Cường Hải</t>
+  </si>
+  <si>
+    <t>Trung Yên, Sơn Dương</t>
+  </si>
+  <si>
+    <t>Hành Chu</t>
+  </si>
+  <si>
+    <t>Nguyệt Nghĩa</t>
+  </si>
+  <si>
+    <t>Sinh Phủ</t>
+  </si>
+  <si>
+    <t>Tuân Yến</t>
+  </si>
+  <si>
+    <t>Tuyên Anh</t>
+  </si>
+  <si>
+    <t>A Dụng</t>
+  </si>
+  <si>
+    <t>Việt Thành, Hàm Yên</t>
+  </si>
+  <si>
+    <t>Thắng Thu</t>
+  </si>
+  <si>
+    <t>Nghệ Thuật</t>
+  </si>
+  <si>
+    <t>Vĩnh Lợi, Sơn Dương</t>
+  </si>
+  <si>
+    <t>Anh Chiến Đào</t>
+  </si>
+  <si>
+    <t>Xuân Vân, Yên Sơn</t>
+  </si>
+  <si>
+    <t>Huy</t>
+  </si>
+  <si>
+    <t>Văn Hằng</t>
+  </si>
+  <si>
+    <t>Anh Đức</t>
+  </si>
+  <si>
+    <t>Yên Nguyên, Chiêm Hóa</t>
+  </si>
+  <si>
+    <t>Nguyên Lưu</t>
+  </si>
+  <si>
+    <t>Minh Vụ</t>
+  </si>
+  <si>
+    <t>Yên Thuận, Hàm Yên</t>
+  </si>
+  <si>
+    <t>Ông Hàm</t>
+  </si>
+  <si>
+    <t>Sơn Thủy</t>
+  </si>
+  <si>
+    <t>Hùng Luyến</t>
+  </si>
+  <si>
+    <t>Yên Thuận, Yên Sơn</t>
+  </si>
+  <si>
+    <t>**********</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3562,25 +3555,13 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3599,14 +3580,8 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3655,53 +3630,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3733,219 +3669,19 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Comma" xfId="3" builtinId="3"/>
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{28A3CCD4-A576-474D-9D6F-E4049A306DE0}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{C95D97FB-8614-49F7-B2C4-1345142A91C8}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{C95D97FB-8614-49F7-B2C4-1345142A91C8}"/>
     <cellStyle name="Normal 9" xfId="2" xr:uid="{1251A43D-1E9B-4A95-AEDE-797AE5BFE1B5}"/>
-    <cellStyle name="Normal_Sheet1" xfId="4" xr:uid="{E1FE8D16-E75B-4A11-AA07-5670CC87C598}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -15224,103 +14960,154 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC7A3A68-22FC-47F4-98A0-C61BC0CFDEC4}">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="19"/>
     <col min="2" max="2" width="42.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="44" style="10" customWidth="1"/>
-    <col min="4" max="4" width="68" style="10" customWidth="1"/>
+    <col min="3" max="4" width="44" style="10" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="19"/>
-    <col min="6" max="16384" width="15.7109375" style="18"/>
+    <col min="6" max="6" width="36.5703125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="44" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="15.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="str">
         <f>TEXT(E1, "00000000")</f>
         <v>00000001</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>920</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26" t="s">
-        <v>921</v>
+      <c r="B1" s="23" t="s">
+        <v>919</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D1" s="18" t="str">
+        <f>SUBSTITUTE(G1, ",", " -")</f>
+        <v>An Hòa - Chiêm Hóa</v>
       </c>
       <c r="E1" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="18" t="str">
+        <f>SUBSTITUTE(G1, ",", " -")</f>
+        <v>An Hòa - Chiêm Hóa</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="str">
         <f t="shared" ref="A2:A60" si="0">TEXT(E2, "00000000")</f>
         <v>00000002</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>922</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26" t="s">
-        <v>923</v>
+      <c r="B2" s="25" t="s">
+        <v>921</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D2" s="18" t="str">
+        <f t="shared" ref="D2:D65" si="1">SUBSTITUTE(G2, ",", " -")</f>
+        <v>An Khang - TP.Tuyên Quang</v>
       </c>
       <c r="E2" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="18" t="str">
+        <f t="shared" ref="D2:F65" si="2">SUBSTITUTE(G2, ",", " -")</f>
+        <v>An Khang - TP.Tuyên Quang</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000003</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>924</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="27" t="s">
-        <v>925</v>
+      <c r="B3" s="23" t="s">
+        <v>923</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D3" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>An Tường - TP Tuyên Quang</v>
       </c>
       <c r="E3" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>An Tường - TP Tuyên Quang</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000004</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>926</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="27" t="s">
-        <v>927</v>
+      <c r="B4" s="23" t="s">
+        <v>925</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D4" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Bạch Xa - Hàm Yên</v>
       </c>
       <c r="E4" s="19">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Bạch Xa - Hàm Yên</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000005</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>928</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="27" t="s">
+      <c r="B5" s="23" t="s">
         <v>927</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D5" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Bằng Cốc - Hàm Yên</v>
       </c>
       <c r="E5" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Bằng Cốc - Hàm Yên</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000006</v>
@@ -15328,1958 +15115,3618 @@
       <c r="B6" s="23" t="s">
         <v>929</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30" t="s">
-        <v>930</v>
+      <c r="C6" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D6" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Bình An - Chiêm Hóa</v>
       </c>
       <c r="E6" s="19">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Bình An - Chiêm Hóa</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000007</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>931</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="27" t="s">
-        <v>932</v>
+      <c r="C7" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D7" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Bợ - Hàm Yên</v>
       </c>
       <c r="E7" s="19">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Bợ - Hàm Yên</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000008</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>933</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="27" t="s">
-        <v>934</v>
+      <c r="C8" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D8" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Bợ - Hàm Yên</v>
       </c>
       <c r="E8" s="19">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Bợ - Hàm Yên</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000009</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>935</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="27" t="s">
+      <c r="B9" s="23" t="s">
         <v>934</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D9" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Bợ - Hàm Yên</v>
       </c>
       <c r="E9" s="19">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Bợ - Hàm Yên</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000010</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>936</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="27" t="s">
-        <v>937</v>
+      <c r="B10" s="23" t="s">
+        <v>935</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D10" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Cấp Tiến - Sơn Dương</v>
       </c>
       <c r="E10" s="19">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Cấp Tiến - Sơn Dương</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000011</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>938</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33" t="s">
-        <v>939</v>
+      <c r="B11" s="23" t="s">
+        <v>937</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D11" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Cấp Tiến - Sơn Dương</v>
       </c>
       <c r="E11" s="19">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Cấp Tiến - Sơn Dương</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000012</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>940</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="27" t="s">
-        <v>941</v>
+      <c r="B12" s="23" t="s">
+        <v>938</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D12" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Cấp Tiến - Sơn Dương</v>
       </c>
       <c r="E12" s="19">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Cấp Tiến - Sơn Dương</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000013</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>942</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="27" t="s">
-        <v>943</v>
+      <c r="B13" s="25" t="s">
+        <v>939</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D13" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Cầu Bì - Sơn Dương</v>
       </c>
       <c r="E13" s="19">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Cầu Bì - Sơn Dương</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000014</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>944</v>
-      </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="35" t="s">
+      <c r="B14" s="23" t="s">
         <v>941</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D14" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Chiêm Hóa</v>
       </c>
       <c r="E14" s="19">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Chiêm Hóa</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000015</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>945</v>
-      </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="35" t="s">
-        <v>941</v>
+      <c r="B15" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D15" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Chiêm Hóa</v>
       </c>
       <c r="E15" s="19">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Chiêm Hóa</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000016</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>946</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26" t="s">
-        <v>947</v>
+      <c r="B16" s="25" t="s">
+        <v>944</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D16" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Chiêm Hóa - Tuyên Quang</v>
       </c>
       <c r="E16" s="19">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Chiêm Hóa - Tuyên Quang</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000017</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>948</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="24" t="s">
-        <v>949</v>
+      <c r="B17" s="23" t="s">
+        <v>946</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D17" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Chiêu Yên - Yên Sơn</v>
       </c>
       <c r="E17" s="19">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Chiêu Yên - Yên Sơn</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000018</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>950</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26" t="s">
-        <v>951</v>
+      <c r="B18" s="23" t="s">
+        <v>948</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D18" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Chiêu Yên - Yên Sơn</v>
       </c>
       <c r="E18" s="19">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Chiêu Yên - Yên Sơn</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000019</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>952</v>
-      </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29" t="s">
-        <v>953</v>
+      <c r="B19" s="23" t="s">
+        <v>949</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D19" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Chợ Bợ - Hàm Yên</v>
       </c>
       <c r="E19" s="19">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Chợ Bợ - Hàm Yên</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000020</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>954</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30" t="s">
-        <v>955</v>
+      <c r="B20" s="25" t="s">
+        <v>951</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D20" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Chợ Xoan - Sơn Dương</v>
       </c>
       <c r="E20" s="19">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Chợ Xoan - Sơn Dương</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000021</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>956</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30" t="s">
-        <v>957</v>
+      <c r="B21" s="23" t="s">
+        <v>953</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D21" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Đạo Viện - Yên Sơn</v>
       </c>
       <c r="E21" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Đạo Viện - Yên Sơn</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000022</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>958</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30" t="s">
-        <v>957</v>
+      <c r="B22" s="23" t="s">
+        <v>955</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D22" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Đội Cấn - Yên Sơn</v>
       </c>
       <c r="E22" s="19">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Đội Cấn - Yên Sơn</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000023</v>
       </c>
-      <c r="B23" s="24" t="s">
-        <v>959</v>
-      </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="27" t="s">
-        <v>960</v>
+      <c r="B23" s="23" t="s">
+        <v>957</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D23" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Đội Cấn - Yên Sơn</v>
       </c>
       <c r="E23" s="19">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Đội Cấn - Yên Sơn</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000024</v>
       </c>
-      <c r="B24" s="24" t="s">
-        <v>961</v>
-      </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="27" t="s">
-        <v>962</v>
+      <c r="B24" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D24" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Đội Cấn - Yên Sơn</v>
       </c>
       <c r="E24" s="19">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Đội Cấn - Yên Sơn</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000025</v>
       </c>
-      <c r="B25" s="24" t="s">
-        <v>963</v>
-      </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="27" t="s">
-        <v>964</v>
+      <c r="B25" s="23" t="s">
+        <v>959</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D25" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Đồng Bàng - Hàm Yên</v>
       </c>
       <c r="E25" s="19">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Đồng Bàng - Hàm Yên</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000026</v>
       </c>
-      <c r="B26" s="24" t="s">
-        <v>965</v>
-      </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="35" t="s">
-        <v>966</v>
+      <c r="B26" s="25" t="s">
+        <v>961</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D26" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Đồng Mộc - Sơn Dương</v>
       </c>
       <c r="E26" s="19">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Đồng Mộc - Sơn Dương</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000027</v>
       </c>
-      <c r="B27" s="24" t="s">
-        <v>967</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="39" t="s">
-        <v>968</v>
+      <c r="B27" s="23" t="s">
+        <v>963</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D27" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Hòa Phú - Chiêm Hóa</v>
       </c>
       <c r="E27" s="19">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Hòa Phú - Chiêm Hóa</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000028</v>
       </c>
-      <c r="B28" s="24" t="s">
-        <v>969</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="40" t="s">
-        <v>970</v>
+      <c r="B28" s="25" t="s">
+        <v>965</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D28" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Hoàng Khai - Yên Sơn</v>
       </c>
       <c r="E28" s="19">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Hoàng Khai - Yên Sơn</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000029</v>
       </c>
-      <c r="B29" s="24" t="s">
-        <v>971</v>
-      </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="40" t="s">
-        <v>970</v>
+      <c r="B29" s="25" t="s">
+        <v>967</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D29" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Hoàng Khai - Yên Sơn</v>
       </c>
       <c r="E29" s="19">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Hoàng Khai - Yên Sơn</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000030</v>
       </c>
-      <c r="B30" s="24" t="s">
-        <v>972</v>
-      </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="40" t="s">
-        <v>970</v>
+      <c r="B30" s="23" t="s">
+        <v>968</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D30" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Hồng Đức - Hàm Yên</v>
       </c>
       <c r="E30" s="19">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Hồng Đức - Hàm Yên</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000031</v>
       </c>
-      <c r="B31" s="24" t="s">
-        <v>973</v>
-      </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="39" t="s">
-        <v>974</v>
+      <c r="B31" s="23" t="s">
+        <v>970</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D31" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Hùng Lợi - Sơn Dương</v>
       </c>
       <c r="E31" s="19">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Hùng Lợi - Sơn Dương</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000032</v>
       </c>
-      <c r="B32" s="24" t="s">
-        <v>975</v>
-      </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="39" t="s">
-        <v>976</v>
+      <c r="B32" s="23" t="s">
+        <v>972</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D32" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Hùng Lợi - Sơn Dương</v>
       </c>
       <c r="E32" s="19">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Hùng Lợi - Sơn Dương</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000033</v>
       </c>
-      <c r="B33" s="41" t="s">
-        <v>977</v>
-      </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="39" t="s">
-        <v>978</v>
+      <c r="B33" s="23" t="s">
+        <v>973</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D33" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Hùng Mỹ - Chiêm Hóa</v>
       </c>
       <c r="E33" s="19">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Hùng Mỹ - Chiêm Hóa</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000034</v>
       </c>
-      <c r="B34" s="42" t="s">
-        <v>979</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="28"/>
+      <c r="B34" s="23" t="s">
+        <v>975</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D34" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Hùng Mỹ - Chiêm Hóa</v>
+      </c>
       <c r="E34" s="19">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Hùng Mỹ - Chiêm Hóa</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000035</v>
       </c>
-      <c r="B35" s="42" t="s">
-        <v>980</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="28"/>
+      <c r="B35" s="25" t="s">
+        <v>976</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D35" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Kiến Thiết - Yên Sơn</v>
+      </c>
       <c r="E35" s="19">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Kiến Thiết - Yên Sơn</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000036</v>
       </c>
-      <c r="B36" s="24" t="s">
-        <v>981</v>
-      </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="27" t="s">
-        <v>982</v>
+      <c r="B36" s="25" t="s">
+        <v>978</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D36" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Kiến Thiết - Yên Sơn</v>
       </c>
       <c r="E36" s="19">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Kiến Thiết - Yên Sơn</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000037</v>
       </c>
-      <c r="B37" s="24" t="s">
-        <v>983</v>
-      </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="27" t="s">
-        <v>984</v>
+      <c r="B37" s="23" t="s">
+        <v>979</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D37" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Kiến Thiết - Yên Sơn</v>
       </c>
       <c r="E37" s="19">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Kiến Thiết - Yên Sơn</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000038</v>
       </c>
-      <c r="B38" s="24" t="s">
-        <v>985</v>
-      </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="26" t="s">
-        <v>986</v>
+      <c r="B38" s="25" t="s">
+        <v>980</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D38" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Kiến Thiết - Yên Sơn</v>
       </c>
       <c r="E38" s="19">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Kiến Thiết - Yên Sơn</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000039</v>
       </c>
-      <c r="B39" s="43" t="s">
-        <v>987</v>
-      </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="39" t="s">
-        <v>988</v>
+      <c r="B39" s="23" t="s">
+        <v>981</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D39" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Kim Bình - Chiêm Hóa</v>
       </c>
       <c r="E39" s="19">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Kim Bình - Chiêm Hóa</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000040</v>
       </c>
-      <c r="B40" s="24" t="s">
-        <v>989</v>
-      </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29" t="s">
-        <v>990</v>
+      <c r="B40" s="23" t="s">
+        <v>983</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D40" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Kim Phú - Yên Sơn</v>
       </c>
       <c r="E40" s="19">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Kim Phú - Yên Sơn</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000041</v>
       </c>
-      <c r="B41" s="41" t="s">
-        <v>991</v>
-      </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="44" t="s">
-        <v>992</v>
+      <c r="B41" s="23" t="s">
+        <v>985</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D41" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Kim Quan - Yên Sơn</v>
       </c>
       <c r="E41" s="19">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Kim Quan - Yên Sơn</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000042</v>
       </c>
-      <c r="B42" s="45" t="s">
-        <v>993</v>
-      </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="28" t="s">
-        <v>994</v>
+      <c r="B42" s="23" t="s">
+        <v>987</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D42" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Km 11 - Yên Sơn</v>
       </c>
       <c r="E42" s="19">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Km 11 - Yên Sơn</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000043</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>995</v>
-      </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="48" t="s">
-        <v>996</v>
+      <c r="B43" s="23" t="s">
+        <v>989</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D43" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Km 15</v>
       </c>
       <c r="E43" s="19">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Km 15</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000044</v>
       </c>
-      <c r="B44" s="49" t="s">
-        <v>997</v>
-      </c>
-      <c r="C44" s="50"/>
-      <c r="D44" s="51" t="s">
-        <v>998</v>
+      <c r="B44" s="23" t="s">
+        <v>991</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D44" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Km 16 - Yên Sơn</v>
       </c>
       <c r="E44" s="19">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Km 16 - Yên Sơn</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000045</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>999</v>
-      </c>
-      <c r="C45" s="50"/>
-      <c r="D45" s="48" t="s">
-        <v>1000</v>
+      <c r="B45" s="23" t="s">
+        <v>993</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D45" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>km 18 - Yên Sơn</v>
       </c>
       <c r="E45" s="19">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>km 18 - Yên Sơn</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000046</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C46" s="50"/>
-      <c r="D46" s="48" t="s">
-        <v>1002</v>
+      <c r="B46" s="25" t="s">
+        <v>995</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D46" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Km 21 - Hàm Yên</v>
       </c>
       <c r="E46" s="19">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F46" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Km 21 - Hàm Yên</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000047</v>
       </c>
-      <c r="B47" s="52" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26" t="s">
-        <v>1004</v>
+      <c r="B47" s="25" t="s">
+        <v>997</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D47" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Km 21 - Hàm Yên</v>
       </c>
       <c r="E47" s="19">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F47" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Km 21 - Hàm Yên</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000048</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C48" s="50"/>
-      <c r="D48" s="48" t="s">
-        <v>1006</v>
+      <c r="B48" s="25" t="s">
+        <v>998</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D48" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Km 23 - Hàm Yên</v>
       </c>
       <c r="E48" s="19">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F48" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Km 23 - Hàm Yên</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000049</v>
       </c>
-      <c r="B49" s="49" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="51" t="s">
-        <v>1008</v>
+      <c r="B49" s="23" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D49" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Km 23 - Hàm Yên</v>
       </c>
       <c r="E49" s="19">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F49" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Km 23 - Hàm Yên</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000050</v>
       </c>
-      <c r="B50" s="53" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="26" t="s">
-        <v>1010</v>
+      <c r="B50" s="23" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D50" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Km 27 - Hàm Yên</v>
       </c>
       <c r="E50" s="19">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F50" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Km 27 - Hàm Yên</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000051</v>
       </c>
-      <c r="B51" s="54" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C51" s="54"/>
-      <c r="D51" s="39" t="s">
-        <v>1012</v>
+      <c r="B51" s="23" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D51" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Km 27 - Hàm Yên</v>
       </c>
       <c r="E51" s="19">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F51" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Km 27 - Hàm Yên</v>
+      </c>
+      <c r="G51" s="24" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000052</v>
       </c>
-      <c r="B52" s="24" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="39" t="s">
-        <v>1014</v>
+      <c r="B52" s="23" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D52" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Km 31 - Hàm Yên</v>
       </c>
       <c r="E52" s="19">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F52" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Km 31 - Hàm Yên</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000053</v>
       </c>
-      <c r="B53" s="24" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C53" s="25"/>
-      <c r="D53" s="39" t="s">
-        <v>1016</v>
+      <c r="B53" s="23" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D53" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Km 31 - Hàm Yên</v>
       </c>
       <c r="E53" s="19">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F53" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Km 31 - Hàm Yên</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000054</v>
       </c>
-      <c r="B54" s="24" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="39" t="s">
-        <v>1018</v>
+      <c r="B54" s="23" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D54" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Km 32 - Hàm Yên</v>
       </c>
       <c r="E54" s="19">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F54" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Km 32 - Hàm Yên</v>
+      </c>
+      <c r="G54" s="24" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000055</v>
       </c>
-      <c r="B55" s="24" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C55" s="55"/>
-      <c r="D55" s="27" t="s">
-        <v>1020</v>
+      <c r="B55" s="23" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D55" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Km 35 - Hàm Yên</v>
       </c>
       <c r="E55" s="19">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F55" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Km 35 - Hàm Yên</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000056</v>
       </c>
-      <c r="B56" s="24" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C56" s="57"/>
-      <c r="D56" s="40" t="s">
-        <v>1022</v>
+      <c r="B56" s="23" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D56" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Km 39 - Hàm Yên</v>
       </c>
       <c r="E56" s="19">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F56" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Km 39 - Hàm Yên</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000057</v>
       </c>
-      <c r="B57" s="31" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C57" s="58"/>
-      <c r="D57" s="59" t="s">
-        <v>1024</v>
+      <c r="B57" s="23" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D57" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Km 40 - Hàm Yên</v>
       </c>
       <c r="E57" s="19">
         <v>57</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F57" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Km 40 - Hàm Yên</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000058</v>
       </c>
-      <c r="B58" s="24" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C58" s="60"/>
-      <c r="D58" s="26" t="s">
-        <v>1026</v>
+      <c r="B58" s="25" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D58" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Km 40 - Hàm Yên</v>
       </c>
       <c r="E58" s="19">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F58" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Km 40 - Hàm Yên</v>
+      </c>
+      <c r="G58" s="24" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000059</v>
       </c>
-      <c r="B59" s="24" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C59" s="60"/>
-      <c r="D59" s="26" t="s">
-        <v>1026</v>
+      <c r="B59" s="25" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D59" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Km 41 - Hàm Yên</v>
       </c>
       <c r="E59" s="19">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F59" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Km 41 - Hàm Yên</v>
+      </c>
+      <c r="G59" s="24" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="str">
         <f t="shared" si="0"/>
         <v>00000060</v>
       </c>
-      <c r="B60" s="53" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C60" s="61"/>
-      <c r="D60" s="26" t="s">
-        <v>1029</v>
+      <c r="B60" s="23" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D60" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Km 47 - Hàm Yên</v>
       </c>
       <c r="E60" s="19">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F60" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Km 47 - Hàm Yên</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="str">
-        <f t="shared" ref="A61:A115" si="1">TEXT(E61, "00000000")</f>
+        <f t="shared" ref="A61:A115" si="3">TEXT(E61, "00000000")</f>
         <v>00000061</v>
       </c>
-      <c r="B61" s="62" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C61" s="63"/>
-      <c r="D61" s="64" t="s">
-        <v>1031</v>
+      <c r="B61" s="25" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D61" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Km 5 - Yên Sơn</v>
       </c>
       <c r="E61" s="19">
         <v>61</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F61" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Km 5 - Yên Sơn</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000062</v>
       </c>
-      <c r="B62" s="65" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C62" s="63"/>
-      <c r="D62" s="66" t="s">
-        <v>1033</v>
+      <c r="B62" s="23" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D62" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Km 54 - Hàm Yên</v>
       </c>
       <c r="E62" s="19">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F62" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Km 54 - Hàm Yên</v>
+      </c>
+      <c r="G62" s="24" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000063</v>
       </c>
-      <c r="B63" s="65" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C63" s="63"/>
-      <c r="D63" s="66" t="s">
-        <v>1033</v>
+      <c r="B63" s="25" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D63" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Km 54 - Hàm Yên</v>
       </c>
       <c r="E63" s="19">
         <v>63</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F63" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Km 54 - Hàm Yên</v>
+      </c>
+      <c r="G63" s="24" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000064</v>
       </c>
-      <c r="B64" s="67" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C64" s="68"/>
-      <c r="D64" s="8" t="s">
-        <v>1036</v>
+      <c r="B64" s="23" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D64" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Km 58 - Hàm Yên</v>
       </c>
       <c r="E64" s="19">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F64" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Km 58 - Hàm Yên</v>
+      </c>
+      <c r="G64" s="24" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000065</v>
       </c>
-      <c r="B65" s="65" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C65" s="69"/>
-      <c r="D65" s="66" t="s">
-        <v>1038</v>
+      <c r="B65" s="23" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D65" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Km 6 - Yên Sơn</v>
       </c>
       <c r="E65" s="19">
         <v>65</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F65" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Km 6 - Yên Sơn</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000066</v>
       </c>
-      <c r="B66" s="65" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C66" s="63"/>
-      <c r="D66" s="70" t="s">
-        <v>1040</v>
+      <c r="B66" s="25" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D66" s="18" t="str">
+        <f t="shared" ref="D66:D129" si="4">SUBSTITUTE(G66, ",", " -")</f>
+        <v>Km 64 - Hàm Yên</v>
       </c>
       <c r="E66" s="19">
         <v>66</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F66" s="18" t="str">
+        <f t="shared" ref="D66:F129" si="5">SUBSTITUTE(G66, ",", " -")</f>
+        <v>Km 64 - Hàm Yên</v>
+      </c>
+      <c r="G66" s="24" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000067</v>
       </c>
-      <c r="B67" s="65" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C67" s="71"/>
-      <c r="D67" s="64" t="s">
-        <v>1042</v>
+      <c r="B67" s="23" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D67" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Km 65 - Hàm Yên</v>
       </c>
       <c r="E67" s="19">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F67" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Km 65 - Hàm Yên</v>
+      </c>
+      <c r="G67" s="24" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000068</v>
       </c>
-      <c r="B68" s="65" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C68" s="63"/>
-      <c r="D68" s="66" t="s">
-        <v>1044</v>
+      <c r="B68" s="23" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D68" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>km11 - Yên Sơn - Tuyên Quang</v>
       </c>
       <c r="E68" s="19">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F68" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>km11 - Yên Sơn - Tuyên Quang</v>
+      </c>
+      <c r="G68" s="23" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000069</v>
       </c>
-      <c r="B69" s="65" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C69" s="63"/>
-      <c r="D69" s="66" t="s">
-        <v>1046</v>
+      <c r="B69" s="23" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D69" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Là Quan - Hàm Yên</v>
       </c>
       <c r="E69" s="19">
         <v>69</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F69" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Là Quan - Hàm Yên</v>
+      </c>
+      <c r="G69" s="24" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000070</v>
       </c>
-      <c r="B70" s="65" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C70" s="71"/>
-      <c r="D70" s="64" t="s">
-        <v>1048</v>
+      <c r="B70" s="23" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D70" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Lực Hành - Yên Sơn</v>
       </c>
       <c r="E70" s="19">
         <v>70</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F70" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Lực Hành - Yên Sơn</v>
+      </c>
+      <c r="G70" s="24" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000071</v>
       </c>
-      <c r="B71" s="62" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C71" s="72"/>
-      <c r="D71" s="70" t="s">
-        <v>1050</v>
+      <c r="B71" s="23" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D71" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Minh Dân - Hàm Yên</v>
       </c>
       <c r="E71" s="19">
         <v>71</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F71" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Minh Dân - Hàm Yên</v>
+      </c>
+      <c r="G71" s="24" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000072</v>
       </c>
-      <c r="B72" s="62" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C72" s="72"/>
-      <c r="D72" s="70" t="s">
-        <v>1052</v>
+      <c r="B72" s="25" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D72" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Minh Hương - Hàm Yên</v>
       </c>
       <c r="E72" s="19">
         <v>72</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F72" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Minh Hương - Hàm Yên</v>
+      </c>
+      <c r="G72" s="24" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000073</v>
       </c>
-      <c r="B73" s="65" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C73" s="69"/>
-      <c r="D73" s="70" t="s">
-        <v>1054</v>
+      <c r="B73" s="23" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D73" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Minh Khương - Hàm Yên</v>
       </c>
       <c r="E73" s="19">
         <v>73</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F73" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Minh Khương - Hàm Yên</v>
+      </c>
+      <c r="G73" s="24" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000074</v>
       </c>
-      <c r="B74" s="65" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C74" s="69"/>
-      <c r="D74" s="70" t="s">
-        <v>1056</v>
+      <c r="B74" s="25" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D74" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Minh Khương - Hàm Yên</v>
       </c>
       <c r="E74" s="19">
         <v>74</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F74" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Minh Khương - Hàm Yên</v>
+      </c>
+      <c r="G74" s="24" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000075</v>
       </c>
-      <c r="B75" s="65" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C75" s="69"/>
-      <c r="D75" s="70" t="s">
-        <v>1058</v>
+      <c r="B75" s="25" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D75" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Minh Lợi - Sơn Dương</v>
       </c>
       <c r="E75" s="19">
         <v>75</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F75" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Minh Lợi - Sơn Dương</v>
+      </c>
+      <c r="G75" s="24" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000076</v>
       </c>
-      <c r="B76" s="65" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C76" s="69"/>
-      <c r="D76" s="66" t="s">
-        <v>1060</v>
+      <c r="B76" s="23" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D76" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Minh Quang - Chiêm Hóa</v>
       </c>
       <c r="E76" s="19">
         <v>76</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F76" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Minh Quang - Chiêm Hóa</v>
+      </c>
+      <c r="G76" s="24" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000077</v>
       </c>
-      <c r="B77" s="65" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C77" s="73"/>
-      <c r="D77" s="70" t="s">
-        <v>1062</v>
+      <c r="B77" s="23" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D77" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Mỏ Miều - Hàm Yên</v>
       </c>
       <c r="E77" s="19">
         <v>77</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F77" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Mỏ Miều - Hàm Yên</v>
+      </c>
+      <c r="G77" s="24" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000078</v>
       </c>
-      <c r="B78" s="65" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C78" s="63"/>
-      <c r="D78" s="66" t="s">
-        <v>1064</v>
+      <c r="B78" s="23" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D78" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Mường - Phù Lưu - Hàm Yên</v>
       </c>
       <c r="E78" s="19">
         <v>78</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F78" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Mường - Phù Lưu - Hàm Yên</v>
+      </c>
+      <c r="G78" s="24" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000079</v>
       </c>
-      <c r="B79" s="65" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C79" s="63"/>
-      <c r="D79" s="66" t="s">
-        <v>1066</v>
+      <c r="B79" s="25" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D79" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Mỹ Bằng - Yên Sơn</v>
       </c>
       <c r="E79" s="19">
         <v>79</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F79" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Mỹ Bằng - Yên Sơn</v>
+      </c>
+      <c r="G79" s="24" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000080</v>
       </c>
-      <c r="B80" s="65" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C80" s="63"/>
-      <c r="D80" s="66" t="s">
-        <v>1068</v>
+      <c r="B80" s="23" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D80" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Mỹ Bằng - Yên Sơn</v>
       </c>
       <c r="E80" s="19">
         <v>80</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F80" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Mỹ Bằng - Yên Sơn</v>
+      </c>
+      <c r="G80" s="24" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000081</v>
       </c>
-      <c r="B81" s="65" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C81" s="63"/>
-      <c r="D81" s="66" t="s">
-        <v>1070</v>
+      <c r="B81" s="23" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D81" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Mỹ Bằng - Yên Sơn</v>
       </c>
       <c r="E81" s="19">
         <v>81</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F81" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Mỹ Bằng - Yên Sơn</v>
+      </c>
+      <c r="G81" s="24" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000082</v>
       </c>
-      <c r="B82" s="65" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C82" s="63"/>
-      <c r="D82" s="66" t="s">
-        <v>1072</v>
+      <c r="B82" s="25" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D82" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Mỹ Lâm - Yên Sơn</v>
       </c>
       <c r="E82" s="19">
         <v>82</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F82" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Mỹ Lâm - Yên Sơn</v>
+      </c>
+      <c r="G82" s="24" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000083</v>
       </c>
-      <c r="B83" s="65" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C83" s="63"/>
-      <c r="D83" s="66" t="s">
-        <v>1074</v>
+      <c r="B83" s="23" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D83" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Ngọc Bội - Chiêm Hóa</v>
       </c>
       <c r="E83" s="19">
         <v>83</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F83" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Ngọc Bội - Chiêm Hóa</v>
+      </c>
+      <c r="G83" s="24" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000084</v>
       </c>
-      <c r="B84" s="65" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C84" s="63"/>
-      <c r="D84" s="66" t="s">
-        <v>1076</v>
+      <c r="B84" s="23" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C84" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D84" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Nhân Mục - Hàm Yên</v>
       </c>
       <c r="E84" s="19">
         <v>84</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F84" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Nhân Mục - Hàm Yên</v>
+      </c>
+      <c r="G84" s="24" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000085</v>
       </c>
-      <c r="B85" s="65" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C85" s="63"/>
-      <c r="D85" s="66" t="s">
-        <v>1078</v>
+      <c r="B85" s="25" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D85" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Nhữ Hán - Yên Sơn</v>
       </c>
       <c r="E85" s="19">
         <v>85</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F85" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Nhữ Hán - Yên Sơn</v>
+      </c>
+      <c r="G85" s="24" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000086</v>
       </c>
-      <c r="B86" s="65" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C86" s="63"/>
-      <c r="D86" s="66" t="s">
-        <v>1078</v>
+      <c r="B86" s="23" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D86" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Nhữ Hán - Yên Sơn</v>
       </c>
       <c r="E86" s="19">
         <v>86</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F86" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Nhữ Hán - Yên Sơn</v>
+      </c>
+      <c r="G86" s="24" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000087</v>
       </c>
-      <c r="B87" s="65" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C87" s="63"/>
-      <c r="D87" s="66" t="s">
-        <v>1078</v>
+      <c r="B87" s="23" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D87" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Phú Bình - Chiêm Hóa</v>
       </c>
       <c r="E87" s="19">
         <v>87</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F87" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Phú Bình - Chiêm Hóa</v>
+      </c>
+      <c r="G87" s="24" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000088</v>
       </c>
-      <c r="B88" s="65" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C88" s="63"/>
-      <c r="D88" s="65" t="s">
-        <v>1082</v>
+      <c r="B88" s="25" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C88" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D88" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Phù Lưu - Hàm Yên</v>
       </c>
       <c r="E88" s="19">
         <v>88</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F88" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Phù Lưu - Hàm Yên</v>
+      </c>
+      <c r="G88" s="24" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000089</v>
       </c>
-      <c r="B89" s="65" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C89" s="63"/>
-      <c r="D89" s="66" t="s">
-        <v>1084</v>
+      <c r="B89" s="23" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D89" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Phù Lưu - Hàm Yên</v>
       </c>
       <c r="E89" s="19">
         <v>89</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F89" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Phù Lưu - Hàm Yên</v>
+      </c>
+      <c r="G89" s="24" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000090</v>
       </c>
-      <c r="B90" s="65" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C90" s="74"/>
-      <c r="D90" s="66" t="s">
-        <v>1086</v>
+      <c r="B90" s="25" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C90" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D90" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Phù Lưu - Hàm Yên</v>
       </c>
       <c r="E90" s="19">
         <v>90</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F90" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Phù Lưu - Hàm Yên</v>
+      </c>
+      <c r="G90" s="24" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000091</v>
       </c>
-      <c r="B91" s="65" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C91" s="63"/>
-      <c r="D91" s="66" t="s">
-        <v>1088</v>
+      <c r="B91" s="23" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D91" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Phù Lưu - Hàm Yên</v>
       </c>
       <c r="E91" s="19">
         <v>91</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F91" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Phù Lưu - Hàm Yên</v>
+      </c>
+      <c r="G91" s="23" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000092</v>
       </c>
-      <c r="B92" s="65" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C92" s="63"/>
-      <c r="D92" s="66" t="s">
-        <v>1090</v>
+      <c r="B92" s="23" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C92" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D92" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Phù Lưu - Hàm Yên</v>
       </c>
       <c r="E92" s="19">
         <v>92</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F92" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Phù Lưu - Hàm Yên</v>
+      </c>
+      <c r="G92" s="24" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000093</v>
       </c>
-      <c r="B93" s="65" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C93" s="63"/>
-      <c r="D93" s="64" t="s">
-        <v>1092</v>
+      <c r="B93" s="23" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D93" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Phúc Ninh - Yên Sơn</v>
       </c>
       <c r="E93" s="19">
         <v>93</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F93" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Phúc Ninh - Yên Sơn</v>
+      </c>
+      <c r="G93" s="24" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000094</v>
       </c>
-      <c r="B94" s="65" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C94" s="69"/>
-      <c r="D94" s="66" t="s">
-        <v>1094</v>
+      <c r="B94" s="23" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D94" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Phúc Ninh - Yên Sơn</v>
       </c>
       <c r="E94" s="19">
         <v>94</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F94" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Phúc Ninh - Yên Sơn</v>
+      </c>
+      <c r="G94" s="23" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000095</v>
       </c>
-      <c r="B95" s="65" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C95" s="63"/>
-      <c r="D95" s="64" t="s">
-        <v>1094</v>
+      <c r="B95" s="23" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D95" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Phúc Ninh - Yên Sơn</v>
       </c>
       <c r="E95" s="19">
         <v>95</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F95" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Phúc Ninh - Yên Sơn</v>
+      </c>
+      <c r="G95" s="24" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000096</v>
       </c>
-      <c r="B96" s="65" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C96" s="63"/>
-      <c r="D96" s="64" t="s">
-        <v>1094</v>
+      <c r="B96" s="23" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D96" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Phúc Ninh - Yên Sơn</v>
       </c>
       <c r="E96" s="19">
         <v>96</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F96" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Phúc Ninh - Yên Sơn</v>
+      </c>
+      <c r="G96" s="24" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000097</v>
       </c>
-      <c r="B97" s="65" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C97" s="63"/>
-      <c r="D97" s="64" t="s">
-        <v>1098</v>
+      <c r="B97" s="25" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D97" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Phúc Ninh - Yên Sơn</v>
       </c>
       <c r="E97" s="19">
         <v>97</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F97" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Phúc Ninh - Yên Sơn</v>
+      </c>
+      <c r="G97" s="24" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000098</v>
       </c>
-      <c r="B98" s="65" t="s">
-        <v>919</v>
-      </c>
-      <c r="C98" s="63"/>
-      <c r="D98" s="64" t="s">
-        <v>1099</v>
+      <c r="B98" s="25" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C98" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D98" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Phúc Ninh - Yên Sơn</v>
       </c>
       <c r="E98" s="19">
         <v>98</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F98" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Phúc Ninh - Yên Sơn</v>
+      </c>
+      <c r="G98" s="24" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000099</v>
       </c>
-      <c r="B99" s="75" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C99" s="76"/>
-      <c r="D99" s="77" t="s">
-        <v>1101</v>
+      <c r="B99" s="23" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D99" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Phúc Sơn - Chiêm Hóa</v>
       </c>
       <c r="E99" s="19">
         <v>99</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F99" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Phúc Sơn - Chiêm Hóa</v>
+      </c>
+      <c r="G99" s="24" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000100</v>
       </c>
-      <c r="B100" s="75" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C100" s="76"/>
-      <c r="D100" s="77" t="s">
-        <v>1103</v>
+      <c r="B100" s="25" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C100" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D100" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Tân Long - Yên Sơn</v>
       </c>
       <c r="E100" s="19">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F100" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Tân Long - Yên Sơn</v>
+      </c>
+      <c r="G100" s="24" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000101</v>
       </c>
-      <c r="B101" s="65" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C101" s="63"/>
-      <c r="D101" s="64" t="s">
-        <v>1105</v>
+      <c r="B101" s="23" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D101" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Tân Long - Yên Sơn</v>
       </c>
       <c r="E101" s="19">
         <v>101</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F101" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Tân Long - Yên Sơn</v>
+      </c>
+      <c r="G101" s="24" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000102</v>
       </c>
-      <c r="B102" s="65" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C102" s="76"/>
-      <c r="D102" s="77" t="s">
-        <v>1107</v>
+      <c r="B102" s="23" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C102" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D102" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Tân Long - Yên Sơn</v>
       </c>
       <c r="E102" s="19">
         <v>102</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F102" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Tân Long - Yên Sơn</v>
+      </c>
+      <c r="G102" s="24" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000103</v>
       </c>
-      <c r="B103" s="65" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C103" s="63"/>
-      <c r="D103" s="77" t="s">
-        <v>1109</v>
+      <c r="B103" s="23" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C103" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D103" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Tân Mỹ - Chiêm Hóa</v>
       </c>
       <c r="E103" s="19">
         <v>103</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F103" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Tân Mỹ - Chiêm Hóa</v>
+      </c>
+      <c r="G103" s="24" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000104</v>
       </c>
-      <c r="B104" s="78" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C104" s="79"/>
-      <c r="D104" s="78" t="s">
-        <v>1111</v>
+      <c r="B104" s="23" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C104" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D104" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Tân Tiến - Yên Sơn</v>
       </c>
       <c r="E104" s="19">
         <v>104</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F104" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Tân Tiến - Yên Sơn</v>
+      </c>
+      <c r="G104" s="24" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000105</v>
       </c>
-      <c r="B105" s="64" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C105" s="52"/>
-      <c r="D105" s="80" t="s">
-        <v>1113</v>
+      <c r="B105" s="23" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C105" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D105" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Tân Thành - Hàm Yên</v>
       </c>
       <c r="E105" s="19">
         <v>105</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F105" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Tân Thành - Hàm Yên</v>
+      </c>
+      <c r="G105" s="24" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000106</v>
       </c>
-      <c r="B106" s="81" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C106" s="82"/>
-      <c r="D106" s="80" t="s">
-        <v>1115</v>
+      <c r="B106" s="25" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D106" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Tân Thành - Hàm Yên</v>
       </c>
       <c r="E106" s="19">
         <v>106</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F106" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Tân Thành - Hàm Yên</v>
+      </c>
+      <c r="G106" s="23" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000107</v>
       </c>
-      <c r="B107" s="81" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C107" s="82"/>
-      <c r="D107" s="80" t="s">
-        <v>1117</v>
+      <c r="B107" s="25" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D107" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Tân Thành - Hàm Yên</v>
       </c>
       <c r="E107" s="19">
         <v>107</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F107" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Tân Thành - Hàm Yên</v>
+      </c>
+      <c r="G107" s="24" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000108</v>
       </c>
-      <c r="B108" s="81" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C108" s="82"/>
-      <c r="D108" s="80" t="s">
-        <v>1119</v>
+      <c r="B108" s="23" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C108" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D108" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Tân Thành - Hàm Yên</v>
       </c>
       <c r="E108" s="19">
         <v>108</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F108" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Tân Thành - Hàm Yên</v>
+      </c>
+      <c r="G108" s="24" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000109</v>
       </c>
-      <c r="B109" s="83" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C109" s="84"/>
-      <c r="D109" s="85" t="s">
-        <v>1121</v>
+      <c r="B109" s="23" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C109" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D109" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Tân Thành - Hàm Yên</v>
       </c>
       <c r="E109" s="19">
         <v>109</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F109" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Tân Thành - Hàm Yên</v>
+      </c>
+      <c r="G109" s="24" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000110</v>
       </c>
-      <c r="B110" s="86" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C110" s="52"/>
-      <c r="D110" s="87" t="s">
-        <v>1123</v>
+      <c r="B110" s="25" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C110" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D110" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Tân Trào - Sơn Dương</v>
       </c>
       <c r="E110" s="19">
         <v>110</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F110" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Tân Trào - Sơn Dương</v>
+      </c>
+      <c r="G110" s="24" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000111</v>
       </c>
-      <c r="B111" s="86" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C111" s="88"/>
-      <c r="D111" s="89" t="s">
-        <v>1125</v>
+      <c r="B111" s="25" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D111" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Tiền Phong - Mỹ Bằng - Yên Sơn</v>
       </c>
       <c r="E111" s="19">
         <v>111</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F111" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Tiền Phong - Mỹ Bằng - Yên Sơn</v>
+      </c>
+      <c r="G111" s="23" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000112</v>
       </c>
-      <c r="B112" s="86" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C112" s="90"/>
-      <c r="D112" s="89" t="s">
-        <v>1127</v>
+      <c r="B112" s="25" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C112" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D112" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>TT Sơn Dương - Sơn Dương</v>
       </c>
       <c r="E112" s="19">
         <v>112</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F112" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>TT Sơn Dương - Sơn Dương</v>
+      </c>
+      <c r="G112" s="23" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000113</v>
       </c>
-      <c r="B113" s="86" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C113" s="88"/>
-      <c r="D113" s="89" t="s">
-        <v>1125</v>
+      <c r="B113" s="23" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D113" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>TT Sơn Dương - Sơn Dương</v>
       </c>
       <c r="E113" s="19">
         <v>113</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F113" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>TT Sơn Dương - Sơn Dương</v>
+      </c>
+      <c r="G113" s="24" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000114</v>
       </c>
-      <c r="B114" s="81" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C114" s="91"/>
-      <c r="D114" s="92" t="s">
-        <v>1130</v>
+      <c r="B114" s="23" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C114" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D114" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>TT Tân Yên - Hàm Yên</v>
       </c>
       <c r="E114" s="19">
         <v>114</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F114" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>TT Tân Yên - Hàm Yên</v>
+      </c>
+      <c r="G114" s="24" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>00000115</v>
       </c>
-      <c r="B115" s="83" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C115" s="84"/>
-      <c r="D115" s="85" t="s">
-        <v>1132</v>
+      <c r="B115" s="23" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D115" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Thái Bình - Yên Sơn</v>
       </c>
       <c r="E115" s="19">
         <v>115</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F115" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Thái Bình - Yên Sơn</v>
+      </c>
+      <c r="G115" s="24" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="19" t="str">
-        <f t="shared" ref="A116:A127" si="2">TEXT(E116, "00000000")</f>
+        <f t="shared" ref="A116:A144" si="6">TEXT(E116, "00000000")</f>
         <v>00000116</v>
       </c>
-      <c r="B116" s="93" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C116" s="102"/>
-      <c r="D116" s="85" t="s">
-        <v>1132</v>
+      <c r="B116" s="25" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C116" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D116" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Thái Hòa - Hàm Yên</v>
       </c>
       <c r="E116" s="19">
         <v>116</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F116" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Thái Hòa - Hàm Yên</v>
+      </c>
+      <c r="G116" s="24" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>00000117</v>
       </c>
-      <c r="B117" s="83" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C117" s="94"/>
-      <c r="D117" s="95" t="s">
-        <v>1135</v>
+      <c r="B117" s="25" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C117" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D117" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Thành Long - Hàm Yên</v>
       </c>
       <c r="E117" s="19">
         <v>117</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F117" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Thành Long - Hàm Yên</v>
+      </c>
+      <c r="G117" s="24" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>00000118</v>
       </c>
-      <c r="B118" s="81" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C118" s="91"/>
-      <c r="D118" s="96" t="s">
-        <v>1135</v>
+      <c r="B118" s="23" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C118" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D118" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Thành Long - Hàm Yên</v>
       </c>
       <c r="E118" s="19">
         <v>118</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F118" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Thành Long - Hàm Yên</v>
+      </c>
+      <c r="G118" s="24" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>00000119</v>
       </c>
-      <c r="B119" s="83" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C119" s="84"/>
-      <c r="D119" s="96" t="s">
-        <v>1138</v>
+      <c r="B119" s="23" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C119" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D119" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Thụt - Hàm Yên</v>
       </c>
       <c r="E119" s="19">
         <v>119</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F119" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Thụt - Hàm Yên</v>
+      </c>
+      <c r="G119" s="24" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>00000120</v>
       </c>
-      <c r="B120" s="93" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C120" s="97"/>
-      <c r="D120" s="85" t="s">
-        <v>1140</v>
+      <c r="B120" s="23" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C120" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D120" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Thụt - Hàm Yên</v>
       </c>
       <c r="E120" s="19">
         <v>120</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F120" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Thụt - Hàm Yên</v>
+      </c>
+      <c r="G120" s="24" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>00000121</v>
       </c>
-      <c r="B121" s="83" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C121" s="84"/>
-      <c r="D121" s="85" t="s">
-        <v>1142</v>
+      <c r="B121" s="23" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C121" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D121" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Thượng Ấm - Sơn Dương</v>
       </c>
       <c r="E121" s="19">
         <v>121</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F121" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Thượng Ấm - Sơn Dương</v>
+      </c>
+      <c r="G121" s="24" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>00000122</v>
       </c>
-      <c r="B122" s="83" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C122" s="98"/>
-      <c r="D122" s="85" t="s">
-        <v>1132</v>
+      <c r="B122" s="23" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C122" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D122" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Trung Hà - Chiêm Hóa</v>
       </c>
       <c r="E122" s="19">
         <v>122</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F122" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Trung Hà - Chiêm Hóa</v>
+      </c>
+      <c r="G122" s="24" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>00000123</v>
       </c>
-      <c r="B123" s="81" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C123" s="56"/>
-      <c r="D123" s="34" t="s">
-        <v>1145</v>
+      <c r="B123" s="23" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C123" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D123" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Trung Trực - Yên Sơn</v>
       </c>
       <c r="E123" s="19">
         <v>123</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F123" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Trung Trực - Yên Sơn</v>
+      </c>
+      <c r="G123" s="24" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>00000124</v>
       </c>
-      <c r="B124" s="81" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C124" s="99"/>
-      <c r="D124" s="34" t="s">
-        <v>1145</v>
+      <c r="B124" s="25" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C124" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D124" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Trung Trực - Yên Sơn</v>
       </c>
       <c r="E124" s="19">
         <v>124</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F124" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Trung Trực - Yên Sơn</v>
+      </c>
+      <c r="G124" s="24" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>00000125</v>
       </c>
-      <c r="B125" s="81" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C125" s="56"/>
-      <c r="D125" s="8" t="s">
-        <v>1145</v>
+      <c r="B125" s="25" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C125" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D125" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Trung Trực - Yên Sơn</v>
       </c>
       <c r="E125" s="19">
         <v>125</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F125" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Trung Trực - Yên Sơn</v>
+      </c>
+      <c r="G125" s="24" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>00000126</v>
       </c>
-      <c r="B126" s="83" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C126" s="94"/>
-      <c r="D126" s="85" t="s">
-        <v>1149</v>
+      <c r="B126" s="25" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C126" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D126" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Trung Yên - Sơn Dương</v>
       </c>
       <c r="E126" s="19">
         <v>126</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F126" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Trung Yên - Sơn Dương</v>
+      </c>
+      <c r="G126" s="24" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>00000127</v>
       </c>
-      <c r="B127" s="83" t="s">
+      <c r="B127" s="25" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C127" s="24" t="s">
         <v>1150</v>
       </c>
-      <c r="C127" s="100"/>
-      <c r="D127" s="101" t="s">
-        <v>1151</v>
+      <c r="D127" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Trung Yên - Sơn Dương</v>
       </c>
       <c r="E127" s="19">
         <v>127</v>
       </c>
+      <c r="F127" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Trung Yên - Sơn Dương</v>
+      </c>
+      <c r="G127" s="23" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v>00000128</v>
+      </c>
+      <c r="B128" s="25" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C128" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D128" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Trung Yên - Sơn Dương</v>
+      </c>
+      <c r="E128" s="19">
+        <v>128</v>
+      </c>
+      <c r="F128" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Trung Yên - Sơn Dương</v>
+      </c>
+      <c r="G128" s="24" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v>00000129</v>
+      </c>
+      <c r="B129" s="25" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C129" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D129" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>Trung Yên - Sơn Dương</v>
+      </c>
+      <c r="E129" s="19">
+        <v>129</v>
+      </c>
+      <c r="F129" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>Trung Yên - Sơn Dương</v>
+      </c>
+      <c r="G129" s="24" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v>00000130</v>
+      </c>
+      <c r="B130" s="25" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C130" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D130" s="18" t="str">
+        <f t="shared" ref="D130:D144" si="7">SUBSTITUTE(G130, ",", " -")</f>
+        <v>Trung Yên - Sơn Dương</v>
+      </c>
+      <c r="E130" s="19">
+        <v>130</v>
+      </c>
+      <c r="F130" s="18" t="str">
+        <f t="shared" ref="D130:F144" si="8">SUBSTITUTE(G130, ",", " -")</f>
+        <v>Trung Yên - Sơn Dương</v>
+      </c>
+      <c r="G130" s="24" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v>00000131</v>
+      </c>
+      <c r="B131" s="25" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C131" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D131" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>Trung Yên - Sơn Dương</v>
+      </c>
+      <c r="E131" s="19">
+        <v>131</v>
+      </c>
+      <c r="F131" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>Trung Yên - Sơn Dương</v>
+      </c>
+      <c r="G131" s="24" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v>00000132</v>
+      </c>
+      <c r="B132" s="25" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C132" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D132" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>Trung Yên - Sơn Dương</v>
+      </c>
+      <c r="E132" s="19">
+        <v>132</v>
+      </c>
+      <c r="F132" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>Trung Yên - Sơn Dương</v>
+      </c>
+      <c r="G132" s="24" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v>00000133</v>
+      </c>
+      <c r="B133" s="23" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C133" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D133" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>Việt Thành - Hàm Yên</v>
+      </c>
+      <c r="E133" s="19">
+        <v>133</v>
+      </c>
+      <c r="F133" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>Việt Thành - Hàm Yên</v>
+      </c>
+      <c r="G133" s="24" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v>00000134</v>
+      </c>
+      <c r="B134" s="23" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C134" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D134" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>Việt Thành - Hàm Yên</v>
+      </c>
+      <c r="E134" s="19">
+        <v>134</v>
+      </c>
+      <c r="F134" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>Việt Thành - Hàm Yên</v>
+      </c>
+      <c r="G134" s="24" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v>00000135</v>
+      </c>
+      <c r="B135" s="25" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C135" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D135" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>Vĩnh Lợi - Sơn Dương</v>
+      </c>
+      <c r="E135" s="19">
+        <v>135</v>
+      </c>
+      <c r="F135" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>Vĩnh Lợi - Sơn Dương</v>
+      </c>
+      <c r="G135" s="24" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v>00000136</v>
+      </c>
+      <c r="B136" s="25" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C136" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D136" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>Xuân Vân - Yên Sơn</v>
+      </c>
+      <c r="E136" s="19">
+        <v>136</v>
+      </c>
+      <c r="F136" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>Xuân Vân - Yên Sơn</v>
+      </c>
+      <c r="G136" s="24" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v>00000137</v>
+      </c>
+      <c r="B137" s="25" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C137" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D137" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>Xuân Vân - Yên Sơn</v>
+      </c>
+      <c r="E137" s="19">
+        <v>137</v>
+      </c>
+      <c r="F137" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>Xuân Vân - Yên Sơn</v>
+      </c>
+      <c r="G137" s="24" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v>00000138</v>
+      </c>
+      <c r="B138" s="23" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C138" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D138" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>Xuân Vân - Yên Sơn</v>
+      </c>
+      <c r="E138" s="19">
+        <v>138</v>
+      </c>
+      <c r="F138" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>Xuân Vân - Yên Sơn</v>
+      </c>
+      <c r="G138" s="24" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v>00000139</v>
+      </c>
+      <c r="B139" s="23" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C139" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D139" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>Yên Nguyên - Chiêm Hóa</v>
+      </c>
+      <c r="E139" s="19">
+        <v>139</v>
+      </c>
+      <c r="F139" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>Yên Nguyên - Chiêm Hóa</v>
+      </c>
+      <c r="G139" s="24" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v>00000140</v>
+      </c>
+      <c r="B140" s="23" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C140" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D140" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>Yên Nguyên - Chiêm Hóa</v>
+      </c>
+      <c r="E140" s="19">
+        <v>140</v>
+      </c>
+      <c r="F140" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>Yên Nguyên - Chiêm Hóa</v>
+      </c>
+      <c r="G140" s="24" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v>00000141</v>
+      </c>
+      <c r="B141" s="25" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C141" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D141" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>Yên Thuận - Hàm Yên</v>
+      </c>
+      <c r="E141" s="19">
+        <v>141</v>
+      </c>
+      <c r="F141" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>Yên Thuận - Hàm Yên</v>
+      </c>
+      <c r="G141" s="24" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v>00000142</v>
+      </c>
+      <c r="B142" s="25" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C142" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D142" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>Yên Thuận - Hàm Yên</v>
+      </c>
+      <c r="E142" s="19">
+        <v>142</v>
+      </c>
+      <c r="F142" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>Yên Thuận - Hàm Yên</v>
+      </c>
+      <c r="G142" s="24" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v>00000143</v>
+      </c>
+      <c r="B143" s="25" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C143" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D143" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>Yên Thuận - Hàm Yên</v>
+      </c>
+      <c r="E143" s="19">
+        <v>143</v>
+      </c>
+      <c r="F143" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>Yên Thuận - Hàm Yên</v>
+      </c>
+      <c r="G143" s="24" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v>00000144</v>
+      </c>
+      <c r="B144" s="23" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C144" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D144" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>Yên Thuận - Yên Sơn</v>
+      </c>
+      <c r="E144" s="19">
+        <v>144</v>
+      </c>
+      <c r="F144" s="18" t="str">
+        <f>SUBSTITUTE(G144, ",", " -")</f>
+        <v>Yên Thuận - Yên Sơn</v>
+      </c>
+      <c r="G144" s="24" t="s">
+        <v>1149</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C14:C15"/>
-  </mergeCells>
-  <dataValidations count="7">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="MISA SME.NET 2017" prompt="Nhập Địa chỉ: tối đa 255 ký tự." sqref="D11 D57" xr:uid="{05430DB7-2E29-406C-9F2B-FAE382EDCD44}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" errorTitle="MISA SME.NET 2012" promptTitle="MISA SME.NET 2012" prompt="Nhập Địa chỉ: tối đa 255 ký tự._x000a_" sqref="D33 D39 D43:D46 D48:D49 D36:D37 D41 D3:D10 D12:D15 D19:D31 D51:D56" xr:uid="{6BC6E2D8-10A7-46D8-B2A3-C5C31BD0F838}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="MISA SME.NET 2017" prompt="Nhập Điện thoại: tối đa 50 ký tự." sqref="C11 C51 C57" xr:uid="{C1079CF1-64DC-47B2-95C5-D8BDC1E8B822}"/>
+  <dataValidations count="4">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="MISA SME.NET 2017" prompt="Nhập Điện thoại: tối đa 50 ký tự." sqref="G51 G57 G11" xr:uid="{C1079CF1-64DC-47B2-95C5-D8BDC1E8B822}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="MISA SME.NET 2012" error="Số chứng từ không được để trống!" promptTitle="MISA SME.NET 2017" prompt="Nhập Tên nhà cung cấp: tối đa 128 ký tự._x000a_" sqref="B51 B11 B57" xr:uid="{36483483-EE80-47F2-B4DC-074BCC494F41}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="MISA SME.NET 2012" prompt="Nhập Điện thoại: tối đa 20 ký tự." sqref="C12:C13 C31:C33 C44:C48 C36:C37 C4:C10 C19:C27 C39:C41 C52:C56" xr:uid="{41F7F310-694F-4F17-8EF4-6A839C16A37C}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="MISA SME.NET 2012" prompt="Nhập Điện thoại: tối đa 20 ký tự." sqref="G31:G33 G44:G48 G36:G37 G4:G10 G19:G27 G39:G41 G52:G56 G12:G13" xr:uid="{41F7F310-694F-4F17-8EF4-6A839C16A37C}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="MISA SME.NET 2012" error="Số chứng từ không được để trống!" promptTitle="MISA SME.NET 2012" prompt="Nhập Tên khách hàng, nhà cung cấp: tối đa 255 ký tự._x000a_" sqref="B56 B12:B13 B7:B10 B31:B33 B43:B49 B36:B37 B39:B41 B4:B5 B19:B27 B52:B54" xr:uid="{3D04DAD4-D37E-4B57-A47E-EDC3532D58C3}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" errorTitle="MISA SME.NET 2012" error="Số chứng từ không được để trống!" promptTitle="MISA SME.NET 2012" prompt="Nhập Mã loại khách hàng, nhà cung cấp , các Mã ngăn cách nhau bởi dấu ;_x000a_" sqref="D40 D32" xr:uid="{F27FA07C-3C2C-4D3A-9DEA-5FC0B5CBF017}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
